--- a/src/data/Latin America and the Carribean /IFF - Transnational _Crimes.xlsx
+++ b/src/data/Latin America and the Carribean /IFF - Transnational _Crimes.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacksonzhao/Desktop/uninfo_chatbot_z.zhao/src/data/Latin America and the Carribean /"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE2A0AB-A6EE-1142-8A99-65B0689AD963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="IFF &amp; Transnational Crimes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2449,11 +2443,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2517,21 +2511,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2569,7 +2555,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2603,7 +2589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2638,10 +2623,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2814,16 +2798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -3181,13 +3163,40 @@
         <v>64000</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP2">
+        <v>64000</v>
+      </c>
+      <c r="AQ2">
+        <v>45842.33</v>
+      </c>
+      <c r="AR2">
+        <v>38190.97</v>
       </c>
       <c r="AS2" t="s">
         <v>290</v>
       </c>
+      <c r="AT2">
+        <v>64000</v>
+      </c>
+      <c r="AU2">
+        <v>39979.02</v>
+      </c>
+      <c r="AV2">
+        <v>33150.12</v>
+      </c>
       <c r="AW2" t="s">
         <v>290</v>
+      </c>
+      <c r="AX2">
+        <v>64000</v>
+      </c>
+      <c r="AY2">
+        <v>54125.67</v>
+      </c>
+      <c r="AZ2">
+        <v>48887.96</v>
       </c>
       <c r="BA2" t="s">
         <v>290</v>
@@ -3196,31 +3205,88 @@
         <v>64000</v>
       </c>
       <c r="BC2">
+        <v>45736.75</v>
+      </c>
+      <c r="BD2">
+        <v>28504.2</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF2">
         <v>64000</v>
       </c>
-      <c r="BE2" t="s">
-        <v>290</v>
+      <c r="BG2">
+        <v>49543.98</v>
+      </c>
+      <c r="BH2">
+        <v>36972.29</v>
       </c>
       <c r="BI2" t="s">
         <v>290</v>
       </c>
+      <c r="BJ2">
+        <v>64000</v>
+      </c>
+      <c r="BK2">
+        <v>55756.31</v>
+      </c>
+      <c r="BL2">
+        <v>34243.21</v>
+      </c>
       <c r="BM2" t="s">
         <v>290</v>
       </c>
+      <c r="BN2">
+        <v>64000</v>
+      </c>
+      <c r="BO2">
+        <v>47496.8</v>
+      </c>
+      <c r="BP2">
+        <v>35604.03</v>
+      </c>
       <c r="BQ2" t="s">
         <v>290</v>
       </c>
+      <c r="BR2">
+        <v>64000</v>
+      </c>
+      <c r="BS2">
+        <v>53663.78</v>
+      </c>
+      <c r="BT2">
+        <v>40386.42</v>
+      </c>
       <c r="BU2" t="s">
         <v>290</v>
       </c>
+      <c r="BV2">
+        <v>64000</v>
+      </c>
+      <c r="BW2">
+        <v>47734.23</v>
+      </c>
+      <c r="BX2">
+        <v>30935.32</v>
+      </c>
       <c r="BY2" t="s">
         <v>290</v>
       </c>
+      <c r="BZ2">
+        <v>64000</v>
+      </c>
+      <c r="CA2">
+        <v>48608</v>
+      </c>
+      <c r="CB2">
+        <v>41006.03</v>
+      </c>
       <c r="CC2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -3341,6 +3407,15 @@
       <c r="AO3">
         <v>85853</v>
       </c>
+      <c r="AP3">
+        <v>45800</v>
+      </c>
+      <c r="AQ3">
+        <v>42957.68</v>
+      </c>
+      <c r="AR3">
+        <v>39193.97</v>
+      </c>
       <c r="AS3" t="s">
         <v>290</v>
       </c>
@@ -3348,10 +3423,10 @@
         <v>45800</v>
       </c>
       <c r="AU3">
-        <v>40000</v>
+        <v>34871.63</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>31007.4</v>
       </c>
       <c r="AW3" t="s">
         <v>290</v>
@@ -3360,37 +3435,100 @@
         <v>97000</v>
       </c>
       <c r="AY3">
+        <v>62101.42</v>
+      </c>
+      <c r="AZ3">
+        <v>53679.35</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB3">
         <v>85853</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
+        <v>59112.9</v>
+      </c>
+      <c r="BD3">
+        <v>40010.4</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF3">
         <v>85853</v>
       </c>
-      <c r="BA3" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>290</v>
+      <c r="BG3">
+        <v>66034.34</v>
+      </c>
+      <c r="BH3">
+        <v>42881.37</v>
       </c>
       <c r="BI3" t="s">
         <v>290</v>
       </c>
+      <c r="BJ3">
+        <v>85853</v>
+      </c>
+      <c r="BK3">
+        <v>80245.66</v>
+      </c>
+      <c r="BL3">
+        <v>73258.39999999999</v>
+      </c>
       <c r="BM3" t="s">
         <v>290</v>
       </c>
+      <c r="BN3">
+        <v>85853</v>
+      </c>
+      <c r="BO3">
+        <v>79860.11</v>
+      </c>
+      <c r="BP3">
+        <v>57671.81</v>
+      </c>
       <c r="BQ3" t="s">
         <v>290</v>
       </c>
+      <c r="BR3">
+        <v>85853</v>
+      </c>
+      <c r="BS3">
+        <v>65631.86</v>
+      </c>
+      <c r="BT3">
+        <v>59792.77</v>
+      </c>
       <c r="BU3" t="s">
         <v>290</v>
       </c>
+      <c r="BV3">
+        <v>85853</v>
+      </c>
+      <c r="BW3">
+        <v>67598.39999999999</v>
+      </c>
+      <c r="BX3">
+        <v>42239.57</v>
+      </c>
       <c r="BY3" t="s">
         <v>290</v>
       </c>
+      <c r="BZ3">
+        <v>85853</v>
+      </c>
+      <c r="CA3">
+        <v>57958.4</v>
+      </c>
+      <c r="CB3">
+        <v>35666.14</v>
+      </c>
       <c r="CC3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -3505,17 +3643,62 @@
       <c r="AO4">
         <v>250000</v>
       </c>
+      <c r="AP4">
+        <v>100000</v>
+      </c>
+      <c r="AQ4">
+        <v>66299.03</v>
+      </c>
+      <c r="AR4">
+        <v>48114.7</v>
+      </c>
       <c r="AS4" t="s">
         <v>290</v>
       </c>
+      <c r="AT4">
+        <v>100000</v>
+      </c>
+      <c r="AU4">
+        <v>63448.42</v>
+      </c>
+      <c r="AV4">
+        <v>43237.25</v>
+      </c>
       <c r="AW4" t="s">
         <v>290</v>
       </c>
+      <c r="AX4">
+        <v>100000</v>
+      </c>
+      <c r="AY4">
+        <v>88813.35000000001</v>
+      </c>
+      <c r="AZ4">
+        <v>61872.64</v>
+      </c>
       <c r="BA4" t="s">
         <v>290</v>
       </c>
+      <c r="BB4">
+        <v>100000</v>
+      </c>
+      <c r="BC4">
+        <v>60736.88</v>
+      </c>
+      <c r="BD4">
+        <v>57169.44</v>
+      </c>
       <c r="BE4" t="s">
         <v>290</v>
+      </c>
+      <c r="BF4">
+        <v>100000</v>
+      </c>
+      <c r="BG4">
+        <v>93925.7</v>
+      </c>
+      <c r="BH4">
+        <v>75249.81</v>
       </c>
       <c r="BI4" t="s">
         <v>290</v>
@@ -3524,10 +3707,10 @@
         <v>100000</v>
       </c>
       <c r="BK4">
-        <v>100000</v>
+        <v>72683.12</v>
       </c>
       <c r="BL4">
-        <v>100000</v>
+        <v>51505.76</v>
       </c>
       <c r="BM4" t="s">
         <v>710</v>
@@ -3536,10 +3719,10 @@
         <v>150000</v>
       </c>
       <c r="BO4">
-        <v>150000</v>
+        <v>142060.52</v>
       </c>
       <c r="BP4">
-        <v>150000</v>
+        <v>112005.76</v>
       </c>
       <c r="BQ4" t="s">
         <v>290</v>
@@ -3548,19 +3731,40 @@
         <v>150000</v>
       </c>
       <c r="BS4">
+        <v>127901.82</v>
+      </c>
+      <c r="BT4">
+        <v>103071.65</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV4">
         <v>150000</v>
       </c>
-      <c r="BU4" t="s">
-        <v>290</v>
+      <c r="BW4">
+        <v>114580.35</v>
+      </c>
+      <c r="BX4">
+        <v>98059.61</v>
       </c>
       <c r="BY4" t="s">
         <v>290</v>
       </c>
+      <c r="BZ4">
+        <v>150000</v>
+      </c>
+      <c r="CA4">
+        <v>113041.68</v>
+      </c>
+      <c r="CB4">
+        <v>103224.45</v>
+      </c>
       <c r="CC4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -3672,20 +3876,74 @@
       <c r="AO5">
         <v>50000</v>
       </c>
+      <c r="AP5">
+        <v>50000</v>
+      </c>
+      <c r="AQ5">
+        <v>43144.96</v>
+      </c>
+      <c r="AR5">
+        <v>40650.34</v>
+      </c>
       <c r="AS5" t="s">
         <v>290</v>
       </c>
+      <c r="AT5">
+        <v>50000</v>
+      </c>
+      <c r="AU5">
+        <v>43844.97</v>
+      </c>
+      <c r="AV5">
+        <v>39338.57</v>
+      </c>
       <c r="AW5" t="s">
         <v>290</v>
       </c>
+      <c r="AX5">
+        <v>50000</v>
+      </c>
+      <c r="AY5">
+        <v>42461.86</v>
+      </c>
+      <c r="AZ5">
+        <v>26915.05</v>
+      </c>
       <c r="BA5" t="s">
         <v>290</v>
       </c>
+      <c r="BB5">
+        <v>50000</v>
+      </c>
+      <c r="BC5">
+        <v>34469</v>
+      </c>
+      <c r="BD5">
+        <v>30773.48</v>
+      </c>
       <c r="BE5" t="s">
         <v>290</v>
       </c>
+      <c r="BF5">
+        <v>50000</v>
+      </c>
+      <c r="BG5">
+        <v>35019.3</v>
+      </c>
+      <c r="BH5">
+        <v>29748.69</v>
+      </c>
       <c r="BI5" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ5">
+        <v>50000</v>
+      </c>
+      <c r="BK5">
+        <v>40726.31</v>
+      </c>
+      <c r="BL5">
+        <v>33156.41</v>
       </c>
       <c r="BM5" t="s">
         <v>290</v>
@@ -3694,10 +3952,10 @@
         <v>50000</v>
       </c>
       <c r="BO5">
-        <v>50000</v>
+        <v>44743.42</v>
       </c>
       <c r="BP5">
-        <v>50000</v>
+        <v>32309.34</v>
       </c>
       <c r="BQ5" t="s">
         <v>741</v>
@@ -3706,19 +3964,40 @@
         <v>50000</v>
       </c>
       <c r="BS5">
+        <v>46628.72</v>
+      </c>
+      <c r="BT5">
+        <v>38791.57</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV5">
         <v>50000</v>
       </c>
-      <c r="BU5" t="s">
-        <v>290</v>
+      <c r="BW5">
+        <v>37750.1</v>
+      </c>
+      <c r="BX5">
+        <v>29365.77</v>
       </c>
       <c r="BY5" t="s">
         <v>290</v>
       </c>
+      <c r="BZ5">
+        <v>50000</v>
+      </c>
+      <c r="CA5">
+        <v>37887.91</v>
+      </c>
+      <c r="CB5">
+        <v>30317.43</v>
+      </c>
       <c r="CC5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -3830,14 +4109,50 @@
       <c r="AO6">
         <v>378795</v>
       </c>
+      <c r="AP6">
+        <v>378795</v>
+      </c>
+      <c r="AQ6">
+        <v>322194.4</v>
+      </c>
+      <c r="AR6">
+        <v>221758.15</v>
+      </c>
       <c r="AS6" t="s">
         <v>290</v>
       </c>
+      <c r="AT6">
+        <v>378795</v>
+      </c>
+      <c r="AU6">
+        <v>297452.76</v>
+      </c>
+      <c r="AV6">
+        <v>180522.28</v>
+      </c>
       <c r="AW6" t="s">
         <v>290</v>
       </c>
+      <c r="AX6">
+        <v>378795</v>
+      </c>
+      <c r="AY6">
+        <v>313348.41</v>
+      </c>
+      <c r="AZ6">
+        <v>243977.86</v>
+      </c>
       <c r="BA6" t="s">
         <v>290</v>
+      </c>
+      <c r="BB6">
+        <v>378795</v>
+      </c>
+      <c r="BC6">
+        <v>291559.1</v>
+      </c>
+      <c r="BD6">
+        <v>274153.54</v>
       </c>
       <c r="BE6" t="s">
         <v>290</v>
@@ -3846,31 +4161,76 @@
         <v>378795</v>
       </c>
       <c r="BG6">
-        <v>378795</v>
+        <v>343959.93</v>
       </c>
       <c r="BH6">
-        <v>378795</v>
+        <v>242066.51</v>
       </c>
       <c r="BI6" t="s">
         <v>691</v>
       </c>
+      <c r="BJ6">
+        <v>378795</v>
+      </c>
+      <c r="BK6">
+        <v>239080.86</v>
+      </c>
+      <c r="BL6">
+        <v>161471.62</v>
+      </c>
       <c r="BM6" t="s">
         <v>290</v>
       </c>
+      <c r="BN6">
+        <v>378795</v>
+      </c>
+      <c r="BO6">
+        <v>238516.16</v>
+      </c>
+      <c r="BP6">
+        <v>150155.77</v>
+      </c>
       <c r="BQ6" t="s">
         <v>290</v>
       </c>
+      <c r="BR6">
+        <v>378795</v>
+      </c>
+      <c r="BS6">
+        <v>280134.64</v>
+      </c>
+      <c r="BT6">
+        <v>172733.9</v>
+      </c>
       <c r="BU6" t="s">
         <v>290</v>
       </c>
+      <c r="BV6">
+        <v>378795</v>
+      </c>
+      <c r="BW6">
+        <v>338935.18</v>
+      </c>
+      <c r="BX6">
+        <v>280063.43</v>
+      </c>
       <c r="BY6" t="s">
         <v>290</v>
       </c>
+      <c r="BZ6">
+        <v>378795</v>
+      </c>
+      <c r="CA6">
+        <v>254902.08</v>
+      </c>
+      <c r="CB6">
+        <v>194343.94</v>
+      </c>
       <c r="CC6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -3983,16 +4343,52 @@
         <v>55000</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP7">
+        <v>100000</v>
+      </c>
+      <c r="AQ7">
+        <v>64648.79</v>
+      </c>
+      <c r="AR7">
+        <v>49993.29</v>
       </c>
       <c r="AS7" t="s">
         <v>290</v>
       </c>
+      <c r="AT7">
+        <v>100000</v>
+      </c>
+      <c r="AU7">
+        <v>91280.03</v>
+      </c>
+      <c r="AV7">
+        <v>66996.61</v>
+      </c>
       <c r="AW7" t="s">
         <v>290</v>
       </c>
+      <c r="AX7">
+        <v>100000</v>
+      </c>
+      <c r="AY7">
+        <v>89744.83</v>
+      </c>
+      <c r="AZ7">
+        <v>68043.50999999999</v>
+      </c>
       <c r="BA7" t="s">
         <v>290</v>
+      </c>
+      <c r="BB7">
+        <v>100000</v>
+      </c>
+      <c r="BC7">
+        <v>65234.36</v>
+      </c>
+      <c r="BD7">
+        <v>41667.51</v>
       </c>
       <c r="BE7" t="s">
         <v>290</v>
@@ -4001,28 +4397,76 @@
         <v>100000</v>
       </c>
       <c r="BG7">
+        <v>71357.91</v>
+      </c>
+      <c r="BH7">
+        <v>53767.62</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ7">
         <v>55000</v>
       </c>
-      <c r="BI7" t="s">
-        <v>290</v>
+      <c r="BK7">
+        <v>45251.98</v>
+      </c>
+      <c r="BL7">
+        <v>39833.95</v>
       </c>
       <c r="BM7" t="s">
         <v>290</v>
       </c>
+      <c r="BN7">
+        <v>55000</v>
+      </c>
+      <c r="BO7">
+        <v>44052.37</v>
+      </c>
+      <c r="BP7">
+        <v>40769.17</v>
+      </c>
       <c r="BQ7" t="s">
         <v>290</v>
       </c>
+      <c r="BR7">
+        <v>55000</v>
+      </c>
+      <c r="BS7">
+        <v>40520.52</v>
+      </c>
+      <c r="BT7">
+        <v>37428.08</v>
+      </c>
       <c r="BU7" t="s">
         <v>290</v>
       </c>
+      <c r="BV7">
+        <v>55000</v>
+      </c>
+      <c r="BW7">
+        <v>35456.23</v>
+      </c>
+      <c r="BX7">
+        <v>28011.41</v>
+      </c>
       <c r="BY7" t="s">
         <v>290</v>
       </c>
+      <c r="BZ7">
+        <v>55000</v>
+      </c>
+      <c r="CA7">
+        <v>42252.6</v>
+      </c>
+      <c r="CB7">
+        <v>28828.92</v>
+      </c>
       <c r="CC7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -4135,13 +4579,40 @@
         <v>181056</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP8">
+        <v>181056</v>
+      </c>
+      <c r="AQ8">
+        <v>120860.85</v>
+      </c>
+      <c r="AR8">
+        <v>82144.91</v>
       </c>
       <c r="AS8" t="s">
         <v>290</v>
       </c>
+      <c r="AT8">
+        <v>181056</v>
+      </c>
+      <c r="AU8">
+        <v>111148.14</v>
+      </c>
+      <c r="AV8">
+        <v>98542.19</v>
+      </c>
       <c r="AW8" t="s">
         <v>290</v>
+      </c>
+      <c r="AX8">
+        <v>181056</v>
+      </c>
+      <c r="AY8">
+        <v>135761.86</v>
+      </c>
+      <c r="AZ8">
+        <v>125827.44</v>
       </c>
       <c r="BA8" t="s">
         <v>290</v>
@@ -4150,31 +4621,88 @@
         <v>181056</v>
       </c>
       <c r="BC8">
+        <v>108789.67</v>
+      </c>
+      <c r="BD8">
+        <v>92629.67</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF8">
         <v>181056</v>
       </c>
-      <c r="BE8" t="s">
-        <v>290</v>
+      <c r="BG8">
+        <v>122403.17</v>
+      </c>
+      <c r="BH8">
+        <v>108134.13</v>
       </c>
       <c r="BI8" t="s">
         <v>290</v>
       </c>
+      <c r="BJ8">
+        <v>181056</v>
+      </c>
+      <c r="BK8">
+        <v>120800.72</v>
+      </c>
+      <c r="BL8">
+        <v>102158.3</v>
+      </c>
       <c r="BM8" t="s">
         <v>290</v>
       </c>
+      <c r="BN8">
+        <v>181056</v>
+      </c>
+      <c r="BO8">
+        <v>113146.83</v>
+      </c>
+      <c r="BP8">
+        <v>95178.10000000001</v>
+      </c>
       <c r="BQ8" t="s">
         <v>290</v>
       </c>
+      <c r="BR8">
+        <v>181056</v>
+      </c>
+      <c r="BS8">
+        <v>111463.04</v>
+      </c>
+      <c r="BT8">
+        <v>74077.99000000001</v>
+      </c>
       <c r="BU8" t="s">
         <v>290</v>
       </c>
+      <c r="BV8">
+        <v>181056</v>
+      </c>
+      <c r="BW8">
+        <v>131736.6</v>
+      </c>
+      <c r="BX8">
+        <v>88578.56</v>
+      </c>
       <c r="BY8" t="s">
         <v>290</v>
       </c>
+      <c r="BZ8">
+        <v>181056</v>
+      </c>
+      <c r="CA8">
+        <v>119013.33</v>
+      </c>
+      <c r="CB8">
+        <v>85997.87</v>
+      </c>
       <c r="CC8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -4281,49 +4809,136 @@
         <v>290</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP9">
+        <v>91451.86486486487</v>
+      </c>
+      <c r="AQ9">
+        <v>75178.11</v>
+      </c>
+      <c r="AR9">
+        <v>58653.39</v>
       </c>
       <c r="AS9" t="s">
         <v>290</v>
       </c>
+      <c r="AT9">
+        <v>91451.86486486487</v>
+      </c>
+      <c r="AU9">
+        <v>68252.74000000001</v>
+      </c>
+      <c r="AV9">
+        <v>45490.22</v>
+      </c>
       <c r="AW9" t="s">
         <v>290</v>
       </c>
+      <c r="AX9">
+        <v>107198.2432432432</v>
+      </c>
+      <c r="AY9">
+        <v>99372.06</v>
+      </c>
+      <c r="AZ9">
+        <v>60865.29</v>
+      </c>
       <c r="BA9" t="s">
         <v>290</v>
       </c>
+      <c r="BB9">
+        <v>91232.91891891892</v>
+      </c>
       <c r="BC9">
-        <v>0</v>
+        <v>64522.81</v>
+      </c>
+      <c r="BD9">
+        <v>58368.9</v>
       </c>
       <c r="BE9" t="s">
         <v>290</v>
       </c>
+      <c r="BF9">
+        <v>91232.91891891892</v>
+      </c>
+      <c r="BG9">
+        <v>73393.39999999999</v>
+      </c>
+      <c r="BH9">
+        <v>45501.38</v>
+      </c>
       <c r="BI9" t="s">
         <v>290</v>
       </c>
+      <c r="BJ9">
+        <v>137189.0277777778</v>
+      </c>
+      <c r="BK9">
+        <v>124110.3</v>
+      </c>
+      <c r="BL9">
+        <v>79583.47</v>
+      </c>
       <c r="BM9" t="s">
         <v>290</v>
       </c>
+      <c r="BN9">
+        <v>107181.5277777778</v>
+      </c>
+      <c r="BO9">
+        <v>85438.46000000001</v>
+      </c>
+      <c r="BP9">
+        <v>70767.63</v>
+      </c>
       <c r="BQ9" t="s">
         <v>290</v>
       </c>
+      <c r="BR9">
+        <v>100025.6380952381</v>
+      </c>
+      <c r="BS9">
+        <v>88328.8</v>
+      </c>
+      <c r="BT9">
+        <v>64279.89</v>
+      </c>
       <c r="BU9" t="s">
         <v>290</v>
       </c>
+      <c r="BV9">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="BW9">
+        <v>84565.05</v>
+      </c>
+      <c r="BX9">
+        <v>62178.67</v>
+      </c>
       <c r="BY9" t="s">
         <v>290</v>
       </c>
+      <c r="BZ9">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="CA9">
+        <v>62760.1</v>
+      </c>
+      <c r="CB9">
+        <v>41312.35</v>
+      </c>
       <c r="CC9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -4427,13 +5042,13 @@
         <v>290</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>179815.52</v>
       </c>
       <c r="AS10" t="s">
         <v>290</v>
@@ -4466,7 +5081,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -4575,14 +5190,50 @@
       <c r="AO11">
         <v>382413</v>
       </c>
+      <c r="AP11">
+        <v>82413</v>
+      </c>
+      <c r="AQ11">
+        <v>52929.14</v>
+      </c>
+      <c r="AR11">
+        <v>34604.4</v>
+      </c>
       <c r="AS11" t="s">
         <v>290</v>
       </c>
+      <c r="AT11">
+        <v>82413</v>
+      </c>
+      <c r="AU11">
+        <v>72568.96000000001</v>
+      </c>
+      <c r="AV11">
+        <v>55166.96</v>
+      </c>
       <c r="AW11" t="s">
         <v>290</v>
       </c>
+      <c r="AX11">
+        <v>82413</v>
+      </c>
+      <c r="AY11">
+        <v>63453.71</v>
+      </c>
+      <c r="AZ11">
+        <v>41646.9</v>
+      </c>
       <c r="BA11" t="s">
         <v>290</v>
+      </c>
+      <c r="BB11">
+        <v>82413</v>
+      </c>
+      <c r="BC11">
+        <v>67729.62</v>
+      </c>
+      <c r="BD11">
+        <v>54326.01</v>
       </c>
       <c r="BE11" t="s">
         <v>290</v>
@@ -4591,10 +5242,10 @@
         <v>82413</v>
       </c>
       <c r="BG11">
-        <v>82413</v>
+        <v>78197.28</v>
       </c>
       <c r="BH11">
-        <v>82413</v>
+        <v>62654.79</v>
       </c>
       <c r="BI11" t="s">
         <v>692</v>
@@ -4603,31 +5254,64 @@
         <v>370141</v>
       </c>
       <c r="BK11">
-        <v>370141</v>
+        <v>278970.16</v>
       </c>
       <c r="BL11">
-        <v>300000</v>
+        <v>250429.96</v>
       </c>
       <c r="BM11" t="s">
         <v>712</v>
       </c>
+      <c r="BN11">
+        <v>150000</v>
+      </c>
       <c r="BO11">
-        <v>0</v>
+        <v>101315.9</v>
+      </c>
+      <c r="BP11">
+        <v>63289.81</v>
       </c>
       <c r="BQ11" t="s">
         <v>742</v>
       </c>
+      <c r="BR11">
+        <v>100025.6380952381</v>
+      </c>
+      <c r="BS11">
+        <v>66523.5</v>
+      </c>
+      <c r="BT11">
+        <v>58905.42</v>
+      </c>
       <c r="BU11" t="s">
         <v>290</v>
       </c>
+      <c r="BV11">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="BW11">
+        <v>88837.17999999999</v>
+      </c>
+      <c r="BX11">
+        <v>71538.38</v>
+      </c>
       <c r="BY11" t="s">
         <v>290</v>
       </c>
+      <c r="BZ11">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="CA11">
+        <v>87550.10000000001</v>
+      </c>
+      <c r="CB11">
+        <v>72421.17</v>
+      </c>
       <c r="CC11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -4748,6 +5432,15 @@
       <c r="AO12">
         <v>7500</v>
       </c>
+      <c r="AP12">
+        <v>70000</v>
+      </c>
+      <c r="AQ12">
+        <v>42476.14</v>
+      </c>
+      <c r="AR12">
+        <v>28751.29</v>
+      </c>
       <c r="AS12" t="s">
         <v>290</v>
       </c>
@@ -4755,10 +5448,10 @@
         <v>70000</v>
       </c>
       <c r="AU12">
-        <v>70000</v>
+        <v>56891.33</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>50524.76</v>
       </c>
       <c r="AW12" t="s">
         <v>290</v>
@@ -4767,37 +5460,100 @@
         <v>7500</v>
       </c>
       <c r="AY12">
+        <v>5218.48</v>
+      </c>
+      <c r="AZ12">
+        <v>4347.77</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB12">
         <v>7500</v>
       </c>
-      <c r="AZ12">
+      <c r="BC12">
+        <v>5778.09</v>
+      </c>
+      <c r="BD12">
+        <v>3988.97</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF12">
         <v>7500</v>
       </c>
-      <c r="BA12" t="s">
-        <v>290</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>290</v>
+      <c r="BG12">
+        <v>6836.08</v>
+      </c>
+      <c r="BH12">
+        <v>5301.83</v>
       </c>
       <c r="BI12" t="s">
         <v>290</v>
       </c>
+      <c r="BJ12">
+        <v>7500</v>
+      </c>
+      <c r="BK12">
+        <v>5472.9</v>
+      </c>
+      <c r="BL12">
+        <v>3799.89</v>
+      </c>
       <c r="BM12" t="s">
         <v>290</v>
       </c>
+      <c r="BN12">
+        <v>7500</v>
+      </c>
+      <c r="BO12">
+        <v>4696.16</v>
+      </c>
+      <c r="BP12">
+        <v>3223.23</v>
+      </c>
       <c r="BQ12" t="s">
         <v>290</v>
       </c>
+      <c r="BR12">
+        <v>7500</v>
+      </c>
+      <c r="BS12">
+        <v>5965.9</v>
+      </c>
+      <c r="BT12">
+        <v>4724.77</v>
+      </c>
       <c r="BU12" t="s">
         <v>290</v>
       </c>
+      <c r="BV12">
+        <v>7500</v>
+      </c>
+      <c r="BW12">
+        <v>4773.67</v>
+      </c>
+      <c r="BX12">
+        <v>3449.56</v>
+      </c>
       <c r="BY12" t="s">
         <v>290</v>
       </c>
+      <c r="BZ12">
+        <v>7500</v>
+      </c>
+      <c r="CA12">
+        <v>5321.05</v>
+      </c>
+      <c r="CB12">
+        <v>4219.1</v>
+      </c>
       <c r="CC12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -4904,13 +5660,13 @@
         <v>290</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>179815.52</v>
       </c>
       <c r="AS13" t="s">
         <v>290</v>
@@ -4943,7 +5699,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -5058,20 +5814,74 @@
       <c r="AO14">
         <v>32779</v>
       </c>
+      <c r="AP14">
+        <v>67500</v>
+      </c>
+      <c r="AQ14">
+        <v>61462.77</v>
+      </c>
+      <c r="AR14">
+        <v>53937.37</v>
+      </c>
       <c r="AS14" t="s">
         <v>290</v>
       </c>
+      <c r="AT14">
+        <v>67500</v>
+      </c>
+      <c r="AU14">
+        <v>52842.22</v>
+      </c>
+      <c r="AV14">
+        <v>33748.6</v>
+      </c>
       <c r="AW14" t="s">
         <v>290</v>
       </c>
+      <c r="AX14">
+        <v>67500</v>
+      </c>
+      <c r="AY14">
+        <v>43554.43</v>
+      </c>
+      <c r="AZ14">
+        <v>26304.47</v>
+      </c>
       <c r="BA14" t="s">
         <v>290</v>
       </c>
+      <c r="BB14">
+        <v>67500</v>
+      </c>
+      <c r="BC14">
+        <v>42028.27</v>
+      </c>
+      <c r="BD14">
+        <v>31741.8</v>
+      </c>
       <c r="BE14" t="s">
         <v>290</v>
       </c>
+      <c r="BF14">
+        <v>67500</v>
+      </c>
+      <c r="BG14">
+        <v>54260.37</v>
+      </c>
+      <c r="BH14">
+        <v>41187.22</v>
+      </c>
       <c r="BI14" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ14">
+        <v>67500</v>
+      </c>
+      <c r="BK14">
+        <v>58115.15</v>
+      </c>
+      <c r="BL14">
+        <v>43021.03</v>
       </c>
       <c r="BM14" t="s">
         <v>290</v>
@@ -5080,25 +5890,52 @@
         <v>67500</v>
       </c>
       <c r="BO14">
-        <v>45565</v>
+        <v>45547.23</v>
       </c>
       <c r="BP14">
+        <v>29342.67</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR14">
         <v>32779</v>
       </c>
-      <c r="BQ14" t="s">
-        <v>290</v>
+      <c r="BS14">
+        <v>23037.89</v>
+      </c>
+      <c r="BT14">
+        <v>19266.52</v>
       </c>
       <c r="BU14" t="s">
         <v>290</v>
       </c>
+      <c r="BV14">
+        <v>32779</v>
+      </c>
+      <c r="BW14">
+        <v>22763.21</v>
+      </c>
+      <c r="BX14">
+        <v>14852.78</v>
+      </c>
       <c r="BY14" t="s">
         <v>290</v>
       </c>
+      <c r="BZ14">
+        <v>32779</v>
+      </c>
+      <c r="CA14">
+        <v>29182.64</v>
+      </c>
+      <c r="CB14">
+        <v>26080.54</v>
+      </c>
       <c r="CC14" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -5208,19 +6045,55 @@
         <v>285000</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP15">
+        <v>40000</v>
+      </c>
+      <c r="AQ15">
+        <v>29806.95</v>
+      </c>
+      <c r="AR15">
+        <v>25624.35</v>
       </c>
       <c r="AS15" t="s">
         <v>290</v>
       </c>
+      <c r="AT15">
+        <v>40000</v>
+      </c>
+      <c r="AU15">
+        <v>37492.67</v>
+      </c>
+      <c r="AV15">
+        <v>26255.71</v>
+      </c>
       <c r="AW15" t="s">
         <v>290</v>
       </c>
+      <c r="AX15">
+        <v>40000</v>
+      </c>
+      <c r="AY15">
+        <v>34179.73</v>
+      </c>
+      <c r="AZ15">
+        <v>28180.18</v>
+      </c>
       <c r="BA15" t="s">
         <v>290</v>
+      </c>
+      <c r="BB15">
+        <v>40000</v>
+      </c>
+      <c r="BC15">
+        <v>25387.68</v>
+      </c>
+      <c r="BD15">
+        <v>23280.65</v>
       </c>
       <c r="BE15" t="s">
         <v>684</v>
@@ -5228,29 +6101,77 @@
       <c r="BF15">
         <v>40000</v>
       </c>
+      <c r="BG15">
+        <v>29918.65</v>
+      </c>
+      <c r="BH15">
+        <v>20237.17</v>
+      </c>
       <c r="BI15" t="s">
         <v>693</v>
       </c>
       <c r="BJ15">
         <v>245000</v>
       </c>
+      <c r="BK15">
+        <v>207566.23</v>
+      </c>
+      <c r="BL15">
+        <v>133721.83</v>
+      </c>
       <c r="BM15" t="s">
         <v>290</v>
       </c>
+      <c r="BN15">
+        <v>245000</v>
+      </c>
+      <c r="BO15">
+        <v>169696.56</v>
+      </c>
+      <c r="BP15">
+        <v>133532.66</v>
+      </c>
       <c r="BQ15" t="s">
         <v>290</v>
       </c>
+      <c r="BR15">
+        <v>245000</v>
+      </c>
+      <c r="BS15">
+        <v>220901.59</v>
+      </c>
+      <c r="BT15">
+        <v>190543.49</v>
+      </c>
       <c r="BU15" t="s">
         <v>290</v>
       </c>
+      <c r="BV15">
+        <v>245000</v>
+      </c>
+      <c r="BW15">
+        <v>215618.82</v>
+      </c>
+      <c r="BX15">
+        <v>157937.56</v>
+      </c>
       <c r="BY15" t="s">
         <v>290</v>
       </c>
+      <c r="BZ15">
+        <v>245000</v>
+      </c>
+      <c r="CA15">
+        <v>203112.82</v>
+      </c>
+      <c r="CB15">
+        <v>130686.58</v>
+      </c>
       <c r="CC15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -5371,6 +6292,15 @@
       <c r="AO16">
         <v>175000</v>
       </c>
+      <c r="AP16">
+        <v>150000</v>
+      </c>
+      <c r="AQ16">
+        <v>111365.89</v>
+      </c>
+      <c r="AR16">
+        <v>97694.21000000001</v>
+      </c>
       <c r="AS16" t="s">
         <v>290</v>
       </c>
@@ -5378,10 +6308,10 @@
         <v>150000</v>
       </c>
       <c r="AU16">
-        <v>150000</v>
+        <v>142198.1</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>85618.7</v>
       </c>
       <c r="AW16" t="s">
         <v>290</v>
@@ -5390,37 +6320,100 @@
         <v>750000</v>
       </c>
       <c r="AY16">
-        <v>750000</v>
+        <v>686949.37</v>
       </c>
       <c r="AZ16">
+        <v>542558.48</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB16">
         <v>175000</v>
       </c>
-      <c r="BA16" t="s">
-        <v>290</v>
+      <c r="BC16">
+        <v>155796.41</v>
+      </c>
+      <c r="BD16">
+        <v>127272.65</v>
       </c>
       <c r="BE16" t="s">
         <v>290</v>
       </c>
+      <c r="BF16">
+        <v>175000</v>
+      </c>
+      <c r="BG16">
+        <v>163930.11</v>
+      </c>
+      <c r="BH16">
+        <v>108787.29</v>
+      </c>
       <c r="BI16" t="s">
         <v>290</v>
       </c>
+      <c r="BJ16">
+        <v>175000</v>
+      </c>
+      <c r="BK16">
+        <v>138902.54</v>
+      </c>
+      <c r="BL16">
+        <v>101789.35</v>
+      </c>
       <c r="BM16" t="s">
         <v>290</v>
       </c>
+      <c r="BN16">
+        <v>175000</v>
+      </c>
+      <c r="BO16">
+        <v>163157.72</v>
+      </c>
+      <c r="BP16">
+        <v>150560.98</v>
+      </c>
       <c r="BQ16" t="s">
         <v>290</v>
       </c>
+      <c r="BR16">
+        <v>175000</v>
+      </c>
+      <c r="BS16">
+        <v>142511.1</v>
+      </c>
+      <c r="BT16">
+        <v>102990.18</v>
+      </c>
       <c r="BU16" t="s">
         <v>290</v>
       </c>
+      <c r="BV16">
+        <v>175000</v>
+      </c>
+      <c r="BW16">
+        <v>142562.1</v>
+      </c>
+      <c r="BX16">
+        <v>129546.79</v>
+      </c>
       <c r="BY16" t="s">
         <v>290</v>
       </c>
+      <c r="BZ16">
+        <v>175000</v>
+      </c>
+      <c r="CA16">
+        <v>114977.64</v>
+      </c>
+      <c r="CB16">
+        <v>80724.14999999999</v>
+      </c>
       <c r="CC16" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -5527,13 +6520,13 @@
         <v>290</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>179815.52</v>
       </c>
       <c r="AS17" t="s">
         <v>290</v>
@@ -5566,7 +6559,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -5678,14 +6671,50 @@
       <c r="AO18">
         <v>871373</v>
       </c>
+      <c r="AP18">
+        <v>464790</v>
+      </c>
+      <c r="AQ18">
+        <v>308472.33</v>
+      </c>
+      <c r="AR18">
+        <v>201549.98</v>
+      </c>
       <c r="AS18" t="s">
         <v>290</v>
       </c>
+      <c r="AT18">
+        <v>464790</v>
+      </c>
+      <c r="AU18">
+        <v>357574.95</v>
+      </c>
+      <c r="AV18">
+        <v>302768.45</v>
+      </c>
       <c r="AW18" t="s">
         <v>290</v>
       </c>
+      <c r="AX18">
+        <v>464790</v>
+      </c>
+      <c r="AY18">
+        <v>432657.09</v>
+      </c>
+      <c r="AZ18">
+        <v>351862.57</v>
+      </c>
       <c r="BA18" t="s">
         <v>290</v>
+      </c>
+      <c r="BB18">
+        <v>464790</v>
+      </c>
+      <c r="BC18">
+        <v>352475.31</v>
+      </c>
+      <c r="BD18">
+        <v>267517.62</v>
       </c>
       <c r="BE18" t="s">
         <v>290</v>
@@ -5694,10 +6723,10 @@
         <v>464790</v>
       </c>
       <c r="BG18">
-        <v>464791</v>
+        <v>364507.61</v>
       </c>
       <c r="BH18">
-        <v>464790</v>
+        <v>229816.18</v>
       </c>
       <c r="BI18" t="s">
         <v>694</v>
@@ -5706,28 +6735,64 @@
         <v>638136</v>
       </c>
       <c r="BK18">
-        <v>638136</v>
+        <v>605627.29</v>
       </c>
       <c r="BL18">
-        <v>406583</v>
+        <v>488733.35</v>
       </c>
       <c r="BM18" t="s">
         <v>713</v>
       </c>
+      <c r="BN18">
+        <v>406583</v>
+      </c>
+      <c r="BO18">
+        <v>282615.75</v>
+      </c>
+      <c r="BP18">
+        <v>176118.63</v>
+      </c>
       <c r="BQ18" t="s">
         <v>290</v>
       </c>
+      <c r="BR18">
+        <v>406583</v>
+      </c>
+      <c r="BS18">
+        <v>365591.81</v>
+      </c>
+      <c r="BT18">
+        <v>291792.59</v>
+      </c>
       <c r="BU18" t="s">
         <v>290</v>
       </c>
+      <c r="BV18">
+        <v>406583</v>
+      </c>
+      <c r="BW18">
+        <v>321221.84</v>
+      </c>
+      <c r="BX18">
+        <v>221748.49</v>
+      </c>
       <c r="BY18" t="s">
         <v>290</v>
       </c>
+      <c r="BZ18">
+        <v>406583</v>
+      </c>
+      <c r="CA18">
+        <v>339395.22</v>
+      </c>
+      <c r="CB18">
+        <v>234284.98</v>
+      </c>
       <c r="CC18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -5839,11 +6904,38 @@
       <c r="AO19">
         <v>575088</v>
       </c>
+      <c r="AP19">
+        <v>750416</v>
+      </c>
+      <c r="AQ19">
+        <v>470720.36</v>
+      </c>
+      <c r="AR19">
+        <v>322270.33</v>
+      </c>
       <c r="AS19" t="s">
         <v>290</v>
       </c>
+      <c r="AT19">
+        <v>750416</v>
+      </c>
+      <c r="AU19">
+        <v>688285.8199999999</v>
+      </c>
+      <c r="AV19">
+        <v>600954.6899999999</v>
+      </c>
       <c r="AW19" t="s">
         <v>290</v>
+      </c>
+      <c r="AX19">
+        <v>750416</v>
+      </c>
+      <c r="AY19">
+        <v>551932.9399999999</v>
+      </c>
+      <c r="AZ19">
+        <v>448700.67</v>
       </c>
       <c r="BA19" t="s">
         <v>290</v>
@@ -5852,10 +6944,10 @@
         <v>750416</v>
       </c>
       <c r="BC19">
-        <v>779417</v>
+        <v>572252.4399999999</v>
       </c>
       <c r="BD19">
-        <v>320871</v>
+        <v>492659.05</v>
       </c>
       <c r="BE19" t="s">
         <v>685</v>
@@ -5864,31 +6956,76 @@
         <v>1129046</v>
       </c>
       <c r="BG19">
-        <v>1105773</v>
+        <v>1069976.48</v>
       </c>
       <c r="BH19">
-        <v>254217</v>
+        <v>850082.12</v>
       </c>
       <c r="BI19" t="s">
         <v>695</v>
       </c>
+      <c r="BJ19">
+        <v>254217</v>
+      </c>
+      <c r="BK19">
+        <v>213226.51</v>
+      </c>
+      <c r="BL19">
+        <v>137714.96</v>
+      </c>
       <c r="BM19" t="s">
         <v>290</v>
       </c>
+      <c r="BN19">
+        <v>254217</v>
+      </c>
+      <c r="BO19">
+        <v>241117.64</v>
+      </c>
+      <c r="BP19">
+        <v>184875.24</v>
+      </c>
       <c r="BQ19" t="s">
         <v>290</v>
       </c>
+      <c r="BR19">
+        <v>254217</v>
+      </c>
+      <c r="BS19">
+        <v>231681.85</v>
+      </c>
+      <c r="BT19">
+        <v>159620.11</v>
+      </c>
       <c r="BU19" t="s">
         <v>290</v>
       </c>
+      <c r="BV19">
+        <v>254217</v>
+      </c>
+      <c r="BW19">
+        <v>222882.13</v>
+      </c>
+      <c r="BX19">
+        <v>167721.96</v>
+      </c>
       <c r="BY19" t="s">
         <v>290</v>
       </c>
+      <c r="BZ19">
+        <v>254217</v>
+      </c>
+      <c r="CA19">
+        <v>193853.52</v>
+      </c>
+      <c r="CB19">
+        <v>172322.98</v>
+      </c>
       <c r="CC19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -6003,14 +7140,50 @@
       <c r="AO20">
         <v>20000</v>
       </c>
+      <c r="AP20">
+        <v>90000</v>
+      </c>
+      <c r="AQ20">
+        <v>58608.96</v>
+      </c>
+      <c r="AR20">
+        <v>51548.02</v>
+      </c>
       <c r="AS20" t="s">
         <v>290</v>
       </c>
+      <c r="AT20">
+        <v>90000</v>
+      </c>
+      <c r="AU20">
+        <v>62052.28</v>
+      </c>
+      <c r="AV20">
+        <v>42515.53</v>
+      </c>
       <c r="AW20" t="s">
         <v>290</v>
       </c>
+      <c r="AX20">
+        <v>90000</v>
+      </c>
+      <c r="AY20">
+        <v>77599.17999999999</v>
+      </c>
+      <c r="AZ20">
+        <v>55998.63</v>
+      </c>
       <c r="BA20" t="s">
         <v>290</v>
+      </c>
+      <c r="BB20">
+        <v>90000</v>
+      </c>
+      <c r="BC20">
+        <v>57975.46</v>
+      </c>
+      <c r="BD20">
+        <v>45566.02</v>
       </c>
       <c r="BE20" t="s">
         <v>686</v>
@@ -6019,10 +7192,10 @@
         <v>90000</v>
       </c>
       <c r="BG20">
-        <v>90000</v>
+        <v>79659.37</v>
       </c>
       <c r="BH20">
-        <v>0</v>
+        <v>63490.52</v>
       </c>
       <c r="BI20" t="s">
         <v>696</v>
@@ -6031,28 +7204,64 @@
         <v>500000</v>
       </c>
       <c r="BK20">
-        <v>476917</v>
+        <v>473594.61</v>
       </c>
       <c r="BL20">
-        <v>20000</v>
+        <v>292677.47</v>
       </c>
       <c r="BM20" t="s">
         <v>714</v>
       </c>
+      <c r="BN20">
+        <v>20000</v>
+      </c>
+      <c r="BO20">
+        <v>18848.11</v>
+      </c>
+      <c r="BP20">
+        <v>14855.6</v>
+      </c>
       <c r="BQ20" t="s">
         <v>290</v>
       </c>
+      <c r="BR20">
+        <v>20000</v>
+      </c>
+      <c r="BS20">
+        <v>16580.07</v>
+      </c>
+      <c r="BT20">
+        <v>15374.97</v>
+      </c>
       <c r="BU20" t="s">
         <v>290</v>
       </c>
+      <c r="BV20">
+        <v>20000</v>
+      </c>
+      <c r="BW20">
+        <v>15946.86</v>
+      </c>
+      <c r="BX20">
+        <v>14603</v>
+      </c>
       <c r="BY20" t="s">
         <v>290</v>
       </c>
+      <c r="BZ20">
+        <v>20000</v>
+      </c>
+      <c r="CA20">
+        <v>18242.42</v>
+      </c>
+      <c r="CB20">
+        <v>16299.44</v>
+      </c>
       <c r="CC20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -6164,20 +7373,74 @@
       <c r="AO21">
         <v>196795</v>
       </c>
+      <c r="AP21">
+        <v>252193</v>
+      </c>
+      <c r="AQ21">
+        <v>172497.51</v>
+      </c>
+      <c r="AR21">
+        <v>134664.09</v>
+      </c>
       <c r="AS21" t="s">
         <v>290</v>
       </c>
+      <c r="AT21">
+        <v>252193</v>
+      </c>
+      <c r="AU21">
+        <v>182790.83</v>
+      </c>
+      <c r="AV21">
+        <v>116746.51</v>
+      </c>
       <c r="AW21" t="s">
         <v>290</v>
       </c>
+      <c r="AX21">
+        <v>252193</v>
+      </c>
+      <c r="AY21">
+        <v>184197.66</v>
+      </c>
+      <c r="AZ21">
+        <v>151130.14</v>
+      </c>
       <c r="BA21" t="s">
         <v>290</v>
       </c>
+      <c r="BB21">
+        <v>252193</v>
+      </c>
+      <c r="BC21">
+        <v>223047.9</v>
+      </c>
+      <c r="BD21">
+        <v>173652.62</v>
+      </c>
       <c r="BE21" t="s">
         <v>290</v>
       </c>
+      <c r="BF21">
+        <v>252193</v>
+      </c>
+      <c r="BG21">
+        <v>222369.87</v>
+      </c>
+      <c r="BH21">
+        <v>175014.76</v>
+      </c>
       <c r="BI21" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ21">
+        <v>252193</v>
+      </c>
+      <c r="BK21">
+        <v>157568.38</v>
+      </c>
+      <c r="BL21">
+        <v>98717.75</v>
       </c>
       <c r="BM21" t="s">
         <v>290</v>
@@ -6186,10 +7449,10 @@
         <v>252193</v>
       </c>
       <c r="BO21">
-        <v>196900</v>
+        <v>229552.7</v>
       </c>
       <c r="BP21">
-        <v>196795</v>
+        <v>173662.87</v>
       </c>
       <c r="BQ21" t="s">
         <v>743</v>
@@ -6198,19 +7461,40 @@
         <v>375000</v>
       </c>
       <c r="BS21">
+        <v>274098.75</v>
+      </c>
+      <c r="BT21">
+        <v>255718.57</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV21">
         <v>375000</v>
       </c>
-      <c r="BU21" t="s">
-        <v>290</v>
+      <c r="BW21">
+        <v>289217.37</v>
+      </c>
+      <c r="BX21">
+        <v>207410.21</v>
       </c>
       <c r="BY21" t="s">
         <v>290</v>
       </c>
+      <c r="BZ21">
+        <v>375000</v>
+      </c>
+      <c r="CA21">
+        <v>240282.58</v>
+      </c>
+      <c r="CB21">
+        <v>220762.97</v>
+      </c>
       <c r="CC21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -6320,19 +7604,55 @@
         <v>10000</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP22">
+        <v>10000</v>
+      </c>
+      <c r="AQ22">
+        <v>8646.690000000001</v>
+      </c>
+      <c r="AR22">
+        <v>7237.07</v>
       </c>
       <c r="AS22" t="s">
         <v>290</v>
       </c>
+      <c r="AT22">
+        <v>10000</v>
+      </c>
+      <c r="AU22">
+        <v>8343.51</v>
+      </c>
+      <c r="AV22">
+        <v>7754.8</v>
+      </c>
       <c r="AW22" t="s">
         <v>290</v>
       </c>
+      <c r="AX22">
+        <v>10000</v>
+      </c>
+      <c r="AY22">
+        <v>7594.57</v>
+      </c>
+      <c r="AZ22">
+        <v>5957.49</v>
+      </c>
       <c r="BA22" t="s">
         <v>290</v>
+      </c>
+      <c r="BB22">
+        <v>10000</v>
+      </c>
+      <c r="BC22">
+        <v>6048.09</v>
+      </c>
+      <c r="BD22">
+        <v>4146.82</v>
       </c>
       <c r="BE22" t="s">
         <v>290</v>
@@ -6341,28 +7661,76 @@
         <v>10000</v>
       </c>
       <c r="BG22">
-        <v>0</v>
+        <v>7557.41</v>
+      </c>
+      <c r="BH22">
+        <v>5740.36</v>
       </c>
       <c r="BI22" t="s">
         <v>290</v>
       </c>
+      <c r="BJ22">
+        <v>137189.0277777778</v>
+      </c>
+      <c r="BK22">
+        <v>124116.32</v>
+      </c>
+      <c r="BL22">
+        <v>106120.23</v>
+      </c>
       <c r="BM22" t="s">
         <v>290</v>
       </c>
+      <c r="BN22">
+        <v>107181.5277777778</v>
+      </c>
+      <c r="BO22">
+        <v>87643.2</v>
+      </c>
+      <c r="BP22">
+        <v>69019.82000000001</v>
+      </c>
       <c r="BQ22" t="s">
         <v>290</v>
       </c>
+      <c r="BR22">
+        <v>100025.6380952381</v>
+      </c>
+      <c r="BS22">
+        <v>73755.08</v>
+      </c>
+      <c r="BT22">
+        <v>55551.65</v>
+      </c>
       <c r="BU22" t="s">
         <v>290</v>
       </c>
+      <c r="BV22">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="BW22">
+        <v>87408.34</v>
+      </c>
+      <c r="BX22">
+        <v>56529.17</v>
+      </c>
       <c r="BY22" t="s">
         <v>290</v>
       </c>
+      <c r="BZ22">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="CA22">
+        <v>85859.88</v>
+      </c>
+      <c r="CB22">
+        <v>70111.06</v>
+      </c>
       <c r="CC22" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -6382,7 +7750,7 @@
         <v>122</v>
       </c>
       <c r="G23">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="s">
         <v>165</v>
@@ -6474,17 +7842,62 @@
       <c r="AO23">
         <v>650000</v>
       </c>
+      <c r="AP23">
+        <v>5903631</v>
+      </c>
+      <c r="AQ23">
+        <v>3964916.07</v>
+      </c>
+      <c r="AR23">
+        <v>2485903.83</v>
+      </c>
       <c r="AS23" t="s">
         <v>290</v>
       </c>
+      <c r="AT23">
+        <v>5903631</v>
+      </c>
+      <c r="AU23">
+        <v>4868940.17</v>
+      </c>
+      <c r="AV23">
+        <v>3830301.6</v>
+      </c>
       <c r="AW23" t="s">
         <v>290</v>
       </c>
+      <c r="AX23">
+        <v>5903631</v>
+      </c>
+      <c r="AY23">
+        <v>5571425.25</v>
+      </c>
+      <c r="AZ23">
+        <v>3428216.22</v>
+      </c>
       <c r="BA23" t="s">
         <v>290</v>
       </c>
+      <c r="BB23">
+        <v>5903631</v>
+      </c>
+      <c r="BC23">
+        <v>4923655.56</v>
+      </c>
+      <c r="BD23">
+        <v>4564080.26</v>
+      </c>
       <c r="BE23" t="s">
         <v>290</v>
+      </c>
+      <c r="BF23">
+        <v>5903631</v>
+      </c>
+      <c r="BG23">
+        <v>3547020.99</v>
+      </c>
+      <c r="BH23">
+        <v>2588364.91</v>
       </c>
       <c r="BI23" t="s">
         <v>290</v>
@@ -6493,10 +7906,10 @@
         <v>5903631</v>
       </c>
       <c r="BK23">
-        <v>5903631</v>
+        <v>5552769.55</v>
       </c>
       <c r="BL23">
-        <v>650000</v>
+        <v>3461019.7</v>
       </c>
       <c r="BM23" t="s">
         <v>715</v>
@@ -6505,22 +7918,52 @@
         <v>5903631</v>
       </c>
       <c r="BO23">
-        <v>0</v>
+        <v>3996504.7</v>
+      </c>
+      <c r="BP23">
+        <v>3466286.02</v>
       </c>
       <c r="BQ23" t="s">
         <v>290</v>
       </c>
+      <c r="BR23">
+        <v>2575000</v>
+      </c>
+      <c r="BS23">
+        <v>2271810.7</v>
+      </c>
+      <c r="BT23">
+        <v>1570434.76</v>
+      </c>
       <c r="BU23" t="s">
         <v>290</v>
       </c>
+      <c r="BV23">
+        <v>2575000</v>
+      </c>
+      <c r="BW23">
+        <v>2368493.96</v>
+      </c>
+      <c r="BX23">
+        <v>2180059.5</v>
+      </c>
       <c r="BY23" t="s">
         <v>290</v>
       </c>
+      <c r="BZ23">
+        <v>2575000</v>
+      </c>
+      <c r="CA23">
+        <v>1768100.02</v>
+      </c>
+      <c r="CB23">
+        <v>1635279.91</v>
+      </c>
       <c r="CC23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -6624,13 +8067,13 @@
         <v>664</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>796076.8333333334</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>704505.5555555555</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>476649.8333333333</v>
       </c>
       <c r="AS24" t="s">
         <v>290</v>
@@ -6663,7 +8106,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -6784,20 +8227,74 @@
       <c r="AO25">
         <v>78416</v>
       </c>
+      <c r="AP25">
+        <v>78416</v>
+      </c>
+      <c r="AQ25">
+        <v>72073.45</v>
+      </c>
+      <c r="AR25">
+        <v>58934.3</v>
+      </c>
       <c r="AS25" t="s">
         <v>290</v>
       </c>
+      <c r="AT25">
+        <v>78416</v>
+      </c>
+      <c r="AU25">
+        <v>60864.32</v>
+      </c>
+      <c r="AV25">
+        <v>49142.74</v>
+      </c>
       <c r="AW25" t="s">
         <v>290</v>
       </c>
+      <c r="AX25">
+        <v>78416</v>
+      </c>
+      <c r="AY25">
+        <v>64831.61</v>
+      </c>
+      <c r="AZ25">
+        <v>59840.22</v>
+      </c>
       <c r="BA25" t="s">
         <v>290</v>
       </c>
+      <c r="BB25">
+        <v>78416</v>
+      </c>
+      <c r="BC25">
+        <v>71579.05</v>
+      </c>
+      <c r="BD25">
+        <v>63558.38</v>
+      </c>
       <c r="BE25" t="s">
         <v>290</v>
       </c>
+      <c r="BF25">
+        <v>78416</v>
+      </c>
+      <c r="BG25">
+        <v>73176.28</v>
+      </c>
+      <c r="BH25">
+        <v>61208.44</v>
+      </c>
       <c r="BI25" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ25">
+        <v>78416</v>
+      </c>
+      <c r="BK25">
+        <v>66033.05</v>
+      </c>
+      <c r="BL25">
+        <v>51944.52</v>
       </c>
       <c r="BM25" t="s">
         <v>290</v>
@@ -6806,10 +8303,10 @@
         <v>78416</v>
       </c>
       <c r="BO25">
-        <v>78416</v>
+        <v>48553.77</v>
       </c>
       <c r="BP25">
-        <v>78416</v>
+        <v>35291.02</v>
       </c>
       <c r="BQ25" t="s">
         <v>744</v>
@@ -6818,19 +8315,40 @@
         <v>43650</v>
       </c>
       <c r="BS25">
+        <v>36973.98</v>
+      </c>
+      <c r="BT25">
+        <v>26045.81</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV25">
         <v>43000</v>
       </c>
-      <c r="BU25" t="s">
-        <v>290</v>
+      <c r="BW25">
+        <v>34520.08</v>
+      </c>
+      <c r="BX25">
+        <v>22576.25</v>
       </c>
       <c r="BY25" t="s">
         <v>290</v>
       </c>
+      <c r="BZ25">
+        <v>43000</v>
+      </c>
+      <c r="CA25">
+        <v>26061.28</v>
+      </c>
+      <c r="CB25">
+        <v>16386.42</v>
+      </c>
       <c r="CC25" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -6951,20 +8469,74 @@
       <c r="AO26">
         <v>55730</v>
       </c>
+      <c r="AP26">
+        <v>55730</v>
+      </c>
+      <c r="AQ26">
+        <v>47219.88</v>
+      </c>
+      <c r="AR26">
+        <v>34711.57</v>
+      </c>
       <c r="AS26" t="s">
         <v>290</v>
       </c>
+      <c r="AT26">
+        <v>55730</v>
+      </c>
+      <c r="AU26">
+        <v>47298.86</v>
+      </c>
+      <c r="AV26">
+        <v>41540.21</v>
+      </c>
       <c r="AW26" t="s">
         <v>290</v>
       </c>
+      <c r="AX26">
+        <v>55730</v>
+      </c>
+      <c r="AY26">
+        <v>38045.42</v>
+      </c>
+      <c r="AZ26">
+        <v>25650.59</v>
+      </c>
       <c r="BA26" t="s">
         <v>290</v>
       </c>
+      <c r="BB26">
+        <v>55730</v>
+      </c>
+      <c r="BC26">
+        <v>51971.43</v>
+      </c>
+      <c r="BD26">
+        <v>36274.56</v>
+      </c>
       <c r="BE26" t="s">
         <v>290</v>
       </c>
+      <c r="BF26">
+        <v>55730</v>
+      </c>
+      <c r="BG26">
+        <v>51369.78</v>
+      </c>
+      <c r="BH26">
+        <v>34422.47</v>
+      </c>
       <c r="BI26" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ26">
+        <v>55730</v>
+      </c>
+      <c r="BK26">
+        <v>45904.67</v>
+      </c>
+      <c r="BL26">
+        <v>35783.64</v>
       </c>
       <c r="BM26" t="s">
         <v>290</v>
@@ -6973,10 +8545,10 @@
         <v>55730</v>
       </c>
       <c r="BO26">
-        <v>55730</v>
+        <v>50405.89</v>
       </c>
       <c r="BP26">
-        <v>55730</v>
+        <v>39111.91</v>
       </c>
       <c r="BQ26" t="s">
         <v>745</v>
@@ -6985,19 +8557,40 @@
         <v>10000</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>8078.2</v>
+      </c>
+      <c r="BT26">
+        <v>7040.85</v>
       </c>
       <c r="BU26" t="s">
         <v>290</v>
       </c>
+      <c r="BV26">
+        <v>207562.3125</v>
+      </c>
+      <c r="BW26">
+        <v>157380.36</v>
+      </c>
+      <c r="BX26">
+        <v>117745.18</v>
+      </c>
       <c r="BY26" t="s">
         <v>290</v>
       </c>
+      <c r="BZ26">
+        <v>207562.3125</v>
+      </c>
+      <c r="CA26">
+        <v>135701.36</v>
+      </c>
+      <c r="CB26">
+        <v>114389.54</v>
+      </c>
       <c r="CC26" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -7107,22 +8700,76 @@
         <v>70000</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP27">
+        <v>70000</v>
+      </c>
+      <c r="AQ27">
+        <v>47919.37</v>
+      </c>
+      <c r="AR27">
+        <v>37651.02</v>
       </c>
       <c r="AS27" t="s">
         <v>290</v>
       </c>
+      <c r="AT27">
+        <v>70000</v>
+      </c>
+      <c r="AU27">
+        <v>59108.87</v>
+      </c>
+      <c r="AV27">
+        <v>50051.1</v>
+      </c>
       <c r="AW27" t="s">
         <v>290</v>
       </c>
+      <c r="AX27">
+        <v>70000</v>
+      </c>
+      <c r="AY27">
+        <v>50893.45</v>
+      </c>
+      <c r="AZ27">
+        <v>31855.61</v>
+      </c>
       <c r="BA27" t="s">
         <v>290</v>
       </c>
+      <c r="BB27">
+        <v>70000</v>
+      </c>
+      <c r="BC27">
+        <v>42303.74</v>
+      </c>
+      <c r="BD27">
+        <v>30629.22</v>
+      </c>
       <c r="BE27" t="s">
         <v>290</v>
       </c>
+      <c r="BF27">
+        <v>70000</v>
+      </c>
+      <c r="BG27">
+        <v>54033.43</v>
+      </c>
+      <c r="BH27">
+        <v>33072.17</v>
+      </c>
       <c r="BI27" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ27">
+        <v>70000</v>
+      </c>
+      <c r="BK27">
+        <v>58546</v>
+      </c>
+      <c r="BL27">
+        <v>53714.24</v>
       </c>
       <c r="BM27" t="s">
         <v>290</v>
@@ -7131,25 +8778,52 @@
         <v>70000</v>
       </c>
       <c r="BO27">
-        <v>70000</v>
+        <v>43902.31</v>
+      </c>
+      <c r="BP27">
+        <v>29530.26</v>
       </c>
       <c r="BQ27" t="s">
         <v>290</v>
       </c>
+      <c r="BR27">
+        <v>23333.33333333334</v>
+      </c>
       <c r="BS27">
-        <v>0</v>
+        <v>14213.47</v>
+      </c>
+      <c r="BT27">
+        <v>8968.23</v>
       </c>
       <c r="BU27" t="s">
         <v>290</v>
       </c>
+      <c r="BV27">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="BW27">
+        <v>72047.94</v>
+      </c>
+      <c r="BX27">
+        <v>47644.23</v>
+      </c>
       <c r="BY27" t="s">
         <v>290</v>
       </c>
+      <c r="BZ27">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="CA27">
+        <v>83666.10000000001</v>
+      </c>
+      <c r="CB27">
+        <v>77862.78999999999</v>
+      </c>
       <c r="CC27" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -7265,22 +8939,67 @@
         <v>250000</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>51550.17</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>28361.47</v>
+      </c>
+      <c r="AP28">
+        <v>250000</v>
+      </c>
+      <c r="AQ28">
+        <v>156814.66</v>
+      </c>
+      <c r="AR28">
+        <v>137995.61</v>
       </c>
       <c r="AS28" t="s">
         <v>290</v>
       </c>
+      <c r="AT28">
+        <v>250000</v>
+      </c>
+      <c r="AU28">
+        <v>233276.71</v>
+      </c>
+      <c r="AV28">
+        <v>213394.58</v>
+      </c>
       <c r="AW28" t="s">
         <v>290</v>
       </c>
+      <c r="AX28">
+        <v>250000</v>
+      </c>
+      <c r="AY28">
+        <v>199024.92</v>
+      </c>
+      <c r="AZ28">
+        <v>164376.79</v>
+      </c>
       <c r="BA28" t="s">
         <v>290</v>
       </c>
+      <c r="BB28">
+        <v>250000</v>
+      </c>
+      <c r="BC28">
+        <v>200488.46</v>
+      </c>
+      <c r="BD28">
+        <v>142499.8</v>
+      </c>
       <c r="BE28" t="s">
         <v>290</v>
+      </c>
+      <c r="BF28">
+        <v>250000</v>
+      </c>
+      <c r="BG28">
+        <v>209242.06</v>
+      </c>
+      <c r="BH28">
+        <v>182962.45</v>
       </c>
       <c r="BI28" t="s">
         <v>290</v>
@@ -7288,23 +9007,65 @@
       <c r="BJ28">
         <v>250000</v>
       </c>
+      <c r="BK28">
+        <v>201403.96</v>
+      </c>
+      <c r="BL28">
+        <v>184031.97</v>
+      </c>
       <c r="BM28" t="s">
         <v>290</v>
       </c>
+      <c r="BN28">
+        <v>250000</v>
+      </c>
+      <c r="BO28">
+        <v>159593.46</v>
+      </c>
+      <c r="BP28">
+        <v>111264.04</v>
+      </c>
       <c r="BQ28" t="s">
         <v>290</v>
       </c>
+      <c r="BR28">
+        <v>250000</v>
+      </c>
+      <c r="BS28">
+        <v>231757.76</v>
+      </c>
+      <c r="BT28">
+        <v>205230.85</v>
+      </c>
       <c r="BU28" t="s">
         <v>290</v>
       </c>
+      <c r="BV28">
+        <v>250000</v>
+      </c>
+      <c r="BW28">
+        <v>173073.36</v>
+      </c>
+      <c r="BX28">
+        <v>137495.53</v>
+      </c>
       <c r="BY28" t="s">
         <v>290</v>
       </c>
+      <c r="BZ28">
+        <v>250000</v>
+      </c>
+      <c r="CA28">
+        <v>180535.9</v>
+      </c>
+      <c r="CB28">
+        <v>130286.6</v>
+      </c>
       <c r="CC28" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -7425,14 +9186,50 @@
       <c r="AO29">
         <v>85000</v>
       </c>
+      <c r="AP29">
+        <v>100000</v>
+      </c>
+      <c r="AQ29">
+        <v>82907.67999999999</v>
+      </c>
+      <c r="AR29">
+        <v>71845.47</v>
+      </c>
       <c r="AS29" t="s">
         <v>290</v>
       </c>
+      <c r="AT29">
+        <v>100000</v>
+      </c>
+      <c r="AU29">
+        <v>88837.32000000001</v>
+      </c>
+      <c r="AV29">
+        <v>54650.59</v>
+      </c>
       <c r="AW29" t="s">
         <v>290</v>
       </c>
+      <c r="AX29">
+        <v>100000</v>
+      </c>
+      <c r="AY29">
+        <v>88696.03999999999</v>
+      </c>
+      <c r="AZ29">
+        <v>55271.97</v>
+      </c>
       <c r="BA29" t="s">
         <v>290</v>
+      </c>
+      <c r="BB29">
+        <v>100000</v>
+      </c>
+      <c r="BC29">
+        <v>61547.13</v>
+      </c>
+      <c r="BD29">
+        <v>47853.84</v>
       </c>
       <c r="BE29" t="s">
         <v>290</v>
@@ -7441,7 +9238,10 @@
         <v>100000</v>
       </c>
       <c r="BG29">
-        <v>100000</v>
+        <v>86173.05</v>
+      </c>
+      <c r="BH29">
+        <v>54320.86</v>
       </c>
       <c r="BI29" t="s">
         <v>290</v>
@@ -7450,25 +9250,61 @@
         <v>85000</v>
       </c>
       <c r="BK29">
-        <v>85000</v>
+        <v>74269.33</v>
       </c>
       <c r="BL29">
-        <v>85000</v>
+        <v>67044.66</v>
       </c>
       <c r="BM29" t="s">
         <v>716</v>
       </c>
+      <c r="BN29">
+        <v>85000</v>
+      </c>
+      <c r="BO29">
+        <v>55918.03</v>
+      </c>
+      <c r="BP29">
+        <v>47484.63</v>
+      </c>
+      <c r="BR29">
+        <v>85000</v>
+      </c>
+      <c r="BS29">
+        <v>77091.03</v>
+      </c>
+      <c r="BT29">
+        <v>58098.08</v>
+      </c>
       <c r="BU29" t="s">
         <v>290</v>
       </c>
+      <c r="BV29">
+        <v>85000</v>
+      </c>
+      <c r="BW29">
+        <v>71399.78</v>
+      </c>
+      <c r="BX29">
+        <v>67319.89999999999</v>
+      </c>
       <c r="BY29" t="s">
         <v>290</v>
       </c>
+      <c r="BZ29">
+        <v>85000</v>
+      </c>
+      <c r="CA29">
+        <v>70918.64</v>
+      </c>
+      <c r="CB29">
+        <v>46874.03</v>
+      </c>
       <c r="CC29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -7580,20 +9416,74 @@
       <c r="AO30">
         <v>15000</v>
       </c>
+      <c r="AP30">
+        <v>15000</v>
+      </c>
+      <c r="AQ30">
+        <v>11988.62</v>
+      </c>
+      <c r="AR30">
+        <v>9618.09</v>
+      </c>
       <c r="AS30" t="s">
         <v>290</v>
       </c>
+      <c r="AT30">
+        <v>15000</v>
+      </c>
+      <c r="AU30">
+        <v>12511.55</v>
+      </c>
+      <c r="AV30">
+        <v>9499.309999999999</v>
+      </c>
       <c r="AW30" t="s">
         <v>290</v>
       </c>
+      <c r="AX30">
+        <v>15000</v>
+      </c>
+      <c r="AY30">
+        <v>11289.97</v>
+      </c>
+      <c r="AZ30">
+        <v>9872.77</v>
+      </c>
       <c r="BA30" t="s">
         <v>290</v>
       </c>
+      <c r="BB30">
+        <v>15000</v>
+      </c>
+      <c r="BC30">
+        <v>10048.41</v>
+      </c>
+      <c r="BD30">
+        <v>8587.870000000001</v>
+      </c>
       <c r="BE30" t="s">
         <v>290</v>
       </c>
+      <c r="BF30">
+        <v>15000</v>
+      </c>
+      <c r="BG30">
+        <v>10299.52</v>
+      </c>
+      <c r="BH30">
+        <v>8543.860000000001</v>
+      </c>
       <c r="BI30" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ30">
+        <v>15000</v>
+      </c>
+      <c r="BK30">
+        <v>12461.07</v>
+      </c>
+      <c r="BL30">
+        <v>9738.48</v>
       </c>
       <c r="BM30" t="s">
         <v>717</v>
@@ -7602,25 +9492,52 @@
         <v>15000</v>
       </c>
       <c r="BO30">
+        <v>12461.99</v>
+      </c>
+      <c r="BP30">
+        <v>8066.37</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR30">
         <v>15000</v>
       </c>
-      <c r="BP30">
+      <c r="BS30">
+        <v>12760.85</v>
+      </c>
+      <c r="BT30">
+        <v>12115.1</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV30">
         <v>15000</v>
       </c>
-      <c r="BQ30" t="s">
-        <v>290</v>
-      </c>
-      <c r="BU30" t="s">
-        <v>290</v>
+      <c r="BW30">
+        <v>10132.73</v>
+      </c>
+      <c r="BX30">
+        <v>6803.17</v>
       </c>
       <c r="BY30" t="s">
         <v>290</v>
       </c>
+      <c r="BZ30">
+        <v>15000</v>
+      </c>
+      <c r="CA30">
+        <v>11436.22</v>
+      </c>
+      <c r="CB30">
+        <v>6923.51</v>
+      </c>
       <c r="CC30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -7735,17 +9652,62 @@
       <c r="AO31">
         <v>102113</v>
       </c>
+      <c r="AP31">
+        <v>17735</v>
+      </c>
+      <c r="AQ31">
+        <v>14367.68</v>
+      </c>
+      <c r="AR31">
+        <v>12563.9</v>
+      </c>
       <c r="AS31" t="s">
         <v>290</v>
       </c>
+      <c r="AT31">
+        <v>17735</v>
+      </c>
+      <c r="AU31">
+        <v>14474.59</v>
+      </c>
+      <c r="AV31">
+        <v>12161.53</v>
+      </c>
       <c r="AW31" t="s">
         <v>290</v>
       </c>
+      <c r="AX31">
+        <v>17735</v>
+      </c>
+      <c r="AY31">
+        <v>15410.04</v>
+      </c>
+      <c r="AZ31">
+        <v>9643.209999999999</v>
+      </c>
       <c r="BA31" t="s">
         <v>290</v>
       </c>
+      <c r="BB31">
+        <v>17735</v>
+      </c>
+      <c r="BC31">
+        <v>11194.7</v>
+      </c>
+      <c r="BD31">
+        <v>10470.9</v>
+      </c>
       <c r="BE31" t="s">
         <v>290</v>
+      </c>
+      <c r="BF31">
+        <v>17735</v>
+      </c>
+      <c r="BG31">
+        <v>15352.25</v>
+      </c>
+      <c r="BH31">
+        <v>10684.76</v>
       </c>
       <c r="BI31" t="s">
         <v>290</v>
@@ -7754,10 +9716,10 @@
         <v>17735</v>
       </c>
       <c r="BK31">
-        <v>17735</v>
+        <v>11072.74</v>
       </c>
       <c r="BL31">
-        <v>17735</v>
+        <v>9879.27</v>
       </c>
       <c r="BM31" t="s">
         <v>718</v>
@@ -7766,10 +9728,10 @@
         <v>84378</v>
       </c>
       <c r="BO31">
-        <v>84378</v>
+        <v>63768.4</v>
       </c>
       <c r="BP31">
-        <v>84378</v>
+        <v>44863.91</v>
       </c>
       <c r="BQ31" t="s">
         <v>746</v>
@@ -7778,19 +9740,40 @@
         <v>84378</v>
       </c>
       <c r="BS31">
+        <v>63400.44</v>
+      </c>
+      <c r="BT31">
+        <v>56830.44</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV31">
         <v>11643</v>
       </c>
-      <c r="BU31" t="s">
-        <v>290</v>
+      <c r="BW31">
+        <v>7462.72</v>
+      </c>
+      <c r="BX31">
+        <v>6930.24</v>
       </c>
       <c r="BY31" t="s">
         <v>290</v>
       </c>
+      <c r="BZ31">
+        <v>11643</v>
+      </c>
+      <c r="CA31">
+        <v>9398.389999999999</v>
+      </c>
+      <c r="CB31">
+        <v>8217.92</v>
+      </c>
       <c r="CC31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -7911,8 +9894,26 @@
       <c r="AO32">
         <v>151000</v>
       </c>
+      <c r="AP32">
+        <v>25000</v>
+      </c>
+      <c r="AQ32">
+        <v>16972.12</v>
+      </c>
+      <c r="AR32">
+        <v>14231.74</v>
+      </c>
       <c r="AS32" t="s">
         <v>290</v>
+      </c>
+      <c r="AT32">
+        <v>25000</v>
+      </c>
+      <c r="AU32">
+        <v>21253.2</v>
+      </c>
+      <c r="AV32">
+        <v>19219.25</v>
       </c>
       <c r="AW32" t="s">
         <v>290</v>
@@ -7921,10 +9922,10 @@
         <v>25000</v>
       </c>
       <c r="AY32">
-        <v>25000</v>
+        <v>15099.71</v>
       </c>
       <c r="AZ32">
-        <v>25000</v>
+        <v>13199.63</v>
       </c>
       <c r="BA32" t="s">
         <v>290</v>
@@ -7933,10 +9934,10 @@
         <v>81000</v>
       </c>
       <c r="BC32">
-        <v>81000</v>
+        <v>73453.89</v>
       </c>
       <c r="BD32">
-        <v>81000</v>
+        <v>66538.13</v>
       </c>
       <c r="BE32" t="s">
         <v>687</v>
@@ -7945,31 +9946,76 @@
         <v>45000</v>
       </c>
       <c r="BG32">
-        <v>45000</v>
+        <v>33398.3</v>
       </c>
       <c r="BH32">
-        <v>45000</v>
+        <v>24145.07</v>
       </c>
       <c r="BI32" t="s">
         <v>698</v>
       </c>
+      <c r="BJ32">
+        <v>45000</v>
+      </c>
+      <c r="BK32">
+        <v>30811.67</v>
+      </c>
+      <c r="BL32">
+        <v>18882.36</v>
+      </c>
       <c r="BM32" t="s">
         <v>290</v>
       </c>
+      <c r="BN32">
+        <v>45000</v>
+      </c>
+      <c r="BO32">
+        <v>32311.15</v>
+      </c>
+      <c r="BP32">
+        <v>25900.39</v>
+      </c>
       <c r="BQ32" t="s">
         <v>290</v>
       </c>
+      <c r="BR32">
+        <v>45000</v>
+      </c>
+      <c r="BS32">
+        <v>28248.71</v>
+      </c>
+      <c r="BT32">
+        <v>22326.42</v>
+      </c>
       <c r="BU32" t="s">
         <v>290</v>
       </c>
+      <c r="BV32">
+        <v>45000</v>
+      </c>
+      <c r="BW32">
+        <v>33014.12</v>
+      </c>
+      <c r="BX32">
+        <v>30485.02</v>
+      </c>
       <c r="BY32" t="s">
         <v>290</v>
       </c>
+      <c r="BZ32">
+        <v>45000</v>
+      </c>
+      <c r="CA32">
+        <v>30209.13</v>
+      </c>
+      <c r="CB32">
+        <v>21373.25</v>
+      </c>
       <c r="CC32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -8082,13 +10128,13 @@
         <v>290</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>179815.52</v>
       </c>
       <c r="AS33" t="s">
         <v>290</v>
@@ -8121,7 +10167,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -8141,7 +10187,7 @@
         <v>139</v>
       </c>
       <c r="G34">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="s">
         <v>175</v>
@@ -8242,17 +10288,62 @@
       <c r="AO34">
         <v>215568</v>
       </c>
+      <c r="AP34">
+        <v>169963</v>
+      </c>
+      <c r="AQ34">
+        <v>134856.63</v>
+      </c>
+      <c r="AR34">
+        <v>104282.98</v>
+      </c>
       <c r="AS34" t="s">
         <v>290</v>
       </c>
+      <c r="AT34">
+        <v>169963</v>
+      </c>
+      <c r="AU34">
+        <v>156110.49</v>
+      </c>
+      <c r="AV34">
+        <v>126822.59</v>
+      </c>
       <c r="AW34" t="s">
         <v>290</v>
       </c>
+      <c r="AX34">
+        <v>169963</v>
+      </c>
+      <c r="AY34">
+        <v>110185.68</v>
+      </c>
+      <c r="AZ34">
+        <v>88393.86</v>
+      </c>
       <c r="BA34" t="s">
         <v>290</v>
       </c>
+      <c r="BB34">
+        <v>169963</v>
+      </c>
+      <c r="BC34">
+        <v>148966.06</v>
+      </c>
+      <c r="BD34">
+        <v>122413.79</v>
+      </c>
       <c r="BE34" t="s">
         <v>290</v>
+      </c>
+      <c r="BF34">
+        <v>169963</v>
+      </c>
+      <c r="BG34">
+        <v>102249.35</v>
+      </c>
+      <c r="BH34">
+        <v>81981.44</v>
       </c>
       <c r="BI34" t="s">
         <v>290</v>
@@ -8261,10 +10352,10 @@
         <v>169963</v>
       </c>
       <c r="BK34">
-        <v>169963</v>
+        <v>132855.81</v>
       </c>
       <c r="BL34">
-        <v>169963</v>
+        <v>109125.17</v>
       </c>
       <c r="BM34" t="s">
         <v>719</v>
@@ -8273,10 +10364,10 @@
         <v>45605</v>
       </c>
       <c r="BO34">
-        <v>45605</v>
+        <v>41707.65</v>
       </c>
       <c r="BP34">
-        <v>45605</v>
+        <v>38123.45</v>
       </c>
       <c r="BQ34" t="s">
         <v>747</v>
@@ -8285,19 +10376,40 @@
         <v>150000</v>
       </c>
       <c r="BS34">
+        <v>107495.09</v>
+      </c>
+      <c r="BT34">
+        <v>84177.42999999999</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV34">
         <v>150000</v>
       </c>
-      <c r="BU34" t="s">
-        <v>290</v>
+      <c r="BW34">
+        <v>136695.36</v>
+      </c>
+      <c r="BX34">
+        <v>84121.16</v>
       </c>
       <c r="BY34" t="s">
         <v>290</v>
       </c>
+      <c r="BZ34">
+        <v>150000</v>
+      </c>
+      <c r="CA34">
+        <v>96921.56</v>
+      </c>
+      <c r="CB34">
+        <v>79038.17999999999</v>
+      </c>
       <c r="CC34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -8407,25 +10519,79 @@
         <v>38974</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP35">
+        <v>38974</v>
+      </c>
+      <c r="AQ35">
+        <v>30762.85</v>
+      </c>
+      <c r="AR35">
+        <v>21388.49</v>
       </c>
       <c r="AS35" t="s">
         <v>290</v>
       </c>
+      <c r="AT35">
+        <v>38974</v>
+      </c>
+      <c r="AU35">
+        <v>35581.6</v>
+      </c>
+      <c r="AV35">
+        <v>30871.22</v>
+      </c>
       <c r="AW35" t="s">
         <v>290</v>
       </c>
+      <c r="AX35">
+        <v>38974</v>
+      </c>
+      <c r="AY35">
+        <v>24670</v>
+      </c>
+      <c r="AZ35">
+        <v>17353.59</v>
+      </c>
       <c r="BA35" t="s">
         <v>290</v>
       </c>
+      <c r="BB35">
+        <v>38974</v>
+      </c>
+      <c r="BC35">
+        <v>24113.22</v>
+      </c>
+      <c r="BD35">
+        <v>20058.56</v>
+      </c>
       <c r="BE35" t="s">
         <v>290</v>
       </c>
+      <c r="BF35">
+        <v>38974</v>
+      </c>
+      <c r="BG35">
+        <v>32511.7</v>
+      </c>
+      <c r="BH35">
+        <v>22652.61</v>
+      </c>
       <c r="BI35" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ35">
+        <v>38974</v>
+      </c>
+      <c r="BK35">
+        <v>32412.38</v>
+      </c>
+      <c r="BL35">
+        <v>27044.91</v>
       </c>
       <c r="BM35" t="s">
         <v>290</v>
@@ -8433,20 +10599,53 @@
       <c r="BN35">
         <v>38974</v>
       </c>
+      <c r="BO35">
+        <v>29018.38</v>
+      </c>
+      <c r="BP35">
+        <v>21404.49</v>
+      </c>
       <c r="BQ35" t="s">
         <v>290</v>
       </c>
+      <c r="BR35">
+        <v>38974</v>
+      </c>
+      <c r="BS35">
+        <v>24940.48</v>
+      </c>
+      <c r="BT35">
+        <v>18173.85</v>
+      </c>
       <c r="BU35" t="s">
         <v>290</v>
       </c>
+      <c r="BV35">
+        <v>38974</v>
+      </c>
+      <c r="BW35">
+        <v>27200.73</v>
+      </c>
+      <c r="BX35">
+        <v>19200.53</v>
+      </c>
       <c r="BY35" t="s">
         <v>290</v>
       </c>
+      <c r="BZ35">
+        <v>38974</v>
+      </c>
+      <c r="CA35">
+        <v>31078.15</v>
+      </c>
+      <c r="CB35">
+        <v>27635.89</v>
+      </c>
       <c r="CC35" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -8558,23 +10757,62 @@
       <c r="AO36">
         <v>2700</v>
       </c>
+      <c r="AP36">
+        <v>25000</v>
+      </c>
+      <c r="AQ36">
+        <v>15324.46</v>
+      </c>
+      <c r="AR36">
+        <v>13266.5</v>
+      </c>
       <c r="AS36" t="s">
         <v>290</v>
       </c>
+      <c r="AT36">
+        <v>25000</v>
+      </c>
+      <c r="AU36">
+        <v>16773.85</v>
+      </c>
+      <c r="AV36">
+        <v>10271.62</v>
+      </c>
       <c r="AW36" t="s">
         <v>290</v>
       </c>
+      <c r="AX36">
+        <v>25000</v>
+      </c>
+      <c r="AY36">
+        <v>16382.83</v>
+      </c>
+      <c r="AZ36">
+        <v>14052.18</v>
+      </c>
       <c r="BA36" t="s">
         <v>290</v>
       </c>
+      <c r="BB36">
+        <v>25000</v>
+      </c>
+      <c r="BC36">
+        <v>21535.61</v>
+      </c>
+      <c r="BD36">
+        <v>13907.42</v>
+      </c>
       <c r="BE36" t="s">
         <v>290</v>
       </c>
+      <c r="BF36">
+        <v>25000</v>
+      </c>
       <c r="BG36">
-        <v>25000</v>
+        <v>21018.11</v>
       </c>
       <c r="BH36">
-        <v>2700</v>
+        <v>14396.61</v>
       </c>
       <c r="BI36" t="s">
         <v>290</v>
@@ -8583,25 +10821,64 @@
         <v>205000</v>
       </c>
       <c r="BK36">
+        <v>169904.58</v>
+      </c>
+      <c r="BL36">
+        <v>150003.19</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>290</v>
+      </c>
+      <c r="BN36">
         <v>100000</v>
       </c>
-      <c r="BM36" t="s">
-        <v>290</v>
+      <c r="BO36">
+        <v>78129.16</v>
+      </c>
+      <c r="BP36">
+        <v>59842.27</v>
       </c>
       <c r="BQ36" t="s">
         <v>290</v>
       </c>
+      <c r="BR36">
+        <v>100000</v>
+      </c>
+      <c r="BS36">
+        <v>62678.54</v>
+      </c>
+      <c r="BT36">
+        <v>47546.85</v>
+      </c>
       <c r="BU36" t="s">
         <v>290</v>
       </c>
+      <c r="BV36">
+        <v>100000</v>
+      </c>
+      <c r="BW36">
+        <v>69707.14999999999</v>
+      </c>
+      <c r="BX36">
+        <v>52201.42</v>
+      </c>
       <c r="BY36" t="s">
         <v>290</v>
       </c>
+      <c r="BZ36">
+        <v>100000</v>
+      </c>
+      <c r="CA36">
+        <v>93962.03</v>
+      </c>
+      <c r="CB36">
+        <v>88726.02</v>
+      </c>
       <c r="CC36" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -8714,49 +10991,136 @@
         <v>290</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO37">
         <v>20577</v>
       </c>
+      <c r="AP37">
+        <v>20577</v>
+      </c>
+      <c r="AQ37">
+        <v>18944.44</v>
+      </c>
+      <c r="AR37">
+        <v>14554.39</v>
+      </c>
       <c r="AS37" t="s">
         <v>290</v>
       </c>
+      <c r="AT37">
+        <v>20577</v>
+      </c>
+      <c r="AU37">
+        <v>12417.42</v>
+      </c>
       <c r="AV37">
+        <v>9999.969999999999</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX37">
         <v>20577</v>
       </c>
-      <c r="AW37" t="s">
-        <v>290</v>
+      <c r="AY37">
+        <v>17191.13</v>
+      </c>
+      <c r="AZ37">
+        <v>11128.8</v>
       </c>
       <c r="BA37" t="s">
         <v>290</v>
       </c>
+      <c r="BB37">
+        <v>20577</v>
+      </c>
+      <c r="BC37">
+        <v>16780.84</v>
+      </c>
+      <c r="BD37">
+        <v>12881.03</v>
+      </c>
       <c r="BE37" t="s">
         <v>290</v>
       </c>
+      <c r="BF37">
+        <v>20577</v>
+      </c>
+      <c r="BG37">
+        <v>17499.41</v>
+      </c>
+      <c r="BH37">
+        <v>13299.82</v>
+      </c>
       <c r="BI37" t="s">
         <v>290</v>
       </c>
+      <c r="BJ37">
+        <v>20577</v>
+      </c>
+      <c r="BK37">
+        <v>17887.1</v>
+      </c>
+      <c r="BL37">
+        <v>15821</v>
+      </c>
       <c r="BM37" t="s">
         <v>290</v>
       </c>
+      <c r="BN37">
+        <v>20577</v>
+      </c>
+      <c r="BO37">
+        <v>12791.17</v>
+      </c>
+      <c r="BP37">
+        <v>10265.71</v>
+      </c>
       <c r="BQ37" t="s">
         <v>290</v>
       </c>
+      <c r="BR37">
+        <v>20577</v>
+      </c>
+      <c r="BS37">
+        <v>15527.98</v>
+      </c>
+      <c r="BT37">
+        <v>11108.69</v>
+      </c>
       <c r="BU37" t="s">
         <v>290</v>
       </c>
+      <c r="BV37">
+        <v>20577</v>
+      </c>
+      <c r="BW37">
+        <v>15942.19</v>
+      </c>
+      <c r="BX37">
+        <v>13795.89</v>
+      </c>
       <c r="BY37" t="s">
         <v>290</v>
       </c>
+      <c r="BZ37">
+        <v>20577</v>
+      </c>
+      <c r="CA37">
+        <v>13118.02</v>
+      </c>
+      <c r="CB37">
+        <v>10410.43</v>
+      </c>
       <c r="CC37" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -8877,6 +11241,15 @@
       <c r="AO38">
         <v>26703</v>
       </c>
+      <c r="AP38">
+        <v>21334</v>
+      </c>
+      <c r="AQ38">
+        <v>19056.93</v>
+      </c>
+      <c r="AR38">
+        <v>15137.68</v>
+      </c>
       <c r="AS38" t="s">
         <v>290</v>
       </c>
@@ -8884,10 +11257,10 @@
         <v>21334</v>
       </c>
       <c r="AU38">
-        <v>21334</v>
+        <v>16695.08</v>
       </c>
       <c r="AV38">
-        <v>16023</v>
+        <v>14086.12</v>
       </c>
       <c r="AW38" t="s">
         <v>290</v>
@@ -8896,37 +11269,100 @@
         <v>15250</v>
       </c>
       <c r="AY38">
-        <v>15250</v>
+        <v>9466.68</v>
       </c>
       <c r="AZ38">
+        <v>7225.13</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB38">
         <v>10680</v>
       </c>
-      <c r="BA38" t="s">
-        <v>290</v>
+      <c r="BC38">
+        <v>8173.99</v>
+      </c>
+      <c r="BD38">
+        <v>5475.03</v>
       </c>
       <c r="BE38" t="s">
         <v>290</v>
       </c>
+      <c r="BF38">
+        <v>10680</v>
+      </c>
+      <c r="BG38">
+        <v>9667.290000000001</v>
+      </c>
+      <c r="BH38">
+        <v>7643.51</v>
+      </c>
       <c r="BI38" t="s">
         <v>290</v>
       </c>
+      <c r="BJ38">
+        <v>10680</v>
+      </c>
+      <c r="BK38">
+        <v>8128.46</v>
+      </c>
+      <c r="BL38">
+        <v>5055.79</v>
+      </c>
       <c r="BM38" t="s">
         <v>290</v>
       </c>
+      <c r="BN38">
+        <v>10680</v>
+      </c>
+      <c r="BO38">
+        <v>8593.73</v>
+      </c>
+      <c r="BP38">
+        <v>6510.77</v>
+      </c>
       <c r="BQ38" t="s">
         <v>290</v>
       </c>
+      <c r="BR38">
+        <v>10680</v>
+      </c>
+      <c r="BS38">
+        <v>9952.790000000001</v>
+      </c>
+      <c r="BT38">
+        <v>6260.57</v>
+      </c>
       <c r="BU38" t="s">
         <v>290</v>
       </c>
+      <c r="BV38">
+        <v>10680</v>
+      </c>
+      <c r="BW38">
+        <v>7408.67</v>
+      </c>
+      <c r="BX38">
+        <v>5219.86</v>
+      </c>
       <c r="BY38" t="s">
         <v>290</v>
       </c>
+      <c r="BZ38">
+        <v>10680</v>
+      </c>
+      <c r="CA38">
+        <v>9359.73</v>
+      </c>
+      <c r="CB38">
+        <v>7774.6</v>
+      </c>
       <c r="CC38" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -9039,25 +11475,88 @@
         <v>5000</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP39">
+        <v>5000</v>
+      </c>
+      <c r="AQ39">
+        <v>4628.03</v>
+      </c>
+      <c r="AR39">
+        <v>3600.36</v>
       </c>
       <c r="AS39" t="s">
         <v>290</v>
       </c>
+      <c r="AT39">
+        <v>5000</v>
+      </c>
+      <c r="AU39">
+        <v>4474.95</v>
+      </c>
+      <c r="AV39">
+        <v>2942.53</v>
+      </c>
       <c r="AW39" t="s">
         <v>290</v>
       </c>
+      <c r="AX39">
+        <v>5000</v>
+      </c>
+      <c r="AY39">
+        <v>3342.21</v>
+      </c>
+      <c r="AZ39">
+        <v>2014.85</v>
+      </c>
       <c r="BA39" t="s">
         <v>290</v>
       </c>
+      <c r="BB39">
+        <v>5000</v>
+      </c>
+      <c r="BC39">
+        <v>4294.02</v>
+      </c>
+      <c r="BD39">
+        <v>3966.79</v>
+      </c>
       <c r="BE39" t="s">
         <v>290</v>
       </c>
+      <c r="BF39">
+        <v>5000</v>
+      </c>
+      <c r="BG39">
+        <v>3323.14</v>
+      </c>
+      <c r="BH39">
+        <v>2949.96</v>
+      </c>
       <c r="BI39" t="s">
         <v>290</v>
       </c>
+      <c r="BJ39">
+        <v>5000</v>
+      </c>
+      <c r="BK39">
+        <v>4119.26</v>
+      </c>
+      <c r="BL39">
+        <v>2774.63</v>
+      </c>
       <c r="BM39" t="s">
         <v>290</v>
+      </c>
+      <c r="BN39">
+        <v>5000</v>
+      </c>
+      <c r="BO39">
+        <v>3724.44</v>
+      </c>
+      <c r="BP39">
+        <v>3458.63</v>
       </c>
       <c r="BQ39" t="s">
         <v>290</v>
@@ -9066,19 +11565,40 @@
         <v>5000</v>
       </c>
       <c r="BS39">
+        <v>4443.54</v>
+      </c>
+      <c r="BT39">
+        <v>3218.12</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV39">
         <v>5000</v>
       </c>
-      <c r="BU39" t="s">
-        <v>290</v>
+      <c r="BW39">
+        <v>4047.56</v>
+      </c>
+      <c r="BX39">
+        <v>2682.5</v>
       </c>
       <c r="BY39" t="s">
         <v>290</v>
       </c>
+      <c r="BZ39">
+        <v>5000</v>
+      </c>
+      <c r="CA39">
+        <v>4569.73</v>
+      </c>
+      <c r="CB39">
+        <v>3448.33</v>
+      </c>
       <c r="CC39" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -9188,22 +11708,76 @@
         <v>31250</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP40">
+        <v>18750</v>
+      </c>
+      <c r="AQ40">
+        <v>12594.35</v>
+      </c>
+      <c r="AR40">
+        <v>11392.1</v>
       </c>
       <c r="AS40" t="s">
         <v>290</v>
       </c>
+      <c r="AT40">
+        <v>18750</v>
+      </c>
+      <c r="AU40">
+        <v>16870.33</v>
+      </c>
+      <c r="AV40">
+        <v>10701.33</v>
+      </c>
       <c r="AW40" t="s">
         <v>290</v>
       </c>
+      <c r="AX40">
+        <v>18750</v>
+      </c>
+      <c r="AY40">
+        <v>12984.29</v>
+      </c>
+      <c r="AZ40">
+        <v>8768.75</v>
+      </c>
       <c r="BA40" t="s">
         <v>290</v>
       </c>
+      <c r="BB40">
+        <v>18750</v>
+      </c>
+      <c r="BC40">
+        <v>16419.96</v>
+      </c>
+      <c r="BD40">
+        <v>11972.8</v>
+      </c>
       <c r="BE40" t="s">
         <v>290</v>
       </c>
+      <c r="BF40">
+        <v>18750</v>
+      </c>
+      <c r="BG40">
+        <v>16353.52</v>
+      </c>
+      <c r="BH40">
+        <v>10294.21</v>
+      </c>
       <c r="BI40" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ40">
+        <v>18750</v>
+      </c>
+      <c r="BK40">
+        <v>16890.61</v>
+      </c>
+      <c r="BL40">
+        <v>14400.65</v>
       </c>
       <c r="BM40" t="s">
         <v>290</v>
@@ -9212,7 +11786,10 @@
         <v>18750</v>
       </c>
       <c r="BO40">
-        <v>18750</v>
+        <v>15192.91</v>
+      </c>
+      <c r="BP40">
+        <v>13456.33</v>
       </c>
       <c r="BQ40" t="s">
         <v>290</v>
@@ -9221,19 +11798,40 @@
         <v>12500</v>
       </c>
       <c r="BS40">
+        <v>8372</v>
+      </c>
+      <c r="BT40">
+        <v>5821.85</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV40">
         <v>12500</v>
       </c>
-      <c r="BU40" t="s">
-        <v>290</v>
+      <c r="BW40">
+        <v>9570.219999999999</v>
+      </c>
+      <c r="BX40">
+        <v>6582.83</v>
       </c>
       <c r="BY40" t="s">
         <v>290</v>
       </c>
+      <c r="BZ40">
+        <v>12500</v>
+      </c>
+      <c r="CA40">
+        <v>9368.549999999999</v>
+      </c>
+      <c r="CB40">
+        <v>5706.75</v>
+      </c>
       <c r="CC40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -9343,22 +11941,76 @@
         <v>286000</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP41">
+        <v>143000</v>
+      </c>
+      <c r="AQ41">
+        <v>125853.6</v>
+      </c>
+      <c r="AR41">
+        <v>93044.03999999999</v>
       </c>
       <c r="AS41" t="s">
         <v>290</v>
       </c>
+      <c r="AT41">
+        <v>143000</v>
+      </c>
+      <c r="AU41">
+        <v>130006.33</v>
+      </c>
+      <c r="AV41">
+        <v>116702.82</v>
+      </c>
       <c r="AW41" t="s">
         <v>290</v>
       </c>
+      <c r="AX41">
+        <v>143000</v>
+      </c>
+      <c r="AY41">
+        <v>120082.21</v>
+      </c>
+      <c r="AZ41">
+        <v>108230.35</v>
+      </c>
       <c r="BA41" t="s">
         <v>290</v>
       </c>
+      <c r="BB41">
+        <v>143000</v>
+      </c>
+      <c r="BC41">
+        <v>135058.07</v>
+      </c>
+      <c r="BD41">
+        <v>98249.28999999999</v>
+      </c>
       <c r="BE41" t="s">
         <v>290</v>
       </c>
+      <c r="BF41">
+        <v>143000</v>
+      </c>
+      <c r="BG41">
+        <v>88204.44</v>
+      </c>
+      <c r="BH41">
+        <v>57130.18</v>
+      </c>
       <c r="BI41" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ41">
+        <v>143000</v>
+      </c>
+      <c r="BK41">
+        <v>124131.79</v>
+      </c>
+      <c r="BL41">
+        <v>86923.00999999999</v>
       </c>
       <c r="BM41" t="s">
         <v>290</v>
@@ -9367,7 +12019,10 @@
         <v>143000</v>
       </c>
       <c r="BO41">
-        <v>143000</v>
+        <v>133539.75</v>
+      </c>
+      <c r="BP41">
+        <v>117987.12</v>
       </c>
       <c r="BQ41" t="s">
         <v>290</v>
@@ -9376,19 +12031,40 @@
         <v>143000</v>
       </c>
       <c r="BS41">
+        <v>130939.79</v>
+      </c>
+      <c r="BT41">
+        <v>116368.09</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV41">
         <v>143000</v>
       </c>
-      <c r="BU41" t="s">
-        <v>290</v>
+      <c r="BW41">
+        <v>95709.39999999999</v>
+      </c>
+      <c r="BX41">
+        <v>84078.66</v>
       </c>
       <c r="BY41" t="s">
         <v>290</v>
       </c>
+      <c r="BZ41">
+        <v>143000</v>
+      </c>
+      <c r="CA41">
+        <v>86583.27</v>
+      </c>
+      <c r="CB41">
+        <v>72940.00999999999</v>
+      </c>
       <c r="CC41" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -9500,11 +12176,38 @@
       <c r="AO42">
         <v>378761</v>
       </c>
+      <c r="AP42">
+        <v>165000</v>
+      </c>
+      <c r="AQ42">
+        <v>147620.39</v>
+      </c>
+      <c r="AR42">
+        <v>89039.85000000001</v>
+      </c>
       <c r="AS42" t="s">
         <v>290</v>
       </c>
+      <c r="AT42">
+        <v>165000</v>
+      </c>
+      <c r="AU42">
+        <v>139249.2</v>
+      </c>
+      <c r="AV42">
+        <v>98172.11</v>
+      </c>
       <c r="AW42" t="s">
         <v>290</v>
+      </c>
+      <c r="AX42">
+        <v>165000</v>
+      </c>
+      <c r="AY42">
+        <v>112723.65</v>
+      </c>
+      <c r="AZ42">
+        <v>76434.16</v>
       </c>
       <c r="BA42" t="s">
         <v>290</v>
@@ -9513,10 +12216,10 @@
         <v>165000</v>
       </c>
       <c r="BC42">
-        <v>165000</v>
+        <v>112537.98</v>
       </c>
       <c r="BD42">
-        <v>54437</v>
+        <v>105653.99</v>
       </c>
       <c r="BE42" t="s">
         <v>290</v>
@@ -9525,31 +12228,76 @@
         <v>932683</v>
       </c>
       <c r="BG42">
-        <v>932683</v>
+        <v>835553.65</v>
       </c>
       <c r="BH42">
-        <v>324324</v>
+        <v>595026.0699999999</v>
       </c>
       <c r="BI42" t="s">
         <v>699</v>
       </c>
+      <c r="BJ42">
+        <v>324324</v>
+      </c>
+      <c r="BK42">
+        <v>266454.52</v>
+      </c>
+      <c r="BL42">
+        <v>209121.34</v>
+      </c>
       <c r="BM42" t="s">
         <v>290</v>
       </c>
+      <c r="BN42">
+        <v>324324</v>
+      </c>
+      <c r="BO42">
+        <v>301635.22</v>
+      </c>
+      <c r="BP42">
+        <v>261141.52</v>
+      </c>
       <c r="BQ42" t="s">
         <v>290</v>
       </c>
+      <c r="BR42">
+        <v>324324</v>
+      </c>
+      <c r="BS42">
+        <v>196383.1</v>
+      </c>
+      <c r="BT42">
+        <v>127956.41</v>
+      </c>
       <c r="BU42" t="s">
         <v>290</v>
       </c>
+      <c r="BV42">
+        <v>324324</v>
+      </c>
+      <c r="BW42">
+        <v>274862.31</v>
+      </c>
+      <c r="BX42">
+        <v>188949.81</v>
+      </c>
       <c r="BY42" t="s">
         <v>290</v>
       </c>
+      <c r="BZ42">
+        <v>324324</v>
+      </c>
+      <c r="CA42">
+        <v>248112.13</v>
+      </c>
+      <c r="CB42">
+        <v>206201.22</v>
+      </c>
       <c r="CC42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -9656,49 +12404,136 @@
         <v>290</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP43">
+        <v>91451.86486486487</v>
+      </c>
+      <c r="AQ43">
+        <v>80469.55</v>
+      </c>
+      <c r="AR43">
+        <v>67659.92999999999</v>
       </c>
       <c r="AS43" t="s">
         <v>290</v>
       </c>
+      <c r="AT43">
+        <v>91451.86486486487</v>
+      </c>
+      <c r="AU43">
+        <v>57861.11</v>
+      </c>
+      <c r="AV43">
+        <v>50474.01</v>
+      </c>
       <c r="AW43" t="s">
         <v>290</v>
       </c>
+      <c r="AX43">
+        <v>107198.2432432432</v>
+      </c>
+      <c r="AY43">
+        <v>78867.7</v>
+      </c>
+      <c r="AZ43">
+        <v>52083.85</v>
+      </c>
       <c r="BA43" t="s">
         <v>290</v>
       </c>
+      <c r="BB43">
+        <v>91232.91891891892</v>
+      </c>
+      <c r="BC43">
+        <v>79959.8</v>
+      </c>
+      <c r="BD43">
+        <v>69280.00999999999</v>
+      </c>
       <c r="BE43" t="s">
         <v>290</v>
       </c>
+      <c r="BF43">
+        <v>91232.91891891892</v>
+      </c>
       <c r="BG43">
-        <v>0</v>
+        <v>70857.23</v>
+      </c>
+      <c r="BH43">
+        <v>57467.92</v>
       </c>
       <c r="BI43" t="s">
         <v>290</v>
       </c>
+      <c r="BJ43">
+        <v>137189.0277777778</v>
+      </c>
+      <c r="BK43">
+        <v>95203.44</v>
+      </c>
+      <c r="BL43">
+        <v>84186.39999999999</v>
+      </c>
       <c r="BM43" t="s">
         <v>290</v>
       </c>
+      <c r="BN43">
+        <v>107181.5277777778</v>
+      </c>
+      <c r="BO43">
+        <v>70690.74000000001</v>
+      </c>
+      <c r="BP43">
+        <v>48029.1</v>
+      </c>
       <c r="BQ43" t="s">
         <v>290</v>
       </c>
+      <c r="BR43">
+        <v>100025.6380952381</v>
+      </c>
+      <c r="BS43">
+        <v>83647.39</v>
+      </c>
+      <c r="BT43">
+        <v>59481.23</v>
+      </c>
       <c r="BU43" t="s">
         <v>290</v>
       </c>
+      <c r="BV43">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="BW43">
+        <v>76231.35000000001</v>
+      </c>
+      <c r="BX43">
+        <v>49853.66</v>
+      </c>
       <c r="BY43" t="s">
         <v>290</v>
       </c>
+      <c r="BZ43">
+        <v>102281.2941176471</v>
+      </c>
+      <c r="CA43">
+        <v>69896.77</v>
+      </c>
+      <c r="CB43">
+        <v>63052.64</v>
+      </c>
       <c r="CC43" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -9816,17 +12651,62 @@
       <c r="AO44">
         <v>227046</v>
       </c>
+      <c r="AP44">
+        <v>93737</v>
+      </c>
+      <c r="AQ44">
+        <v>68698.66</v>
+      </c>
+      <c r="AR44">
+        <v>60252.51</v>
+      </c>
       <c r="AS44" t="s">
         <v>290</v>
       </c>
+      <c r="AT44">
+        <v>93737</v>
+      </c>
+      <c r="AU44">
+        <v>63390.38</v>
+      </c>
+      <c r="AV44">
+        <v>47817.14</v>
+      </c>
       <c r="AW44" t="s">
         <v>290</v>
       </c>
+      <c r="AX44">
+        <v>93737</v>
+      </c>
+      <c r="AY44">
+        <v>87305.25999999999</v>
+      </c>
+      <c r="AZ44">
+        <v>59824.56</v>
+      </c>
       <c r="BA44" t="s">
         <v>290</v>
       </c>
+      <c r="BB44">
+        <v>93737</v>
+      </c>
+      <c r="BC44">
+        <v>58782.58</v>
+      </c>
+      <c r="BD44">
+        <v>39220.22</v>
+      </c>
       <c r="BE44" t="s">
         <v>290</v>
+      </c>
+      <c r="BF44">
+        <v>93737</v>
+      </c>
+      <c r="BG44">
+        <v>80634.3</v>
+      </c>
+      <c r="BH44">
+        <v>71803.58</v>
       </c>
       <c r="BI44" t="s">
         <v>290</v>
@@ -9835,10 +12715,10 @@
         <v>93737</v>
       </c>
       <c r="BK44">
-        <v>115371</v>
+        <v>74285.21000000001</v>
       </c>
       <c r="BL44">
-        <v>115371</v>
+        <v>49531.59</v>
       </c>
       <c r="BM44" t="s">
         <v>720</v>
@@ -9847,10 +12727,10 @@
         <v>326943</v>
       </c>
       <c r="BO44">
-        <v>226570</v>
+        <v>218353.24</v>
       </c>
       <c r="BP44">
-        <v>111675</v>
+        <v>155629.99</v>
       </c>
       <c r="BQ44" t="s">
         <v>748</v>
@@ -9859,19 +12739,40 @@
         <v>326942</v>
       </c>
       <c r="BS44">
+        <v>301342.24</v>
+      </c>
+      <c r="BT44">
+        <v>263757.5</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV44">
         <v>7350</v>
       </c>
-      <c r="BU44" t="s">
-        <v>290</v>
+      <c r="BW44">
+        <v>4546.78</v>
+      </c>
+      <c r="BX44">
+        <v>3659.37</v>
       </c>
       <c r="BY44" t="s">
         <v>290</v>
       </c>
+      <c r="BZ44">
+        <v>7350</v>
+      </c>
+      <c r="CA44">
+        <v>6732.62</v>
+      </c>
+      <c r="CB44">
+        <v>5600.22</v>
+      </c>
       <c r="CC44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -9983,11 +12884,38 @@
       <c r="AO45">
         <v>98283</v>
       </c>
+      <c r="AP45">
+        <v>9578</v>
+      </c>
+      <c r="AQ45">
+        <v>6171.41</v>
+      </c>
+      <c r="AR45">
+        <v>4142.01</v>
+      </c>
       <c r="AS45" t="s">
         <v>290</v>
       </c>
+      <c r="AT45">
+        <v>9578</v>
+      </c>
+      <c r="AU45">
+        <v>7526.4</v>
+      </c>
+      <c r="AV45">
+        <v>6321.46</v>
+      </c>
       <c r="AW45" t="s">
         <v>290</v>
+      </c>
+      <c r="AX45">
+        <v>9578</v>
+      </c>
+      <c r="AY45">
+        <v>6059.67</v>
+      </c>
+      <c r="AZ45">
+        <v>4816.9</v>
       </c>
       <c r="BA45" t="s">
         <v>290</v>
@@ -9996,10 +12924,10 @@
         <v>9578</v>
       </c>
       <c r="BC45">
-        <v>9578</v>
+        <v>5808.88</v>
       </c>
       <c r="BD45">
-        <v>9578</v>
+        <v>5064.34</v>
       </c>
       <c r="BE45" t="s">
         <v>290</v>
@@ -10008,31 +12936,76 @@
         <v>131080</v>
       </c>
       <c r="BG45">
-        <v>131080</v>
+        <v>102314.88</v>
       </c>
       <c r="BH45">
-        <v>88705</v>
+        <v>76277.37</v>
       </c>
       <c r="BI45" t="s">
         <v>700</v>
       </c>
+      <c r="BJ45">
+        <v>88705</v>
+      </c>
+      <c r="BK45">
+        <v>62699.93</v>
+      </c>
+      <c r="BL45">
+        <v>42603.83</v>
+      </c>
       <c r="BM45" t="s">
         <v>290</v>
       </c>
+      <c r="BN45">
+        <v>88705</v>
+      </c>
+      <c r="BO45">
+        <v>64244.37</v>
+      </c>
+      <c r="BP45">
+        <v>56786.48</v>
+      </c>
       <c r="BQ45" t="s">
         <v>290</v>
       </c>
+      <c r="BR45">
+        <v>88705</v>
+      </c>
+      <c r="BS45">
+        <v>80390.11</v>
+      </c>
+      <c r="BT45">
+        <v>53660.77</v>
+      </c>
       <c r="BU45" t="s">
         <v>290</v>
       </c>
+      <c r="BV45">
+        <v>88705</v>
+      </c>
+      <c r="BW45">
+        <v>64510.48</v>
+      </c>
+      <c r="BX45">
+        <v>43385.74</v>
+      </c>
       <c r="BY45" t="s">
         <v>290</v>
       </c>
+      <c r="BZ45">
+        <v>88705</v>
+      </c>
+      <c r="CA45">
+        <v>61847.83</v>
+      </c>
+      <c r="CB45">
+        <v>41787.77</v>
+      </c>
       <c r="CC45" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -10139,7 +13112,7 @@
         <v>671</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>3773185</v>
       </c>
       <c r="AN46">
         <v>346910</v>
@@ -10147,47 +13120,128 @@
       <c r="AO46">
         <v>39591</v>
       </c>
+      <c r="AP46">
+        <v>297351</v>
+      </c>
+      <c r="AQ46">
+        <v>233941.79</v>
+      </c>
+      <c r="AR46">
+        <v>212503.18</v>
+      </c>
       <c r="AS46" t="s">
         <v>290</v>
       </c>
+      <c r="AT46">
+        <v>297351</v>
+      </c>
+      <c r="AU46">
+        <v>229139.67</v>
+      </c>
+      <c r="AV46">
+        <v>193184.6</v>
+      </c>
       <c r="AW46" t="s">
         <v>290</v>
       </c>
+      <c r="AX46">
+        <v>297351</v>
+      </c>
+      <c r="AY46">
+        <v>234362.2</v>
+      </c>
+      <c r="AZ46">
+        <v>192451.2</v>
+      </c>
       <c r="BA46" t="s">
         <v>290</v>
       </c>
+      <c r="BB46">
+        <v>297351</v>
+      </c>
       <c r="BC46">
-        <v>297351</v>
+        <v>207368.14</v>
       </c>
       <c r="BD46">
-        <v>39591</v>
+        <v>134017.54</v>
       </c>
       <c r="BE46" t="s">
         <v>688</v>
       </c>
+      <c r="BF46">
+        <v>44575</v>
+      </c>
       <c r="BG46">
+        <v>29801.94</v>
+      </c>
+      <c r="BH46">
+        <v>24218.01</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>290</v>
+      </c>
+      <c r="BJ46">
         <v>49559</v>
       </c>
-      <c r="BI46" t="s">
-        <v>290</v>
+      <c r="BK46">
+        <v>35154.18</v>
+      </c>
+      <c r="BL46">
+        <v>23407.73</v>
       </c>
       <c r="BM46" t="s">
         <v>290</v>
       </c>
+      <c r="BN46">
+        <v>49559</v>
+      </c>
+      <c r="BO46">
+        <v>35994.61</v>
+      </c>
+      <c r="BP46">
+        <v>30758.35</v>
+      </c>
       <c r="BQ46" t="s">
         <v>290</v>
       </c>
+      <c r="BR46">
+        <v>49559</v>
+      </c>
+      <c r="BS46">
+        <v>32349.48</v>
+      </c>
+      <c r="BT46">
+        <v>29961.3</v>
+      </c>
       <c r="BU46" t="s">
         <v>290</v>
       </c>
+      <c r="BV46">
+        <v>49559</v>
+      </c>
+      <c r="BW46">
+        <v>31723.32</v>
+      </c>
+      <c r="BX46">
+        <v>26584.45</v>
+      </c>
       <c r="BY46" t="s">
         <v>290</v>
       </c>
+      <c r="BZ46">
+        <v>49559</v>
+      </c>
+      <c r="CA46">
+        <v>40585.1</v>
+      </c>
+      <c r="CB46">
+        <v>37714.61</v>
+      </c>
       <c r="CC46" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -10299,11 +13353,38 @@
       <c r="AO47">
         <v>1485706</v>
       </c>
+      <c r="AP47">
+        <v>651865</v>
+      </c>
+      <c r="AQ47">
+        <v>420802.82</v>
+      </c>
+      <c r="AR47">
+        <v>335587.74</v>
+      </c>
       <c r="AS47" t="s">
         <v>290</v>
       </c>
+      <c r="AT47">
+        <v>651865</v>
+      </c>
+      <c r="AU47">
+        <v>576844.0600000001</v>
+      </c>
+      <c r="AV47">
+        <v>490070.16</v>
+      </c>
       <c r="AW47" t="s">
         <v>290</v>
+      </c>
+      <c r="AX47">
+        <v>651865</v>
+      </c>
+      <c r="AY47">
+        <v>611674.85</v>
+      </c>
+      <c r="AZ47">
+        <v>436259.05</v>
       </c>
       <c r="BA47" t="s">
         <v>290</v>
@@ -10312,10 +13393,10 @@
         <v>651865</v>
       </c>
       <c r="BC47">
-        <v>651865</v>
+        <v>432617.98</v>
       </c>
       <c r="BD47">
-        <v>407163</v>
+        <v>356648.61</v>
       </c>
       <c r="BE47" t="s">
         <v>689</v>
@@ -10324,10 +13405,10 @@
         <v>737130</v>
       </c>
       <c r="BG47">
-        <v>16201</v>
+        <v>584143.8100000001</v>
       </c>
       <c r="BH47">
-        <v>15141</v>
+        <v>410014.12</v>
       </c>
       <c r="BI47" t="s">
         <v>701</v>
@@ -10336,10 +13417,10 @@
         <v>727095</v>
       </c>
       <c r="BK47">
-        <v>162626</v>
+        <v>530705.63</v>
       </c>
       <c r="BL47">
-        <v>140507</v>
+        <v>447328.65</v>
       </c>
       <c r="BM47" t="s">
         <v>721</v>
@@ -10348,10 +13429,10 @@
         <v>930000</v>
       </c>
       <c r="BO47">
-        <v>922895</v>
+        <v>852192.36</v>
       </c>
       <c r="BP47">
-        <v>922895</v>
+        <v>545482.96</v>
       </c>
       <c r="BQ47" t="s">
         <v>749</v>
@@ -10360,19 +13441,40 @@
         <v>727095</v>
       </c>
       <c r="BS47">
-        <v>0</v>
+        <v>539117.61</v>
+      </c>
+      <c r="BT47">
+        <v>401912.64</v>
       </c>
       <c r="BU47" t="s">
         <v>290</v>
       </c>
+      <c r="BV47">
+        <v>49559</v>
+      </c>
+      <c r="BW47">
+        <v>34444.05</v>
+      </c>
+      <c r="BX47">
+        <v>31605.38</v>
+      </c>
       <c r="BY47" t="s">
         <v>290</v>
       </c>
+      <c r="BZ47">
+        <v>49559</v>
+      </c>
+      <c r="CA47">
+        <v>39763.14</v>
+      </c>
+      <c r="CB47">
+        <v>35538.57</v>
+      </c>
       <c r="CC47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -10487,14 +13589,50 @@
       <c r="AO48">
         <v>116000</v>
       </c>
+      <c r="AP48">
+        <v>286000</v>
+      </c>
+      <c r="AQ48">
+        <v>246988.48</v>
+      </c>
+      <c r="AR48">
+        <v>212453</v>
+      </c>
       <c r="AS48" t="s">
         <v>290</v>
       </c>
+      <c r="AT48">
+        <v>286000</v>
+      </c>
+      <c r="AU48">
+        <v>201580.22</v>
+      </c>
+      <c r="AV48">
+        <v>184042.77</v>
+      </c>
       <c r="AW48" t="s">
         <v>290</v>
       </c>
+      <c r="AX48">
+        <v>286000</v>
+      </c>
+      <c r="AY48">
+        <v>207593.09</v>
+      </c>
+      <c r="AZ48">
+        <v>149044.4</v>
+      </c>
       <c r="BA48" t="s">
         <v>290</v>
+      </c>
+      <c r="BB48">
+        <v>286000</v>
+      </c>
+      <c r="BC48">
+        <v>214948.37</v>
+      </c>
+      <c r="BD48">
+        <v>199792.09</v>
       </c>
       <c r="BE48" t="s">
         <v>290</v>
@@ -10503,10 +13641,10 @@
         <v>286000</v>
       </c>
       <c r="BG48">
-        <v>96000</v>
+        <v>216264.97</v>
       </c>
       <c r="BH48">
-        <v>96000</v>
+        <v>185745.19</v>
       </c>
       <c r="BI48" t="s">
         <v>290</v>
@@ -10515,28 +13653,64 @@
         <v>20000</v>
       </c>
       <c r="BK48">
-        <v>20000</v>
+        <v>18715.1</v>
       </c>
       <c r="BL48">
-        <v>20000</v>
+        <v>12608.13</v>
       </c>
       <c r="BM48" t="s">
         <v>722</v>
       </c>
+      <c r="BN48">
+        <v>20000</v>
+      </c>
+      <c r="BO48">
+        <v>12001.83</v>
+      </c>
+      <c r="BP48">
+        <v>10934.03</v>
+      </c>
       <c r="BQ48" t="s">
         <v>290</v>
       </c>
+      <c r="BR48">
+        <v>20000</v>
+      </c>
+      <c r="BS48">
+        <v>16791.99</v>
+      </c>
+      <c r="BT48">
+        <v>12411.09</v>
+      </c>
       <c r="BU48" t="s">
         <v>290</v>
       </c>
+      <c r="BV48">
+        <v>20000</v>
+      </c>
+      <c r="BW48">
+        <v>13349.64</v>
+      </c>
+      <c r="BX48">
+        <v>9148.790000000001</v>
+      </c>
       <c r="BY48" t="s">
         <v>290</v>
       </c>
+      <c r="BZ48">
+        <v>20000</v>
+      </c>
+      <c r="CA48">
+        <v>15957.84</v>
+      </c>
+      <c r="CB48">
+        <v>13342.52</v>
+      </c>
       <c r="CC48" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:81">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -10646,19 +13820,55 @@
         <v>56000</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP49">
+        <v>56000</v>
+      </c>
+      <c r="AQ49">
+        <v>45908.04</v>
+      </c>
+      <c r="AR49">
+        <v>42663.37</v>
       </c>
       <c r="AS49" t="s">
         <v>290</v>
       </c>
+      <c r="AT49">
+        <v>56000</v>
+      </c>
+      <c r="AU49">
+        <v>44391.2</v>
+      </c>
+      <c r="AV49">
+        <v>33865.21</v>
+      </c>
       <c r="AW49" t="s">
         <v>290</v>
       </c>
+      <c r="AX49">
+        <v>56000</v>
+      </c>
+      <c r="AY49">
+        <v>45921.14</v>
+      </c>
+      <c r="AZ49">
+        <v>37261.52</v>
+      </c>
       <c r="BA49" t="s">
         <v>290</v>
+      </c>
+      <c r="BB49">
+        <v>56000</v>
+      </c>
+      <c r="BC49">
+        <v>40771.48</v>
+      </c>
+      <c r="BD49">
+        <v>36362.29</v>
       </c>
       <c r="BE49" t="s">
         <v>290</v>
@@ -10666,26 +13876,77 @@
       <c r="BF49">
         <v>56000</v>
       </c>
+      <c r="BG49">
+        <v>45890.77</v>
+      </c>
+      <c r="BH49">
+        <v>35272.07</v>
+      </c>
       <c r="BI49" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ49">
+        <v>56000</v>
+      </c>
+      <c r="BK49">
+        <v>39476.66</v>
+      </c>
+      <c r="BL49">
+        <v>23715.75</v>
       </c>
       <c r="BM49" t="s">
         <v>723</v>
       </c>
+      <c r="BN49">
+        <v>56000</v>
+      </c>
+      <c r="BO49">
+        <v>38269.82</v>
+      </c>
+      <c r="BP49">
+        <v>25017.1</v>
+      </c>
       <c r="BQ49" t="s">
         <v>290</v>
       </c>
+      <c r="BR49">
+        <v>56000</v>
+      </c>
+      <c r="BS49">
+        <v>50753.75</v>
+      </c>
+      <c r="BT49">
+        <v>47489.08</v>
+      </c>
       <c r="BU49" t="s">
         <v>290</v>
       </c>
+      <c r="BV49">
+        <v>56000</v>
+      </c>
+      <c r="BW49">
+        <v>50294</v>
+      </c>
+      <c r="BX49">
+        <v>40252.84</v>
+      </c>
       <c r="BY49" t="s">
         <v>290</v>
       </c>
+      <c r="BZ49">
+        <v>56000</v>
+      </c>
+      <c r="CA49">
+        <v>44728.42</v>
+      </c>
+      <c r="CB49">
+        <v>35844.34</v>
+      </c>
       <c r="CC49" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:81">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -10795,19 +14056,55 @@
         <v>37715</v>
       </c>
       <c r="AN50">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>179815.52</v>
+      </c>
+      <c r="AP50">
+        <v>37715</v>
+      </c>
+      <c r="AQ50">
+        <v>28993.33</v>
+      </c>
+      <c r="AR50">
+        <v>26328.43</v>
       </c>
       <c r="AS50" t="s">
         <v>290</v>
       </c>
+      <c r="AT50">
+        <v>37715</v>
+      </c>
+      <c r="AU50">
+        <v>30219.76</v>
+      </c>
+      <c r="AV50">
+        <v>23242.83</v>
+      </c>
       <c r="AW50" t="s">
         <v>290</v>
       </c>
+      <c r="AX50">
+        <v>37715</v>
+      </c>
+      <c r="AY50">
+        <v>29609.39</v>
+      </c>
+      <c r="AZ50">
+        <v>21541.25</v>
+      </c>
       <c r="BA50" t="s">
         <v>290</v>
+      </c>
+      <c r="BB50">
+        <v>37715</v>
+      </c>
+      <c r="BC50">
+        <v>29842.47</v>
+      </c>
+      <c r="BD50">
+        <v>25272.74</v>
       </c>
       <c r="BE50" t="s">
         <v>290</v>
@@ -10815,26 +14112,77 @@
       <c r="BF50">
         <v>37715</v>
       </c>
+      <c r="BG50">
+        <v>26223.65</v>
+      </c>
+      <c r="BH50">
+        <v>21865.32</v>
+      </c>
       <c r="BI50" t="s">
         <v>290</v>
       </c>
+      <c r="BJ50">
+        <v>37715</v>
+      </c>
+      <c r="BK50">
+        <v>25603.08</v>
+      </c>
+      <c r="BL50">
+        <v>19111.63</v>
+      </c>
       <c r="BM50" t="s">
         <v>290</v>
       </c>
+      <c r="BN50">
+        <v>37715</v>
+      </c>
+      <c r="BO50">
+        <v>26525.83</v>
+      </c>
+      <c r="BP50">
+        <v>17642.57</v>
+      </c>
       <c r="BQ50" t="s">
         <v>290</v>
       </c>
+      <c r="BR50">
+        <v>37715</v>
+      </c>
+      <c r="BS50">
+        <v>27018.33</v>
+      </c>
+      <c r="BT50">
+        <v>18178.48</v>
+      </c>
       <c r="BU50" t="s">
         <v>290</v>
       </c>
+      <c r="BV50">
+        <v>37715</v>
+      </c>
+      <c r="BW50">
+        <v>24059.63</v>
+      </c>
+      <c r="BX50">
+        <v>19062.71</v>
+      </c>
       <c r="BY50" t="s">
         <v>290</v>
       </c>
+      <c r="BZ50">
+        <v>37715</v>
+      </c>
+      <c r="CA50">
+        <v>32387.29</v>
+      </c>
+      <c r="CB50">
+        <v>23924.02</v>
+      </c>
       <c r="CC50" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:81">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -10949,14 +14297,50 @@
       <c r="AO51">
         <v>981680</v>
       </c>
+      <c r="AP51">
+        <v>8000</v>
+      </c>
+      <c r="AQ51">
+        <v>6534.84</v>
+      </c>
+      <c r="AR51">
+        <v>5607.63</v>
+      </c>
       <c r="AS51" t="s">
         <v>290</v>
       </c>
+      <c r="AT51">
+        <v>8000</v>
+      </c>
+      <c r="AU51">
+        <v>6914.31</v>
+      </c>
+      <c r="AV51">
+        <v>5166.6</v>
+      </c>
       <c r="AW51" t="s">
         <v>290</v>
       </c>
+      <c r="AX51">
+        <v>8000</v>
+      </c>
+      <c r="AY51">
+        <v>5997.42</v>
+      </c>
+      <c r="AZ51">
+        <v>5262</v>
+      </c>
       <c r="BA51" t="s">
         <v>290</v>
+      </c>
+      <c r="BB51">
+        <v>8000</v>
+      </c>
+      <c r="BC51">
+        <v>5272.25</v>
+      </c>
+      <c r="BD51">
+        <v>4545.44</v>
       </c>
       <c r="BE51" t="s">
         <v>290</v>
@@ -10965,10 +14349,10 @@
         <v>8000</v>
       </c>
       <c r="BG51">
-        <v>8000</v>
+        <v>6557.44</v>
       </c>
       <c r="BH51">
-        <v>8000</v>
+        <v>4986.16</v>
       </c>
       <c r="BI51" t="s">
         <v>290</v>
@@ -10977,10 +14361,10 @@
         <v>496128</v>
       </c>
       <c r="BK51">
-        <v>496128</v>
+        <v>377855.1</v>
       </c>
       <c r="BL51">
-        <v>496128</v>
+        <v>261935.21</v>
       </c>
       <c r="BM51" t="s">
         <v>724</v>
@@ -10989,25 +14373,52 @@
         <v>477552</v>
       </c>
       <c r="BO51">
-        <v>477552</v>
+        <v>419184.74</v>
       </c>
       <c r="BP51">
-        <v>477552</v>
+        <v>344602.47</v>
       </c>
       <c r="BQ51" t="s">
         <v>750</v>
       </c>
+      <c r="BR51">
+        <v>477552</v>
+      </c>
+      <c r="BS51">
+        <v>299118.02</v>
+      </c>
+      <c r="BT51">
+        <v>201912.73</v>
+      </c>
       <c r="BU51" t="s">
         <v>290</v>
       </c>
+      <c r="BV51">
+        <v>477552</v>
+      </c>
+      <c r="BW51">
+        <v>338032.71</v>
+      </c>
+      <c r="BX51">
+        <v>290008.27</v>
+      </c>
       <c r="BY51" t="s">
         <v>290</v>
       </c>
+      <c r="BZ51">
+        <v>477552</v>
+      </c>
+      <c r="CA51">
+        <v>437628.27</v>
+      </c>
+      <c r="CB51">
+        <v>394838.07</v>
+      </c>
       <c r="CC51" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:81">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -11125,17 +14536,62 @@
       <c r="AO52">
         <v>80062</v>
       </c>
+      <c r="AP52">
+        <v>80062</v>
+      </c>
+      <c r="AQ52">
+        <v>61062.59</v>
+      </c>
+      <c r="AR52">
+        <v>40219.9</v>
+      </c>
       <c r="AS52" t="s">
         <v>290</v>
       </c>
+      <c r="AT52">
+        <v>80062</v>
+      </c>
+      <c r="AU52">
+        <v>69802.3</v>
+      </c>
+      <c r="AV52">
+        <v>60452.58</v>
+      </c>
       <c r="AW52" t="s">
         <v>290</v>
       </c>
+      <c r="AX52">
+        <v>80062</v>
+      </c>
+      <c r="AY52">
+        <v>65109.33</v>
+      </c>
+      <c r="AZ52">
+        <v>55389.01</v>
+      </c>
       <c r="BA52" t="s">
         <v>290</v>
       </c>
+      <c r="BB52">
+        <v>80062</v>
+      </c>
+      <c r="BC52">
+        <v>50437.41</v>
+      </c>
+      <c r="BD52">
+        <v>42462.88</v>
+      </c>
       <c r="BE52" t="s">
         <v>290</v>
+      </c>
+      <c r="BF52">
+        <v>80062</v>
+      </c>
+      <c r="BG52">
+        <v>54721.05</v>
+      </c>
+      <c r="BH52">
+        <v>36181.93</v>
       </c>
       <c r="BI52" t="s">
         <v>290</v>
@@ -11144,28 +14600,64 @@
         <v>80062</v>
       </c>
       <c r="BK52">
-        <v>80062</v>
+        <v>52249.51</v>
       </c>
       <c r="BL52">
-        <v>80062</v>
+        <v>41646.75</v>
       </c>
       <c r="BM52" t="s">
         <v>725</v>
       </c>
+      <c r="BN52">
+        <v>80062</v>
+      </c>
+      <c r="BO52">
+        <v>52725.35</v>
+      </c>
+      <c r="BP52">
+        <v>42404.22</v>
+      </c>
       <c r="BQ52" t="s">
         <v>290</v>
       </c>
+      <c r="BR52">
+        <v>80062</v>
+      </c>
+      <c r="BS52">
+        <v>51944.7</v>
+      </c>
+      <c r="BT52">
+        <v>31696.25</v>
+      </c>
       <c r="BU52" t="s">
         <v>290</v>
       </c>
+      <c r="BV52">
+        <v>80062</v>
+      </c>
+      <c r="BW52">
+        <v>50217.01</v>
+      </c>
+      <c r="BX52">
+        <v>46262.92</v>
+      </c>
       <c r="BY52" t="s">
         <v>290</v>
       </c>
+      <c r="BZ52">
+        <v>80062</v>
+      </c>
+      <c r="CA52">
+        <v>68361.74000000001</v>
+      </c>
+      <c r="CB52">
+        <v>58804.71</v>
+      </c>
       <c r="CC52" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:81">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -11278,13 +14770,13 @@
         <v>290</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>75154.35000000001</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>51550.17</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>28361.47</v>
       </c>
       <c r="AS53" t="s">
         <v>290</v>
@@ -11317,7 +14809,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:81">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -11429,17 +14921,62 @@
       <c r="AO54">
         <v>298002</v>
       </c>
+      <c r="AP54">
+        <v>210806</v>
+      </c>
+      <c r="AQ54">
+        <v>134532.89</v>
+      </c>
+      <c r="AR54">
+        <v>112848.29</v>
+      </c>
       <c r="AS54" t="s">
         <v>290</v>
       </c>
+      <c r="AT54">
+        <v>210806</v>
+      </c>
+      <c r="AU54">
+        <v>146911.68</v>
+      </c>
+      <c r="AV54">
+        <v>93080.22</v>
+      </c>
       <c r="AW54" t="s">
         <v>290</v>
       </c>
+      <c r="AX54">
+        <v>210806</v>
+      </c>
+      <c r="AY54">
+        <v>146901.3</v>
+      </c>
+      <c r="AZ54">
+        <v>135005.56</v>
+      </c>
       <c r="BA54" t="s">
         <v>290</v>
       </c>
+      <c r="BB54">
+        <v>210806</v>
+      </c>
+      <c r="BC54">
+        <v>160830.47</v>
+      </c>
+      <c r="BD54">
+        <v>109362.17</v>
+      </c>
       <c r="BE54" t="s">
         <v>290</v>
+      </c>
+      <c r="BF54">
+        <v>210806</v>
+      </c>
+      <c r="BG54">
+        <v>151525.21</v>
+      </c>
+      <c r="BH54">
+        <v>139107.75</v>
       </c>
       <c r="BI54" t="s">
         <v>290</v>
@@ -11448,10 +14985,10 @@
         <v>210806</v>
       </c>
       <c r="BK54">
-        <v>210806</v>
+        <v>156674.44</v>
       </c>
       <c r="BL54">
-        <v>210806</v>
+        <v>117379.4</v>
       </c>
       <c r="BM54" t="s">
         <v>726</v>
@@ -11460,10 +14997,10 @@
         <v>195000</v>
       </c>
       <c r="BO54">
-        <v>193000</v>
+        <v>131202.21</v>
       </c>
       <c r="BP54">
-        <v>87196</v>
+        <v>87793.25</v>
       </c>
       <c r="BQ54" t="s">
         <v>751</v>
@@ -11472,19 +15009,40 @@
         <v>290000</v>
       </c>
       <c r="BS54">
+        <v>178735.75</v>
+      </c>
+      <c r="BT54">
+        <v>139105.98</v>
+      </c>
+      <c r="BU54" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV54">
         <v>150000</v>
       </c>
-      <c r="BU54" t="s">
-        <v>290</v>
+      <c r="BW54">
+        <v>115105.63</v>
+      </c>
+      <c r="BX54">
+        <v>98645.5</v>
       </c>
       <c r="BY54" t="s">
         <v>290</v>
       </c>
+      <c r="BZ54">
+        <v>150000</v>
+      </c>
+      <c r="CA54">
+        <v>111695.14</v>
+      </c>
+      <c r="CB54">
+        <v>99563.28999999999</v>
+      </c>
       <c r="CC54" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:81">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -11596,17 +15154,62 @@
       <c r="AO55">
         <v>2545670</v>
       </c>
+      <c r="AP55">
+        <v>1621653</v>
+      </c>
+      <c r="AQ55">
+        <v>1186671.61</v>
+      </c>
+      <c r="AR55">
+        <v>947698.48</v>
+      </c>
       <c r="AS55" t="s">
         <v>290</v>
       </c>
+      <c r="AT55">
+        <v>1621653</v>
+      </c>
+      <c r="AU55">
+        <v>1455977.32</v>
+      </c>
+      <c r="AV55">
+        <v>959666.58</v>
+      </c>
       <c r="AW55" t="s">
         <v>290</v>
       </c>
+      <c r="AX55">
+        <v>1621653</v>
+      </c>
+      <c r="AY55">
+        <v>992949.41</v>
+      </c>
+      <c r="AZ55">
+        <v>802793.55</v>
+      </c>
       <c r="BA55" t="s">
         <v>290</v>
       </c>
+      <c r="BB55">
+        <v>1621653</v>
+      </c>
+      <c r="BC55">
+        <v>1245649.23</v>
+      </c>
+      <c r="BD55">
+        <v>1120445.72</v>
+      </c>
       <c r="BE55" t="s">
         <v>290</v>
+      </c>
+      <c r="BF55">
+        <v>1621653</v>
+      </c>
+      <c r="BG55">
+        <v>1400881.66</v>
+      </c>
+      <c r="BH55">
+        <v>1277428.16</v>
       </c>
       <c r="BI55" t="s">
         <v>290</v>
@@ -11615,10 +15218,10 @@
         <v>1621653</v>
       </c>
       <c r="BK55">
-        <v>1621653</v>
+        <v>1480963.58</v>
       </c>
       <c r="BL55">
-        <v>1621652</v>
+        <v>1179594.92</v>
       </c>
       <c r="BM55" t="s">
         <v>727</v>
@@ -11627,10 +15230,10 @@
         <v>930000</v>
       </c>
       <c r="BO55">
-        <v>924018</v>
+        <v>751818</v>
       </c>
       <c r="BP55">
-        <v>924018</v>
+        <v>625994.09</v>
       </c>
       <c r="BQ55" t="s">
         <v>752</v>
@@ -11639,19 +15242,40 @@
         <v>670000</v>
       </c>
       <c r="BS55">
+        <v>567977.65</v>
+      </c>
+      <c r="BT55">
+        <v>536250.61</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV55">
         <v>570000</v>
       </c>
-      <c r="BU55" t="s">
-        <v>290</v>
+      <c r="BW55">
+        <v>482579.99</v>
+      </c>
+      <c r="BX55">
+        <v>319655.1</v>
       </c>
       <c r="BY55" t="s">
         <v>290</v>
       </c>
+      <c r="BZ55">
+        <v>570000</v>
+      </c>
+      <c r="CA55">
+        <v>528055.6</v>
+      </c>
+      <c r="CB55">
+        <v>463792.3</v>
+      </c>
       <c r="CC55" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:81">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -11763,17 +15387,62 @@
       <c r="AO56">
         <v>807648</v>
       </c>
+      <c r="AP56">
+        <v>350836</v>
+      </c>
+      <c r="AQ56">
+        <v>302110.94</v>
+      </c>
+      <c r="AR56">
+        <v>264428.22</v>
+      </c>
       <c r="AS56" t="s">
         <v>290</v>
       </c>
+      <c r="AT56">
+        <v>350836</v>
+      </c>
+      <c r="AU56">
+        <v>214330.59</v>
+      </c>
+      <c r="AV56">
+        <v>158779.16</v>
+      </c>
       <c r="AW56" t="s">
         <v>290</v>
       </c>
+      <c r="AX56">
+        <v>350836</v>
+      </c>
+      <c r="AY56">
+        <v>310252.17</v>
+      </c>
+      <c r="AZ56">
+        <v>280219.73</v>
+      </c>
       <c r="BA56" t="s">
         <v>290</v>
       </c>
+      <c r="BB56">
+        <v>350836</v>
+      </c>
+      <c r="BC56">
+        <v>229499.97</v>
+      </c>
+      <c r="BD56">
+        <v>151325.22</v>
+      </c>
       <c r="BE56" t="s">
         <v>290</v>
+      </c>
+      <c r="BF56">
+        <v>350836</v>
+      </c>
+      <c r="BG56">
+        <v>313966.52</v>
+      </c>
+      <c r="BH56">
+        <v>238805.73</v>
       </c>
       <c r="BI56" t="s">
         <v>290</v>
@@ -11782,10 +15451,10 @@
         <v>350836</v>
       </c>
       <c r="BK56">
-        <v>350836</v>
+        <v>258186.8</v>
       </c>
       <c r="BL56">
-        <v>350836</v>
+        <v>177845.89</v>
       </c>
       <c r="BM56" t="s">
         <v>728</v>
@@ -11794,10 +15463,10 @@
         <v>457000</v>
       </c>
       <c r="BO56">
-        <v>457000</v>
+        <v>329575.02</v>
       </c>
       <c r="BP56">
-        <v>456812</v>
+        <v>285805.04</v>
       </c>
       <c r="BQ56" t="s">
         <v>753</v>
@@ -11806,19 +15475,40 @@
         <v>504900</v>
       </c>
       <c r="BS56">
+        <v>330451.07</v>
+      </c>
+      <c r="BT56">
+        <v>279026.42</v>
+      </c>
+      <c r="BU56" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV56">
         <v>400000</v>
       </c>
-      <c r="BU56" t="s">
-        <v>290</v>
+      <c r="BW56">
+        <v>363213.06</v>
+      </c>
+      <c r="BX56">
+        <v>247509.89</v>
       </c>
       <c r="BY56" t="s">
         <v>290</v>
       </c>
+      <c r="BZ56">
+        <v>400000</v>
+      </c>
+      <c r="CA56">
+        <v>258623.21</v>
+      </c>
+      <c r="CB56">
+        <v>226377.47</v>
+      </c>
       <c r="CC56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -11925,13 +15615,13 @@
         <v>672</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>225287.4722222222</v>
       </c>
       <c r="AN57">
-        <v>0</v>
+        <v>234409.5483870968</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>179815.52</v>
       </c>
       <c r="AS57" t="s">
         <v>290</v>
@@ -11964,7 +15654,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:81">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -12076,17 +15766,62 @@
       <c r="AO58">
         <v>925971</v>
       </c>
+      <c r="AP58">
+        <v>490918</v>
+      </c>
+      <c r="AQ58">
+        <v>382121.3</v>
+      </c>
+      <c r="AR58">
+        <v>271335.1</v>
+      </c>
       <c r="AS58" t="s">
         <v>290</v>
       </c>
+      <c r="AT58">
+        <v>490918</v>
+      </c>
+      <c r="AU58">
+        <v>338219.09</v>
+      </c>
+      <c r="AV58">
+        <v>229017.08</v>
+      </c>
       <c r="AW58" t="s">
         <v>290</v>
       </c>
+      <c r="AX58">
+        <v>490918</v>
+      </c>
+      <c r="AY58">
+        <v>349456.59</v>
+      </c>
+      <c r="AZ58">
+        <v>265905.99</v>
+      </c>
       <c r="BA58" t="s">
         <v>290</v>
       </c>
+      <c r="BB58">
+        <v>490918</v>
+      </c>
+      <c r="BC58">
+        <v>386302.9</v>
+      </c>
+      <c r="BD58">
+        <v>316319.92</v>
+      </c>
       <c r="BE58" t="s">
         <v>290</v>
+      </c>
+      <c r="BF58">
+        <v>490918</v>
+      </c>
+      <c r="BG58">
+        <v>385692.12</v>
+      </c>
+      <c r="BH58">
+        <v>254308.08</v>
       </c>
       <c r="BI58" t="s">
         <v>290</v>
@@ -12095,10 +15830,10 @@
         <v>490918</v>
       </c>
       <c r="BK58">
-        <v>490918</v>
+        <v>368193.01</v>
       </c>
       <c r="BL58">
-        <v>490918</v>
+        <v>331982.68</v>
       </c>
       <c r="BM58" t="s">
         <v>729</v>
@@ -12107,10 +15842,10 @@
         <v>600000</v>
       </c>
       <c r="BO58">
-        <v>463145</v>
+        <v>535815.04</v>
       </c>
       <c r="BP58">
-        <v>435053</v>
+        <v>493335.88</v>
       </c>
       <c r="BQ58" t="s">
         <v>754</v>
@@ -12119,19 +15854,40 @@
         <v>350000</v>
       </c>
       <c r="BS58">
+        <v>277864.62</v>
+      </c>
+      <c r="BT58">
+        <v>213217.72</v>
+      </c>
+      <c r="BU58" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV58">
         <v>10000</v>
       </c>
-      <c r="BU58" t="s">
-        <v>290</v>
+      <c r="BW58">
+        <v>6666.99</v>
+      </c>
+      <c r="BX58">
+        <v>5215.08</v>
       </c>
       <c r="BY58" t="s">
         <v>290</v>
       </c>
+      <c r="BZ58">
+        <v>10000</v>
+      </c>
+      <c r="CA58">
+        <v>7626</v>
+      </c>
+      <c r="CB58">
+        <v>6200.28</v>
+      </c>
       <c r="CC58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:81">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -12243,14 +15999,50 @@
       <c r="AO59">
         <v>340000</v>
       </c>
+      <c r="AP59">
+        <v>40000</v>
+      </c>
+      <c r="AQ59">
+        <v>34862.32</v>
+      </c>
+      <c r="AR59">
+        <v>25985.36</v>
+      </c>
       <c r="AS59" t="s">
         <v>290</v>
       </c>
+      <c r="AT59">
+        <v>40000</v>
+      </c>
+      <c r="AU59">
+        <v>26412.39</v>
+      </c>
+      <c r="AV59">
+        <v>22773.26</v>
+      </c>
       <c r="AW59" t="s">
         <v>290</v>
       </c>
+      <c r="AX59">
+        <v>40000</v>
+      </c>
+      <c r="AY59">
+        <v>24488.45</v>
+      </c>
+      <c r="AZ59">
+        <v>21462.12</v>
+      </c>
       <c r="BA59" t="s">
         <v>290</v>
+      </c>
+      <c r="BB59">
+        <v>40000</v>
+      </c>
+      <c r="BC59">
+        <v>29882.8</v>
+      </c>
+      <c r="BD59">
+        <v>20715.87</v>
       </c>
       <c r="BE59" t="s">
         <v>290</v>
@@ -12259,10 +16051,10 @@
         <v>40000</v>
       </c>
       <c r="BG59">
-        <v>40000</v>
+        <v>34092.21</v>
       </c>
       <c r="BH59">
-        <v>40000</v>
+        <v>25490.13</v>
       </c>
       <c r="BI59" t="s">
         <v>702</v>
@@ -12271,28 +16063,64 @@
         <v>300000</v>
       </c>
       <c r="BK59">
-        <v>300000</v>
+        <v>281335.51</v>
       </c>
       <c r="BL59">
-        <v>300000</v>
+        <v>205946.25</v>
       </c>
       <c r="BM59" t="s">
         <v>730</v>
       </c>
+      <c r="BN59">
+        <v>300000</v>
+      </c>
+      <c r="BO59">
+        <v>245736.29</v>
+      </c>
+      <c r="BP59">
+        <v>166365.61</v>
+      </c>
       <c r="BQ59" t="s">
         <v>290</v>
       </c>
+      <c r="BR59">
+        <v>300000</v>
+      </c>
+      <c r="BS59">
+        <v>255793.25</v>
+      </c>
+      <c r="BT59">
+        <v>174842.2</v>
+      </c>
       <c r="BU59" t="s">
         <v>290</v>
       </c>
+      <c r="BV59">
+        <v>300000</v>
+      </c>
+      <c r="BW59">
+        <v>283377.4</v>
+      </c>
+      <c r="BX59">
+        <v>201109.57</v>
+      </c>
       <c r="BY59" t="s">
         <v>290</v>
       </c>
+      <c r="BZ59">
+        <v>300000</v>
+      </c>
+      <c r="CA59">
+        <v>284071.8</v>
+      </c>
+      <c r="CB59">
+        <v>206171.98</v>
+      </c>
       <c r="CC59" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:81">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -12404,17 +16232,62 @@
       <c r="AO60">
         <v>138372</v>
       </c>
+      <c r="AP60">
+        <v>120857</v>
+      </c>
+      <c r="AQ60">
+        <v>112137.86</v>
+      </c>
+      <c r="AR60">
+        <v>99645.73</v>
+      </c>
       <c r="AS60" t="s">
         <v>290</v>
       </c>
+      <c r="AT60">
+        <v>120857</v>
+      </c>
+      <c r="AU60">
+        <v>105652.94</v>
+      </c>
+      <c r="AV60">
+        <v>65107.18</v>
+      </c>
       <c r="AW60" t="s">
         <v>290</v>
       </c>
+      <c r="AX60">
+        <v>120857</v>
+      </c>
+      <c r="AY60">
+        <v>77783.59</v>
+      </c>
+      <c r="AZ60">
+        <v>58324.35</v>
+      </c>
       <c r="BA60" t="s">
         <v>290</v>
       </c>
+      <c r="BB60">
+        <v>120857</v>
+      </c>
+      <c r="BC60">
+        <v>75356.42</v>
+      </c>
+      <c r="BD60">
+        <v>46527.13</v>
+      </c>
       <c r="BE60" t="s">
         <v>290</v>
+      </c>
+      <c r="BF60">
+        <v>120857</v>
+      </c>
+      <c r="BG60">
+        <v>79335.87</v>
+      </c>
+      <c r="BH60">
+        <v>50249.29</v>
       </c>
       <c r="BI60" t="s">
         <v>290</v>
@@ -12423,10 +16296,10 @@
         <v>120857</v>
       </c>
       <c r="BK60">
-        <v>120857</v>
+        <v>81354.13</v>
       </c>
       <c r="BL60">
-        <v>120857</v>
+        <v>74852.46000000001</v>
       </c>
       <c r="BM60" t="s">
         <v>731</v>
@@ -12435,10 +16308,10 @@
         <v>20993</v>
       </c>
       <c r="BO60">
-        <v>20993</v>
+        <v>18095.18</v>
       </c>
       <c r="BP60">
-        <v>17515</v>
+        <v>11540.13</v>
       </c>
       <c r="BQ60" t="s">
         <v>755</v>
@@ -12447,19 +16320,40 @@
         <v>50000</v>
       </c>
       <c r="BS60">
+        <v>35447.61</v>
+      </c>
+      <c r="BT60">
+        <v>26040.31</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV60">
         <v>50000</v>
       </c>
-      <c r="BU60" t="s">
-        <v>290</v>
+      <c r="BW60">
+        <v>46877.9</v>
+      </c>
+      <c r="BX60">
+        <v>35265.4</v>
       </c>
       <c r="BY60" t="s">
         <v>290</v>
       </c>
+      <c r="BZ60">
+        <v>50000</v>
+      </c>
+      <c r="CA60">
+        <v>36099.25</v>
+      </c>
+      <c r="CB60">
+        <v>24984.17</v>
+      </c>
       <c r="CC60" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:81">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -12571,14 +16465,50 @@
       <c r="AO61">
         <v>234000</v>
       </c>
+      <c r="AP61">
+        <v>234000</v>
+      </c>
+      <c r="AQ61">
+        <v>201572.48</v>
+      </c>
+      <c r="AR61">
+        <v>137963.35</v>
+      </c>
       <c r="AS61" t="s">
         <v>290</v>
       </c>
+      <c r="AT61">
+        <v>234000</v>
+      </c>
+      <c r="AU61">
+        <v>185183.88</v>
+      </c>
+      <c r="AV61">
+        <v>119869.69</v>
+      </c>
       <c r="AW61" t="s">
         <v>290</v>
       </c>
+      <c r="AX61">
+        <v>234000</v>
+      </c>
+      <c r="AY61">
+        <v>221547.26</v>
+      </c>
+      <c r="AZ61">
+        <v>204091.12</v>
+      </c>
       <c r="BA61" t="s">
         <v>290</v>
+      </c>
+      <c r="BB61">
+        <v>234000</v>
+      </c>
+      <c r="BC61">
+        <v>143743.17</v>
+      </c>
+      <c r="BD61">
+        <v>131589.55</v>
       </c>
       <c r="BE61" t="s">
         <v>290</v>
@@ -12587,31 +16517,76 @@
         <v>234000</v>
       </c>
       <c r="BG61">
-        <v>234000</v>
+        <v>197413.44</v>
       </c>
       <c r="BH61">
-        <v>234000</v>
+        <v>151765.74</v>
       </c>
       <c r="BI61" t="s">
         <v>703</v>
       </c>
+      <c r="BJ61">
+        <v>234000</v>
+      </c>
+      <c r="BK61">
+        <v>152229.39</v>
+      </c>
+      <c r="BL61">
+        <v>107182.41</v>
+      </c>
       <c r="BM61" t="s">
         <v>290</v>
       </c>
+      <c r="BN61">
+        <v>234000</v>
+      </c>
+      <c r="BO61">
+        <v>155241.5</v>
+      </c>
+      <c r="BP61">
+        <v>138394.05</v>
+      </c>
       <c r="BQ61" t="s">
         <v>290</v>
       </c>
+      <c r="BR61">
+        <v>234000</v>
+      </c>
+      <c r="BS61">
+        <v>155338.25</v>
+      </c>
+      <c r="BT61">
+        <v>119224.83</v>
+      </c>
       <c r="BU61" t="s">
         <v>290</v>
       </c>
+      <c r="BV61">
+        <v>234000</v>
+      </c>
+      <c r="BW61">
+        <v>208759.94</v>
+      </c>
+      <c r="BX61">
+        <v>163979.79</v>
+      </c>
       <c r="BY61" t="s">
         <v>290</v>
       </c>
+      <c r="BZ61">
+        <v>234000</v>
+      </c>
+      <c r="CA61">
+        <v>150811.38</v>
+      </c>
+      <c r="CB61">
+        <v>99363.7</v>
+      </c>
       <c r="CC61" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:81">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -12723,17 +16698,62 @@
       <c r="AO62">
         <v>733598</v>
       </c>
+      <c r="AP62">
+        <v>420640</v>
+      </c>
+      <c r="AQ62">
+        <v>305791.27</v>
+      </c>
+      <c r="AR62">
+        <v>274338.58</v>
+      </c>
       <c r="AS62" t="s">
         <v>290</v>
       </c>
+      <c r="AT62">
+        <v>420640</v>
+      </c>
+      <c r="AU62">
+        <v>325930.36</v>
+      </c>
+      <c r="AV62">
+        <v>235248.53</v>
+      </c>
       <c r="AW62" t="s">
         <v>290</v>
       </c>
+      <c r="AX62">
+        <v>420640</v>
+      </c>
+      <c r="AY62">
+        <v>300971.39</v>
+      </c>
+      <c r="AZ62">
+        <v>204166.41</v>
+      </c>
       <c r="BA62" t="s">
         <v>290</v>
       </c>
+      <c r="BB62">
+        <v>420640</v>
+      </c>
+      <c r="BC62">
+        <v>271722.93</v>
+      </c>
+      <c r="BD62">
+        <v>191100.89</v>
+      </c>
       <c r="BE62" t="s">
         <v>290</v>
+      </c>
+      <c r="BF62">
+        <v>420640</v>
+      </c>
+      <c r="BG62">
+        <v>253708.34</v>
+      </c>
+      <c r="BH62">
+        <v>225440.27</v>
       </c>
       <c r="BI62" t="s">
         <v>290</v>
@@ -12742,10 +16762,10 @@
         <v>420640</v>
       </c>
       <c r="BK62">
-        <v>420640</v>
+        <v>282439.18</v>
       </c>
       <c r="BL62">
-        <v>420640</v>
+        <v>225397.86</v>
       </c>
       <c r="BM62" t="s">
         <v>732</v>
@@ -12754,10 +16774,10 @@
         <v>313000</v>
       </c>
       <c r="BO62">
-        <v>313000</v>
+        <v>287581.37</v>
       </c>
       <c r="BP62">
-        <v>312958</v>
+        <v>179264.13</v>
       </c>
       <c r="BQ62" t="s">
         <v>756</v>
@@ -12766,22 +16786,40 @@
         <v>400000</v>
       </c>
       <c r="BS62">
-        <v>40000</v>
+        <v>258461.32</v>
       </c>
       <c r="BT62">
-        <v>0</v>
+        <v>183856.49</v>
       </c>
       <c r="BU62" t="s">
         <v>290</v>
       </c>
+      <c r="BV62">
+        <v>207562.3125</v>
+      </c>
+      <c r="BW62">
+        <v>139448.96</v>
+      </c>
+      <c r="BX62">
+        <v>126619.33</v>
+      </c>
       <c r="BY62" t="s">
         <v>290</v>
       </c>
+      <c r="BZ62">
+        <v>207562.3125</v>
+      </c>
+      <c r="CA62">
+        <v>161897.39</v>
+      </c>
+      <c r="CB62">
+        <v>148691.41</v>
+      </c>
       <c r="CC62" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:81">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -12893,14 +16931,50 @@
       <c r="AO63">
         <v>80000</v>
       </c>
+      <c r="AP63">
+        <v>80000</v>
+      </c>
+      <c r="AQ63">
+        <v>48647.91</v>
+      </c>
+      <c r="AR63">
+        <v>42494.63</v>
+      </c>
       <c r="AS63" t="s">
         <v>290</v>
       </c>
+      <c r="AT63">
+        <v>80000</v>
+      </c>
+      <c r="AU63">
+        <v>53650.85</v>
+      </c>
+      <c r="AV63">
+        <v>49992.98</v>
+      </c>
       <c r="AW63" t="s">
         <v>290</v>
       </c>
+      <c r="AX63">
+        <v>80000</v>
+      </c>
+      <c r="AY63">
+        <v>55047.39</v>
+      </c>
+      <c r="AZ63">
+        <v>46221.92</v>
+      </c>
       <c r="BA63" t="s">
         <v>290</v>
+      </c>
+      <c r="BB63">
+        <v>80000</v>
+      </c>
+      <c r="BC63">
+        <v>75604.98</v>
+      </c>
+      <c r="BD63">
+        <v>69905.59</v>
       </c>
       <c r="BE63" t="s">
         <v>290</v>
@@ -12909,14 +16983,23 @@
         <v>80000</v>
       </c>
       <c r="BG63">
-        <v>80000</v>
+        <v>65344.94</v>
       </c>
       <c r="BH63">
-        <v>80000</v>
+        <v>40084.66</v>
       </c>
       <c r="BI63" t="s">
         <v>704</v>
       </c>
+      <c r="BJ63">
+        <v>80000</v>
+      </c>
+      <c r="BK63">
+        <v>59441.95</v>
+      </c>
+      <c r="BL63">
+        <v>41639.57</v>
+      </c>
       <c r="BM63" t="s">
         <v>290</v>
       </c>
@@ -12924,7 +17007,10 @@
         <v>80000</v>
       </c>
       <c r="BO63">
-        <v>80000</v>
+        <v>56739.4</v>
+      </c>
+      <c r="BP63">
+        <v>46538.34</v>
       </c>
       <c r="BQ63" t="s">
         <v>290</v>
@@ -12933,19 +17019,40 @@
         <v>90000</v>
       </c>
       <c r="BS63">
+        <v>57564.61</v>
+      </c>
+      <c r="BT63">
+        <v>35261.72</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV63">
         <v>90000</v>
       </c>
-      <c r="BU63" t="s">
-        <v>290</v>
+      <c r="BW63">
+        <v>56266.94</v>
+      </c>
+      <c r="BX63">
+        <v>47205.94</v>
       </c>
       <c r="BY63" t="s">
         <v>290</v>
       </c>
+      <c r="BZ63">
+        <v>90000</v>
+      </c>
+      <c r="CA63">
+        <v>79511.83</v>
+      </c>
+      <c r="CB63">
+        <v>52785.7</v>
+      </c>
       <c r="CC63" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:81">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -13057,17 +17164,62 @@
       <c r="AO64">
         <v>30000</v>
       </c>
+      <c r="AP64">
+        <v>30000</v>
+      </c>
+      <c r="AQ64">
+        <v>22243.59</v>
+      </c>
+      <c r="AR64">
+        <v>19569.29</v>
+      </c>
       <c r="AS64" t="s">
         <v>290</v>
       </c>
+      <c r="AT64">
+        <v>30000</v>
+      </c>
+      <c r="AU64">
+        <v>28045.83</v>
+      </c>
+      <c r="AV64">
+        <v>22363.46</v>
+      </c>
       <c r="AW64" t="s">
         <v>290</v>
       </c>
+      <c r="AX64">
+        <v>30000</v>
+      </c>
+      <c r="AY64">
+        <v>25620.87</v>
+      </c>
+      <c r="AZ64">
+        <v>17313.88</v>
+      </c>
       <c r="BA64" t="s">
         <v>290</v>
       </c>
+      <c r="BB64">
+        <v>30000</v>
+      </c>
+      <c r="BC64">
+        <v>18450.05</v>
+      </c>
+      <c r="BD64">
+        <v>14629.82</v>
+      </c>
       <c r="BE64" t="s">
         <v>290</v>
+      </c>
+      <c r="BF64">
+        <v>30000</v>
+      </c>
+      <c r="BG64">
+        <v>21199.19</v>
+      </c>
+      <c r="BH64">
+        <v>18079.56</v>
       </c>
       <c r="BI64" t="s">
         <v>290</v>
@@ -13076,28 +17228,64 @@
         <v>30000</v>
       </c>
       <c r="BK64">
-        <v>30000</v>
+        <v>26063.25</v>
       </c>
       <c r="BL64">
-        <v>30000</v>
+        <v>21696.11</v>
       </c>
       <c r="BM64" t="s">
         <v>733</v>
       </c>
+      <c r="BN64">
+        <v>30000</v>
+      </c>
+      <c r="BO64">
+        <v>27855.8</v>
+      </c>
+      <c r="BP64">
+        <v>22277.78</v>
+      </c>
       <c r="BQ64" t="s">
         <v>290</v>
       </c>
+      <c r="BR64">
+        <v>30000</v>
+      </c>
+      <c r="BS64">
+        <v>21729.7</v>
+      </c>
+      <c r="BT64">
+        <v>17734.54</v>
+      </c>
       <c r="BU64" t="s">
         <v>290</v>
       </c>
+      <c r="BV64">
+        <v>30000</v>
+      </c>
+      <c r="BW64">
+        <v>26722.96</v>
+      </c>
+      <c r="BX64">
+        <v>23815.74</v>
+      </c>
       <c r="BY64" t="s">
         <v>290</v>
       </c>
+      <c r="BZ64">
+        <v>30000</v>
+      </c>
+      <c r="CA64">
+        <v>23897.75</v>
+      </c>
+      <c r="CB64">
+        <v>21422.51</v>
+      </c>
       <c r="CC64" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:81">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -13209,14 +17397,50 @@
       <c r="AO65">
         <v>91430</v>
       </c>
+      <c r="AP65">
+        <v>71430</v>
+      </c>
+      <c r="AQ65">
+        <v>56668.07</v>
+      </c>
+      <c r="AR65">
+        <v>44449.43</v>
+      </c>
       <c r="AS65" t="s">
         <v>290</v>
       </c>
+      <c r="AT65">
+        <v>71430</v>
+      </c>
+      <c r="AU65">
+        <v>47559.35</v>
+      </c>
+      <c r="AV65">
+        <v>38244.52</v>
+      </c>
       <c r="AW65" t="s">
         <v>290</v>
       </c>
+      <c r="AX65">
+        <v>71430</v>
+      </c>
+      <c r="AY65">
+        <v>48857.87</v>
+      </c>
+      <c r="AZ65">
+        <v>34844.76</v>
+      </c>
       <c r="BA65" t="s">
         <v>290</v>
+      </c>
+      <c r="BB65">
+        <v>71430</v>
+      </c>
+      <c r="BC65">
+        <v>58695.78</v>
+      </c>
+      <c r="BD65">
+        <v>36329.16</v>
       </c>
       <c r="BE65" t="s">
         <v>290</v>
@@ -13225,10 +17449,10 @@
         <v>71430</v>
       </c>
       <c r="BG65">
-        <v>71430</v>
+        <v>44333.77</v>
       </c>
       <c r="BH65">
-        <v>71430</v>
+        <v>38024.56</v>
       </c>
       <c r="BI65" t="s">
         <v>705</v>
@@ -13237,28 +17461,64 @@
         <v>20000</v>
       </c>
       <c r="BK65">
+        <v>18968.58</v>
+      </c>
+      <c r="BL65">
+        <v>13452.44</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>290</v>
+      </c>
+      <c r="BN65">
         <v>20000</v>
       </c>
-      <c r="BL65">
+      <c r="BO65">
+        <v>17746.95</v>
+      </c>
+      <c r="BP65">
+        <v>16379.8</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR65">
         <v>20000</v>
       </c>
-      <c r="BM65" t="s">
-        <v>290</v>
-      </c>
-      <c r="BQ65" t="s">
-        <v>290</v>
+      <c r="BS65">
+        <v>13063.23</v>
+      </c>
+      <c r="BT65">
+        <v>12380.15</v>
       </c>
       <c r="BU65" t="s">
         <v>290</v>
       </c>
+      <c r="BV65">
+        <v>20000</v>
+      </c>
+      <c r="BW65">
+        <v>16587.09</v>
+      </c>
+      <c r="BX65">
+        <v>11409.41</v>
+      </c>
       <c r="BY65" t="s">
         <v>290</v>
       </c>
+      <c r="BZ65">
+        <v>20000</v>
+      </c>
+      <c r="CA65">
+        <v>15776.45</v>
+      </c>
+      <c r="CB65">
+        <v>14498.58</v>
+      </c>
       <c r="CC65" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:81">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -13370,14 +17630,50 @@
       <c r="AO66">
         <v>181000</v>
       </c>
+      <c r="AP66">
+        <v>91000</v>
+      </c>
+      <c r="AQ66">
+        <v>76945.67999999999</v>
+      </c>
+      <c r="AR66">
+        <v>67882.77</v>
+      </c>
       <c r="AS66" t="s">
         <v>290</v>
       </c>
+      <c r="AT66">
+        <v>91000</v>
+      </c>
+      <c r="AU66">
+        <v>84172.7</v>
+      </c>
+      <c r="AV66">
+        <v>61632.62</v>
+      </c>
       <c r="AW66" t="s">
         <v>290</v>
       </c>
+      <c r="AX66">
+        <v>91000</v>
+      </c>
+      <c r="AY66">
+        <v>68396.72</v>
+      </c>
+      <c r="AZ66">
+        <v>63001.23</v>
+      </c>
       <c r="BA66" t="s">
         <v>290</v>
+      </c>
+      <c r="BB66">
+        <v>91000</v>
+      </c>
+      <c r="BC66">
+        <v>77790.82000000001</v>
+      </c>
+      <c r="BD66">
+        <v>73571.02</v>
       </c>
       <c r="BE66" t="s">
         <v>290</v>
@@ -13386,10 +17682,10 @@
         <v>91000</v>
       </c>
       <c r="BG66">
-        <v>91000</v>
+        <v>70680.91</v>
       </c>
       <c r="BH66">
-        <v>91000</v>
+        <v>61775.12</v>
       </c>
       <c r="BI66" t="s">
         <v>706</v>
@@ -13398,28 +17694,64 @@
         <v>90000</v>
       </c>
       <c r="BK66">
-        <v>90000</v>
+        <v>80626.35000000001</v>
       </c>
       <c r="BL66">
-        <v>90000</v>
+        <v>56912.34</v>
       </c>
       <c r="BM66" t="s">
         <v>734</v>
       </c>
+      <c r="BN66">
+        <v>90000</v>
+      </c>
+      <c r="BO66">
+        <v>70349.85000000001</v>
+      </c>
+      <c r="BP66">
+        <v>60441.59</v>
+      </c>
       <c r="BQ66" t="s">
         <v>290</v>
       </c>
+      <c r="BR66">
+        <v>90000</v>
+      </c>
+      <c r="BS66">
+        <v>62641.97</v>
+      </c>
+      <c r="BT66">
+        <v>38082.76</v>
+      </c>
       <c r="BU66" t="s">
         <v>290</v>
       </c>
+      <c r="BV66">
+        <v>90000</v>
+      </c>
+      <c r="BW66">
+        <v>70747.5</v>
+      </c>
+      <c r="BX66">
+        <v>58036.84</v>
+      </c>
       <c r="BY66" t="s">
         <v>290</v>
       </c>
+      <c r="BZ66">
+        <v>90000</v>
+      </c>
+      <c r="CA66">
+        <v>82598.38</v>
+      </c>
+      <c r="CB66">
+        <v>59626.57</v>
+      </c>
       <c r="CC66" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:81">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -13537,17 +17869,62 @@
       <c r="AO67">
         <v>515447</v>
       </c>
+      <c r="AP67">
+        <v>289215</v>
+      </c>
+      <c r="AQ67">
+        <v>243724.14</v>
+      </c>
+      <c r="AR67">
+        <v>184681.97</v>
+      </c>
       <c r="AS67" t="s">
         <v>290</v>
       </c>
+      <c r="AT67">
+        <v>289215</v>
+      </c>
+      <c r="AU67">
+        <v>187471.44</v>
+      </c>
+      <c r="AV67">
+        <v>157999.35</v>
+      </c>
       <c r="AW67" t="s">
         <v>290</v>
       </c>
+      <c r="AX67">
+        <v>289215</v>
+      </c>
+      <c r="AY67">
+        <v>176212.26</v>
+      </c>
+      <c r="AZ67">
+        <v>145087.73</v>
+      </c>
       <c r="BA67" t="s">
         <v>290</v>
       </c>
+      <c r="BB67">
+        <v>289215</v>
+      </c>
+      <c r="BC67">
+        <v>216993.05</v>
+      </c>
+      <c r="BD67">
+        <v>164328</v>
+      </c>
       <c r="BE67" t="s">
         <v>290</v>
+      </c>
+      <c r="BF67">
+        <v>289215</v>
+      </c>
+      <c r="BG67">
+        <v>260100.57</v>
+      </c>
+      <c r="BH67">
+        <v>225953.39</v>
       </c>
       <c r="BI67" t="s">
         <v>290</v>
@@ -13556,10 +17933,10 @@
         <v>289215</v>
       </c>
       <c r="BK67">
-        <v>289215</v>
+        <v>174443.81</v>
       </c>
       <c r="BL67">
-        <v>289215</v>
+        <v>113879.39</v>
       </c>
       <c r="BM67" t="s">
         <v>735</v>
@@ -13568,10 +17945,10 @@
         <v>226232</v>
       </c>
       <c r="BO67">
-        <v>226232</v>
+        <v>188189.85</v>
       </c>
       <c r="BP67">
-        <v>226232</v>
+        <v>157134.15</v>
       </c>
       <c r="BQ67" t="s">
         <v>757</v>
@@ -13580,19 +17957,40 @@
         <v>83390</v>
       </c>
       <c r="BS67">
+        <v>50852.22</v>
+      </c>
+      <c r="BT67">
+        <v>42375.11</v>
+      </c>
+      <c r="BU67" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV67">
         <v>83390</v>
       </c>
-      <c r="BU67" t="s">
-        <v>290</v>
+      <c r="BW67">
+        <v>76001.06</v>
+      </c>
+      <c r="BX67">
+        <v>49847.86</v>
       </c>
       <c r="BY67" t="s">
         <v>290</v>
       </c>
+      <c r="BZ67">
+        <v>83390</v>
+      </c>
+      <c r="CA67">
+        <v>75540.95</v>
+      </c>
+      <c r="CB67">
+        <v>60794.64</v>
+      </c>
       <c r="CC67" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:81">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -13710,8 +18108,26 @@
       <c r="AO68">
         <v>110037</v>
       </c>
+      <c r="AP68">
+        <v>33208</v>
+      </c>
+      <c r="AQ68">
+        <v>23653.81</v>
+      </c>
+      <c r="AR68">
+        <v>21193.11</v>
+      </c>
       <c r="AS68" t="s">
         <v>290</v>
+      </c>
+      <c r="AT68">
+        <v>33208</v>
+      </c>
+      <c r="AU68">
+        <v>27552.48</v>
+      </c>
+      <c r="AV68">
+        <v>16544.88</v>
       </c>
       <c r="AW68" t="s">
         <v>290</v>
@@ -13720,10 +18136,10 @@
         <v>33208</v>
       </c>
       <c r="AY68">
-        <v>33208</v>
+        <v>29940.14</v>
       </c>
       <c r="AZ68">
-        <v>33208</v>
+        <v>25544.25</v>
       </c>
       <c r="BA68" t="s">
         <v>290</v>
@@ -13732,10 +18148,10 @@
         <v>3074</v>
       </c>
       <c r="BC68">
-        <v>3074</v>
+        <v>2553.79</v>
       </c>
       <c r="BD68">
-        <v>3074</v>
+        <v>2190.61</v>
       </c>
       <c r="BE68" t="s">
         <v>290</v>
@@ -13744,10 +18160,10 @@
         <v>49444</v>
       </c>
       <c r="BG68">
-        <v>49444</v>
+        <v>31017.52</v>
       </c>
       <c r="BH68">
-        <v>49444</v>
+        <v>23608.39</v>
       </c>
       <c r="BI68" t="s">
         <v>290</v>
@@ -13756,28 +18172,64 @@
         <v>24311</v>
       </c>
       <c r="BK68">
-        <v>24311</v>
+        <v>18913.1</v>
       </c>
       <c r="BL68">
-        <v>24311</v>
+        <v>16709.79</v>
       </c>
       <c r="BM68" t="s">
         <v>736</v>
       </c>
+      <c r="BN68">
+        <v>24311</v>
+      </c>
+      <c r="BO68">
+        <v>18986.24</v>
+      </c>
+      <c r="BP68">
+        <v>15532.97</v>
+      </c>
       <c r="BQ68" t="s">
         <v>290</v>
       </c>
+      <c r="BR68">
+        <v>24311</v>
+      </c>
+      <c r="BS68">
+        <v>20286.43</v>
+      </c>
+      <c r="BT68">
+        <v>18581.27</v>
+      </c>
       <c r="BU68" t="s">
         <v>290</v>
       </c>
+      <c r="BV68">
+        <v>24311</v>
+      </c>
+      <c r="BW68">
+        <v>18542.53</v>
+      </c>
+      <c r="BX68">
+        <v>13287.53</v>
+      </c>
       <c r="BY68" t="s">
         <v>290</v>
       </c>
+      <c r="BZ68">
+        <v>24311</v>
+      </c>
+      <c r="CA68">
+        <v>18669.54</v>
+      </c>
+      <c r="CB68">
+        <v>16261.04</v>
+      </c>
       <c r="CC68" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:81">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -13892,11 +18344,38 @@
       <c r="AO69">
         <v>244179</v>
       </c>
+      <c r="AP69">
+        <v>44179</v>
+      </c>
+      <c r="AQ69">
+        <v>34560</v>
+      </c>
+      <c r="AR69">
+        <v>30212.74</v>
+      </c>
       <c r="AS69" t="s">
         <v>290</v>
       </c>
+      <c r="AT69">
+        <v>44179</v>
+      </c>
+      <c r="AU69">
+        <v>39706.4</v>
+      </c>
+      <c r="AV69">
+        <v>33006.4</v>
+      </c>
       <c r="AW69" t="s">
         <v>290</v>
+      </c>
+      <c r="AX69">
+        <v>44179</v>
+      </c>
+      <c r="AY69">
+        <v>29858.81</v>
+      </c>
+      <c r="AZ69">
+        <v>22897.57</v>
       </c>
       <c r="BA69" t="s">
         <v>290</v>
@@ -13905,10 +18384,10 @@
         <v>44179</v>
       </c>
       <c r="BC69">
-        <v>44179</v>
+        <v>38719.37</v>
       </c>
       <c r="BD69">
-        <v>44179</v>
+        <v>24282.97</v>
       </c>
       <c r="BE69" t="s">
         <v>290</v>
@@ -13917,31 +18396,76 @@
         <v>200000</v>
       </c>
       <c r="BG69">
-        <v>200000</v>
+        <v>142311.49</v>
       </c>
       <c r="BH69">
-        <v>200000</v>
+        <v>110714.4</v>
       </c>
       <c r="BI69" t="s">
         <v>707</v>
       </c>
+      <c r="BJ69">
+        <v>200000</v>
+      </c>
+      <c r="BK69">
+        <v>124018.88</v>
+      </c>
+      <c r="BL69">
+        <v>110526.26</v>
+      </c>
       <c r="BM69" t="s">
         <v>290</v>
       </c>
+      <c r="BN69">
+        <v>200000</v>
+      </c>
+      <c r="BO69">
+        <v>158806.22</v>
+      </c>
+      <c r="BP69">
+        <v>130730.88</v>
+      </c>
       <c r="BQ69" t="s">
         <v>290</v>
       </c>
+      <c r="BR69">
+        <v>200000</v>
+      </c>
+      <c r="BS69">
+        <v>126358.89</v>
+      </c>
+      <c r="BT69">
+        <v>92460.47</v>
+      </c>
       <c r="BU69" t="s">
         <v>290</v>
       </c>
+      <c r="BV69">
+        <v>200000</v>
+      </c>
+      <c r="BW69">
+        <v>149939.87</v>
+      </c>
+      <c r="BX69">
+        <v>99570.16</v>
+      </c>
       <c r="BY69" t="s">
         <v>290</v>
       </c>
+      <c r="BZ69">
+        <v>200000</v>
+      </c>
+      <c r="CA69">
+        <v>175273.17</v>
+      </c>
+      <c r="CB69">
+        <v>146598.1</v>
+      </c>
       <c r="CC69" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:81">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -14053,14 +18577,50 @@
       <c r="AO70">
         <v>150000</v>
       </c>
+      <c r="AP70">
+        <v>75000</v>
+      </c>
+      <c r="AQ70">
+        <v>71137.58</v>
+      </c>
+      <c r="AR70">
+        <v>58714.16</v>
+      </c>
       <c r="AS70" t="s">
         <v>290</v>
       </c>
+      <c r="AT70">
+        <v>75000</v>
+      </c>
+      <c r="AU70">
+        <v>50137.09</v>
+      </c>
+      <c r="AV70">
+        <v>30139.09</v>
+      </c>
       <c r="AW70" t="s">
         <v>290</v>
       </c>
+      <c r="AX70">
+        <v>75000</v>
+      </c>
+      <c r="AY70">
+        <v>68894.87</v>
+      </c>
+      <c r="AZ70">
+        <v>44127.24</v>
+      </c>
       <c r="BA70" t="s">
         <v>290</v>
+      </c>
+      <c r="BB70">
+        <v>75000</v>
+      </c>
+      <c r="BC70">
+        <v>66018.08</v>
+      </c>
+      <c r="BD70">
+        <v>59576.42</v>
       </c>
       <c r="BE70" t="s">
         <v>290</v>
@@ -14069,10 +18629,10 @@
         <v>75000</v>
       </c>
       <c r="BG70">
-        <v>75000</v>
+        <v>70352.3</v>
       </c>
       <c r="BH70">
-        <v>75000</v>
+        <v>45274.43</v>
       </c>
       <c r="BI70" t="s">
         <v>290</v>
@@ -14081,10 +18641,10 @@
         <v>50000</v>
       </c>
       <c r="BK70">
-        <v>50000</v>
+        <v>42531.3</v>
       </c>
       <c r="BL70">
-        <v>50000</v>
+        <v>26032.63</v>
       </c>
       <c r="BM70" t="s">
         <v>737</v>
@@ -14093,25 +18653,52 @@
         <v>25000</v>
       </c>
       <c r="BO70">
-        <v>25000</v>
+        <v>19420.48</v>
       </c>
       <c r="BP70">
-        <v>25000</v>
+        <v>13164.64</v>
       </c>
       <c r="BQ70" t="s">
         <v>758</v>
       </c>
+      <c r="BR70">
+        <v>25000</v>
+      </c>
+      <c r="BS70">
+        <v>22781.14</v>
+      </c>
+      <c r="BT70">
+        <v>20028.88</v>
+      </c>
       <c r="BU70" t="s">
         <v>290</v>
       </c>
+      <c r="BV70">
+        <v>25000</v>
+      </c>
+      <c r="BW70">
+        <v>16902.52</v>
+      </c>
+      <c r="BX70">
+        <v>14695.85</v>
+      </c>
       <c r="BY70" t="s">
         <v>290</v>
       </c>
+      <c r="BZ70">
+        <v>25000</v>
+      </c>
+      <c r="CA70">
+        <v>22095.32</v>
+      </c>
+      <c r="CB70">
+        <v>20614.9</v>
+      </c>
       <c r="CC70" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:81">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -14226,17 +18813,62 @@
       <c r="AO71">
         <v>530178</v>
       </c>
+      <c r="AP71">
+        <v>160137</v>
+      </c>
+      <c r="AQ71">
+        <v>111682.93</v>
+      </c>
+      <c r="AR71">
+        <v>100843.52</v>
+      </c>
       <c r="AS71" t="s">
         <v>290</v>
       </c>
+      <c r="AT71">
+        <v>160137</v>
+      </c>
+      <c r="AU71">
+        <v>150577.63</v>
+      </c>
+      <c r="AV71">
+        <v>130119.84</v>
+      </c>
       <c r="AW71" t="s">
         <v>290</v>
       </c>
+      <c r="AX71">
+        <v>160137</v>
+      </c>
+      <c r="AY71">
+        <v>151430.18</v>
+      </c>
+      <c r="AZ71">
+        <v>98470.24000000001</v>
+      </c>
       <c r="BA71" t="s">
         <v>290</v>
       </c>
+      <c r="BB71">
+        <v>160137</v>
+      </c>
+      <c r="BC71">
+        <v>98617.09</v>
+      </c>
+      <c r="BD71">
+        <v>60521.04</v>
+      </c>
       <c r="BE71" t="s">
         <v>290</v>
+      </c>
+      <c r="BF71">
+        <v>160137</v>
+      </c>
+      <c r="BG71">
+        <v>144597.21</v>
+      </c>
+      <c r="BH71">
+        <v>136904.44</v>
       </c>
       <c r="BI71" t="s">
         <v>290</v>
@@ -14245,10 +18877,10 @@
         <v>160137</v>
       </c>
       <c r="BK71">
-        <v>160137</v>
+        <v>102039.86</v>
       </c>
       <c r="BL71">
-        <v>160137</v>
+        <v>63924.96</v>
       </c>
       <c r="BM71" t="s">
         <v>290</v>
@@ -14257,25 +18889,52 @@
         <v>370041</v>
       </c>
       <c r="BO71">
+        <v>311858.14</v>
+      </c>
+      <c r="BP71">
+        <v>229032.08</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>290</v>
+      </c>
+      <c r="BR71">
         <v>370041</v>
       </c>
-      <c r="BP71">
+      <c r="BS71">
+        <v>252259.69</v>
+      </c>
+      <c r="BT71">
+        <v>229931.82</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV71">
         <v>370041</v>
       </c>
-      <c r="BQ71" t="s">
-        <v>290</v>
-      </c>
-      <c r="BU71" t="s">
-        <v>290</v>
+      <c r="BW71">
+        <v>283981.2</v>
+      </c>
+      <c r="BX71">
+        <v>221491.57</v>
       </c>
       <c r="BY71" t="s">
         <v>290</v>
       </c>
+      <c r="BZ71">
+        <v>370041</v>
+      </c>
+      <c r="CA71">
+        <v>335101.95</v>
+      </c>
+      <c r="CB71">
+        <v>209770.02</v>
+      </c>
       <c r="CC71" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:81">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -14387,17 +19046,62 @@
       <c r="AO72">
         <v>20000</v>
       </c>
+      <c r="AP72">
+        <v>20000</v>
+      </c>
+      <c r="AQ72">
+        <v>13915.71</v>
+      </c>
+      <c r="AR72">
+        <v>9617.709999999999</v>
+      </c>
       <c r="AS72" t="s">
         <v>290</v>
       </c>
+      <c r="AT72">
+        <v>20000</v>
+      </c>
+      <c r="AU72">
+        <v>14555.36</v>
+      </c>
+      <c r="AV72">
+        <v>10938</v>
+      </c>
       <c r="AW72" t="s">
         <v>290</v>
       </c>
+      <c r="AX72">
+        <v>20000</v>
+      </c>
+      <c r="AY72">
+        <v>12996.92</v>
+      </c>
+      <c r="AZ72">
+        <v>11495.79</v>
+      </c>
       <c r="BA72" t="s">
         <v>290</v>
       </c>
+      <c r="BB72">
+        <v>20000</v>
+      </c>
+      <c r="BC72">
+        <v>15856.23</v>
+      </c>
+      <c r="BD72">
+        <v>12270.86</v>
+      </c>
       <c r="BE72" t="s">
         <v>290</v>
+      </c>
+      <c r="BF72">
+        <v>20000</v>
+      </c>
+      <c r="BG72">
+        <v>18930.15</v>
+      </c>
+      <c r="BH72">
+        <v>16636.6</v>
       </c>
       <c r="BI72" t="s">
         <v>290</v>
@@ -14406,28 +19110,64 @@
         <v>20000</v>
       </c>
       <c r="BK72">
-        <v>20000</v>
+        <v>16752.95</v>
       </c>
       <c r="BL72">
-        <v>20000</v>
+        <v>13341.39</v>
       </c>
       <c r="BM72" t="s">
         <v>738</v>
       </c>
+      <c r="BN72">
+        <v>20000</v>
+      </c>
+      <c r="BO72">
+        <v>12894.19</v>
+      </c>
+      <c r="BP72">
+        <v>11578.51</v>
+      </c>
       <c r="BQ72" t="s">
         <v>290</v>
       </c>
+      <c r="BR72">
+        <v>20000</v>
+      </c>
+      <c r="BS72">
+        <v>16765.72</v>
+      </c>
+      <c r="BT72">
+        <v>11610.44</v>
+      </c>
       <c r="BU72" t="s">
         <v>290</v>
       </c>
+      <c r="BV72">
+        <v>20000</v>
+      </c>
+      <c r="BW72">
+        <v>18282.35</v>
+      </c>
+      <c r="BX72">
+        <v>12505</v>
+      </c>
       <c r="BY72" t="s">
         <v>290</v>
       </c>
+      <c r="BZ72">
+        <v>20000</v>
+      </c>
+      <c r="CA72">
+        <v>17950.2</v>
+      </c>
+      <c r="CB72">
+        <v>15680.12</v>
+      </c>
       <c r="CC72" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:81">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -14447,7 +19187,7 @@
         <v>122</v>
       </c>
       <c r="G73">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="s">
         <v>165</v>
@@ -14537,19 +19277,64 @@
         <v>5000000</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>450000</v>
+      </c>
+      <c r="AP73">
+        <v>7000000</v>
+      </c>
+      <c r="AQ73">
+        <v>4381145.7</v>
+      </c>
+      <c r="AR73">
+        <v>2749155.54</v>
       </c>
       <c r="AS73" t="s">
         <v>290</v>
       </c>
+      <c r="AT73">
+        <v>7000000</v>
+      </c>
+      <c r="AU73">
+        <v>5520208.25</v>
+      </c>
+      <c r="AV73">
+        <v>4700566.44</v>
+      </c>
       <c r="AW73" t="s">
         <v>290</v>
       </c>
+      <c r="AX73">
+        <v>7000000</v>
+      </c>
+      <c r="AY73">
+        <v>6229448.97</v>
+      </c>
+      <c r="AZ73">
+        <v>3820343.7</v>
+      </c>
       <c r="BA73" t="s">
         <v>290</v>
       </c>
+      <c r="BB73">
+        <v>7000000</v>
+      </c>
+      <c r="BC73">
+        <v>6601236.91</v>
+      </c>
+      <c r="BD73">
+        <v>4640937.07</v>
+      </c>
       <c r="BE73" t="s">
         <v>290</v>
+      </c>
+      <c r="BF73">
+        <v>7000000</v>
+      </c>
+      <c r="BG73">
+        <v>5340672.17</v>
+      </c>
+      <c r="BH73">
+        <v>3537128.34</v>
       </c>
       <c r="BI73" t="s">
         <v>290</v>
@@ -14557,6 +19342,12 @@
       <c r="BJ73">
         <v>7000000</v>
       </c>
+      <c r="BK73">
+        <v>5079202.82</v>
+      </c>
+      <c r="BL73">
+        <v>3204515.03</v>
+      </c>
       <c r="BM73" t="s">
         <v>290</v>
       </c>
@@ -14564,22 +19355,52 @@
         <v>3500000</v>
       </c>
       <c r="BO73">
-        <v>5000000</v>
+        <v>2322150.08</v>
+      </c>
+      <c r="BP73">
+        <v>1832752.63</v>
       </c>
       <c r="BQ73" t="s">
         <v>759</v>
       </c>
+      <c r="BR73">
+        <v>5000000</v>
+      </c>
+      <c r="BS73">
+        <v>3078442.67</v>
+      </c>
+      <c r="BT73">
+        <v>2383038.24</v>
+      </c>
       <c r="BU73" t="s">
         <v>290</v>
       </c>
+      <c r="BV73">
+        <v>5000000</v>
+      </c>
+      <c r="BW73">
+        <v>3576225.22</v>
+      </c>
+      <c r="BX73">
+        <v>2532023.71</v>
+      </c>
       <c r="BY73" t="s">
         <v>290</v>
       </c>
+      <c r="BZ73">
+        <v>5000000</v>
+      </c>
+      <c r="CA73">
+        <v>4621797.44</v>
+      </c>
+      <c r="CB73">
+        <v>3969426.73</v>
+      </c>
       <c r="CC73" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:81">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -14691,20 +19512,74 @@
       <c r="AO74">
         <v>10000</v>
       </c>
+      <c r="AP74">
+        <v>20000</v>
+      </c>
+      <c r="AQ74">
+        <v>18036.25</v>
+      </c>
+      <c r="AR74">
+        <v>12278.27</v>
+      </c>
       <c r="AS74" t="s">
         <v>290</v>
       </c>
+      <c r="AT74">
+        <v>20000</v>
+      </c>
+      <c r="AU74">
+        <v>13210.52</v>
+      </c>
+      <c r="AV74">
+        <v>8831.299999999999</v>
+      </c>
       <c r="AW74" t="s">
         <v>290</v>
       </c>
+      <c r="AX74">
+        <v>20000</v>
+      </c>
+      <c r="AY74">
+        <v>13178.14</v>
+      </c>
+      <c r="AZ74">
+        <v>12281.82</v>
+      </c>
       <c r="BA74" t="s">
         <v>290</v>
       </c>
+      <c r="BB74">
+        <v>20000</v>
+      </c>
+      <c r="BC74">
+        <v>16131.4</v>
+      </c>
+      <c r="BD74">
+        <v>12539.51</v>
+      </c>
       <c r="BE74" t="s">
         <v>290</v>
       </c>
+      <c r="BF74">
+        <v>20000</v>
+      </c>
+      <c r="BG74">
+        <v>16257.49</v>
+      </c>
+      <c r="BH74">
+        <v>13227.59</v>
+      </c>
       <c r="BI74" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ74">
+        <v>20000</v>
+      </c>
+      <c r="BK74">
+        <v>14750.87</v>
+      </c>
+      <c r="BL74">
+        <v>12372.45</v>
       </c>
       <c r="BM74" t="s">
         <v>290</v>
@@ -14713,10 +19588,10 @@
         <v>20000</v>
       </c>
       <c r="BO74">
-        <v>10000</v>
+        <v>17047.82</v>
       </c>
       <c r="BP74">
-        <v>10000</v>
+        <v>14093.36</v>
       </c>
       <c r="BQ74" t="s">
         <v>760</v>
@@ -14724,17 +19599,41 @@
       <c r="BR74">
         <v>10000</v>
       </c>
+      <c r="BS74">
+        <v>8495.77</v>
+      </c>
+      <c r="BT74">
+        <v>5896.28</v>
+      </c>
       <c r="BU74" t="s">
         <v>290</v>
       </c>
+      <c r="BV74">
+        <v>10000</v>
+      </c>
+      <c r="BW74">
+        <v>8307.33</v>
+      </c>
+      <c r="BX74">
+        <v>6619.76</v>
+      </c>
       <c r="BY74" t="s">
         <v>290</v>
       </c>
+      <c r="BZ74">
+        <v>10000</v>
+      </c>
+      <c r="CA74">
+        <v>9072.49</v>
+      </c>
+      <c r="CB74">
+        <v>5475.94</v>
+      </c>
       <c r="CC74" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:81">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -14846,20 +19745,74 @@
       <c r="AO75">
         <v>136000</v>
       </c>
+      <c r="AP75">
+        <v>155000</v>
+      </c>
+      <c r="AQ75">
+        <v>98896.33</v>
+      </c>
+      <c r="AR75">
+        <v>71542.17999999999</v>
+      </c>
       <c r="AS75" t="s">
         <v>290</v>
       </c>
+      <c r="AT75">
+        <v>155000</v>
+      </c>
+      <c r="AU75">
+        <v>95618.63</v>
+      </c>
+      <c r="AV75">
+        <v>90362.28</v>
+      </c>
       <c r="AW75" t="s">
         <v>290</v>
       </c>
+      <c r="AX75">
+        <v>155000</v>
+      </c>
+      <c r="AY75">
+        <v>108154.48</v>
+      </c>
+      <c r="AZ75">
+        <v>65356.01</v>
+      </c>
       <c r="BA75" t="s">
         <v>290</v>
       </c>
+      <c r="BB75">
+        <v>155000</v>
+      </c>
+      <c r="BC75">
+        <v>122063.53</v>
+      </c>
+      <c r="BD75">
+        <v>101420.62</v>
+      </c>
       <c r="BE75" t="s">
         <v>290</v>
       </c>
+      <c r="BF75">
+        <v>155000</v>
+      </c>
+      <c r="BG75">
+        <v>110166.57</v>
+      </c>
+      <c r="BH75">
+        <v>89883.56</v>
+      </c>
       <c r="BI75" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ75">
+        <v>155000</v>
+      </c>
+      <c r="BK75">
+        <v>98067.59</v>
+      </c>
+      <c r="BL75">
+        <v>88241.67999999999</v>
       </c>
       <c r="BM75" t="s">
         <v>290</v>
@@ -14868,10 +19821,10 @@
         <v>155000</v>
       </c>
       <c r="BO75">
-        <v>136000</v>
+        <v>101726.63</v>
       </c>
       <c r="BP75">
-        <v>136000</v>
+        <v>67948.13</v>
       </c>
       <c r="BQ75" t="s">
         <v>761</v>
@@ -14880,19 +19833,40 @@
         <v>35000</v>
       </c>
       <c r="BS75">
+        <v>23067.02</v>
+      </c>
+      <c r="BT75">
+        <v>14447.99</v>
+      </c>
+      <c r="BU75" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV75">
         <v>35000</v>
       </c>
-      <c r="BU75" t="s">
-        <v>290</v>
+      <c r="BW75">
+        <v>26776.42</v>
+      </c>
+      <c r="BX75">
+        <v>22326.03</v>
       </c>
       <c r="BY75" t="s">
         <v>290</v>
       </c>
+      <c r="BZ75">
+        <v>35000</v>
+      </c>
+      <c r="CA75">
+        <v>32978.12</v>
+      </c>
+      <c r="CB75">
+        <v>21990.38</v>
+      </c>
       <c r="CC75" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:81">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -15004,14 +19978,50 @@
       <c r="AO76">
         <v>86585</v>
       </c>
+      <c r="AP76">
+        <v>57585</v>
+      </c>
+      <c r="AQ76">
+        <v>48932.3</v>
+      </c>
+      <c r="AR76">
+        <v>35176.01</v>
+      </c>
       <c r="AS76" t="s">
         <v>290</v>
       </c>
+      <c r="AT76">
+        <v>57585</v>
+      </c>
+      <c r="AU76">
+        <v>52197.91</v>
+      </c>
+      <c r="AV76">
+        <v>41420.88</v>
+      </c>
       <c r="AW76" t="s">
         <v>290</v>
       </c>
+      <c r="AX76">
+        <v>57585</v>
+      </c>
+      <c r="AY76">
+        <v>39671.16</v>
+      </c>
+      <c r="AZ76">
+        <v>34014.11</v>
+      </c>
       <c r="BA76" t="s">
         <v>290</v>
+      </c>
+      <c r="BB76">
+        <v>57585</v>
+      </c>
+      <c r="BC76">
+        <v>45386.09</v>
+      </c>
+      <c r="BD76">
+        <v>27341.97</v>
       </c>
       <c r="BE76" t="s">
         <v>290</v>
@@ -15020,10 +20030,10 @@
         <v>57585</v>
       </c>
       <c r="BG76">
-        <v>57585</v>
+        <v>36899.98</v>
       </c>
       <c r="BH76">
-        <v>57585</v>
+        <v>30328.2</v>
       </c>
       <c r="BI76" t="s">
         <v>708</v>
@@ -15032,10 +20042,10 @@
         <v>15000</v>
       </c>
       <c r="BK76">
-        <v>15000</v>
+        <v>9330.27</v>
       </c>
       <c r="BL76">
-        <v>14000</v>
+        <v>7584.28</v>
       </c>
       <c r="BM76" t="s">
         <v>739</v>
@@ -15044,10 +20054,10 @@
         <v>15000</v>
       </c>
       <c r="BO76">
-        <v>15000</v>
+        <v>9781.450000000001</v>
       </c>
       <c r="BP76">
-        <v>15000</v>
+        <v>6117.24</v>
       </c>
       <c r="BQ76" t="s">
         <v>762</v>
@@ -15056,19 +20066,40 @@
         <v>15000</v>
       </c>
       <c r="BS76">
+        <v>13420.63</v>
+      </c>
+      <c r="BT76">
+        <v>8309.459999999999</v>
+      </c>
+      <c r="BU76" t="s">
+        <v>290</v>
+      </c>
+      <c r="BV76">
         <v>15000</v>
       </c>
-      <c r="BU76" t="s">
-        <v>290</v>
+      <c r="BW76">
+        <v>11540.57</v>
+      </c>
+      <c r="BX76">
+        <v>10220.16</v>
       </c>
       <c r="BY76" t="s">
         <v>290</v>
       </c>
+      <c r="BZ76">
+        <v>15000</v>
+      </c>
+      <c r="CA76">
+        <v>13537.21</v>
+      </c>
+      <c r="CB76">
+        <v>12526.84</v>
+      </c>
       <c r="CC76" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:81">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -15180,17 +20211,62 @@
       <c r="AO77">
         <v>271827</v>
       </c>
+      <c r="AP77">
+        <v>271827</v>
+      </c>
+      <c r="AQ77">
+        <v>192520.94</v>
+      </c>
+      <c r="AR77">
+        <v>148399.57</v>
+      </c>
       <c r="AS77" t="s">
         <v>290</v>
       </c>
+      <c r="AT77">
+        <v>271827</v>
+      </c>
+      <c r="AU77">
+        <v>204032.2</v>
+      </c>
+      <c r="AV77">
+        <v>139375.21</v>
+      </c>
       <c r="AW77" t="s">
         <v>290</v>
       </c>
+      <c r="AX77">
+        <v>271827</v>
+      </c>
+      <c r="AY77">
+        <v>250287.07</v>
+      </c>
+      <c r="AZ77">
+        <v>163764.03</v>
+      </c>
       <c r="BA77" t="s">
         <v>290</v>
       </c>
+      <c r="BB77">
+        <v>271827</v>
+      </c>
+      <c r="BC77">
+        <v>243366.33</v>
+      </c>
+      <c r="BD77">
+        <v>163153.77</v>
+      </c>
       <c r="BE77" t="s">
         <v>290</v>
+      </c>
+      <c r="BF77">
+        <v>271827</v>
+      </c>
+      <c r="BG77">
+        <v>248409.87</v>
+      </c>
+      <c r="BH77">
+        <v>190088.91</v>
       </c>
       <c r="BI77" t="s">
         <v>290</v>
@@ -15199,28 +20275,64 @@
         <v>271827</v>
       </c>
       <c r="BK77">
-        <v>271827</v>
+        <v>181091.61</v>
       </c>
       <c r="BL77">
-        <v>271827</v>
+        <v>114463.28</v>
       </c>
       <c r="BM77" t="s">
         <v>740</v>
       </c>
+      <c r="BN77">
+        <v>271827</v>
+      </c>
+      <c r="BO77">
+        <v>190046.68</v>
+      </c>
+      <c r="BP77">
+        <v>148891.77</v>
+      </c>
       <c r="BQ77" t="s">
         <v>290</v>
       </c>
+      <c r="BR77">
+        <v>271827</v>
+      </c>
+      <c r="BS77">
+        <v>221074.54</v>
+      </c>
+      <c r="BT77">
+        <v>191701.5</v>
+      </c>
       <c r="BU77" t="s">
         <v>290</v>
       </c>
+      <c r="BV77">
+        <v>271827</v>
+      </c>
+      <c r="BW77">
+        <v>202126.51</v>
+      </c>
+      <c r="BX77">
+        <v>184281.3</v>
+      </c>
       <c r="BY77" t="s">
         <v>290</v>
       </c>
+      <c r="BZ77">
+        <v>271827</v>
+      </c>
+      <c r="CA77">
+        <v>163307.74</v>
+      </c>
+      <c r="CB77">
+        <v>150208.39</v>
+      </c>
       <c r="CC77" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:81">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -15332,11 +20444,38 @@
       <c r="AO78">
         <v>894249</v>
       </c>
+      <c r="AP78">
+        <v>427737</v>
+      </c>
+      <c r="AQ78">
+        <v>259816.03</v>
+      </c>
+      <c r="AR78">
+        <v>200545.68</v>
+      </c>
       <c r="AS78" t="s">
         <v>290</v>
       </c>
+      <c r="AT78">
+        <v>427737</v>
+      </c>
+      <c r="AU78">
+        <v>345715.85</v>
+      </c>
+      <c r="AV78">
+        <v>290981.64</v>
+      </c>
       <c r="AW78" t="s">
         <v>290</v>
+      </c>
+      <c r="AX78">
+        <v>427737</v>
+      </c>
+      <c r="AY78">
+        <v>290238.73</v>
+      </c>
+      <c r="AZ78">
+        <v>218995.56</v>
       </c>
       <c r="BA78" t="s">
         <v>290</v>
@@ -15345,10 +20484,10 @@
         <v>427737</v>
       </c>
       <c r="BC78">
-        <v>427737</v>
+        <v>291247.88</v>
       </c>
       <c r="BD78">
-        <v>427737</v>
+        <v>240800.97</v>
       </c>
       <c r="BE78" t="s">
         <v>690</v>
@@ -15357,31 +20496,76 @@
         <v>598561</v>
       </c>
       <c r="BG78">
-        <v>598561</v>
+        <v>519309.75</v>
       </c>
       <c r="BH78">
-        <v>466512</v>
+        <v>427118.87</v>
       </c>
       <c r="BI78" t="s">
         <v>709</v>
       </c>
+      <c r="BJ78">
+        <v>466512</v>
+      </c>
+      <c r="BK78">
+        <v>337866.67</v>
+      </c>
+      <c r="BL78">
+        <v>281586.47</v>
+      </c>
       <c r="BM78" t="s">
         <v>290</v>
       </c>
+      <c r="BN78">
+        <v>466512</v>
+      </c>
+      <c r="BO78">
+        <v>308146.48</v>
+      </c>
+      <c r="BP78">
+        <v>289596.29</v>
+      </c>
       <c r="BQ78" t="s">
         <v>290</v>
       </c>
+      <c r="BR78">
+        <v>466512</v>
+      </c>
+      <c r="BS78">
+        <v>407343.65</v>
+      </c>
+      <c r="BT78">
+        <v>337604.37</v>
+      </c>
       <c r="BU78" t="s">
         <v>290</v>
       </c>
+      <c r="BV78">
+        <v>466512</v>
+      </c>
+      <c r="BW78">
+        <v>299440.3</v>
+      </c>
+      <c r="BX78">
+        <v>189510.32</v>
+      </c>
       <c r="BY78" t="s">
         <v>290</v>
       </c>
+      <c r="BZ78">
+        <v>466512</v>
+      </c>
+      <c r="CA78">
+        <v>415300.25</v>
+      </c>
+      <c r="CB78">
+        <v>383257.52</v>
+      </c>
       <c r="CC78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:81">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -15401,7 +20585,7 @@
         <v>147</v>
       </c>
       <c r="G79">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="s">
         <v>191</v>
@@ -15496,20 +20680,74 @@
       <c r="AO79">
         <v>1851</v>
       </c>
+      <c r="AP79">
+        <v>50000</v>
+      </c>
+      <c r="AQ79">
+        <v>47325.33</v>
+      </c>
+      <c r="AR79">
+        <v>41635.5</v>
+      </c>
       <c r="AS79" t="s">
         <v>290</v>
       </c>
+      <c r="AT79">
+        <v>50000</v>
+      </c>
+      <c r="AU79">
+        <v>42060.7</v>
+      </c>
+      <c r="AV79">
+        <v>25331.17</v>
+      </c>
       <c r="AW79" t="s">
         <v>290</v>
       </c>
+      <c r="AX79">
+        <v>50000</v>
+      </c>
+      <c r="AY79">
+        <v>43095.29</v>
+      </c>
+      <c r="AZ79">
+        <v>35792.53</v>
+      </c>
       <c r="BA79" t="s">
         <v>290</v>
       </c>
+      <c r="BB79">
+        <v>50000</v>
+      </c>
+      <c r="BC79">
+        <v>38360.65</v>
+      </c>
+      <c r="BD79">
+        <v>30729.49</v>
+      </c>
       <c r="BE79" t="s">
         <v>290</v>
       </c>
+      <c r="BF79">
+        <v>50000</v>
+      </c>
+      <c r="BG79">
+        <v>30053.62</v>
+      </c>
+      <c r="BH79">
+        <v>19315.45</v>
+      </c>
       <c r="BI79" t="s">
         <v>290</v>
+      </c>
+      <c r="BJ79">
+        <v>50000</v>
+      </c>
+      <c r="BK79">
+        <v>32118.43</v>
+      </c>
+      <c r="BL79">
+        <v>24618.59</v>
       </c>
       <c r="BM79" t="s">
         <v>290</v>
@@ -15518,10 +20756,10 @@
         <v>50000</v>
       </c>
       <c r="BO79">
-        <v>20000</v>
+        <v>42229.53</v>
       </c>
       <c r="BP79">
-        <v>1851</v>
+        <v>33961.08</v>
       </c>
       <c r="BQ79" t="s">
         <v>290</v>
@@ -15530,13 +20768,34 @@
         <v>150000</v>
       </c>
       <c r="BS79">
-        <v>0</v>
+        <v>124271.79</v>
+      </c>
+      <c r="BT79">
+        <v>95183.75999999999</v>
       </c>
       <c r="BU79" t="s">
         <v>290</v>
       </c>
+      <c r="BV79">
+        <v>53850.5</v>
+      </c>
+      <c r="BW79">
+        <v>44668.75</v>
+      </c>
+      <c r="BX79">
+        <v>32893.94</v>
+      </c>
       <c r="BY79" t="s">
         <v>290</v>
+      </c>
+      <c r="BZ79">
+        <v>53850.5</v>
+      </c>
+      <c r="CA79">
+        <v>35644.12</v>
+      </c>
+      <c r="CB79">
+        <v>31085.39</v>
       </c>
       <c r="CC79" t="s">
         <v>290</v>

--- a/src/data/Latin America and the Carribean /IFF - Transnational _Crimes.xlsx
+++ b/src/data/Latin America and the Carribean /IFF - Transnational _Crimes.xlsx
@@ -3169,10 +3169,10 @@
         <v>64000</v>
       </c>
       <c r="AQ2">
-        <v>45842.33</v>
+        <v>59683.18</v>
       </c>
       <c r="AR2">
-        <v>38190.97</v>
+        <v>51628.81</v>
       </c>
       <c r="AS2" t="s">
         <v>290</v>
@@ -3181,10 +3181,10 @@
         <v>64000</v>
       </c>
       <c r="AU2">
-        <v>39979.02</v>
+        <v>45376.97</v>
       </c>
       <c r="AV2">
-        <v>33150.12</v>
+        <v>37653.72</v>
       </c>
       <c r="AW2" t="s">
         <v>290</v>
@@ -3193,10 +3193,10 @@
         <v>64000</v>
       </c>
       <c r="AY2">
-        <v>54125.67</v>
+        <v>51149.43</v>
       </c>
       <c r="AZ2">
-        <v>48887.96</v>
+        <v>48591.96</v>
       </c>
       <c r="BA2" t="s">
         <v>290</v>
@@ -3205,10 +3205,10 @@
         <v>64000</v>
       </c>
       <c r="BC2">
-        <v>45736.75</v>
+        <v>58847.95</v>
       </c>
       <c r="BD2">
-        <v>28504.2</v>
+        <v>48395.68</v>
       </c>
       <c r="BE2" t="s">
         <v>290</v>
@@ -3217,10 +3217,10 @@
         <v>64000</v>
       </c>
       <c r="BG2">
-        <v>49543.98</v>
+        <v>44244.24</v>
       </c>
       <c r="BH2">
-        <v>36972.29</v>
+        <v>35435.54</v>
       </c>
       <c r="BI2" t="s">
         <v>290</v>
@@ -3229,10 +3229,10 @@
         <v>64000</v>
       </c>
       <c r="BK2">
-        <v>55756.31</v>
+        <v>54359.18</v>
       </c>
       <c r="BL2">
-        <v>34243.21</v>
+        <v>44197.67</v>
       </c>
       <c r="BM2" t="s">
         <v>290</v>
@@ -3241,10 +3241,10 @@
         <v>64000</v>
       </c>
       <c r="BO2">
-        <v>47496.8</v>
+        <v>42909.44</v>
       </c>
       <c r="BP2">
-        <v>35604.03</v>
+        <v>29768.79</v>
       </c>
       <c r="BQ2" t="s">
         <v>290</v>
@@ -3253,10 +3253,10 @@
         <v>64000</v>
       </c>
       <c r="BS2">
-        <v>53663.78</v>
+        <v>50422.86</v>
       </c>
       <c r="BT2">
-        <v>40386.42</v>
+        <v>45960.33</v>
       </c>
       <c r="BU2" t="s">
         <v>290</v>
@@ -3265,10 +3265,10 @@
         <v>64000</v>
       </c>
       <c r="BW2">
-        <v>47734.23</v>
+        <v>53479.52</v>
       </c>
       <c r="BX2">
-        <v>30935.32</v>
+        <v>43670.43</v>
       </c>
       <c r="BY2" t="s">
         <v>290</v>
@@ -3277,10 +3277,10 @@
         <v>64000</v>
       </c>
       <c r="CA2">
-        <v>48608</v>
+        <v>60800</v>
       </c>
       <c r="CB2">
-        <v>41006.03</v>
+        <v>42273.75</v>
       </c>
       <c r="CC2" t="s">
         <v>290</v>
@@ -3411,10 +3411,10 @@
         <v>45800</v>
       </c>
       <c r="AQ3">
-        <v>42957.68</v>
+        <v>40118.66</v>
       </c>
       <c r="AR3">
-        <v>39193.97</v>
+        <v>37799.83</v>
       </c>
       <c r="AS3" t="s">
         <v>290</v>
@@ -3423,10 +3423,10 @@
         <v>45800</v>
       </c>
       <c r="AU3">
-        <v>34871.63</v>
+        <v>31614.26</v>
       </c>
       <c r="AV3">
-        <v>31007.4</v>
+        <v>22667.16</v>
       </c>
       <c r="AW3" t="s">
         <v>290</v>
@@ -3435,10 +3435,10 @@
         <v>97000</v>
       </c>
       <c r="AY3">
-        <v>62101.42</v>
+        <v>75501.53</v>
       </c>
       <c r="AZ3">
-        <v>53679.35</v>
+        <v>65337.03</v>
       </c>
       <c r="BA3" t="s">
         <v>290</v>
@@ -3447,10 +3447,10 @@
         <v>85853</v>
       </c>
       <c r="BC3">
-        <v>59112.9</v>
+        <v>70159.06</v>
       </c>
       <c r="BD3">
-        <v>40010.4</v>
+        <v>50434.72</v>
       </c>
       <c r="BE3" t="s">
         <v>290</v>
@@ -3459,10 +3459,10 @@
         <v>85853</v>
       </c>
       <c r="BG3">
-        <v>66034.34</v>
+        <v>59753.09</v>
       </c>
       <c r="BH3">
-        <v>42881.37</v>
+        <v>49633.21</v>
       </c>
       <c r="BI3" t="s">
         <v>290</v>
@@ -3471,10 +3471,10 @@
         <v>85853</v>
       </c>
       <c r="BK3">
-        <v>80245.66</v>
+        <v>73326.31</v>
       </c>
       <c r="BL3">
-        <v>73258.39999999999</v>
+        <v>69108.5</v>
       </c>
       <c r="BM3" t="s">
         <v>290</v>
@@ -3483,10 +3483,10 @@
         <v>85853</v>
       </c>
       <c r="BO3">
-        <v>79860.11</v>
+        <v>67606.37</v>
       </c>
       <c r="BP3">
-        <v>57671.81</v>
+        <v>46228.64</v>
       </c>
       <c r="BQ3" t="s">
         <v>290</v>
@@ -3495,10 +3495,10 @@
         <v>85853</v>
       </c>
       <c r="BS3">
-        <v>65631.86</v>
+        <v>76446.63</v>
       </c>
       <c r="BT3">
-        <v>59792.77</v>
+        <v>66149.61</v>
       </c>
       <c r="BU3" t="s">
         <v>290</v>
@@ -3507,10 +3507,10 @@
         <v>85853</v>
       </c>
       <c r="BW3">
-        <v>67598.39999999999</v>
+        <v>74422.39999999999</v>
       </c>
       <c r="BX3">
-        <v>42239.57</v>
+        <v>56521.87</v>
       </c>
       <c r="BY3" t="s">
         <v>290</v>
@@ -3519,10 +3519,10 @@
         <v>85853</v>
       </c>
       <c r="CA3">
-        <v>57958.4</v>
+        <v>68117.72</v>
       </c>
       <c r="CB3">
-        <v>35666.14</v>
+        <v>49420.64</v>
       </c>
       <c r="CC3" t="s">
         <v>290</v>
@@ -3647,10 +3647,10 @@
         <v>100000</v>
       </c>
       <c r="AQ4">
-        <v>66299.03</v>
+        <v>77332.83</v>
       </c>
       <c r="AR4">
-        <v>48114.7</v>
+        <v>58077.66</v>
       </c>
       <c r="AS4" t="s">
         <v>290</v>
@@ -3659,10 +3659,10 @@
         <v>100000</v>
       </c>
       <c r="AU4">
-        <v>63448.42</v>
+        <v>64008.39</v>
       </c>
       <c r="AV4">
-        <v>43237.25</v>
+        <v>55977.81</v>
       </c>
       <c r="AW4" t="s">
         <v>290</v>
@@ -3671,10 +3671,10 @@
         <v>100000</v>
       </c>
       <c r="AY4">
-        <v>88813.35000000001</v>
+        <v>85074.10000000001</v>
       </c>
       <c r="AZ4">
-        <v>61872.64</v>
+        <v>72811.64</v>
       </c>
       <c r="BA4" t="s">
         <v>290</v>
@@ -3683,10 +3683,10 @@
         <v>100000</v>
       </c>
       <c r="BC4">
-        <v>60736.88</v>
+        <v>80736.92</v>
       </c>
       <c r="BD4">
-        <v>57169.44</v>
+        <v>52273.15</v>
       </c>
       <c r="BE4" t="s">
         <v>290</v>
@@ -3695,10 +3695,10 @@
         <v>100000</v>
       </c>
       <c r="BG4">
-        <v>93925.7</v>
+        <v>72326.64</v>
       </c>
       <c r="BH4">
-        <v>75249.81</v>
+        <v>62360.55</v>
       </c>
       <c r="BI4" t="s">
         <v>290</v>
@@ -3707,10 +3707,10 @@
         <v>100000</v>
       </c>
       <c r="BK4">
-        <v>72683.12</v>
+        <v>88254.64999999999</v>
       </c>
       <c r="BL4">
-        <v>51505.76</v>
+        <v>67394.02</v>
       </c>
       <c r="BM4" t="s">
         <v>710</v>
@@ -3719,10 +3719,10 @@
         <v>150000</v>
       </c>
       <c r="BO4">
-        <v>142060.52</v>
+        <v>126657.68</v>
       </c>
       <c r="BP4">
-        <v>112005.76</v>
+        <v>89713.97</v>
       </c>
       <c r="BQ4" t="s">
         <v>290</v>
@@ -3731,10 +3731,10 @@
         <v>150000</v>
       </c>
       <c r="BS4">
-        <v>127901.82</v>
+        <v>116526.54</v>
       </c>
       <c r="BT4">
-        <v>103071.65</v>
+        <v>86301.67</v>
       </c>
       <c r="BU4" t="s">
         <v>290</v>
@@ -3743,10 +3743,10 @@
         <v>150000</v>
       </c>
       <c r="BW4">
-        <v>114580.35</v>
+        <v>111518.28</v>
       </c>
       <c r="BX4">
-        <v>98059.61</v>
+        <v>93799.88</v>
       </c>
       <c r="BY4" t="s">
         <v>290</v>
@@ -3755,10 +3755,10 @@
         <v>150000</v>
       </c>
       <c r="CA4">
-        <v>113041.68</v>
+        <v>110853.45</v>
       </c>
       <c r="CB4">
-        <v>103224.45</v>
+        <v>98859.00999999999</v>
       </c>
       <c r="CC4" t="s">
         <v>290</v>
@@ -3880,10 +3880,10 @@
         <v>50000</v>
       </c>
       <c r="AQ5">
-        <v>43144.96</v>
+        <v>43182.46</v>
       </c>
       <c r="AR5">
-        <v>40650.34</v>
+        <v>39616.54</v>
       </c>
       <c r="AS5" t="s">
         <v>290</v>
@@ -3892,10 +3892,10 @@
         <v>50000</v>
       </c>
       <c r="AU5">
-        <v>43844.97</v>
+        <v>31260.98</v>
       </c>
       <c r="AV5">
-        <v>39338.57</v>
+        <v>26303.37</v>
       </c>
       <c r="AW5" t="s">
         <v>290</v>
@@ -3904,10 +3904,10 @@
         <v>50000</v>
       </c>
       <c r="AY5">
-        <v>42461.86</v>
+        <v>38035.94</v>
       </c>
       <c r="AZ5">
-        <v>26915.05</v>
+        <v>27269.32</v>
       </c>
       <c r="BA5" t="s">
         <v>290</v>
@@ -3916,10 +3916,10 @@
         <v>50000</v>
       </c>
       <c r="BC5">
-        <v>34469</v>
+        <v>41336.2</v>
       </c>
       <c r="BD5">
-        <v>30773.48</v>
+        <v>32154.37</v>
       </c>
       <c r="BE5" t="s">
         <v>290</v>
@@ -3928,10 +3928,10 @@
         <v>50000</v>
       </c>
       <c r="BG5">
-        <v>35019.3</v>
+        <v>44442.09</v>
       </c>
       <c r="BH5">
-        <v>29748.69</v>
+        <v>31109.45</v>
       </c>
       <c r="BI5" t="s">
         <v>290</v>
@@ -3940,10 +3940,10 @@
         <v>50000</v>
       </c>
       <c r="BK5">
-        <v>40726.31</v>
+        <v>37590.2</v>
       </c>
       <c r="BL5">
-        <v>33156.41</v>
+        <v>32280.4</v>
       </c>
       <c r="BM5" t="s">
         <v>290</v>
@@ -3952,10 +3952,10 @@
         <v>50000</v>
       </c>
       <c r="BO5">
-        <v>44743.42</v>
+        <v>41791.08</v>
       </c>
       <c r="BP5">
-        <v>32309.34</v>
+        <v>36527.46</v>
       </c>
       <c r="BQ5" t="s">
         <v>741</v>
@@ -3964,10 +3964,10 @@
         <v>50000</v>
       </c>
       <c r="BS5">
-        <v>46628.72</v>
+        <v>43245.73</v>
       </c>
       <c r="BT5">
-        <v>38791.57</v>
+        <v>37282.05</v>
       </c>
       <c r="BU5" t="s">
         <v>290</v>
@@ -3976,10 +3976,10 @@
         <v>50000</v>
       </c>
       <c r="BW5">
-        <v>37750.1</v>
+        <v>38292.84</v>
       </c>
       <c r="BX5">
-        <v>29365.77</v>
+        <v>26080.8</v>
       </c>
       <c r="BY5" t="s">
         <v>290</v>
@@ -3988,10 +3988,10 @@
         <v>50000</v>
       </c>
       <c r="CA5">
-        <v>37887.91</v>
+        <v>38732.33</v>
       </c>
       <c r="CB5">
-        <v>30317.43</v>
+        <v>30910.64</v>
       </c>
       <c r="CC5" t="s">
         <v>290</v>
@@ -4113,10 +4113,10 @@
         <v>378795</v>
       </c>
       <c r="AQ6">
-        <v>322194.4</v>
+        <v>307461.72</v>
       </c>
       <c r="AR6">
-        <v>221758.15</v>
+        <v>212509.92</v>
       </c>
       <c r="AS6" t="s">
         <v>290</v>
@@ -4125,10 +4125,10 @@
         <v>378795</v>
       </c>
       <c r="AU6">
-        <v>297452.76</v>
+        <v>334511.1</v>
       </c>
       <c r="AV6">
-        <v>180522.28</v>
+        <v>266037.56</v>
       </c>
       <c r="AW6" t="s">
         <v>290</v>
@@ -4137,10 +4137,10 @@
         <v>378795</v>
       </c>
       <c r="AY6">
-        <v>313348.41</v>
+        <v>306326.05</v>
       </c>
       <c r="AZ6">
-        <v>243977.86</v>
+        <v>266868.95</v>
       </c>
       <c r="BA6" t="s">
         <v>290</v>
@@ -4149,10 +4149,10 @@
         <v>378795</v>
       </c>
       <c r="BC6">
-        <v>291559.1</v>
+        <v>288492.12</v>
       </c>
       <c r="BD6">
-        <v>274153.54</v>
+        <v>238854.1</v>
       </c>
       <c r="BE6" t="s">
         <v>290</v>
@@ -4161,10 +4161,10 @@
         <v>378795</v>
       </c>
       <c r="BG6">
-        <v>343959.93</v>
+        <v>292119.93</v>
       </c>
       <c r="BH6">
-        <v>242066.51</v>
+        <v>219267.27</v>
       </c>
       <c r="BI6" t="s">
         <v>691</v>
@@ -4173,10 +4173,10 @@
         <v>378795</v>
       </c>
       <c r="BK6">
-        <v>239080.86</v>
+        <v>359855.25</v>
       </c>
       <c r="BL6">
-        <v>161471.62</v>
+        <v>302546.83</v>
       </c>
       <c r="BM6" t="s">
         <v>290</v>
@@ -4185,10 +4185,10 @@
         <v>378795</v>
       </c>
       <c r="BO6">
-        <v>238516.16</v>
+        <v>281835.47</v>
       </c>
       <c r="BP6">
-        <v>150155.77</v>
+        <v>238808.26</v>
       </c>
       <c r="BQ6" t="s">
         <v>290</v>
@@ -4197,10 +4197,10 @@
         <v>378795</v>
       </c>
       <c r="BS6">
-        <v>280134.64</v>
+        <v>275027.18</v>
       </c>
       <c r="BT6">
-        <v>172733.9</v>
+        <v>229542.6</v>
       </c>
       <c r="BU6" t="s">
         <v>290</v>
@@ -4209,10 +4209,10 @@
         <v>378795</v>
       </c>
       <c r="BW6">
-        <v>338935.18</v>
+        <v>313057.63</v>
       </c>
       <c r="BX6">
-        <v>280063.43</v>
+        <v>283447.82</v>
       </c>
       <c r="BY6" t="s">
         <v>290</v>
@@ -4221,10 +4221,10 @@
         <v>378795</v>
       </c>
       <c r="CA6">
-        <v>254902.08</v>
+        <v>310332.03</v>
       </c>
       <c r="CB6">
-        <v>194343.94</v>
+        <v>273166.96</v>
       </c>
       <c r="CC6" t="s">
         <v>290</v>
@@ -4349,10 +4349,10 @@
         <v>100000</v>
       </c>
       <c r="AQ7">
-        <v>64648.79</v>
+        <v>88003.69</v>
       </c>
       <c r="AR7">
-        <v>49993.29</v>
+        <v>75967.8</v>
       </c>
       <c r="AS7" t="s">
         <v>290</v>
@@ -4361,10 +4361,10 @@
         <v>100000</v>
       </c>
       <c r="AU7">
-        <v>91280.03</v>
+        <v>76095.06</v>
       </c>
       <c r="AV7">
-        <v>66996.61</v>
+        <v>63738.75</v>
       </c>
       <c r="AW7" t="s">
         <v>290</v>
@@ -4373,10 +4373,10 @@
         <v>100000</v>
       </c>
       <c r="AY7">
-        <v>89744.83</v>
+        <v>84384.67</v>
       </c>
       <c r="AZ7">
-        <v>68043.50999999999</v>
+        <v>67512.34</v>
       </c>
       <c r="BA7" t="s">
         <v>290</v>
@@ -4385,10 +4385,10 @@
         <v>100000</v>
       </c>
       <c r="BC7">
-        <v>65234.36</v>
+        <v>61805.78</v>
       </c>
       <c r="BD7">
-        <v>41667.51</v>
+        <v>54603.76</v>
       </c>
       <c r="BE7" t="s">
         <v>290</v>
@@ -4397,10 +4397,10 @@
         <v>100000</v>
       </c>
       <c r="BG7">
-        <v>71357.91</v>
+        <v>80896</v>
       </c>
       <c r="BH7">
-        <v>53767.62</v>
+        <v>76851.2</v>
       </c>
       <c r="BI7" t="s">
         <v>290</v>
@@ -4409,10 +4409,10 @@
         <v>55000</v>
       </c>
       <c r="BK7">
-        <v>45251.98</v>
+        <v>47453.55</v>
       </c>
       <c r="BL7">
-        <v>39833.95</v>
+        <v>42397.89</v>
       </c>
       <c r="BM7" t="s">
         <v>290</v>
@@ -4421,10 +4421,10 @@
         <v>55000</v>
       </c>
       <c r="BO7">
-        <v>44052.37</v>
+        <v>42828.62</v>
       </c>
       <c r="BP7">
-        <v>40769.17</v>
+        <v>34468.89</v>
       </c>
       <c r="BQ7" t="s">
         <v>290</v>
@@ -4433,10 +4433,10 @@
         <v>55000</v>
       </c>
       <c r="BS7">
-        <v>40520.52</v>
+        <v>46052.58</v>
       </c>
       <c r="BT7">
-        <v>37428.08</v>
+        <v>36830.28</v>
       </c>
       <c r="BU7" t="s">
         <v>290</v>
@@ -4445,10 +4445,10 @@
         <v>55000</v>
       </c>
       <c r="BW7">
-        <v>35456.23</v>
+        <v>48397.4</v>
       </c>
       <c r="BX7">
-        <v>28011.41</v>
+        <v>41060.56</v>
       </c>
       <c r="BY7" t="s">
         <v>290</v>
@@ -4457,10 +4457,10 @@
         <v>55000</v>
       </c>
       <c r="CA7">
-        <v>42252.6</v>
+        <v>44231.73</v>
       </c>
       <c r="CB7">
-        <v>28828.92</v>
+        <v>38670.28</v>
       </c>
       <c r="CC7" t="s">
         <v>290</v>
@@ -4585,10 +4585,10 @@
         <v>181056</v>
       </c>
       <c r="AQ8">
-        <v>120860.85</v>
+        <v>162127.54</v>
       </c>
       <c r="AR8">
-        <v>82144.91</v>
+        <v>105238.58</v>
       </c>
       <c r="AS8" t="s">
         <v>290</v>
@@ -4597,10 +4597,10 @@
         <v>181056</v>
       </c>
       <c r="AU8">
-        <v>111148.14</v>
+        <v>131743.03</v>
       </c>
       <c r="AV8">
-        <v>98542.19</v>
+        <v>90450.53999999999</v>
       </c>
       <c r="AW8" t="s">
         <v>290</v>
@@ -4609,10 +4609,10 @@
         <v>181056</v>
       </c>
       <c r="AY8">
-        <v>135761.86</v>
+        <v>133414.33</v>
       </c>
       <c r="AZ8">
-        <v>125827.44</v>
+        <v>102274.94</v>
       </c>
       <c r="BA8" t="s">
         <v>290</v>
@@ -4621,10 +4621,10 @@
         <v>181056</v>
       </c>
       <c r="BC8">
-        <v>108789.67</v>
+        <v>147034.38</v>
       </c>
       <c r="BD8">
-        <v>92629.67</v>
+        <v>112121.46</v>
       </c>
       <c r="BE8" t="s">
         <v>290</v>
@@ -4633,10 +4633,10 @@
         <v>181056</v>
       </c>
       <c r="BG8">
-        <v>122403.17</v>
+        <v>168299.14</v>
       </c>
       <c r="BH8">
-        <v>108134.13</v>
+        <v>121260.71</v>
       </c>
       <c r="BI8" t="s">
         <v>290</v>
@@ -4645,10 +4645,10 @@
         <v>181056</v>
       </c>
       <c r="BK8">
-        <v>120800.72</v>
+        <v>158322.96</v>
       </c>
       <c r="BL8">
-        <v>102158.3</v>
+        <v>123432.16</v>
       </c>
       <c r="BM8" t="s">
         <v>290</v>
@@ -4657,10 +4657,10 @@
         <v>181056</v>
       </c>
       <c r="BO8">
-        <v>113146.83</v>
+        <v>155609.88</v>
       </c>
       <c r="BP8">
-        <v>95178.10000000001</v>
+        <v>126823.82</v>
       </c>
       <c r="BQ8" t="s">
         <v>290</v>
@@ -4669,10 +4669,10 @@
         <v>181056</v>
       </c>
       <c r="BS8">
-        <v>111463.04</v>
+        <v>127947.57</v>
       </c>
       <c r="BT8">
-        <v>74077.99000000001</v>
+        <v>110033.7</v>
       </c>
       <c r="BU8" t="s">
         <v>290</v>
@@ -4681,10 +4681,10 @@
         <v>181056</v>
       </c>
       <c r="BW8">
-        <v>131736.6</v>
+        <v>157071.06</v>
       </c>
       <c r="BX8">
-        <v>88578.56</v>
+        <v>114536.95</v>
       </c>
       <c r="BY8" t="s">
         <v>290</v>
@@ -4693,10 +4693,10 @@
         <v>181056</v>
       </c>
       <c r="CA8">
-        <v>119013.33</v>
+        <v>148877.36</v>
       </c>
       <c r="CB8">
-        <v>85997.87</v>
+        <v>119471.88</v>
       </c>
       <c r="CC8" t="s">
         <v>290</v>
@@ -4821,10 +4821,10 @@
         <v>91451.86486486487</v>
       </c>
       <c r="AQ9">
-        <v>75178.11</v>
+        <v>77142</v>
       </c>
       <c r="AR9">
-        <v>58653.39</v>
+        <v>69478.91</v>
       </c>
       <c r="AS9" t="s">
         <v>290</v>
@@ -4833,10 +4833,10 @@
         <v>91451.86486486487</v>
       </c>
       <c r="AU9">
-        <v>68252.74000000001</v>
+        <v>58114.07</v>
       </c>
       <c r="AV9">
-        <v>45490.22</v>
+        <v>44865.46</v>
       </c>
       <c r="AW9" t="s">
         <v>290</v>
@@ -4845,10 +4845,10 @@
         <v>107198.2432432432</v>
       </c>
       <c r="AY9">
-        <v>99372.06</v>
+        <v>77191.53</v>
       </c>
       <c r="AZ9">
-        <v>60865.29</v>
+        <v>68004.67999999999</v>
       </c>
       <c r="BA9" t="s">
         <v>290</v>
@@ -4857,10 +4857,10 @@
         <v>91232.91891891892</v>
       </c>
       <c r="BC9">
-        <v>64522.81</v>
+        <v>81357.62</v>
       </c>
       <c r="BD9">
-        <v>58368.9</v>
+        <v>61809.84</v>
       </c>
       <c r="BE9" t="s">
         <v>290</v>
@@ -4869,10 +4869,10 @@
         <v>91232.91891891892</v>
       </c>
       <c r="BG9">
-        <v>73393.39999999999</v>
+        <v>60814.91</v>
       </c>
       <c r="BH9">
-        <v>45501.38</v>
+        <v>46847.6</v>
       </c>
       <c r="BI9" t="s">
         <v>290</v>
@@ -4881,10 +4881,10 @@
         <v>137189.0277777778</v>
       </c>
       <c r="BK9">
-        <v>124110.3</v>
+        <v>115723.69</v>
       </c>
       <c r="BL9">
-        <v>79583.47</v>
+        <v>109937.51</v>
       </c>
       <c r="BM9" t="s">
         <v>290</v>
@@ -4893,10 +4893,10 @@
         <v>107181.5277777778</v>
       </c>
       <c r="BO9">
-        <v>85438.46000000001</v>
+        <v>74428.09</v>
       </c>
       <c r="BP9">
-        <v>70767.63</v>
+        <v>52776.96</v>
       </c>
       <c r="BQ9" t="s">
         <v>290</v>
@@ -4905,10 +4905,10 @@
         <v>100025.6380952381</v>
       </c>
       <c r="BS9">
-        <v>88328.8</v>
+        <v>82349.10000000001</v>
       </c>
       <c r="BT9">
-        <v>64279.89</v>
+        <v>71649.72</v>
       </c>
       <c r="BU9" t="s">
         <v>290</v>
@@ -4917,10 +4917,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="BW9">
-        <v>84565.05</v>
+        <v>86087.92999999999</v>
       </c>
       <c r="BX9">
-        <v>62178.67</v>
+        <v>66881.77</v>
       </c>
       <c r="BY9" t="s">
         <v>290</v>
@@ -4929,10 +4929,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="CA9">
-        <v>62760.1</v>
+        <v>81259.96000000001</v>
       </c>
       <c r="CB9">
-        <v>41312.35</v>
+        <v>63506.67</v>
       </c>
       <c r="CC9" t="s">
         <v>290</v>
@@ -5194,10 +5194,10 @@
         <v>82413</v>
       </c>
       <c r="AQ11">
-        <v>52929.14</v>
+        <v>74376.42</v>
       </c>
       <c r="AR11">
-        <v>34604.4</v>
+        <v>60723.87</v>
       </c>
       <c r="AS11" t="s">
         <v>290</v>
@@ -5206,10 +5206,10 @@
         <v>82413</v>
       </c>
       <c r="AU11">
-        <v>72568.96000000001</v>
+        <v>69478.58</v>
       </c>
       <c r="AV11">
-        <v>55166.96</v>
+        <v>59739.69</v>
       </c>
       <c r="AW11" t="s">
         <v>290</v>
@@ -5218,10 +5218,10 @@
         <v>82413</v>
       </c>
       <c r="AY11">
-        <v>63453.71</v>
+        <v>67368.12</v>
       </c>
       <c r="AZ11">
-        <v>41646.9</v>
+        <v>49410.11</v>
       </c>
       <c r="BA11" t="s">
         <v>290</v>
@@ -5230,10 +5230,10 @@
         <v>82413</v>
       </c>
       <c r="BC11">
-        <v>67729.62</v>
+        <v>68771.64</v>
       </c>
       <c r="BD11">
-        <v>54326.01</v>
+        <v>52965.58</v>
       </c>
       <c r="BE11" t="s">
         <v>290</v>
@@ -5242,10 +5242,10 @@
         <v>82413</v>
       </c>
       <c r="BG11">
-        <v>78197.28</v>
+        <v>69789.25</v>
       </c>
       <c r="BH11">
-        <v>62654.79</v>
+        <v>53022.16</v>
       </c>
       <c r="BI11" t="s">
         <v>692</v>
@@ -5254,10 +5254,10 @@
         <v>370141</v>
       </c>
       <c r="BK11">
-        <v>278970.16</v>
+        <v>278170.08</v>
       </c>
       <c r="BL11">
-        <v>250429.96</v>
+        <v>241672.61</v>
       </c>
       <c r="BM11" t="s">
         <v>712</v>
@@ -5266,10 +5266,10 @@
         <v>150000</v>
       </c>
       <c r="BO11">
-        <v>101315.9</v>
+        <v>127129.79</v>
       </c>
       <c r="BP11">
-        <v>63289.81</v>
+        <v>107408.11</v>
       </c>
       <c r="BQ11" t="s">
         <v>742</v>
@@ -5278,10 +5278,10 @@
         <v>100025.6380952381</v>
       </c>
       <c r="BS11">
-        <v>66523.5</v>
+        <v>82033.46000000001</v>
       </c>
       <c r="BT11">
-        <v>58905.42</v>
+        <v>71013.60000000001</v>
       </c>
       <c r="BU11" t="s">
         <v>290</v>
@@ -5290,10 +5290,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="BW11">
-        <v>88837.17999999999</v>
+        <v>77310.92999999999</v>
       </c>
       <c r="BX11">
-        <v>71538.38</v>
+        <v>53692.36</v>
       </c>
       <c r="BY11" t="s">
         <v>290</v>
@@ -5302,10 +5302,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="CA11">
-        <v>87550.10000000001</v>
+        <v>65214.7</v>
       </c>
       <c r="CB11">
-        <v>72421.17</v>
+        <v>47496.83</v>
       </c>
       <c r="CC11" t="s">
         <v>290</v>
@@ -5436,10 +5436,10 @@
         <v>70000</v>
       </c>
       <c r="AQ12">
-        <v>42476.14</v>
+        <v>51460.91</v>
       </c>
       <c r="AR12">
-        <v>28751.29</v>
+        <v>40203.96</v>
       </c>
       <c r="AS12" t="s">
         <v>290</v>
@@ -5448,10 +5448,10 @@
         <v>70000</v>
       </c>
       <c r="AU12">
-        <v>56891.33</v>
+        <v>59777.11</v>
       </c>
       <c r="AV12">
-        <v>50524.76</v>
+        <v>45282.92</v>
       </c>
       <c r="AW12" t="s">
         <v>290</v>
@@ -5460,10 +5460,10 @@
         <v>7500</v>
       </c>
       <c r="AY12">
-        <v>5218.48</v>
+        <v>5663.59</v>
       </c>
       <c r="AZ12">
-        <v>4347.77</v>
+        <v>4094.61</v>
       </c>
       <c r="BA12" t="s">
         <v>290</v>
@@ -5472,10 +5472,10 @@
         <v>7500</v>
       </c>
       <c r="BC12">
-        <v>5778.09</v>
+        <v>5186.78</v>
       </c>
       <c r="BD12">
-        <v>3988.97</v>
+        <v>4381.8</v>
       </c>
       <c r="BE12" t="s">
         <v>290</v>
@@ -5484,10 +5484,10 @@
         <v>7500</v>
       </c>
       <c r="BG12">
-        <v>6836.08</v>
+        <v>6424.4</v>
       </c>
       <c r="BH12">
-        <v>5301.83</v>
+        <v>4319.89</v>
       </c>
       <c r="BI12" t="s">
         <v>290</v>
@@ -5496,10 +5496,10 @@
         <v>7500</v>
       </c>
       <c r="BK12">
-        <v>5472.9</v>
+        <v>6543.76</v>
       </c>
       <c r="BL12">
-        <v>3799.89</v>
+        <v>4821.24</v>
       </c>
       <c r="BM12" t="s">
         <v>290</v>
@@ -5508,10 +5508,10 @@
         <v>7500</v>
       </c>
       <c r="BO12">
-        <v>4696.16</v>
+        <v>6001.57</v>
       </c>
       <c r="BP12">
-        <v>3223.23</v>
+        <v>4782.38</v>
       </c>
       <c r="BQ12" t="s">
         <v>290</v>
@@ -5520,10 +5520,10 @@
         <v>7500</v>
       </c>
       <c r="BS12">
-        <v>5965.9</v>
+        <v>5430.1</v>
       </c>
       <c r="BT12">
-        <v>4724.77</v>
+        <v>4052.01</v>
       </c>
       <c r="BU12" t="s">
         <v>290</v>
@@ -5532,10 +5532,10 @@
         <v>7500</v>
       </c>
       <c r="BW12">
-        <v>4773.67</v>
+        <v>6706.7</v>
       </c>
       <c r="BX12">
-        <v>3449.56</v>
+        <v>5069.01</v>
       </c>
       <c r="BY12" t="s">
         <v>290</v>
@@ -5544,10 +5544,10 @@
         <v>7500</v>
       </c>
       <c r="CA12">
-        <v>5321.05</v>
+        <v>6408.89</v>
       </c>
       <c r="CB12">
-        <v>4219.1</v>
+        <v>4674.15</v>
       </c>
       <c r="CC12" t="s">
         <v>290</v>
@@ -5818,10 +5818,10 @@
         <v>67500</v>
       </c>
       <c r="AQ14">
-        <v>61462.77</v>
+        <v>54914.04</v>
       </c>
       <c r="AR14">
-        <v>53937.37</v>
+        <v>50799.42</v>
       </c>
       <c r="AS14" t="s">
         <v>290</v>
@@ -5830,10 +5830,10 @@
         <v>67500</v>
       </c>
       <c r="AU14">
-        <v>52842.22</v>
+        <v>44984.67</v>
       </c>
       <c r="AV14">
-        <v>33748.6</v>
+        <v>36605.17</v>
       </c>
       <c r="AW14" t="s">
         <v>290</v>
@@ -5842,10 +5842,10 @@
         <v>67500</v>
       </c>
       <c r="AY14">
-        <v>43554.43</v>
+        <v>54878.16</v>
       </c>
       <c r="AZ14">
-        <v>26304.47</v>
+        <v>36894.55</v>
       </c>
       <c r="BA14" t="s">
         <v>290</v>
@@ -5854,10 +5854,10 @@
         <v>67500</v>
       </c>
       <c r="BC14">
-        <v>42028.27</v>
+        <v>59492.96</v>
       </c>
       <c r="BD14">
-        <v>31741.8</v>
+        <v>49735.85</v>
       </c>
       <c r="BE14" t="s">
         <v>290</v>
@@ -5866,10 +5866,10 @@
         <v>67500</v>
       </c>
       <c r="BG14">
-        <v>54260.37</v>
+        <v>54441.54</v>
       </c>
       <c r="BH14">
-        <v>41187.22</v>
+        <v>44017.37</v>
       </c>
       <c r="BI14" t="s">
         <v>290</v>
@@ -5878,10 +5878,10 @@
         <v>67500</v>
       </c>
       <c r="BK14">
-        <v>58115.15</v>
+        <v>63359.7</v>
       </c>
       <c r="BL14">
-        <v>43021.03</v>
+        <v>58411.71</v>
       </c>
       <c r="BM14" t="s">
         <v>290</v>
@@ -5890,10 +5890,10 @@
         <v>67500</v>
       </c>
       <c r="BO14">
-        <v>45547.23</v>
+        <v>57430.34</v>
       </c>
       <c r="BP14">
-        <v>29342.67</v>
+        <v>49625.12</v>
       </c>
       <c r="BQ14" t="s">
         <v>290</v>
@@ -5902,10 +5902,10 @@
         <v>32779</v>
       </c>
       <c r="BS14">
-        <v>23037.89</v>
+        <v>24905.05</v>
       </c>
       <c r="BT14">
-        <v>19266.52</v>
+        <v>23083.92</v>
       </c>
       <c r="BU14" t="s">
         <v>290</v>
@@ -5914,10 +5914,10 @@
         <v>32779</v>
       </c>
       <c r="BW14">
-        <v>22763.21</v>
+        <v>22811.06</v>
       </c>
       <c r="BX14">
-        <v>14852.78</v>
+        <v>15436.86</v>
       </c>
       <c r="BY14" t="s">
         <v>290</v>
@@ -5926,10 +5926,10 @@
         <v>32779</v>
       </c>
       <c r="CA14">
-        <v>29182.64</v>
+        <v>23465.18</v>
       </c>
       <c r="CB14">
-        <v>26080.54</v>
+        <v>19808.29</v>
       </c>
       <c r="CC14" t="s">
         <v>290</v>
@@ -6054,10 +6054,10 @@
         <v>40000</v>
       </c>
       <c r="AQ15">
-        <v>29806.95</v>
+        <v>35191.1</v>
       </c>
       <c r="AR15">
-        <v>25624.35</v>
+        <v>23832.58</v>
       </c>
       <c r="AS15" t="s">
         <v>290</v>
@@ -6066,10 +6066,10 @@
         <v>40000</v>
       </c>
       <c r="AU15">
-        <v>37492.67</v>
+        <v>32920.4</v>
       </c>
       <c r="AV15">
-        <v>26255.71</v>
+        <v>27358.09</v>
       </c>
       <c r="AW15" t="s">
         <v>290</v>
@@ -6078,10 +6078,10 @@
         <v>40000</v>
       </c>
       <c r="AY15">
-        <v>34179.73</v>
+        <v>27398.51</v>
       </c>
       <c r="AZ15">
-        <v>28180.18</v>
+        <v>24072.61</v>
       </c>
       <c r="BA15" t="s">
         <v>290</v>
@@ -6090,10 +6090,10 @@
         <v>40000</v>
       </c>
       <c r="BC15">
-        <v>25387.68</v>
+        <v>32264.06</v>
       </c>
       <c r="BD15">
-        <v>23280.65</v>
+        <v>30502.27</v>
       </c>
       <c r="BE15" t="s">
         <v>684</v>
@@ -6102,10 +6102,10 @@
         <v>40000</v>
       </c>
       <c r="BG15">
-        <v>29918.65</v>
+        <v>29090.56</v>
       </c>
       <c r="BH15">
-        <v>20237.17</v>
+        <v>20327.63</v>
       </c>
       <c r="BI15" t="s">
         <v>693</v>
@@ -6114,10 +6114,10 @@
         <v>245000</v>
       </c>
       <c r="BK15">
-        <v>207566.23</v>
+        <v>210536.84</v>
       </c>
       <c r="BL15">
-        <v>133721.83</v>
+        <v>163532.76</v>
       </c>
       <c r="BM15" t="s">
         <v>290</v>
@@ -6126,10 +6126,10 @@
         <v>245000</v>
       </c>
       <c r="BO15">
-        <v>169696.56</v>
+        <v>152544</v>
       </c>
       <c r="BP15">
-        <v>133532.66</v>
+        <v>125039.92</v>
       </c>
       <c r="BQ15" t="s">
         <v>290</v>
@@ -6138,10 +6138,10 @@
         <v>245000</v>
       </c>
       <c r="BS15">
-        <v>220901.59</v>
+        <v>191468.77</v>
       </c>
       <c r="BT15">
-        <v>190543.49</v>
+        <v>162210.3</v>
       </c>
       <c r="BU15" t="s">
         <v>290</v>
@@ -6150,10 +6150,10 @@
         <v>245000</v>
       </c>
       <c r="BW15">
-        <v>215618.82</v>
+        <v>212982.98</v>
       </c>
       <c r="BX15">
-        <v>157937.56</v>
+        <v>182908.38</v>
       </c>
       <c r="BY15" t="s">
         <v>290</v>
@@ -6162,10 +6162,10 @@
         <v>245000</v>
       </c>
       <c r="CA15">
-        <v>203112.82</v>
+        <v>182239.44</v>
       </c>
       <c r="CB15">
-        <v>130686.58</v>
+        <v>158848.6</v>
       </c>
       <c r="CC15" t="s">
         <v>290</v>
@@ -6296,10 +6296,10 @@
         <v>150000</v>
       </c>
       <c r="AQ16">
-        <v>111365.89</v>
+        <v>122272.59</v>
       </c>
       <c r="AR16">
-        <v>97694.21000000001</v>
+        <v>94916.58</v>
       </c>
       <c r="AS16" t="s">
         <v>290</v>
@@ -6308,10 +6308,10 @@
         <v>150000</v>
       </c>
       <c r="AU16">
-        <v>142198.1</v>
+        <v>130377.38</v>
       </c>
       <c r="AV16">
-        <v>85618.7</v>
+        <v>111513.39</v>
       </c>
       <c r="AW16" t="s">
         <v>290</v>
@@ -6320,10 +6320,10 @@
         <v>750000</v>
       </c>
       <c r="AY16">
-        <v>686949.37</v>
+        <v>541251.9399999999</v>
       </c>
       <c r="AZ16">
-        <v>542558.48</v>
+        <v>386453.84</v>
       </c>
       <c r="BA16" t="s">
         <v>290</v>
@@ -6332,10 +6332,10 @@
         <v>175000</v>
       </c>
       <c r="BC16">
-        <v>155796.41</v>
+        <v>109679.15</v>
       </c>
       <c r="BD16">
-        <v>127272.65</v>
+        <v>90511.78999999999</v>
       </c>
       <c r="BE16" t="s">
         <v>290</v>
@@ -6344,10 +6344,10 @@
         <v>175000</v>
       </c>
       <c r="BG16">
-        <v>163930.11</v>
+        <v>128619.28</v>
       </c>
       <c r="BH16">
-        <v>108787.29</v>
+        <v>101347.83</v>
       </c>
       <c r="BI16" t="s">
         <v>290</v>
@@ -6356,10 +6356,10 @@
         <v>175000</v>
       </c>
       <c r="BK16">
-        <v>138902.54</v>
+        <v>118547.53</v>
       </c>
       <c r="BL16">
-        <v>101789.35</v>
+        <v>85218.08</v>
       </c>
       <c r="BM16" t="s">
         <v>290</v>
@@ -6368,10 +6368,10 @@
         <v>175000</v>
       </c>
       <c r="BO16">
-        <v>163157.72</v>
+        <v>148205.6</v>
       </c>
       <c r="BP16">
-        <v>150560.98</v>
+        <v>134213.01</v>
       </c>
       <c r="BQ16" t="s">
         <v>290</v>
@@ -6380,10 +6380,10 @@
         <v>175000</v>
       </c>
       <c r="BS16">
-        <v>142511.1</v>
+        <v>127577.96</v>
       </c>
       <c r="BT16">
-        <v>102990.18</v>
+        <v>121199.06</v>
       </c>
       <c r="BU16" t="s">
         <v>290</v>
@@ -6392,10 +6392,10 @@
         <v>175000</v>
       </c>
       <c r="BW16">
-        <v>142562.1</v>
+        <v>122422.4</v>
       </c>
       <c r="BX16">
-        <v>129546.79</v>
+        <v>85349.64</v>
       </c>
       <c r="BY16" t="s">
         <v>290</v>
@@ -6404,10 +6404,10 @@
         <v>175000</v>
       </c>
       <c r="CA16">
-        <v>114977.64</v>
+        <v>158155.41</v>
       </c>
       <c r="CB16">
-        <v>80724.14999999999</v>
+        <v>143865.27</v>
       </c>
       <c r="CC16" t="s">
         <v>290</v>
@@ -6675,10 +6675,10 @@
         <v>464790</v>
       </c>
       <c r="AQ18">
-        <v>308472.33</v>
+        <v>337760.15</v>
       </c>
       <c r="AR18">
-        <v>201549.98</v>
+        <v>252865.38</v>
       </c>
       <c r="AS18" t="s">
         <v>290</v>
@@ -6687,10 +6687,10 @@
         <v>464790</v>
       </c>
       <c r="AU18">
-        <v>357574.95</v>
+        <v>393217.13</v>
       </c>
       <c r="AV18">
-        <v>302768.45</v>
+        <v>333260.24</v>
       </c>
       <c r="AW18" t="s">
         <v>290</v>
@@ -6699,10 +6699,10 @@
         <v>464790</v>
       </c>
       <c r="AY18">
-        <v>432657.09</v>
+        <v>416413.77</v>
       </c>
       <c r="AZ18">
-        <v>351862.57</v>
+        <v>341253.74</v>
       </c>
       <c r="BA18" t="s">
         <v>290</v>
@@ -6711,10 +6711,10 @@
         <v>464790</v>
       </c>
       <c r="BC18">
-        <v>352475.31</v>
+        <v>346432.99</v>
       </c>
       <c r="BD18">
-        <v>267517.62</v>
+        <v>320696.43</v>
       </c>
       <c r="BE18" t="s">
         <v>290</v>
@@ -6723,10 +6723,10 @@
         <v>464790</v>
       </c>
       <c r="BG18">
-        <v>364507.61</v>
+        <v>400870.81</v>
       </c>
       <c r="BH18">
-        <v>229816.18</v>
+        <v>261922.91</v>
       </c>
       <c r="BI18" t="s">
         <v>694</v>
@@ -6735,10 +6735,10 @@
         <v>638136</v>
       </c>
       <c r="BK18">
-        <v>605627.29</v>
+        <v>554031.0699999999</v>
       </c>
       <c r="BL18">
-        <v>488733.35</v>
+        <v>502361.64</v>
       </c>
       <c r="BM18" t="s">
         <v>713</v>
@@ -6747,10 +6747,10 @@
         <v>406583</v>
       </c>
       <c r="BO18">
-        <v>282615.75</v>
+        <v>313277.75</v>
       </c>
       <c r="BP18">
-        <v>176118.63</v>
+        <v>259645.48</v>
       </c>
       <c r="BQ18" t="s">
         <v>290</v>
@@ -6759,10 +6759,10 @@
         <v>406583</v>
       </c>
       <c r="BS18">
-        <v>365591.81</v>
+        <v>321242.26</v>
       </c>
       <c r="BT18">
-        <v>291792.59</v>
+        <v>246875.03</v>
       </c>
       <c r="BU18" t="s">
         <v>290</v>
@@ -6771,10 +6771,10 @@
         <v>406583</v>
       </c>
       <c r="BW18">
-        <v>321221.84</v>
+        <v>335739.17</v>
       </c>
       <c r="BX18">
-        <v>221748.49</v>
+        <v>288280.23</v>
       </c>
       <c r="BY18" t="s">
         <v>290</v>
@@ -6783,10 +6783,10 @@
         <v>406583</v>
       </c>
       <c r="CA18">
-        <v>339395.22</v>
+        <v>301719.28</v>
       </c>
       <c r="CB18">
-        <v>234284.98</v>
+        <v>278585.97</v>
       </c>
       <c r="CC18" t="s">
         <v>290</v>
@@ -6908,10 +6908,10 @@
         <v>750416</v>
       </c>
       <c r="AQ19">
-        <v>470720.36</v>
+        <v>610480.02</v>
       </c>
       <c r="AR19">
-        <v>322270.33</v>
+        <v>463640.3</v>
       </c>
       <c r="AS19" t="s">
         <v>290</v>
@@ -6920,10 +6920,10 @@
         <v>750416</v>
       </c>
       <c r="AU19">
-        <v>688285.8199999999</v>
+        <v>708228.0600000001</v>
       </c>
       <c r="AV19">
-        <v>600954.6899999999</v>
+        <v>583789.76</v>
       </c>
       <c r="AW19" t="s">
         <v>290</v>
@@ -6932,10 +6932,10 @@
         <v>750416</v>
       </c>
       <c r="AY19">
-        <v>551932.9399999999</v>
+        <v>609853.22</v>
       </c>
       <c r="AZ19">
-        <v>448700.67</v>
+        <v>455268.45</v>
       </c>
       <c r="BA19" t="s">
         <v>290</v>
@@ -6944,10 +6944,10 @@
         <v>750416</v>
       </c>
       <c r="BC19">
-        <v>572252.4399999999</v>
+        <v>570778.3199999999</v>
       </c>
       <c r="BD19">
-        <v>492659.05</v>
+        <v>515383.9</v>
       </c>
       <c r="BE19" t="s">
         <v>685</v>
@@ -6956,10 +6956,10 @@
         <v>1129046</v>
       </c>
       <c r="BG19">
-        <v>1069976.48</v>
+        <v>977437.51</v>
       </c>
       <c r="BH19">
-        <v>850082.12</v>
+        <v>865731.3</v>
       </c>
       <c r="BI19" t="s">
         <v>695</v>
@@ -6968,10 +6968,10 @@
         <v>254217</v>
       </c>
       <c r="BK19">
-        <v>213226.51</v>
+        <v>222590.4</v>
       </c>
       <c r="BL19">
-        <v>137714.96</v>
+        <v>173329.57</v>
       </c>
       <c r="BM19" t="s">
         <v>290</v>
@@ -6980,10 +6980,10 @@
         <v>254217</v>
       </c>
       <c r="BO19">
-        <v>241117.64</v>
+        <v>202361.18</v>
       </c>
       <c r="BP19">
-        <v>184875.24</v>
+        <v>172477.17</v>
       </c>
       <c r="BQ19" t="s">
         <v>290</v>
@@ -6992,10 +6992,10 @@
         <v>254217</v>
       </c>
       <c r="BS19">
-        <v>231681.85</v>
+        <v>223257.88</v>
       </c>
       <c r="BT19">
-        <v>159620.11</v>
+        <v>180263.28</v>
       </c>
       <c r="BU19" t="s">
         <v>290</v>
@@ -7004,10 +7004,10 @@
         <v>254217</v>
       </c>
       <c r="BW19">
-        <v>222882.13</v>
+        <v>210730.06</v>
       </c>
       <c r="BX19">
-        <v>167721.96</v>
+        <v>152351.47</v>
       </c>
       <c r="BY19" t="s">
         <v>290</v>
@@ -7016,10 +7016,10 @@
         <v>254217</v>
       </c>
       <c r="CA19">
-        <v>193853.52</v>
+        <v>195677.66</v>
       </c>
       <c r="CB19">
-        <v>172322.98</v>
+        <v>176630.22</v>
       </c>
       <c r="CC19" t="s">
         <v>290</v>
@@ -7144,10 +7144,10 @@
         <v>90000</v>
       </c>
       <c r="AQ20">
-        <v>58608.96</v>
+        <v>76375.64</v>
       </c>
       <c r="AR20">
-        <v>51548.02</v>
+        <v>46657.29</v>
       </c>
       <c r="AS20" t="s">
         <v>290</v>
@@ -7156,10 +7156,10 @@
         <v>90000</v>
       </c>
       <c r="AU20">
-        <v>62052.28</v>
+        <v>78711.71000000001</v>
       </c>
       <c r="AV20">
-        <v>42515.53</v>
+        <v>61910.08</v>
       </c>
       <c r="AW20" t="s">
         <v>290</v>
@@ -7168,10 +7168,10 @@
         <v>90000</v>
       </c>
       <c r="AY20">
-        <v>77599.17999999999</v>
+        <v>73127.72</v>
       </c>
       <c r="AZ20">
-        <v>55998.63</v>
+        <v>55711.27</v>
       </c>
       <c r="BA20" t="s">
         <v>290</v>
@@ -7180,10 +7180,10 @@
         <v>90000</v>
       </c>
       <c r="BC20">
-        <v>57975.46</v>
+        <v>70418.53999999999</v>
       </c>
       <c r="BD20">
-        <v>45566.02</v>
+        <v>64688.45</v>
       </c>
       <c r="BE20" t="s">
         <v>686</v>
@@ -7192,10 +7192,10 @@
         <v>90000</v>
       </c>
       <c r="BG20">
-        <v>79659.37</v>
+        <v>68075.42</v>
       </c>
       <c r="BH20">
-        <v>63490.52</v>
+        <v>45586.5</v>
       </c>
       <c r="BI20" t="s">
         <v>696</v>
@@ -7204,10 +7204,10 @@
         <v>500000</v>
       </c>
       <c r="BK20">
-        <v>473594.61</v>
+        <v>432706.27</v>
       </c>
       <c r="BL20">
-        <v>292677.47</v>
+        <v>352580.93</v>
       </c>
       <c r="BM20" t="s">
         <v>714</v>
@@ -7216,10 +7216,10 @@
         <v>20000</v>
       </c>
       <c r="BO20">
-        <v>18848.11</v>
+        <v>14046.89</v>
       </c>
       <c r="BP20">
-        <v>14855.6</v>
+        <v>12227.94</v>
       </c>
       <c r="BQ20" t="s">
         <v>290</v>
@@ -7228,10 +7228,10 @@
         <v>20000</v>
       </c>
       <c r="BS20">
-        <v>16580.07</v>
+        <v>15633.26</v>
       </c>
       <c r="BT20">
-        <v>15374.97</v>
+        <v>12475.25</v>
       </c>
       <c r="BU20" t="s">
         <v>290</v>
@@ -7240,10 +7240,10 @@
         <v>20000</v>
       </c>
       <c r="BW20">
-        <v>15946.86</v>
+        <v>18937.9</v>
       </c>
       <c r="BX20">
-        <v>14603</v>
+        <v>15984.12</v>
       </c>
       <c r="BY20" t="s">
         <v>290</v>
@@ -7252,10 +7252,10 @@
         <v>20000</v>
       </c>
       <c r="CA20">
-        <v>18242.42</v>
+        <v>16094.7</v>
       </c>
       <c r="CB20">
-        <v>16299.44</v>
+        <v>15289.97</v>
       </c>
       <c r="CC20" t="s">
         <v>290</v>
@@ -7377,10 +7377,10 @@
         <v>252193</v>
       </c>
       <c r="AQ21">
-        <v>172497.51</v>
+        <v>189143.13</v>
       </c>
       <c r="AR21">
-        <v>134664.09</v>
+        <v>147126.88</v>
       </c>
       <c r="AS21" t="s">
         <v>290</v>
@@ -7389,10 +7389,10 @@
         <v>252193</v>
       </c>
       <c r="AU21">
-        <v>182790.83</v>
+        <v>220866.88</v>
       </c>
       <c r="AV21">
-        <v>116746.51</v>
+        <v>183018.09</v>
       </c>
       <c r="AW21" t="s">
         <v>290</v>
@@ -7401,10 +7401,10 @@
         <v>252193</v>
       </c>
       <c r="AY21">
-        <v>184197.66</v>
+        <v>182613.36</v>
       </c>
       <c r="AZ21">
-        <v>151130.14</v>
+        <v>157850</v>
       </c>
       <c r="BA21" t="s">
         <v>290</v>
@@ -7413,10 +7413,10 @@
         <v>252193</v>
       </c>
       <c r="BC21">
-        <v>223047.9</v>
+        <v>184238.93</v>
       </c>
       <c r="BD21">
-        <v>173652.62</v>
+        <v>164569.47</v>
       </c>
       <c r="BE21" t="s">
         <v>290</v>
@@ -7425,10 +7425,10 @@
         <v>252193</v>
       </c>
       <c r="BG21">
-        <v>222369.87</v>
+        <v>205045.23</v>
       </c>
       <c r="BH21">
-        <v>175014.76</v>
+        <v>188631.48</v>
       </c>
       <c r="BI21" t="s">
         <v>290</v>
@@ -7437,10 +7437,10 @@
         <v>252193</v>
       </c>
       <c r="BK21">
-        <v>157568.38</v>
+        <v>177915.53</v>
       </c>
       <c r="BL21">
-        <v>98717.75</v>
+        <v>149814.08</v>
       </c>
       <c r="BM21" t="s">
         <v>290</v>
@@ -7449,10 +7449,10 @@
         <v>252193</v>
       </c>
       <c r="BO21">
-        <v>229552.7</v>
+        <v>214361.15</v>
       </c>
       <c r="BP21">
-        <v>173662.87</v>
+        <v>184635.73</v>
       </c>
       <c r="BQ21" t="s">
         <v>743</v>
@@ -7461,10 +7461,10 @@
         <v>375000</v>
       </c>
       <c r="BS21">
-        <v>274098.75</v>
+        <v>279433.16</v>
       </c>
       <c r="BT21">
-        <v>255718.57</v>
+        <v>212064.54</v>
       </c>
       <c r="BU21" t="s">
         <v>290</v>
@@ -7473,10 +7473,10 @@
         <v>375000</v>
       </c>
       <c r="BW21">
-        <v>289217.37</v>
+        <v>303494.02</v>
       </c>
       <c r="BX21">
-        <v>207410.21</v>
+        <v>231839.77</v>
       </c>
       <c r="BY21" t="s">
         <v>290</v>
@@ -7485,10 +7485,10 @@
         <v>375000</v>
       </c>
       <c r="CA21">
-        <v>240282.58</v>
+        <v>238240.87</v>
       </c>
       <c r="CB21">
-        <v>220762.97</v>
+        <v>175557.09</v>
       </c>
       <c r="CC21" t="s">
         <v>290</v>
@@ -7613,10 +7613,10 @@
         <v>10000</v>
       </c>
       <c r="AQ22">
-        <v>8646.690000000001</v>
+        <v>7433.27</v>
       </c>
       <c r="AR22">
-        <v>7237.07</v>
+        <v>4465.54</v>
       </c>
       <c r="AS22" t="s">
         <v>290</v>
@@ -7625,10 +7625,10 @@
         <v>10000</v>
       </c>
       <c r="AU22">
-        <v>8343.51</v>
+        <v>8361.43</v>
       </c>
       <c r="AV22">
-        <v>7754.8</v>
+        <v>6419.95</v>
       </c>
       <c r="AW22" t="s">
         <v>290</v>
@@ -7637,10 +7637,10 @@
         <v>10000</v>
       </c>
       <c r="AY22">
-        <v>7594.57</v>
+        <v>8878.219999999999</v>
       </c>
       <c r="AZ22">
-        <v>5957.49</v>
+        <v>7319.73</v>
       </c>
       <c r="BA22" t="s">
         <v>290</v>
@@ -7649,10 +7649,10 @@
         <v>10000</v>
       </c>
       <c r="BC22">
-        <v>6048.09</v>
+        <v>7400.74</v>
       </c>
       <c r="BD22">
-        <v>4146.82</v>
+        <v>6896.61</v>
       </c>
       <c r="BE22" t="s">
         <v>290</v>
@@ -7661,10 +7661,10 @@
         <v>10000</v>
       </c>
       <c r="BG22">
-        <v>7557.41</v>
+        <v>7972.24</v>
       </c>
       <c r="BH22">
-        <v>5740.36</v>
+        <v>6106.35</v>
       </c>
       <c r="BI22" t="s">
         <v>290</v>
@@ -7673,10 +7673,10 @@
         <v>137189.0277777778</v>
       </c>
       <c r="BK22">
-        <v>124116.32</v>
+        <v>110824.32</v>
       </c>
       <c r="BL22">
-        <v>106120.23</v>
+        <v>97768.03</v>
       </c>
       <c r="BM22" t="s">
         <v>290</v>
@@ -7685,10 +7685,10 @@
         <v>107181.5277777778</v>
       </c>
       <c r="BO22">
-        <v>87643.2</v>
+        <v>75954.64</v>
       </c>
       <c r="BP22">
-        <v>69019.82000000001</v>
+        <v>64156.38</v>
       </c>
       <c r="BQ22" t="s">
         <v>290</v>
@@ -7697,10 +7697,10 @@
         <v>100025.6380952381</v>
       </c>
       <c r="BS22">
-        <v>73755.08</v>
+        <v>62254.47</v>
       </c>
       <c r="BT22">
-        <v>55551.65</v>
+        <v>56263.29</v>
       </c>
       <c r="BU22" t="s">
         <v>290</v>
@@ -7709,10 +7709,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="BW22">
-        <v>87408.34</v>
+        <v>92084.78999999999</v>
       </c>
       <c r="BX22">
-        <v>56529.17</v>
+        <v>77179.45</v>
       </c>
       <c r="BY22" t="s">
         <v>290</v>
@@ -7721,10 +7721,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="CA22">
-        <v>85859.88</v>
+        <v>79569.67999999999</v>
       </c>
       <c r="CB22">
-        <v>70111.06</v>
+        <v>71806.11</v>
       </c>
       <c r="CC22" t="s">
         <v>290</v>
@@ -7846,10 +7846,10 @@
         <v>5903631</v>
       </c>
       <c r="AQ23">
-        <v>3964916.07</v>
+        <v>4493069.76</v>
       </c>
       <c r="AR23">
-        <v>2485903.83</v>
+        <v>3831911.91</v>
       </c>
       <c r="AS23" t="s">
         <v>290</v>
@@ -7858,10 +7858,10 @@
         <v>5903631</v>
       </c>
       <c r="AU23">
-        <v>4868940.17</v>
+        <v>4173170.61</v>
       </c>
       <c r="AV23">
-        <v>3830301.6</v>
+        <v>3539084.28</v>
       </c>
       <c r="AW23" t="s">
         <v>290</v>
@@ -7870,10 +7870,10 @@
         <v>5903631</v>
       </c>
       <c r="AY23">
-        <v>5571425.25</v>
+        <v>5212678.56</v>
       </c>
       <c r="AZ23">
-        <v>3428216.22</v>
+        <v>4557468.76</v>
       </c>
       <c r="BA23" t="s">
         <v>290</v>
@@ -7882,10 +7882,10 @@
         <v>5903631</v>
       </c>
       <c r="BC23">
-        <v>4923655.56</v>
+        <v>4949138.62</v>
       </c>
       <c r="BD23">
-        <v>4564080.26</v>
+        <v>3672804.87</v>
       </c>
       <c r="BE23" t="s">
         <v>290</v>
@@ -7894,10 +7894,10 @@
         <v>5903631</v>
       </c>
       <c r="BG23">
-        <v>3547020.99</v>
+        <v>4094288.87</v>
       </c>
       <c r="BH23">
-        <v>2588364.91</v>
+        <v>3312467.72</v>
       </c>
       <c r="BI23" t="s">
         <v>290</v>
@@ -7906,10 +7906,10 @@
         <v>5903631</v>
       </c>
       <c r="BK23">
-        <v>5552769.55</v>
+        <v>5093133.86</v>
       </c>
       <c r="BL23">
-        <v>3461019.7</v>
+        <v>4150483.31</v>
       </c>
       <c r="BM23" t="s">
         <v>715</v>
@@ -7918,10 +7918,10 @@
         <v>5903631</v>
       </c>
       <c r="BO23">
-        <v>3996504.7</v>
+        <v>4649771.8</v>
       </c>
       <c r="BP23">
-        <v>3466286.02</v>
+        <v>3449885.08</v>
       </c>
       <c r="BQ23" t="s">
         <v>290</v>
@@ -7930,10 +7930,10 @@
         <v>2575000</v>
       </c>
       <c r="BS23">
-        <v>2271810.7</v>
+        <v>1914948.43</v>
       </c>
       <c r="BT23">
-        <v>1570434.76</v>
+        <v>1416376.47</v>
       </c>
       <c r="BU23" t="s">
         <v>290</v>
@@ -7942,10 +7942,10 @@
         <v>2575000</v>
       </c>
       <c r="BW23">
-        <v>2368493.96</v>
+        <v>1999125.7</v>
       </c>
       <c r="BX23">
-        <v>2180059.5</v>
+        <v>1668257.85</v>
       </c>
       <c r="BY23" t="s">
         <v>290</v>
@@ -7954,10 +7954,10 @@
         <v>2575000</v>
       </c>
       <c r="CA23">
-        <v>1768100.02</v>
+        <v>1889534.99</v>
       </c>
       <c r="CB23">
-        <v>1635279.91</v>
+        <v>1693799.51</v>
       </c>
       <c r="CC23" t="s">
         <v>290</v>
@@ -8231,10 +8231,10 @@
         <v>78416</v>
       </c>
       <c r="AQ25">
-        <v>72073.45</v>
+        <v>65527.66</v>
       </c>
       <c r="AR25">
-        <v>58934.3</v>
+        <v>57502.66</v>
       </c>
       <c r="AS25" t="s">
         <v>290</v>
@@ -8243,10 +8243,10 @@
         <v>78416</v>
       </c>
       <c r="AU25">
-        <v>60864.32</v>
+        <v>71209.14999999999</v>
       </c>
       <c r="AV25">
-        <v>49142.74</v>
+        <v>59683.22</v>
       </c>
       <c r="AW25" t="s">
         <v>290</v>
@@ -8255,10 +8255,10 @@
         <v>78416</v>
       </c>
       <c r="AY25">
-        <v>64831.61</v>
+        <v>51704.74</v>
       </c>
       <c r="AZ25">
-        <v>59840.22</v>
+        <v>42879.84</v>
       </c>
       <c r="BA25" t="s">
         <v>290</v>
@@ -8267,10 +8267,10 @@
         <v>78416</v>
       </c>
       <c r="BC25">
-        <v>71579.05</v>
+        <v>62728.64</v>
       </c>
       <c r="BD25">
-        <v>63558.38</v>
+        <v>56331.09</v>
       </c>
       <c r="BE25" t="s">
         <v>290</v>
@@ -8279,10 +8279,10 @@
         <v>78416</v>
       </c>
       <c r="BG25">
-        <v>73176.28</v>
+        <v>55162.21</v>
       </c>
       <c r="BH25">
-        <v>61208.44</v>
+        <v>42689.74</v>
       </c>
       <c r="BI25" t="s">
         <v>290</v>
@@ -8291,10 +8291,10 @@
         <v>78416</v>
       </c>
       <c r="BK25">
-        <v>66033.05</v>
+        <v>60395.57</v>
       </c>
       <c r="BL25">
-        <v>51944.52</v>
+        <v>54208.19</v>
       </c>
       <c r="BM25" t="s">
         <v>290</v>
@@ -8303,10 +8303,10 @@
         <v>78416</v>
       </c>
       <c r="BO25">
-        <v>48553.77</v>
+        <v>64349.45</v>
       </c>
       <c r="BP25">
-        <v>35291.02</v>
+        <v>48457.54</v>
       </c>
       <c r="BQ25" t="s">
         <v>744</v>
@@ -8315,10 +8315,10 @@
         <v>43650</v>
       </c>
       <c r="BS25">
-        <v>36973.98</v>
+        <v>36508.53</v>
       </c>
       <c r="BT25">
-        <v>26045.81</v>
+        <v>26277.12</v>
       </c>
       <c r="BU25" t="s">
         <v>290</v>
@@ -8327,10 +8327,10 @@
         <v>43000</v>
       </c>
       <c r="BW25">
-        <v>34520.08</v>
+        <v>33654.93</v>
       </c>
       <c r="BX25">
-        <v>22576.25</v>
+        <v>24987.6</v>
       </c>
       <c r="BY25" t="s">
         <v>290</v>
@@ -8339,10 +8339,10 @@
         <v>43000</v>
       </c>
       <c r="CA25">
-        <v>26061.28</v>
+        <v>30162.5</v>
       </c>
       <c r="CB25">
-        <v>16386.42</v>
+        <v>23191.36</v>
       </c>
       <c r="CC25" t="s">
         <v>290</v>
@@ -8473,10 +8473,10 @@
         <v>55730</v>
       </c>
       <c r="AQ26">
-        <v>47219.88</v>
+        <v>42370.84</v>
       </c>
       <c r="AR26">
-        <v>34711.57</v>
+        <v>36627.34</v>
       </c>
       <c r="AS26" t="s">
         <v>290</v>
@@ -8485,10 +8485,10 @@
         <v>55730</v>
       </c>
       <c r="AU26">
-        <v>47298.86</v>
+        <v>46371.5</v>
       </c>
       <c r="AV26">
-        <v>41540.21</v>
+        <v>40033.84</v>
       </c>
       <c r="AW26" t="s">
         <v>290</v>
@@ -8497,10 +8497,10 @@
         <v>55730</v>
       </c>
       <c r="AY26">
-        <v>38045.42</v>
+        <v>40788.61</v>
       </c>
       <c r="AZ26">
-        <v>25650.59</v>
+        <v>34766.49</v>
       </c>
       <c r="BA26" t="s">
         <v>290</v>
@@ -8509,10 +8509,10 @@
         <v>55730</v>
       </c>
       <c r="BC26">
-        <v>51971.43</v>
+        <v>36837.83</v>
       </c>
       <c r="BD26">
-        <v>36274.56</v>
+        <v>30996.91</v>
       </c>
       <c r="BE26" t="s">
         <v>290</v>
@@ -8521,10 +8521,10 @@
         <v>55730</v>
       </c>
       <c r="BG26">
-        <v>51369.78</v>
+        <v>35410.59</v>
       </c>
       <c r="BH26">
-        <v>34422.47</v>
+        <v>31399.9</v>
       </c>
       <c r="BI26" t="s">
         <v>290</v>
@@ -8533,10 +8533,10 @@
         <v>55730</v>
       </c>
       <c r="BK26">
-        <v>45904.67</v>
+        <v>40003.76</v>
       </c>
       <c r="BL26">
-        <v>35783.64</v>
+        <v>33090.74</v>
       </c>
       <c r="BM26" t="s">
         <v>290</v>
@@ -8545,10 +8545,10 @@
         <v>55730</v>
       </c>
       <c r="BO26">
-        <v>50405.89</v>
+        <v>46137.17</v>
       </c>
       <c r="BP26">
-        <v>39111.91</v>
+        <v>36667.25</v>
       </c>
       <c r="BQ26" t="s">
         <v>745</v>
@@ -8557,10 +8557,10 @@
         <v>10000</v>
       </c>
       <c r="BS26">
-        <v>8078.2</v>
+        <v>7399.23</v>
       </c>
       <c r="BT26">
-        <v>7040.85</v>
+        <v>4882.89</v>
       </c>
       <c r="BU26" t="s">
         <v>290</v>
@@ -8569,10 +8569,10 @@
         <v>207562.3125</v>
       </c>
       <c r="BW26">
-        <v>157380.36</v>
+        <v>180367.45</v>
       </c>
       <c r="BX26">
-        <v>117745.18</v>
+        <v>126956.22</v>
       </c>
       <c r="BY26" t="s">
         <v>290</v>
@@ -8581,10 +8581,10 @@
         <v>207562.3125</v>
       </c>
       <c r="CA26">
-        <v>135701.36</v>
+        <v>145290.66</v>
       </c>
       <c r="CB26">
-        <v>114389.54</v>
+        <v>100728.3</v>
       </c>
       <c r="CC26" t="s">
         <v>290</v>
@@ -8706,10 +8706,10 @@
         <v>70000</v>
       </c>
       <c r="AQ27">
-        <v>47919.37</v>
+        <v>59575.25</v>
       </c>
       <c r="AR27">
-        <v>37651.02</v>
+        <v>41428.77</v>
       </c>
       <c r="AS27" t="s">
         <v>290</v>
@@ -8718,10 +8718,10 @@
         <v>70000</v>
       </c>
       <c r="AU27">
-        <v>59108.87</v>
+        <v>59515.01</v>
       </c>
       <c r="AV27">
-        <v>50051.1</v>
+        <v>47224.94</v>
       </c>
       <c r="AW27" t="s">
         <v>290</v>
@@ -8730,10 +8730,10 @@
         <v>70000</v>
       </c>
       <c r="AY27">
-        <v>50893.45</v>
+        <v>46027.28</v>
       </c>
       <c r="AZ27">
-        <v>31855.61</v>
+        <v>39519.55</v>
       </c>
       <c r="BA27" t="s">
         <v>290</v>
@@ -8742,10 +8742,10 @@
         <v>70000</v>
       </c>
       <c r="BC27">
-        <v>42303.74</v>
+        <v>62083.06</v>
       </c>
       <c r="BD27">
-        <v>30629.22</v>
+        <v>58824.6</v>
       </c>
       <c r="BE27" t="s">
         <v>290</v>
@@ -8754,10 +8754,10 @@
         <v>70000</v>
       </c>
       <c r="BG27">
-        <v>54033.43</v>
+        <v>66500</v>
       </c>
       <c r="BH27">
-        <v>33072.17</v>
+        <v>51796.12</v>
       </c>
       <c r="BI27" t="s">
         <v>290</v>
@@ -8766,10 +8766,10 @@
         <v>70000</v>
       </c>
       <c r="BK27">
-        <v>58546</v>
+        <v>59574.84</v>
       </c>
       <c r="BL27">
-        <v>53714.24</v>
+        <v>56596.1</v>
       </c>
       <c r="BM27" t="s">
         <v>290</v>
@@ -8778,10 +8778,10 @@
         <v>70000</v>
       </c>
       <c r="BO27">
-        <v>43902.31</v>
+        <v>51989.62</v>
       </c>
       <c r="BP27">
-        <v>29530.26</v>
+        <v>43151.49</v>
       </c>
       <c r="BQ27" t="s">
         <v>290</v>
@@ -8790,10 +8790,10 @@
         <v>23333.33333333334</v>
       </c>
       <c r="BS27">
-        <v>14213.47</v>
+        <v>17124.98</v>
       </c>
       <c r="BT27">
-        <v>8968.23</v>
+        <v>14071.43</v>
       </c>
       <c r="BU27" t="s">
         <v>290</v>
@@ -8802,10 +8802,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="BW27">
-        <v>72047.94</v>
+        <v>84250.45</v>
       </c>
       <c r="BX27">
-        <v>47644.23</v>
+        <v>75795.84</v>
       </c>
       <c r="BY27" t="s">
         <v>290</v>
@@ -8814,10 +8814,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="CA27">
-        <v>83666.10000000001</v>
+        <v>81456.28</v>
       </c>
       <c r="CB27">
-        <v>77862.78999999999</v>
+        <v>74104.22</v>
       </c>
       <c r="CC27" t="s">
         <v>290</v>
@@ -8948,10 +8948,10 @@
         <v>250000</v>
       </c>
       <c r="AQ28">
-        <v>156814.66</v>
+        <v>189468.53</v>
       </c>
       <c r="AR28">
-        <v>137995.61</v>
+        <v>147616.92</v>
       </c>
       <c r="AS28" t="s">
         <v>290</v>
@@ -8960,10 +8960,10 @@
         <v>250000</v>
       </c>
       <c r="AU28">
-        <v>233276.71</v>
+        <v>220923.14</v>
       </c>
       <c r="AV28">
-        <v>213394.58</v>
+        <v>184482.58</v>
       </c>
       <c r="AW28" t="s">
         <v>290</v>
@@ -8972,10 +8972,10 @@
         <v>250000</v>
       </c>
       <c r="AY28">
-        <v>199024.92</v>
+        <v>199909.33</v>
       </c>
       <c r="AZ28">
-        <v>164376.79</v>
+        <v>162707.85</v>
       </c>
       <c r="BA28" t="s">
         <v>290</v>
@@ -8984,10 +8984,10 @@
         <v>250000</v>
       </c>
       <c r="BC28">
-        <v>200488.46</v>
+        <v>174114.22</v>
       </c>
       <c r="BD28">
-        <v>142499.8</v>
+        <v>140579.39</v>
       </c>
       <c r="BE28" t="s">
         <v>290</v>
@@ -8996,10 +8996,10 @@
         <v>250000</v>
       </c>
       <c r="BG28">
-        <v>209242.06</v>
+        <v>208039.26</v>
       </c>
       <c r="BH28">
-        <v>182962.45</v>
+        <v>152146.42</v>
       </c>
       <c r="BI28" t="s">
         <v>290</v>
@@ -9008,10 +9008,10 @@
         <v>250000</v>
       </c>
       <c r="BK28">
-        <v>201403.96</v>
+        <v>221498.13</v>
       </c>
       <c r="BL28">
-        <v>184031.97</v>
+        <v>200970.84</v>
       </c>
       <c r="BM28" t="s">
         <v>290</v>
@@ -9020,10 +9020,10 @@
         <v>250000</v>
       </c>
       <c r="BO28">
-        <v>159593.46</v>
+        <v>234146.05</v>
       </c>
       <c r="BP28">
-        <v>111264.04</v>
+        <v>206184.57</v>
       </c>
       <c r="BQ28" t="s">
         <v>290</v>
@@ -9032,10 +9032,10 @@
         <v>250000</v>
       </c>
       <c r="BS28">
-        <v>231757.76</v>
+        <v>158516.18</v>
       </c>
       <c r="BT28">
-        <v>205230.85</v>
+        <v>134220.51</v>
       </c>
       <c r="BU28" t="s">
         <v>290</v>
@@ -9044,10 +9044,10 @@
         <v>250000</v>
       </c>
       <c r="BW28">
-        <v>173073.36</v>
+        <v>222749.61</v>
       </c>
       <c r="BX28">
-        <v>137495.53</v>
+        <v>160449.9</v>
       </c>
       <c r="BY28" t="s">
         <v>290</v>
@@ -9056,10 +9056,10 @@
         <v>250000</v>
       </c>
       <c r="CA28">
-        <v>180535.9</v>
+        <v>167898.16</v>
       </c>
       <c r="CB28">
-        <v>130286.6</v>
+        <v>127141.19</v>
       </c>
       <c r="CC28" t="s">
         <v>290</v>
@@ -9190,10 +9190,10 @@
         <v>100000</v>
       </c>
       <c r="AQ29">
-        <v>82907.67999999999</v>
+        <v>91303.47</v>
       </c>
       <c r="AR29">
-        <v>71845.47</v>
+        <v>70533.98</v>
       </c>
       <c r="AS29" t="s">
         <v>290</v>
@@ -9202,10 +9202,10 @@
         <v>100000</v>
       </c>
       <c r="AU29">
-        <v>88837.32000000001</v>
+        <v>74319.38</v>
       </c>
       <c r="AV29">
-        <v>54650.59</v>
+        <v>59081.22</v>
       </c>
       <c r="AW29" t="s">
         <v>290</v>
@@ -9214,10 +9214,10 @@
         <v>100000</v>
       </c>
       <c r="AY29">
-        <v>88696.03999999999</v>
+        <v>79787.99000000001</v>
       </c>
       <c r="AZ29">
-        <v>55271.97</v>
+        <v>72592.08</v>
       </c>
       <c r="BA29" t="s">
         <v>290</v>
@@ -9226,10 +9226,10 @@
         <v>100000</v>
       </c>
       <c r="BC29">
-        <v>61547.13</v>
+        <v>74299.91</v>
       </c>
       <c r="BD29">
-        <v>47853.84</v>
+        <v>61471.82</v>
       </c>
       <c r="BE29" t="s">
         <v>290</v>
@@ -9238,10 +9238,10 @@
         <v>100000</v>
       </c>
       <c r="BG29">
-        <v>86173.05</v>
+        <v>79062.86</v>
       </c>
       <c r="BH29">
-        <v>54320.86</v>
+        <v>60287.03</v>
       </c>
       <c r="BI29" t="s">
         <v>290</v>
@@ -9250,10 +9250,10 @@
         <v>85000</v>
       </c>
       <c r="BK29">
-        <v>74269.33</v>
+        <v>76943.02</v>
       </c>
       <c r="BL29">
-        <v>67044.66</v>
+        <v>68831.38</v>
       </c>
       <c r="BM29" t="s">
         <v>716</v>
@@ -9262,19 +9262,19 @@
         <v>85000</v>
       </c>
       <c r="BO29">
-        <v>55918.03</v>
+        <v>70041.17999999999</v>
       </c>
       <c r="BP29">
-        <v>47484.63</v>
+        <v>50943.46</v>
       </c>
       <c r="BR29">
         <v>85000</v>
       </c>
       <c r="BS29">
-        <v>77091.03</v>
+        <v>72403.69</v>
       </c>
       <c r="BT29">
-        <v>58098.08</v>
+        <v>58546.58</v>
       </c>
       <c r="BU29" t="s">
         <v>290</v>
@@ -9283,10 +9283,10 @@
         <v>85000</v>
       </c>
       <c r="BW29">
-        <v>71399.78</v>
+        <v>76761.89</v>
       </c>
       <c r="BX29">
-        <v>67319.89999999999</v>
+        <v>60458.43</v>
       </c>
       <c r="BY29" t="s">
         <v>290</v>
@@ -9295,10 +9295,10 @@
         <v>85000</v>
       </c>
       <c r="CA29">
-        <v>70918.64</v>
+        <v>58094.86</v>
       </c>
       <c r="CB29">
-        <v>46874.03</v>
+        <v>52389.58</v>
       </c>
       <c r="CC29" t="s">
         <v>290</v>
@@ -9420,10 +9420,10 @@
         <v>15000</v>
       </c>
       <c r="AQ30">
-        <v>11988.62</v>
+        <v>13031.95</v>
       </c>
       <c r="AR30">
-        <v>9618.09</v>
+        <v>8495.610000000001</v>
       </c>
       <c r="AS30" t="s">
         <v>290</v>
@@ -9432,10 +9432,10 @@
         <v>15000</v>
       </c>
       <c r="AU30">
-        <v>12511.55</v>
+        <v>14250</v>
       </c>
       <c r="AV30">
-        <v>9499.309999999999</v>
+        <v>10246.81</v>
       </c>
       <c r="AW30" t="s">
         <v>290</v>
@@ -9444,10 +9444,10 @@
         <v>15000</v>
       </c>
       <c r="AY30">
-        <v>11289.97</v>
+        <v>11101.8</v>
       </c>
       <c r="AZ30">
-        <v>9872.77</v>
+        <v>8715.959999999999</v>
       </c>
       <c r="BA30" t="s">
         <v>290</v>
@@ -9456,10 +9456,10 @@
         <v>15000</v>
       </c>
       <c r="BC30">
-        <v>10048.41</v>
+        <v>11964.99</v>
       </c>
       <c r="BD30">
-        <v>8587.870000000001</v>
+        <v>10223.26</v>
       </c>
       <c r="BE30" t="s">
         <v>290</v>
@@ -9468,10 +9468,10 @@
         <v>15000</v>
       </c>
       <c r="BG30">
-        <v>10299.52</v>
+        <v>10880.88</v>
       </c>
       <c r="BH30">
-        <v>8543.860000000001</v>
+        <v>8247.299999999999</v>
       </c>
       <c r="BI30" t="s">
         <v>290</v>
@@ -9480,10 +9480,10 @@
         <v>15000</v>
       </c>
       <c r="BK30">
-        <v>12461.07</v>
+        <v>13273.4</v>
       </c>
       <c r="BL30">
-        <v>9738.48</v>
+        <v>10986.85</v>
       </c>
       <c r="BM30" t="s">
         <v>717</v>
@@ -9492,10 +9492,10 @@
         <v>15000</v>
       </c>
       <c r="BO30">
-        <v>12461.99</v>
+        <v>11350.1</v>
       </c>
       <c r="BP30">
-        <v>8066.37</v>
+        <v>9117.6</v>
       </c>
       <c r="BQ30" t="s">
         <v>290</v>
@@ -9504,10 +9504,10 @@
         <v>15000</v>
       </c>
       <c r="BS30">
-        <v>12760.85</v>
+        <v>10739.4</v>
       </c>
       <c r="BT30">
-        <v>12115.1</v>
+        <v>9105.370000000001</v>
       </c>
       <c r="BU30" t="s">
         <v>290</v>
@@ -9516,10 +9516,10 @@
         <v>15000</v>
       </c>
       <c r="BW30">
-        <v>10132.73</v>
+        <v>13188.07</v>
       </c>
       <c r="BX30">
-        <v>6803.17</v>
+        <v>11772</v>
       </c>
       <c r="BY30" t="s">
         <v>290</v>
@@ -9528,10 +9528,10 @@
         <v>15000</v>
       </c>
       <c r="CA30">
-        <v>11436.22</v>
+        <v>12051.33</v>
       </c>
       <c r="CB30">
-        <v>6923.51</v>
+        <v>10186.17</v>
       </c>
       <c r="CC30" t="s">
         <v>290</v>
@@ -9656,10 +9656,10 @@
         <v>17735</v>
       </c>
       <c r="AQ31">
-        <v>14367.68</v>
+        <v>13425.6</v>
       </c>
       <c r="AR31">
-        <v>12563.9</v>
+        <v>12413.36</v>
       </c>
       <c r="AS31" t="s">
         <v>290</v>
@@ -9668,10 +9668,10 @@
         <v>17735</v>
       </c>
       <c r="AU31">
-        <v>14474.59</v>
+        <v>14080.99</v>
       </c>
       <c r="AV31">
-        <v>12161.53</v>
+        <v>11977.98</v>
       </c>
       <c r="AW31" t="s">
         <v>290</v>
@@ -9680,10 +9680,10 @@
         <v>17735</v>
       </c>
       <c r="AY31">
-        <v>15410.04</v>
+        <v>15259.47</v>
       </c>
       <c r="AZ31">
-        <v>9643.209999999999</v>
+        <v>10824.99</v>
       </c>
       <c r="BA31" t="s">
         <v>290</v>
@@ -9692,10 +9692,10 @@
         <v>17735</v>
       </c>
       <c r="BC31">
-        <v>11194.7</v>
+        <v>13822.47</v>
       </c>
       <c r="BD31">
-        <v>10470.9</v>
+        <v>9857.969999999999</v>
       </c>
       <c r="BE31" t="s">
         <v>290</v>
@@ -9704,10 +9704,10 @@
         <v>17735</v>
       </c>
       <c r="BG31">
-        <v>15352.25</v>
+        <v>13466.93</v>
       </c>
       <c r="BH31">
-        <v>10684.76</v>
+        <v>11405.52</v>
       </c>
       <c r="BI31" t="s">
         <v>290</v>
@@ -9716,10 +9716,10 @@
         <v>17735</v>
       </c>
       <c r="BK31">
-        <v>11072.74</v>
+        <v>13875.48</v>
       </c>
       <c r="BL31">
-        <v>9879.27</v>
+        <v>10264.74</v>
       </c>
       <c r="BM31" t="s">
         <v>718</v>
@@ -9728,10 +9728,10 @@
         <v>84378</v>
       </c>
       <c r="BO31">
-        <v>63768.4</v>
+        <v>68063.03</v>
       </c>
       <c r="BP31">
-        <v>44863.91</v>
+        <v>54006.51</v>
       </c>
       <c r="BQ31" t="s">
         <v>746</v>
@@ -9740,10 +9740,10 @@
         <v>84378</v>
       </c>
       <c r="BS31">
-        <v>63400.44</v>
+        <v>56316.22</v>
       </c>
       <c r="BT31">
-        <v>56830.44</v>
+        <v>45696.1</v>
       </c>
       <c r="BU31" t="s">
         <v>290</v>
@@ -9752,10 +9752,10 @@
         <v>11643</v>
       </c>
       <c r="BW31">
-        <v>7462.72</v>
+        <v>8242.690000000001</v>
       </c>
       <c r="BX31">
-        <v>6930.24</v>
+        <v>6469.29</v>
       </c>
       <c r="BY31" t="s">
         <v>290</v>
@@ -9764,10 +9764,10 @@
         <v>11643</v>
       </c>
       <c r="CA31">
-        <v>9398.389999999999</v>
+        <v>10122.37</v>
       </c>
       <c r="CB31">
-        <v>8217.92</v>
+        <v>9616.25</v>
       </c>
       <c r="CC31" t="s">
         <v>290</v>
@@ -9898,10 +9898,10 @@
         <v>25000</v>
       </c>
       <c r="AQ32">
-        <v>16972.12</v>
+        <v>19762.25</v>
       </c>
       <c r="AR32">
-        <v>14231.74</v>
+        <v>18774.14</v>
       </c>
       <c r="AS32" t="s">
         <v>290</v>
@@ -9910,10 +9910,10 @@
         <v>25000</v>
       </c>
       <c r="AU32">
-        <v>21253.2</v>
+        <v>20549.2</v>
       </c>
       <c r="AV32">
-        <v>19219.25</v>
+        <v>16797.49</v>
       </c>
       <c r="AW32" t="s">
         <v>290</v>
@@ -9922,10 +9922,10 @@
         <v>25000</v>
       </c>
       <c r="AY32">
-        <v>15099.71</v>
+        <v>19685.35</v>
       </c>
       <c r="AZ32">
-        <v>13199.63</v>
+        <v>13616.01</v>
       </c>
       <c r="BA32" t="s">
         <v>290</v>
@@ -9934,10 +9934,10 @@
         <v>81000</v>
       </c>
       <c r="BC32">
-        <v>73453.89</v>
+        <v>63944.58</v>
       </c>
       <c r="BD32">
-        <v>66538.13</v>
+        <v>58749.48</v>
       </c>
       <c r="BE32" t="s">
         <v>687</v>
@@ -9946,10 +9946,10 @@
         <v>45000</v>
       </c>
       <c r="BG32">
-        <v>33398.3</v>
+        <v>34094.02</v>
       </c>
       <c r="BH32">
-        <v>24145.07</v>
+        <v>24038.82</v>
       </c>
       <c r="BI32" t="s">
         <v>698</v>
@@ -9958,10 +9958,10 @@
         <v>45000</v>
       </c>
       <c r="BK32">
-        <v>30811.67</v>
+        <v>34706.65</v>
       </c>
       <c r="BL32">
-        <v>18882.36</v>
+        <v>28168.54</v>
       </c>
       <c r="BM32" t="s">
         <v>290</v>
@@ -9970,10 +9970,10 @@
         <v>45000</v>
       </c>
       <c r="BO32">
-        <v>32311.15</v>
+        <v>38732.59</v>
       </c>
       <c r="BP32">
-        <v>25900.39</v>
+        <v>28599.5</v>
       </c>
       <c r="BQ32" t="s">
         <v>290</v>
@@ -9982,10 +9982,10 @@
         <v>45000</v>
       </c>
       <c r="BS32">
-        <v>28248.71</v>
+        <v>36376.02</v>
       </c>
       <c r="BT32">
-        <v>22326.42</v>
+        <v>30826.29</v>
       </c>
       <c r="BU32" t="s">
         <v>290</v>
@@ -9994,10 +9994,10 @@
         <v>45000</v>
       </c>
       <c r="BW32">
-        <v>33014.12</v>
+        <v>34227.91</v>
       </c>
       <c r="BX32">
-        <v>30485.02</v>
+        <v>31010.97</v>
       </c>
       <c r="BY32" t="s">
         <v>290</v>
@@ -10006,10 +10006,10 @@
         <v>45000</v>
       </c>
       <c r="CA32">
-        <v>30209.13</v>
+        <v>29667.9</v>
       </c>
       <c r="CB32">
-        <v>21373.25</v>
+        <v>28184.51</v>
       </c>
       <c r="CC32" t="s">
         <v>290</v>
@@ -10292,10 +10292,10 @@
         <v>169963</v>
       </c>
       <c r="AQ34">
-        <v>134856.63</v>
+        <v>161464.85</v>
       </c>
       <c r="AR34">
-        <v>104282.98</v>
+        <v>129377.71</v>
       </c>
       <c r="AS34" t="s">
         <v>290</v>
@@ -10304,10 +10304,10 @@
         <v>169963</v>
       </c>
       <c r="AU34">
-        <v>156110.49</v>
+        <v>161464.85</v>
       </c>
       <c r="AV34">
-        <v>126822.59</v>
+        <v>123337.63</v>
       </c>
       <c r="AW34" t="s">
         <v>290</v>
@@ -10316,10 +10316,10 @@
         <v>169963</v>
       </c>
       <c r="AY34">
-        <v>110185.68</v>
+        <v>157263.4</v>
       </c>
       <c r="AZ34">
-        <v>88393.86</v>
+        <v>117948.98</v>
       </c>
       <c r="BA34" t="s">
         <v>290</v>
@@ -10328,10 +10328,10 @@
         <v>169963</v>
       </c>
       <c r="BC34">
-        <v>148966.06</v>
+        <v>133889.37</v>
       </c>
       <c r="BD34">
-        <v>122413.79</v>
+        <v>92886.47</v>
       </c>
       <c r="BE34" t="s">
         <v>290</v>
@@ -10340,10 +10340,10 @@
         <v>169963</v>
       </c>
       <c r="BG34">
-        <v>102249.35</v>
+        <v>134339.14</v>
       </c>
       <c r="BH34">
-        <v>81981.44</v>
+        <v>113520.14</v>
       </c>
       <c r="BI34" t="s">
         <v>290</v>
@@ -10352,10 +10352,10 @@
         <v>169963</v>
       </c>
       <c r="BK34">
-        <v>132855.81</v>
+        <v>143768.92</v>
       </c>
       <c r="BL34">
-        <v>109125.17</v>
+        <v>106183.23</v>
       </c>
       <c r="BM34" t="s">
         <v>719</v>
@@ -10364,10 +10364,10 @@
         <v>45605</v>
       </c>
       <c r="BO34">
-        <v>41707.65</v>
+        <v>34993.12</v>
       </c>
       <c r="BP34">
-        <v>38123.45</v>
+        <v>27037.55</v>
       </c>
       <c r="BQ34" t="s">
         <v>747</v>
@@ -10376,10 +10376,10 @@
         <v>150000</v>
       </c>
       <c r="BS34">
-        <v>107495.09</v>
+        <v>118422.79</v>
       </c>
       <c r="BT34">
-        <v>84177.42999999999</v>
+        <v>106885.75</v>
       </c>
       <c r="BU34" t="s">
         <v>290</v>
@@ -10388,10 +10388,10 @@
         <v>150000</v>
       </c>
       <c r="BW34">
-        <v>136695.36</v>
+        <v>130978.2</v>
       </c>
       <c r="BX34">
-        <v>84121.16</v>
+        <v>110003.22</v>
       </c>
       <c r="BY34" t="s">
         <v>290</v>
@@ -10400,10 +10400,10 @@
         <v>150000</v>
       </c>
       <c r="CA34">
-        <v>96921.56</v>
+        <v>113181.53</v>
       </c>
       <c r="CB34">
-        <v>79038.17999999999</v>
+        <v>83146.39999999999</v>
       </c>
       <c r="CC34" t="s">
         <v>290</v>
@@ -10528,10 +10528,10 @@
         <v>38974</v>
       </c>
       <c r="AQ35">
-        <v>30762.85</v>
+        <v>28536.48</v>
       </c>
       <c r="AR35">
-        <v>21388.49</v>
+        <v>20518.2</v>
       </c>
       <c r="AS35" t="s">
         <v>290</v>
@@ -10540,10 +10540,10 @@
         <v>38974</v>
       </c>
       <c r="AU35">
-        <v>35581.6</v>
+        <v>34287.74</v>
       </c>
       <c r="AV35">
-        <v>30871.22</v>
+        <v>30173.31</v>
       </c>
       <c r="AW35" t="s">
         <v>290</v>
@@ -10552,10 +10552,10 @@
         <v>38974</v>
       </c>
       <c r="AY35">
-        <v>24670</v>
+        <v>31176.29</v>
       </c>
       <c r="AZ35">
-        <v>17353.59</v>
+        <v>25302.28</v>
       </c>
       <c r="BA35" t="s">
         <v>290</v>
@@ -10564,10 +10564,10 @@
         <v>38974</v>
       </c>
       <c r="BC35">
-        <v>24113.22</v>
+        <v>29656.03</v>
       </c>
       <c r="BD35">
-        <v>20058.56</v>
+        <v>23887.09</v>
       </c>
       <c r="BE35" t="s">
         <v>290</v>
@@ -10576,10 +10576,10 @@
         <v>38974</v>
       </c>
       <c r="BG35">
-        <v>32511.7</v>
+        <v>30420.39</v>
       </c>
       <c r="BH35">
-        <v>22652.61</v>
+        <v>21486.78</v>
       </c>
       <c r="BI35" t="s">
         <v>290</v>
@@ -10588,10 +10588,10 @@
         <v>38974</v>
       </c>
       <c r="BK35">
-        <v>32412.38</v>
+        <v>36101.5</v>
       </c>
       <c r="BL35">
-        <v>27044.91</v>
+        <v>34296.42</v>
       </c>
       <c r="BM35" t="s">
         <v>290</v>
@@ -10600,10 +10600,10 @@
         <v>38974</v>
       </c>
       <c r="BO35">
-        <v>29018.38</v>
+        <v>30927.51</v>
       </c>
       <c r="BP35">
-        <v>21404.49</v>
+        <v>24545.65</v>
       </c>
       <c r="BQ35" t="s">
         <v>290</v>
@@ -10612,10 +10612,10 @@
         <v>38974</v>
       </c>
       <c r="BS35">
-        <v>24940.48</v>
+        <v>28660.47</v>
       </c>
       <c r="BT35">
-        <v>18173.85</v>
+        <v>22456.65</v>
       </c>
       <c r="BU35" t="s">
         <v>290</v>
@@ -10624,10 +10624,10 @@
         <v>38974</v>
       </c>
       <c r="BW35">
-        <v>27200.73</v>
+        <v>34318.91</v>
       </c>
       <c r="BX35">
-        <v>19200.53</v>
+        <v>31161.86</v>
       </c>
       <c r="BY35" t="s">
         <v>290</v>
@@ -10636,10 +10636,10 @@
         <v>38974</v>
       </c>
       <c r="CA35">
-        <v>31078.15</v>
+        <v>30716.24</v>
       </c>
       <c r="CB35">
-        <v>27635.89</v>
+        <v>27174.34</v>
       </c>
       <c r="CC35" t="s">
         <v>290</v>
@@ -10761,10 +10761,10 @@
         <v>25000</v>
       </c>
       <c r="AQ36">
-        <v>15324.46</v>
+        <v>20208.08</v>
       </c>
       <c r="AR36">
-        <v>13266.5</v>
+        <v>14954.36</v>
       </c>
       <c r="AS36" t="s">
         <v>290</v>
@@ -10773,10 +10773,10 @@
         <v>25000</v>
       </c>
       <c r="AU36">
-        <v>16773.85</v>
+        <v>20356.29</v>
       </c>
       <c r="AV36">
-        <v>10271.62</v>
+        <v>15684.22</v>
       </c>
       <c r="AW36" t="s">
         <v>290</v>
@@ -10785,10 +10785,10 @@
         <v>25000</v>
       </c>
       <c r="AY36">
-        <v>16382.83</v>
+        <v>20052.09</v>
       </c>
       <c r="AZ36">
-        <v>14052.18</v>
+        <v>16696.26</v>
       </c>
       <c r="BA36" t="s">
         <v>290</v>
@@ -10797,10 +10797,10 @@
         <v>25000</v>
       </c>
       <c r="BC36">
-        <v>21535.61</v>
+        <v>21071.06</v>
       </c>
       <c r="BD36">
-        <v>13907.42</v>
+        <v>18017.37</v>
       </c>
       <c r="BE36" t="s">
         <v>290</v>
@@ -10809,10 +10809,10 @@
         <v>25000</v>
       </c>
       <c r="BG36">
-        <v>21018.11</v>
+        <v>19650.57</v>
       </c>
       <c r="BH36">
-        <v>14396.61</v>
+        <v>15199.79</v>
       </c>
       <c r="BI36" t="s">
         <v>290</v>
@@ -10821,10 +10821,10 @@
         <v>205000</v>
       </c>
       <c r="BK36">
-        <v>169904.58</v>
+        <v>194750</v>
       </c>
       <c r="BL36">
-        <v>150003.19</v>
+        <v>159820.31</v>
       </c>
       <c r="BM36" t="s">
         <v>290</v>
@@ -10833,10 +10833,10 @@
         <v>100000</v>
       </c>
       <c r="BO36">
-        <v>78129.16</v>
+        <v>79011.89999999999</v>
       </c>
       <c r="BP36">
-        <v>59842.27</v>
+        <v>64450.08</v>
       </c>
       <c r="BQ36" t="s">
         <v>290</v>
@@ -10845,10 +10845,10 @@
         <v>100000</v>
       </c>
       <c r="BS36">
-        <v>62678.54</v>
+        <v>88228.7</v>
       </c>
       <c r="BT36">
-        <v>47546.85</v>
+        <v>60036.21</v>
       </c>
       <c r="BU36" t="s">
         <v>290</v>
@@ -10857,10 +10857,10 @@
         <v>100000</v>
       </c>
       <c r="BW36">
-        <v>69707.14999999999</v>
+        <v>87653.28</v>
       </c>
       <c r="BX36">
-        <v>52201.42</v>
+        <v>74465.25</v>
       </c>
       <c r="BY36" t="s">
         <v>290</v>
@@ -10869,10 +10869,10 @@
         <v>100000</v>
       </c>
       <c r="CA36">
-        <v>93962.03</v>
+        <v>89189.12</v>
       </c>
       <c r="CB36">
-        <v>88726.02</v>
+        <v>71073</v>
       </c>
       <c r="CC36" t="s">
         <v>290</v>
@@ -11003,10 +11003,10 @@
         <v>20577</v>
       </c>
       <c r="AQ37">
-        <v>18944.44</v>
+        <v>16850.95</v>
       </c>
       <c r="AR37">
-        <v>14554.39</v>
+        <v>11382.9</v>
       </c>
       <c r="AS37" t="s">
         <v>290</v>
@@ -11015,10 +11015,10 @@
         <v>20577</v>
       </c>
       <c r="AU37">
-        <v>12417.42</v>
+        <v>14378.92</v>
       </c>
       <c r="AV37">
-        <v>9999.969999999999</v>
+        <v>11021.87</v>
       </c>
       <c r="AW37" t="s">
         <v>290</v>
@@ -11027,10 +11027,10 @@
         <v>20577</v>
       </c>
       <c r="AY37">
-        <v>17191.13</v>
+        <v>14312.61</v>
       </c>
       <c r="AZ37">
-        <v>11128.8</v>
+        <v>10125.41</v>
       </c>
       <c r="BA37" t="s">
         <v>290</v>
@@ -11039,10 +11039,10 @@
         <v>20577</v>
       </c>
       <c r="BC37">
-        <v>16780.84</v>
+        <v>16156.22</v>
       </c>
       <c r="BD37">
-        <v>12881.03</v>
+        <v>14188.26</v>
       </c>
       <c r="BE37" t="s">
         <v>290</v>
@@ -11051,10 +11051,10 @@
         <v>20577</v>
       </c>
       <c r="BG37">
-        <v>17499.41</v>
+        <v>18040.24</v>
       </c>
       <c r="BH37">
-        <v>13299.82</v>
+        <v>13916.1</v>
       </c>
       <c r="BI37" t="s">
         <v>290</v>
@@ -11063,10 +11063,10 @@
         <v>20577</v>
       </c>
       <c r="BK37">
-        <v>17887.1</v>
+        <v>17804.19</v>
       </c>
       <c r="BL37">
-        <v>15821</v>
+        <v>13030.27</v>
       </c>
       <c r="BM37" t="s">
         <v>290</v>
@@ -11075,10 +11075,10 @@
         <v>20577</v>
       </c>
       <c r="BO37">
-        <v>12791.17</v>
+        <v>17289.04</v>
       </c>
       <c r="BP37">
-        <v>10265.71</v>
+        <v>14251.63</v>
       </c>
       <c r="BQ37" t="s">
         <v>290</v>
@@ -11087,10 +11087,10 @@
         <v>20577</v>
       </c>
       <c r="BS37">
-        <v>15527.98</v>
+        <v>15071.18</v>
       </c>
       <c r="BT37">
-        <v>11108.69</v>
+        <v>11837.38</v>
       </c>
       <c r="BU37" t="s">
         <v>290</v>
@@ -11099,10 +11099,10 @@
         <v>20577</v>
       </c>
       <c r="BW37">
-        <v>15942.19</v>
+        <v>17584.17</v>
       </c>
       <c r="BX37">
-        <v>13795.89</v>
+        <v>15043.03</v>
       </c>
       <c r="BY37" t="s">
         <v>290</v>
@@ -11111,10 +11111,10 @@
         <v>20577</v>
       </c>
       <c r="CA37">
-        <v>13118.02</v>
+        <v>18062.02</v>
       </c>
       <c r="CB37">
-        <v>10410.43</v>
+        <v>14356.2</v>
       </c>
       <c r="CC37" t="s">
         <v>290</v>
@@ -11245,10 +11245,10 @@
         <v>21334</v>
       </c>
       <c r="AQ38">
-        <v>19056.93</v>
+        <v>17077.07</v>
       </c>
       <c r="AR38">
-        <v>15137.68</v>
+        <v>11966.18</v>
       </c>
       <c r="AS38" t="s">
         <v>290</v>
@@ -11257,10 +11257,10 @@
         <v>21334</v>
       </c>
       <c r="AU38">
-        <v>16695.08</v>
+        <v>17679.39</v>
       </c>
       <c r="AV38">
-        <v>14086.12</v>
+        <v>13689.4</v>
       </c>
       <c r="AW38" t="s">
         <v>290</v>
@@ -11269,10 +11269,10 @@
         <v>15250</v>
       </c>
       <c r="AY38">
-        <v>9466.68</v>
+        <v>11638.4</v>
       </c>
       <c r="AZ38">
-        <v>7225.13</v>
+        <v>7898.35</v>
       </c>
       <c r="BA38" t="s">
         <v>290</v>
@@ -11281,10 +11281,10 @@
         <v>10680</v>
       </c>
       <c r="BC38">
-        <v>8173.99</v>
+        <v>8717.85</v>
       </c>
       <c r="BD38">
-        <v>5475.03</v>
+        <v>7514.7</v>
       </c>
       <c r="BE38" t="s">
         <v>290</v>
@@ -11293,10 +11293,10 @@
         <v>10680</v>
       </c>
       <c r="BG38">
-        <v>9667.290000000001</v>
+        <v>10120.25</v>
       </c>
       <c r="BH38">
-        <v>7643.51</v>
+        <v>7695.39</v>
       </c>
       <c r="BI38" t="s">
         <v>290</v>
@@ -11305,10 +11305,10 @@
         <v>10680</v>
       </c>
       <c r="BK38">
-        <v>8128.46</v>
+        <v>9226.98</v>
       </c>
       <c r="BL38">
-        <v>5055.79</v>
+        <v>7084.58</v>
       </c>
       <c r="BM38" t="s">
         <v>290</v>
@@ -11317,10 +11317,10 @@
         <v>10680</v>
       </c>
       <c r="BO38">
-        <v>8593.73</v>
+        <v>9363.35</v>
       </c>
       <c r="BP38">
-        <v>6510.77</v>
+        <v>7133.71</v>
       </c>
       <c r="BQ38" t="s">
         <v>290</v>
@@ -11329,10 +11329,10 @@
         <v>10680</v>
       </c>
       <c r="BS38">
-        <v>9952.790000000001</v>
+        <v>7247.82</v>
       </c>
       <c r="BT38">
-        <v>6260.57</v>
+        <v>5722.57</v>
       </c>
       <c r="BU38" t="s">
         <v>290</v>
@@ -11341,10 +11341,10 @@
         <v>10680</v>
       </c>
       <c r="BW38">
-        <v>7408.67</v>
+        <v>10053.93</v>
       </c>
       <c r="BX38">
-        <v>5219.86</v>
+        <v>7886.22</v>
       </c>
       <c r="BY38" t="s">
         <v>290</v>
@@ -11353,10 +11353,10 @@
         <v>10680</v>
       </c>
       <c r="CA38">
-        <v>9359.73</v>
+        <v>9534.620000000001</v>
       </c>
       <c r="CB38">
-        <v>7774.6</v>
+        <v>7303.85</v>
       </c>
       <c r="CC38" t="s">
         <v>290</v>
@@ -11481,10 +11481,10 @@
         <v>5000</v>
       </c>
       <c r="AQ39">
-        <v>4628.03</v>
+        <v>3764.74</v>
       </c>
       <c r="AR39">
-        <v>3600.36</v>
+        <v>2315.73</v>
       </c>
       <c r="AS39" t="s">
         <v>290</v>
@@ -11493,10 +11493,10 @@
         <v>5000</v>
       </c>
       <c r="AU39">
-        <v>4474.95</v>
+        <v>4580.75</v>
       </c>
       <c r="AV39">
-        <v>2942.53</v>
+        <v>3347.9</v>
       </c>
       <c r="AW39" t="s">
         <v>290</v>
@@ -11505,10 +11505,10 @@
         <v>5000</v>
       </c>
       <c r="AY39">
-        <v>3342.21</v>
+        <v>4263.72</v>
       </c>
       <c r="AZ39">
-        <v>2014.85</v>
+        <v>3166.48</v>
       </c>
       <c r="BA39" t="s">
         <v>290</v>
@@ -11517,10 +11517,10 @@
         <v>5000</v>
       </c>
       <c r="BC39">
-        <v>4294.02</v>
+        <v>4109.37</v>
       </c>
       <c r="BD39">
-        <v>3966.79</v>
+        <v>3597.94</v>
       </c>
       <c r="BE39" t="s">
         <v>290</v>
@@ -11529,10 +11529,10 @@
         <v>5000</v>
       </c>
       <c r="BG39">
-        <v>3323.14</v>
+        <v>4133.11</v>
       </c>
       <c r="BH39">
-        <v>2949.96</v>
+        <v>2733.24</v>
       </c>
       <c r="BI39" t="s">
         <v>290</v>
@@ -11541,10 +11541,10 @@
         <v>5000</v>
       </c>
       <c r="BK39">
-        <v>4119.26</v>
+        <v>4094.89</v>
       </c>
       <c r="BL39">
-        <v>2774.63</v>
+        <v>3283.72</v>
       </c>
       <c r="BM39" t="s">
         <v>290</v>
@@ -11553,10 +11553,10 @@
         <v>5000</v>
       </c>
       <c r="BO39">
-        <v>3724.44</v>
+        <v>3244.03</v>
       </c>
       <c r="BP39">
-        <v>3458.63</v>
+        <v>2579.64</v>
       </c>
       <c r="BQ39" t="s">
         <v>290</v>
@@ -11565,10 +11565,10 @@
         <v>5000</v>
       </c>
       <c r="BS39">
-        <v>4443.54</v>
+        <v>3648.85</v>
       </c>
       <c r="BT39">
-        <v>3218.12</v>
+        <v>3033.04</v>
       </c>
       <c r="BU39" t="s">
         <v>290</v>
@@ -11577,10 +11577,10 @@
         <v>5000</v>
       </c>
       <c r="BW39">
-        <v>4047.56</v>
+        <v>4147.79</v>
       </c>
       <c r="BX39">
-        <v>2682.5</v>
+        <v>3632.81</v>
       </c>
       <c r="BY39" t="s">
         <v>290</v>
@@ -11589,10 +11589,10 @@
         <v>5000</v>
       </c>
       <c r="CA39">
-        <v>4569.73</v>
+        <v>4103.88</v>
       </c>
       <c r="CB39">
-        <v>3448.33</v>
+        <v>3898.68</v>
       </c>
       <c r="CC39" t="s">
         <v>290</v>
@@ -11714,10 +11714,10 @@
         <v>18750</v>
       </c>
       <c r="AQ40">
-        <v>12594.35</v>
+        <v>14466.63</v>
       </c>
       <c r="AR40">
-        <v>11392.1</v>
+        <v>10524.19</v>
       </c>
       <c r="AS40" t="s">
         <v>290</v>
@@ -11726,10 +11726,10 @@
         <v>18750</v>
       </c>
       <c r="AU40">
-        <v>16870.33</v>
+        <v>17793.06</v>
       </c>
       <c r="AV40">
-        <v>10701.33</v>
+        <v>15197.19</v>
       </c>
       <c r="AW40" t="s">
         <v>290</v>
@@ -11738,10 +11738,10 @@
         <v>18750</v>
       </c>
       <c r="AY40">
-        <v>12984.29</v>
+        <v>15229.8</v>
       </c>
       <c r="AZ40">
-        <v>8768.75</v>
+        <v>12467.72</v>
       </c>
       <c r="BA40" t="s">
         <v>290</v>
@@ -11750,10 +11750,10 @@
         <v>18750</v>
       </c>
       <c r="BC40">
-        <v>16419.96</v>
+        <v>13747.44</v>
       </c>
       <c r="BD40">
-        <v>11972.8</v>
+        <v>10907.81</v>
       </c>
       <c r="BE40" t="s">
         <v>290</v>
@@ -11762,10 +11762,10 @@
         <v>18750</v>
       </c>
       <c r="BG40">
-        <v>16353.52</v>
+        <v>14757.16</v>
       </c>
       <c r="BH40">
-        <v>10294.21</v>
+        <v>10019.91</v>
       </c>
       <c r="BI40" t="s">
         <v>290</v>
@@ -11774,10 +11774,10 @@
         <v>18750</v>
       </c>
       <c r="BK40">
-        <v>16890.61</v>
+        <v>17197.28</v>
       </c>
       <c r="BL40">
-        <v>14400.65</v>
+        <v>14652.99</v>
       </c>
       <c r="BM40" t="s">
         <v>290</v>
@@ -11786,10 +11786,10 @@
         <v>18750</v>
       </c>
       <c r="BO40">
-        <v>15192.91</v>
+        <v>15256.17</v>
       </c>
       <c r="BP40">
-        <v>13456.33</v>
+        <v>13610.9</v>
       </c>
       <c r="BQ40" t="s">
         <v>290</v>
@@ -11798,10 +11798,10 @@
         <v>12500</v>
       </c>
       <c r="BS40">
-        <v>8372</v>
+        <v>8703.5</v>
       </c>
       <c r="BT40">
-        <v>5821.85</v>
+        <v>6821.26</v>
       </c>
       <c r="BU40" t="s">
         <v>290</v>
@@ -11810,10 +11810,10 @@
         <v>12500</v>
       </c>
       <c r="BW40">
-        <v>9570.219999999999</v>
+        <v>11269.44</v>
       </c>
       <c r="BX40">
-        <v>6582.83</v>
+        <v>10254.61</v>
       </c>
       <c r="BY40" t="s">
         <v>290</v>
@@ -11822,10 +11822,10 @@
         <v>12500</v>
       </c>
       <c r="CA40">
-        <v>9368.549999999999</v>
+        <v>9195.889999999999</v>
       </c>
       <c r="CB40">
-        <v>5706.75</v>
+        <v>8736.09</v>
       </c>
       <c r="CC40" t="s">
         <v>290</v>
@@ -11947,10 +11947,10 @@
         <v>143000</v>
       </c>
       <c r="AQ41">
-        <v>125853.6</v>
+        <v>108827.59</v>
       </c>
       <c r="AR41">
-        <v>93044.03999999999</v>
+        <v>87526.74000000001</v>
       </c>
       <c r="AS41" t="s">
         <v>290</v>
@@ -11959,10 +11959,10 @@
         <v>143000</v>
       </c>
       <c r="AU41">
-        <v>130006.33</v>
+        <v>126787.5</v>
       </c>
       <c r="AV41">
-        <v>116702.82</v>
+        <v>81574.89999999999</v>
       </c>
       <c r="AW41" t="s">
         <v>290</v>
@@ -11971,10 +11971,10 @@
         <v>143000</v>
       </c>
       <c r="AY41">
-        <v>120082.21</v>
+        <v>110703.04</v>
       </c>
       <c r="AZ41">
-        <v>108230.35</v>
+        <v>82736.60000000001</v>
       </c>
       <c r="BA41" t="s">
         <v>290</v>
@@ -11983,10 +11983,10 @@
         <v>143000</v>
       </c>
       <c r="BC41">
-        <v>135058.07</v>
+        <v>119714.18</v>
       </c>
       <c r="BD41">
-        <v>98249.28999999999</v>
+        <v>104854.04</v>
       </c>
       <c r="BE41" t="s">
         <v>290</v>
@@ -11995,10 +11995,10 @@
         <v>143000</v>
       </c>
       <c r="BG41">
-        <v>88204.44</v>
+        <v>113393.88</v>
       </c>
       <c r="BH41">
-        <v>57130.18</v>
+        <v>80144.53</v>
       </c>
       <c r="BI41" t="s">
         <v>290</v>
@@ -12007,10 +12007,10 @@
         <v>143000</v>
       </c>
       <c r="BK41">
-        <v>124131.79</v>
+        <v>121259.99</v>
       </c>
       <c r="BL41">
-        <v>86923.00999999999</v>
+        <v>110089.41</v>
       </c>
       <c r="BM41" t="s">
         <v>290</v>
@@ -12019,10 +12019,10 @@
         <v>143000</v>
       </c>
       <c r="BO41">
-        <v>133539.75</v>
+        <v>93022.89999999999</v>
       </c>
       <c r="BP41">
-        <v>117987.12</v>
+        <v>74164.41</v>
       </c>
       <c r="BQ41" t="s">
         <v>290</v>
@@ -12031,10 +12031,10 @@
         <v>143000</v>
       </c>
       <c r="BS41">
-        <v>130939.79</v>
+        <v>109859.93</v>
       </c>
       <c r="BT41">
-        <v>116368.09</v>
+        <v>76280.86</v>
       </c>
       <c r="BU41" t="s">
         <v>290</v>
@@ -12043,10 +12043,10 @@
         <v>143000</v>
       </c>
       <c r="BW41">
-        <v>95709.39999999999</v>
+        <v>121610.53</v>
       </c>
       <c r="BX41">
-        <v>84078.66</v>
+        <v>107589.02</v>
       </c>
       <c r="BY41" t="s">
         <v>290</v>
@@ -12055,10 +12055,10 @@
         <v>143000</v>
       </c>
       <c r="CA41">
-        <v>86583.27</v>
+        <v>113059.94</v>
       </c>
       <c r="CB41">
-        <v>72940.00999999999</v>
+        <v>98736.67999999999</v>
       </c>
       <c r="CC41" t="s">
         <v>290</v>
@@ -12180,10 +12180,10 @@
         <v>165000</v>
       </c>
       <c r="AQ42">
-        <v>147620.39</v>
+        <v>134683.58</v>
       </c>
       <c r="AR42">
-        <v>89039.85000000001</v>
+        <v>107089.89</v>
       </c>
       <c r="AS42" t="s">
         <v>290</v>
@@ -12192,10 +12192,10 @@
         <v>165000</v>
       </c>
       <c r="AU42">
-        <v>139249.2</v>
+        <v>134991.55</v>
       </c>
       <c r="AV42">
-        <v>98172.11</v>
+        <v>122778.99</v>
       </c>
       <c r="AW42" t="s">
         <v>290</v>
@@ -12204,10 +12204,10 @@
         <v>165000</v>
       </c>
       <c r="AY42">
-        <v>112723.65</v>
+        <v>139665.14</v>
       </c>
       <c r="AZ42">
-        <v>76434.16</v>
+        <v>104825.66</v>
       </c>
       <c r="BA42" t="s">
         <v>290</v>
@@ -12216,10 +12216,10 @@
         <v>165000</v>
       </c>
       <c r="BC42">
-        <v>112537.98</v>
+        <v>119450.42</v>
       </c>
       <c r="BD42">
-        <v>105653.99</v>
+        <v>106477.03</v>
       </c>
       <c r="BE42" t="s">
         <v>290</v>
@@ -12228,10 +12228,10 @@
         <v>932683</v>
       </c>
       <c r="BG42">
-        <v>835553.65</v>
+        <v>857181.77</v>
       </c>
       <c r="BH42">
-        <v>595026.0699999999</v>
+        <v>760695.89</v>
       </c>
       <c r="BI42" t="s">
         <v>699</v>
@@ -12240,10 +12240,10 @@
         <v>324324</v>
       </c>
       <c r="BK42">
-        <v>266454.52</v>
+        <v>279041.09</v>
       </c>
       <c r="BL42">
-        <v>209121.34</v>
+        <v>234782.04</v>
       </c>
       <c r="BM42" t="s">
         <v>290</v>
@@ -12252,10 +12252,10 @@
         <v>324324</v>
       </c>
       <c r="BO42">
-        <v>301635.22</v>
+        <v>250574.86</v>
       </c>
       <c r="BP42">
-        <v>261141.52</v>
+        <v>191154.3</v>
       </c>
       <c r="BQ42" t="s">
         <v>290</v>
@@ -12264,10 +12264,10 @@
         <v>324324</v>
       </c>
       <c r="BS42">
-        <v>196383.1</v>
+        <v>293658.65</v>
       </c>
       <c r="BT42">
-        <v>127956.41</v>
+        <v>224645.48</v>
       </c>
       <c r="BU42" t="s">
         <v>290</v>
@@ -12276,10 +12276,10 @@
         <v>324324</v>
       </c>
       <c r="BW42">
-        <v>274862.31</v>
+        <v>253796.61</v>
       </c>
       <c r="BX42">
-        <v>188949.81</v>
+        <v>170829.61</v>
       </c>
       <c r="BY42" t="s">
         <v>290</v>
@@ -12288,10 +12288,10 @@
         <v>324324</v>
       </c>
       <c r="CA42">
-        <v>248112.13</v>
+        <v>226511.48</v>
       </c>
       <c r="CB42">
-        <v>206201.22</v>
+        <v>183702.06</v>
       </c>
       <c r="CC42" t="s">
         <v>290</v>
@@ -12416,10 +12416,10 @@
         <v>91451.86486486487</v>
       </c>
       <c r="AQ43">
-        <v>80469.55</v>
+        <v>79646.77</v>
       </c>
       <c r="AR43">
-        <v>67659.92999999999</v>
+        <v>60653.96</v>
       </c>
       <c r="AS43" t="s">
         <v>290</v>
@@ -12428,10 +12428,10 @@
         <v>91451.86486486487</v>
       </c>
       <c r="AU43">
-        <v>57861.11</v>
+        <v>86131.12</v>
       </c>
       <c r="AV43">
-        <v>50474.01</v>
+        <v>67700.13</v>
       </c>
       <c r="AW43" t="s">
         <v>290</v>
@@ -12440,10 +12440,10 @@
         <v>107198.2432432432</v>
       </c>
       <c r="AY43">
-        <v>78867.7</v>
+        <v>92109.74000000001</v>
       </c>
       <c r="AZ43">
-        <v>52083.85</v>
+        <v>64056.72</v>
       </c>
       <c r="BA43" t="s">
         <v>290</v>
@@ -12452,10 +12452,10 @@
         <v>91232.91891891892</v>
       </c>
       <c r="BC43">
-        <v>79959.8</v>
+        <v>66338.98</v>
       </c>
       <c r="BD43">
-        <v>69280.00999999999</v>
+        <v>60058</v>
       </c>
       <c r="BE43" t="s">
         <v>290</v>
@@ -12464,10 +12464,10 @@
         <v>91232.91891891892</v>
       </c>
       <c r="BG43">
-        <v>70857.23</v>
+        <v>65378.36</v>
       </c>
       <c r="BH43">
-        <v>57467.92</v>
+        <v>47753</v>
       </c>
       <c r="BI43" t="s">
         <v>290</v>
@@ -12476,10 +12476,10 @@
         <v>137189.0277777778</v>
       </c>
       <c r="BK43">
-        <v>95203.44</v>
+        <v>120604.8</v>
       </c>
       <c r="BL43">
-        <v>84186.39999999999</v>
+        <v>111863.25</v>
       </c>
       <c r="BM43" t="s">
         <v>290</v>
@@ -12488,10 +12488,10 @@
         <v>107181.5277777778</v>
       </c>
       <c r="BO43">
-        <v>70690.74000000001</v>
+        <v>79624.56</v>
       </c>
       <c r="BP43">
-        <v>48029.1</v>
+        <v>72157.37</v>
       </c>
       <c r="BQ43" t="s">
         <v>290</v>
@@ -12500,10 +12500,10 @@
         <v>100025.6380952381</v>
       </c>
       <c r="BS43">
-        <v>83647.39</v>
+        <v>89994.86</v>
       </c>
       <c r="BT43">
-        <v>59481.23</v>
+        <v>60490.71</v>
       </c>
       <c r="BU43" t="s">
         <v>290</v>
@@ -12512,10 +12512,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="BW43">
-        <v>76231.35000000001</v>
+        <v>77443.41</v>
       </c>
       <c r="BX43">
-        <v>49853.66</v>
+        <v>57534</v>
       </c>
       <c r="BY43" t="s">
         <v>290</v>
@@ -12524,10 +12524,10 @@
         <v>102281.2941176471</v>
       </c>
       <c r="CA43">
-        <v>69896.77</v>
+        <v>86451.99000000001</v>
       </c>
       <c r="CB43">
-        <v>63052.64</v>
+        <v>74382.95</v>
       </c>
       <c r="CC43" t="s">
         <v>290</v>
@@ -12655,10 +12655,10 @@
         <v>93737</v>
       </c>
       <c r="AQ44">
-        <v>68698.66</v>
+        <v>74191.63</v>
       </c>
       <c r="AR44">
-        <v>60252.51</v>
+        <v>62744.18</v>
       </c>
       <c r="AS44" t="s">
         <v>290</v>
@@ -12667,10 +12667,10 @@
         <v>93737</v>
       </c>
       <c r="AU44">
-        <v>63390.38</v>
+        <v>82129.73</v>
       </c>
       <c r="AV44">
-        <v>47817.14</v>
+        <v>59655.14</v>
       </c>
       <c r="AW44" t="s">
         <v>290</v>
@@ -12679,10 +12679,10 @@
         <v>93737</v>
       </c>
       <c r="AY44">
-        <v>87305.25999999999</v>
+        <v>68070.67</v>
       </c>
       <c r="AZ44">
-        <v>59824.56</v>
+        <v>60079.08</v>
       </c>
       <c r="BA44" t="s">
         <v>290</v>
@@ -12691,10 +12691,10 @@
         <v>93737</v>
       </c>
       <c r="BC44">
-        <v>58782.58</v>
+        <v>64463.86</v>
       </c>
       <c r="BD44">
-        <v>39220.22</v>
+        <v>51475.44</v>
       </c>
       <c r="BE44" t="s">
         <v>290</v>
@@ -12703,10 +12703,10 @@
         <v>93737</v>
       </c>
       <c r="BG44">
-        <v>80634.3</v>
+        <v>74684.85000000001</v>
       </c>
       <c r="BH44">
-        <v>71803.58</v>
+        <v>62428.21</v>
       </c>
       <c r="BI44" t="s">
         <v>290</v>
@@ -12715,10 +12715,10 @@
         <v>93737</v>
       </c>
       <c r="BK44">
-        <v>74285.21000000001</v>
+        <v>75471.17</v>
       </c>
       <c r="BL44">
-        <v>49531.59</v>
+        <v>61915.93</v>
       </c>
       <c r="BM44" t="s">
         <v>720</v>
@@ -12727,10 +12727,10 @@
         <v>326943</v>
       </c>
       <c r="BO44">
-        <v>218353.24</v>
+        <v>220181.22</v>
       </c>
       <c r="BP44">
-        <v>155629.99</v>
+        <v>181870.72</v>
       </c>
       <c r="BQ44" t="s">
         <v>748</v>
@@ -12739,10 +12739,10 @@
         <v>326942</v>
       </c>
       <c r="BS44">
-        <v>301342.24</v>
+        <v>266699.01</v>
       </c>
       <c r="BT44">
-        <v>263757.5</v>
+        <v>196629.98</v>
       </c>
       <c r="BU44" t="s">
         <v>290</v>
@@ -12751,10 +12751,10 @@
         <v>7350</v>
       </c>
       <c r="BW44">
-        <v>4546.78</v>
+        <v>6446.49</v>
       </c>
       <c r="BX44">
-        <v>3659.37</v>
+        <v>5085.22</v>
       </c>
       <c r="BY44" t="s">
         <v>290</v>
@@ -12763,10 +12763,10 @@
         <v>7350</v>
       </c>
       <c r="CA44">
-        <v>6732.62</v>
+        <v>5718.24</v>
       </c>
       <c r="CB44">
-        <v>5600.22</v>
+        <v>4442.98</v>
       </c>
       <c r="CC44" t="s">
         <v>290</v>
@@ -12888,10 +12888,10 @@
         <v>9578</v>
       </c>
       <c r="AQ45">
-        <v>6171.41</v>
+        <v>7455.97</v>
       </c>
       <c r="AR45">
-        <v>4142.01</v>
+        <v>5928.83</v>
       </c>
       <c r="AS45" t="s">
         <v>290</v>
@@ -12900,10 +12900,10 @@
         <v>9578</v>
       </c>
       <c r="AU45">
-        <v>7526.4</v>
+        <v>7032.18</v>
       </c>
       <c r="AV45">
-        <v>6321.46</v>
+        <v>5531.63</v>
       </c>
       <c r="AW45" t="s">
         <v>290</v>
@@ -12912,10 +12912,10 @@
         <v>9578</v>
       </c>
       <c r="AY45">
-        <v>6059.67</v>
+        <v>5904.49</v>
       </c>
       <c r="AZ45">
-        <v>4816.9</v>
+        <v>4332.63</v>
       </c>
       <c r="BA45" t="s">
         <v>290</v>
@@ -12924,10 +12924,10 @@
         <v>9578</v>
       </c>
       <c r="BC45">
-        <v>5808.88</v>
+        <v>7775.42</v>
       </c>
       <c r="BD45">
-        <v>5064.34</v>
+        <v>6339.37</v>
       </c>
       <c r="BE45" t="s">
         <v>290</v>
@@ -12936,10 +12936,10 @@
         <v>131080</v>
       </c>
       <c r="BG45">
-        <v>102314.88</v>
+        <v>107771.96</v>
       </c>
       <c r="BH45">
-        <v>76277.37</v>
+        <v>87748.41</v>
       </c>
       <c r="BI45" t="s">
         <v>700</v>
@@ -12948,10 +12948,10 @@
         <v>88705</v>
       </c>
       <c r="BK45">
-        <v>62699.93</v>
+        <v>71732.87</v>
       </c>
       <c r="BL45">
-        <v>42603.83</v>
+        <v>61962.05</v>
       </c>
       <c r="BM45" t="s">
         <v>290</v>
@@ -12960,10 +12960,10 @@
         <v>88705</v>
       </c>
       <c r="BO45">
-        <v>64244.37</v>
+        <v>70229.42</v>
       </c>
       <c r="BP45">
-        <v>56786.48</v>
+        <v>58687.08</v>
       </c>
       <c r="BQ45" t="s">
         <v>290</v>
@@ -12972,10 +12972,10 @@
         <v>88705</v>
       </c>
       <c r="BS45">
-        <v>80390.11</v>
+        <v>70019.17</v>
       </c>
       <c r="BT45">
-        <v>53660.77</v>
+        <v>55664.18</v>
       </c>
       <c r="BU45" t="s">
         <v>290</v>
@@ -12984,10 +12984,10 @@
         <v>88705</v>
       </c>
       <c r="BW45">
-        <v>64510.48</v>
+        <v>81761.13</v>
       </c>
       <c r="BX45">
-        <v>43385.74</v>
+        <v>71815.49000000001</v>
       </c>
       <c r="BY45" t="s">
         <v>290</v>
@@ -12996,10 +12996,10 @@
         <v>88705</v>
       </c>
       <c r="CA45">
-        <v>61847.83</v>
+        <v>77042.72</v>
       </c>
       <c r="CB45">
-        <v>41787.77</v>
+        <v>61721.53</v>
       </c>
       <c r="CC45" t="s">
         <v>290</v>
@@ -13124,10 +13124,10 @@
         <v>297351</v>
       </c>
       <c r="AQ46">
-        <v>233941.79</v>
+        <v>248952.21</v>
       </c>
       <c r="AR46">
-        <v>212503.18</v>
+        <v>169752.77</v>
       </c>
       <c r="AS46" t="s">
         <v>290</v>
@@ -13136,10 +13136,10 @@
         <v>297351</v>
       </c>
       <c r="AU46">
-        <v>229139.67</v>
+        <v>223940.67</v>
       </c>
       <c r="AV46">
-        <v>193184.6</v>
+        <v>166400.93</v>
       </c>
       <c r="AW46" t="s">
         <v>290</v>
@@ -13148,10 +13148,10 @@
         <v>297351</v>
       </c>
       <c r="AY46">
-        <v>234362.2</v>
+        <v>248835.39</v>
       </c>
       <c r="AZ46">
-        <v>192451.2</v>
+        <v>199070.39</v>
       </c>
       <c r="BA46" t="s">
         <v>290</v>
@@ -13160,10 +13160,10 @@
         <v>297351</v>
       </c>
       <c r="BC46">
-        <v>207368.14</v>
+        <v>198721.31</v>
       </c>
       <c r="BD46">
-        <v>134017.54</v>
+        <v>186017.2</v>
       </c>
       <c r="BE46" t="s">
         <v>688</v>
@@ -13172,10 +13172,10 @@
         <v>44575</v>
       </c>
       <c r="BG46">
-        <v>29801.94</v>
+        <v>38181.64</v>
       </c>
       <c r="BH46">
-        <v>24218.01</v>
+        <v>33210.62</v>
       </c>
       <c r="BI46" t="s">
         <v>290</v>
@@ -13184,10 +13184,10 @@
         <v>49559</v>
       </c>
       <c r="BK46">
-        <v>35154.18</v>
+        <v>37433.32</v>
       </c>
       <c r="BL46">
-        <v>23407.73</v>
+        <v>25048.47</v>
       </c>
       <c r="BM46" t="s">
         <v>290</v>
@@ -13196,10 +13196,10 @@
         <v>49559</v>
       </c>
       <c r="BO46">
-        <v>35994.61</v>
+        <v>44788.63</v>
       </c>
       <c r="BP46">
-        <v>30758.35</v>
+        <v>33362.46</v>
       </c>
       <c r="BQ46" t="s">
         <v>290</v>
@@ -13208,10 +13208,10 @@
         <v>49559</v>
       </c>
       <c r="BS46">
-        <v>32349.48</v>
+        <v>36680.86</v>
       </c>
       <c r="BT46">
-        <v>29961.3</v>
+        <v>27780.72</v>
       </c>
       <c r="BU46" t="s">
         <v>290</v>
@@ -13220,10 +13220,10 @@
         <v>49559</v>
       </c>
       <c r="BW46">
-        <v>31723.32</v>
+        <v>39042.86</v>
       </c>
       <c r="BX46">
-        <v>26584.45</v>
+        <v>32487.86</v>
       </c>
       <c r="BY46" t="s">
         <v>290</v>
@@ -13232,10 +13232,10 @@
         <v>49559</v>
       </c>
       <c r="CA46">
-        <v>40585.1</v>
+        <v>43109.93</v>
       </c>
       <c r="CB46">
-        <v>37714.61</v>
+        <v>25235.23</v>
       </c>
       <c r="CC46" t="s">
         <v>290</v>
@@ -13357,10 +13357,10 @@
         <v>651865</v>
       </c>
       <c r="AQ47">
-        <v>420802.82</v>
+        <v>543036.01</v>
       </c>
       <c r="AR47">
-        <v>335587.74</v>
+        <v>350671.19</v>
       </c>
       <c r="AS47" t="s">
         <v>290</v>
@@ -13369,10 +13369,10 @@
         <v>651865</v>
       </c>
       <c r="AU47">
-        <v>576844.0600000001</v>
+        <v>507529.03</v>
       </c>
       <c r="AV47">
-        <v>490070.16</v>
+        <v>383942.57</v>
       </c>
       <c r="AW47" t="s">
         <v>290</v>
@@ -13381,10 +13381,10 @@
         <v>651865</v>
       </c>
       <c r="AY47">
-        <v>611674.85</v>
+        <v>570763.21</v>
       </c>
       <c r="AZ47">
-        <v>436259.05</v>
+        <v>514746.1</v>
       </c>
       <c r="BA47" t="s">
         <v>290</v>
@@ -13393,10 +13393,10 @@
         <v>651865</v>
       </c>
       <c r="BC47">
-        <v>432617.98</v>
+        <v>533393.59</v>
       </c>
       <c r="BD47">
-        <v>356648.61</v>
+        <v>469972.22</v>
       </c>
       <c r="BE47" t="s">
         <v>689</v>
@@ -13405,10 +13405,10 @@
         <v>737130</v>
       </c>
       <c r="BG47">
-        <v>584143.8100000001</v>
+        <v>596675</v>
       </c>
       <c r="BH47">
-        <v>410014.12</v>
+        <v>395965.25</v>
       </c>
       <c r="BI47" t="s">
         <v>701</v>
@@ -13417,10 +13417,10 @@
         <v>727095</v>
       </c>
       <c r="BK47">
-        <v>530705.63</v>
+        <v>629211.83</v>
       </c>
       <c r="BL47">
-        <v>447328.65</v>
+        <v>505665.34</v>
       </c>
       <c r="BM47" t="s">
         <v>721</v>
@@ -13429,10 +13429,10 @@
         <v>930000</v>
       </c>
       <c r="BO47">
-        <v>852192.36</v>
+        <v>819651.72</v>
       </c>
       <c r="BP47">
-        <v>545482.96</v>
+        <v>541791.61</v>
       </c>
       <c r="BQ47" t="s">
         <v>749</v>
@@ -13441,10 +13441,10 @@
         <v>727095</v>
       </c>
       <c r="BS47">
-        <v>539117.61</v>
+        <v>571232.91</v>
       </c>
       <c r="BT47">
-        <v>401912.64</v>
+        <v>379661.08</v>
       </c>
       <c r="BU47" t="s">
         <v>290</v>
@@ -13453,10 +13453,10 @@
         <v>49559</v>
       </c>
       <c r="BW47">
-        <v>34444.05</v>
+        <v>39287.15</v>
       </c>
       <c r="BX47">
-        <v>31605.38</v>
+        <v>31474.1</v>
       </c>
       <c r="BY47" t="s">
         <v>290</v>
@@ -13465,10 +13465,10 @@
         <v>49559</v>
       </c>
       <c r="CA47">
-        <v>39763.14</v>
+        <v>46847.36</v>
       </c>
       <c r="CB47">
-        <v>35538.57</v>
+        <v>34154.67</v>
       </c>
       <c r="CC47" t="s">
         <v>290</v>
@@ -13593,10 +13593,10 @@
         <v>286000</v>
       </c>
       <c r="AQ48">
-        <v>246988.48</v>
+        <v>220901.91</v>
       </c>
       <c r="AR48">
-        <v>212453</v>
+        <v>178882.18</v>
       </c>
       <c r="AS48" t="s">
         <v>290</v>
@@ -13605,10 +13605,10 @@
         <v>286000</v>
       </c>
       <c r="AU48">
-        <v>201580.22</v>
+        <v>242831.77</v>
       </c>
       <c r="AV48">
-        <v>184042.77</v>
+        <v>204170.49</v>
       </c>
       <c r="AW48" t="s">
         <v>290</v>
@@ -13617,10 +13617,10 @@
         <v>286000</v>
       </c>
       <c r="AY48">
-        <v>207593.09</v>
+        <v>230312.05</v>
       </c>
       <c r="AZ48">
-        <v>149044.4</v>
+        <v>175654.78</v>
       </c>
       <c r="BA48" t="s">
         <v>290</v>
@@ -13629,10 +13629,10 @@
         <v>286000</v>
       </c>
       <c r="BC48">
-        <v>214948.37</v>
+        <v>226480.98</v>
       </c>
       <c r="BD48">
-        <v>199792.09</v>
+        <v>197997.79</v>
       </c>
       <c r="BE48" t="s">
         <v>290</v>
@@ -13641,10 +13641,10 @@
         <v>286000</v>
       </c>
       <c r="BG48">
-        <v>216264.97</v>
+        <v>236193.38</v>
       </c>
       <c r="BH48">
-        <v>185745.19</v>
+        <v>168892.73</v>
       </c>
       <c r="BI48" t="s">
         <v>290</v>
@@ -13653,10 +13653,10 @@
         <v>20000</v>
       </c>
       <c r="BK48">
-        <v>18715.1</v>
+        <v>16764.78</v>
       </c>
       <c r="BL48">
-        <v>12608.13</v>
+        <v>15380.77</v>
       </c>
       <c r="BM48" t="s">
         <v>722</v>
@@ -13665,10 +13665,10 @@
         <v>20000</v>
       </c>
       <c r="BO48">
-        <v>12001.83</v>
+        <v>13022.49</v>
       </c>
       <c r="BP48">
-        <v>10934.03</v>
+        <v>10929.39</v>
       </c>
       <c r="BQ48" t="s">
         <v>290</v>
@@ -13677,10 +13677,10 @@
         <v>20000</v>
       </c>
       <c r="BS48">
-        <v>16791.99</v>
+        <v>16599.47</v>
       </c>
       <c r="BT48">
-        <v>12411.09</v>
+        <v>13788.14</v>
       </c>
       <c r="BU48" t="s">
         <v>290</v>
@@ -13689,10 +13689,10 @@
         <v>20000</v>
       </c>
       <c r="BW48">
-        <v>13349.64</v>
+        <v>15836.22</v>
       </c>
       <c r="BX48">
-        <v>9148.790000000001</v>
+        <v>13672.66</v>
       </c>
       <c r="BY48" t="s">
         <v>290</v>
@@ -13701,10 +13701,10 @@
         <v>20000</v>
       </c>
       <c r="CA48">
-        <v>15957.84</v>
+        <v>15738.64</v>
       </c>
       <c r="CB48">
-        <v>13342.52</v>
+        <v>14059.19</v>
       </c>
       <c r="CC48" t="s">
         <v>290</v>
@@ -13829,10 +13829,10 @@
         <v>56000</v>
       </c>
       <c r="AQ49">
-        <v>45908.04</v>
+        <v>45403.05</v>
       </c>
       <c r="AR49">
-        <v>42663.37</v>
+        <v>34736.27</v>
       </c>
       <c r="AS49" t="s">
         <v>290</v>
@@ -13841,10 +13841,10 @@
         <v>56000</v>
       </c>
       <c r="AU49">
-        <v>44391.2</v>
+        <v>47870.46</v>
       </c>
       <c r="AV49">
-        <v>33865.21</v>
+        <v>37898.21</v>
       </c>
       <c r="AW49" t="s">
         <v>290</v>
@@ -13853,10 +13853,10 @@
         <v>56000</v>
       </c>
       <c r="AY49">
-        <v>45921.14</v>
+        <v>39261.08</v>
       </c>
       <c r="AZ49">
-        <v>37261.52</v>
+        <v>31433.06</v>
       </c>
       <c r="BA49" t="s">
         <v>290</v>
@@ -13865,10 +13865,10 @@
         <v>56000</v>
       </c>
       <c r="BC49">
-        <v>40771.48</v>
+        <v>48739.03</v>
       </c>
       <c r="BD49">
-        <v>36362.29</v>
+        <v>43887.48</v>
       </c>
       <c r="BE49" t="s">
         <v>290</v>
@@ -13877,10 +13877,10 @@
         <v>56000</v>
       </c>
       <c r="BG49">
-        <v>45890.77</v>
+        <v>41992.75</v>
       </c>
       <c r="BH49">
-        <v>35272.07</v>
+        <v>30729.29</v>
       </c>
       <c r="BI49" t="s">
         <v>290</v>
@@ -13889,10 +13889,10 @@
         <v>56000</v>
       </c>
       <c r="BK49">
-        <v>39476.66</v>
+        <v>46593.67</v>
       </c>
       <c r="BL49">
-        <v>23715.75</v>
+        <v>39569.93</v>
       </c>
       <c r="BM49" t="s">
         <v>723</v>
@@ -13901,10 +13901,10 @@
         <v>56000</v>
       </c>
       <c r="BO49">
-        <v>38269.82</v>
+        <v>40003.28</v>
       </c>
       <c r="BP49">
-        <v>25017.1</v>
+        <v>34082.71</v>
       </c>
       <c r="BQ49" t="s">
         <v>290</v>
@@ -13913,10 +13913,10 @@
         <v>56000</v>
       </c>
       <c r="BS49">
-        <v>50753.75</v>
+        <v>42751.83</v>
       </c>
       <c r="BT49">
-        <v>47489.08</v>
+        <v>35066.79</v>
       </c>
       <c r="BU49" t="s">
         <v>290</v>
@@ -13925,10 +13925,10 @@
         <v>56000</v>
       </c>
       <c r="BW49">
-        <v>50294</v>
+        <v>45934.65</v>
       </c>
       <c r="BX49">
-        <v>40252.84</v>
+        <v>42250.49</v>
       </c>
       <c r="BY49" t="s">
         <v>290</v>
@@ -13937,10 +13937,10 @@
         <v>56000</v>
       </c>
       <c r="CA49">
-        <v>44728.42</v>
+        <v>44490.15</v>
       </c>
       <c r="CB49">
-        <v>35844.34</v>
+        <v>36700.95</v>
       </c>
       <c r="CC49" t="s">
         <v>290</v>
@@ -14065,10 +14065,10 @@
         <v>37715</v>
       </c>
       <c r="AQ50">
-        <v>28993.33</v>
+        <v>31239.46</v>
       </c>
       <c r="AR50">
-        <v>26328.43</v>
+        <v>23606.92</v>
       </c>
       <c r="AS50" t="s">
         <v>290</v>
@@ -14077,10 +14077,10 @@
         <v>37715</v>
       </c>
       <c r="AU50">
-        <v>30219.76</v>
+        <v>35829.25</v>
       </c>
       <c r="AV50">
-        <v>23242.83</v>
+        <v>28922.7</v>
       </c>
       <c r="AW50" t="s">
         <v>290</v>
@@ -14089,10 +14089,10 @@
         <v>37715</v>
       </c>
       <c r="AY50">
-        <v>29609.39</v>
+        <v>30741.15</v>
       </c>
       <c r="AZ50">
-        <v>21541.25</v>
+        <v>23800.99</v>
       </c>
       <c r="BA50" t="s">
         <v>290</v>
@@ -14101,10 +14101,10 @@
         <v>37715</v>
       </c>
       <c r="BC50">
-        <v>29842.47</v>
+        <v>30587.6</v>
       </c>
       <c r="BD50">
-        <v>25272.74</v>
+        <v>26815.09</v>
       </c>
       <c r="BE50" t="s">
         <v>290</v>
@@ -14113,10 +14113,10 @@
         <v>37715</v>
       </c>
       <c r="BG50">
-        <v>26223.65</v>
+        <v>29563.94</v>
       </c>
       <c r="BH50">
-        <v>21865.32</v>
+        <v>21311.04</v>
       </c>
       <c r="BI50" t="s">
         <v>290</v>
@@ -14125,10 +14125,10 @@
         <v>37715</v>
       </c>
       <c r="BK50">
-        <v>25603.08</v>
+        <v>35829.25</v>
       </c>
       <c r="BL50">
-        <v>19111.63</v>
+        <v>31274.12</v>
       </c>
       <c r="BM50" t="s">
         <v>290</v>
@@ -14137,10 +14137,10 @@
         <v>37715</v>
       </c>
       <c r="BO50">
-        <v>26525.83</v>
+        <v>29490.91</v>
       </c>
       <c r="BP50">
-        <v>17642.57</v>
+        <v>26833.22</v>
       </c>
       <c r="BQ50" t="s">
         <v>290</v>
@@ -14149,10 +14149,10 @@
         <v>37715</v>
       </c>
       <c r="BS50">
-        <v>27018.33</v>
+        <v>27399.03</v>
       </c>
       <c r="BT50">
-        <v>18178.48</v>
+        <v>22086.18</v>
       </c>
       <c r="BU50" t="s">
         <v>290</v>
@@ -14161,10 +14161,10 @@
         <v>37715</v>
       </c>
       <c r="BW50">
-        <v>24059.63</v>
+        <v>32269.02</v>
       </c>
       <c r="BX50">
-        <v>19062.71</v>
+        <v>30238.24</v>
       </c>
       <c r="BY50" t="s">
         <v>290</v>
@@ -14173,10 +14173,10 @@
         <v>37715</v>
       </c>
       <c r="CA50">
-        <v>32387.29</v>
+        <v>30358.36</v>
       </c>
       <c r="CB50">
-        <v>23924.02</v>
+        <v>24211</v>
       </c>
       <c r="CC50" t="s">
         <v>290</v>
@@ -14301,10 +14301,10 @@
         <v>8000</v>
       </c>
       <c r="AQ51">
-        <v>6534.84</v>
+        <v>6127.22</v>
       </c>
       <c r="AR51">
-        <v>5607.63</v>
+        <v>4666.42</v>
       </c>
       <c r="AS51" t="s">
         <v>290</v>
@@ -14313,10 +14313,10 @@
         <v>8000</v>
       </c>
       <c r="AU51">
-        <v>6914.31</v>
+        <v>7078.7</v>
       </c>
       <c r="AV51">
-        <v>5166.6</v>
+        <v>5467.27</v>
       </c>
       <c r="AW51" t="s">
         <v>290</v>
@@ -14325,10 +14325,10 @@
         <v>8000</v>
       </c>
       <c r="AY51">
-        <v>5997.42</v>
+        <v>5541.77</v>
       </c>
       <c r="AZ51">
-        <v>5262</v>
+        <v>4483.41</v>
       </c>
       <c r="BA51" t="s">
         <v>290</v>
@@ -14337,10 +14337,10 @@
         <v>8000</v>
       </c>
       <c r="BC51">
-        <v>5272.25</v>
+        <v>6972.55</v>
       </c>
       <c r="BD51">
-        <v>4545.44</v>
+        <v>5813.18</v>
       </c>
       <c r="BE51" t="s">
         <v>290</v>
@@ -14349,10 +14349,10 @@
         <v>8000</v>
       </c>
       <c r="BG51">
-        <v>6557.44</v>
+        <v>6100.38</v>
       </c>
       <c r="BH51">
-        <v>4986.16</v>
+        <v>3694.83</v>
       </c>
       <c r="BI51" t="s">
         <v>290</v>
@@ -14361,10 +14361,10 @@
         <v>496128</v>
       </c>
       <c r="BK51">
-        <v>377855.1</v>
+        <v>412085.01</v>
       </c>
       <c r="BL51">
-        <v>261935.21</v>
+        <v>388339.25</v>
       </c>
       <c r="BM51" t="s">
         <v>724</v>
@@ -14373,10 +14373,10 @@
         <v>477552</v>
       </c>
       <c r="BO51">
-        <v>419184.74</v>
+        <v>398502.6</v>
       </c>
       <c r="BP51">
-        <v>344602.47</v>
+        <v>370782.47</v>
       </c>
       <c r="BQ51" t="s">
         <v>750</v>
@@ -14385,10 +14385,10 @@
         <v>477552</v>
       </c>
       <c r="BS51">
-        <v>299118.02</v>
+        <v>363583.54</v>
       </c>
       <c r="BT51">
-        <v>201912.73</v>
+        <v>288557.34</v>
       </c>
       <c r="BU51" t="s">
         <v>290</v>
@@ -14397,10 +14397,10 @@
         <v>477552</v>
       </c>
       <c r="BW51">
-        <v>338032.71</v>
+        <v>453674.4</v>
       </c>
       <c r="BX51">
-        <v>290008.27</v>
+        <v>416183.59</v>
       </c>
       <c r="BY51" t="s">
         <v>290</v>
@@ -14409,10 +14409,10 @@
         <v>477552</v>
       </c>
       <c r="CA51">
-        <v>437628.27</v>
+        <v>363405.14</v>
       </c>
       <c r="CB51">
-        <v>394838.07</v>
+        <v>314828.53</v>
       </c>
       <c r="CC51" t="s">
         <v>290</v>
@@ -14540,10 +14540,10 @@
         <v>80062</v>
       </c>
       <c r="AQ52">
-        <v>61062.59</v>
+        <v>64763.73</v>
       </c>
       <c r="AR52">
-        <v>40219.9</v>
+        <v>53755.09</v>
       </c>
       <c r="AS52" t="s">
         <v>290</v>
@@ -14552,10 +14552,10 @@
         <v>80062</v>
       </c>
       <c r="AU52">
-        <v>69802.3</v>
+        <v>67753.99000000001</v>
       </c>
       <c r="AV52">
-        <v>60452.58</v>
+        <v>50549.97</v>
       </c>
       <c r="AW52" t="s">
         <v>290</v>
@@ -14564,10 +14564,10 @@
         <v>80062</v>
       </c>
       <c r="AY52">
-        <v>65109.33</v>
+        <v>57182.98</v>
       </c>
       <c r="AZ52">
-        <v>55389.01</v>
+        <v>54323.83</v>
       </c>
       <c r="BA52" t="s">
         <v>290</v>
@@ -14576,10 +14576,10 @@
         <v>80062</v>
       </c>
       <c r="BC52">
-        <v>50437.41</v>
+        <v>57140.09</v>
       </c>
       <c r="BD52">
-        <v>42462.88</v>
+        <v>47788.34</v>
       </c>
       <c r="BE52" t="s">
         <v>290</v>
@@ -14588,10 +14588,10 @@
         <v>80062</v>
       </c>
       <c r="BG52">
-        <v>54721.05</v>
+        <v>59613.91</v>
       </c>
       <c r="BH52">
-        <v>36181.93</v>
+        <v>52673.16</v>
       </c>
       <c r="BI52" t="s">
         <v>290</v>
@@ -14600,10 +14600,10 @@
         <v>80062</v>
       </c>
       <c r="BK52">
-        <v>52249.51</v>
+        <v>60435.43</v>
       </c>
       <c r="BL52">
-        <v>41646.75</v>
+        <v>49867.24</v>
       </c>
       <c r="BM52" t="s">
         <v>725</v>
@@ -14612,10 +14612,10 @@
         <v>80062</v>
       </c>
       <c r="BO52">
-        <v>52725.35</v>
+        <v>56708.11</v>
       </c>
       <c r="BP52">
-        <v>42404.22</v>
+        <v>42097.16</v>
       </c>
       <c r="BQ52" t="s">
         <v>290</v>
@@ -14624,10 +14624,10 @@
         <v>80062</v>
       </c>
       <c r="BS52">
-        <v>51944.7</v>
+        <v>63965.78</v>
       </c>
       <c r="BT52">
-        <v>31696.25</v>
+        <v>47504.79</v>
       </c>
       <c r="BU52" t="s">
         <v>290</v>
@@ -14636,10 +14636,10 @@
         <v>80062</v>
       </c>
       <c r="BW52">
-        <v>50217.01</v>
+        <v>65997.78</v>
       </c>
       <c r="BX52">
-        <v>46262.92</v>
+        <v>52710.4</v>
       </c>
       <c r="BY52" t="s">
         <v>290</v>
@@ -14648,10 +14648,10 @@
         <v>80062</v>
       </c>
       <c r="CA52">
-        <v>68361.74000000001</v>
+        <v>60693.11</v>
       </c>
       <c r="CB52">
-        <v>58804.71</v>
+        <v>45117.78</v>
       </c>
       <c r="CC52" t="s">
         <v>290</v>
@@ -14925,10 +14925,10 @@
         <v>210806</v>
       </c>
       <c r="AQ54">
-        <v>134532.89</v>
+        <v>160062.24</v>
       </c>
       <c r="AR54">
-        <v>112848.29</v>
+        <v>131796</v>
       </c>
       <c r="AS54" t="s">
         <v>290</v>
@@ -14937,10 +14937,10 @@
         <v>210806</v>
       </c>
       <c r="AU54">
-        <v>146911.68</v>
+        <v>163092.6</v>
       </c>
       <c r="AV54">
-        <v>93080.22</v>
+        <v>131619.55</v>
       </c>
       <c r="AW54" t="s">
         <v>290</v>
@@ -14949,10 +14949,10 @@
         <v>210806</v>
       </c>
       <c r="AY54">
-        <v>146901.3</v>
+        <v>172751.8</v>
       </c>
       <c r="AZ54">
-        <v>135005.56</v>
+        <v>146995.22</v>
       </c>
       <c r="BA54" t="s">
         <v>290</v>
@@ -14961,10 +14961,10 @@
         <v>210806</v>
       </c>
       <c r="BC54">
-        <v>160830.47</v>
+        <v>157670.49</v>
       </c>
       <c r="BD54">
-        <v>109362.17</v>
+        <v>141041.08</v>
       </c>
       <c r="BE54" t="s">
         <v>290</v>
@@ -14973,10 +14973,10 @@
         <v>210806</v>
       </c>
       <c r="BG54">
-        <v>151525.21</v>
+        <v>157768.43</v>
       </c>
       <c r="BH54">
-        <v>139107.75</v>
+        <v>126959.3</v>
       </c>
       <c r="BI54" t="s">
         <v>290</v>
@@ -14985,10 +14985,10 @@
         <v>210806</v>
       </c>
       <c r="BK54">
-        <v>156674.44</v>
+        <v>183513.53</v>
       </c>
       <c r="BL54">
-        <v>117379.4</v>
+        <v>136633.05</v>
       </c>
       <c r="BM54" t="s">
         <v>726</v>
@@ -14997,10 +14997,10 @@
         <v>195000</v>
       </c>
       <c r="BO54">
-        <v>131202.21</v>
+        <v>136372.67</v>
       </c>
       <c r="BP54">
-        <v>87793.25</v>
+        <v>103906.89</v>
       </c>
       <c r="BQ54" t="s">
         <v>751</v>
@@ -15009,10 +15009,10 @@
         <v>290000</v>
       </c>
       <c r="BS54">
-        <v>178735.75</v>
+        <v>200946.83</v>
       </c>
       <c r="BT54">
-        <v>139105.98</v>
+        <v>169144.83</v>
       </c>
       <c r="BU54" t="s">
         <v>290</v>
@@ -15021,10 +15021,10 @@
         <v>150000</v>
       </c>
       <c r="BW54">
-        <v>115105.63</v>
+        <v>119234.78</v>
       </c>
       <c r="BX54">
-        <v>98645.5</v>
+        <v>92891.89999999999</v>
       </c>
       <c r="BY54" t="s">
         <v>290</v>
@@ -15033,10 +15033,10 @@
         <v>150000</v>
       </c>
       <c r="CA54">
-        <v>111695.14</v>
+        <v>131100.61</v>
       </c>
       <c r="CB54">
-        <v>99563.28999999999</v>
+        <v>106605.85</v>
       </c>
       <c r="CC54" t="s">
         <v>290</v>
@@ -15158,10 +15158,10 @@
         <v>1621653</v>
       </c>
       <c r="AQ55">
-        <v>1186671.61</v>
+        <v>1218860.07</v>
       </c>
       <c r="AR55">
-        <v>947698.48</v>
+        <v>1066507.24</v>
       </c>
       <c r="AS55" t="s">
         <v>290</v>
@@ -15170,10 +15170,10 @@
         <v>1621653</v>
       </c>
       <c r="AU55">
-        <v>1455977.32</v>
+        <v>1403351.66</v>
       </c>
       <c r="AV55">
-        <v>959666.58</v>
+        <v>1074985.36</v>
       </c>
       <c r="AW55" t="s">
         <v>290</v>
@@ -15182,10 +15182,10 @@
         <v>1621653</v>
       </c>
       <c r="AY55">
-        <v>992949.41</v>
+        <v>1178216.31</v>
       </c>
       <c r="AZ55">
-        <v>802793.55</v>
+        <v>1070007.27</v>
       </c>
       <c r="BA55" t="s">
         <v>290</v>
@@ -15194,10 +15194,10 @@
         <v>1621653</v>
       </c>
       <c r="BC55">
-        <v>1245649.23</v>
+        <v>1164187.36</v>
       </c>
       <c r="BD55">
-        <v>1120445.72</v>
+        <v>836761.17</v>
       </c>
       <c r="BE55" t="s">
         <v>290</v>
@@ -15206,10 +15206,10 @@
         <v>1621653</v>
       </c>
       <c r="BG55">
-        <v>1400881.66</v>
+        <v>1234077.56</v>
       </c>
       <c r="BH55">
-        <v>1277428.16</v>
+        <v>1079440.77</v>
       </c>
       <c r="BI55" t="s">
         <v>290</v>
@@ -15218,10 +15218,10 @@
         <v>1621653</v>
       </c>
       <c r="BK55">
-        <v>1480963.58</v>
+        <v>1256899.25</v>
       </c>
       <c r="BL55">
-        <v>1179594.92</v>
+        <v>1071626.07</v>
       </c>
       <c r="BM55" t="s">
         <v>727</v>
@@ -15230,10 +15230,10 @@
         <v>930000</v>
       </c>
       <c r="BO55">
-        <v>751818</v>
+        <v>730983.21</v>
       </c>
       <c r="BP55">
-        <v>625994.09</v>
+        <v>572153.23</v>
       </c>
       <c r="BQ55" t="s">
         <v>752</v>
@@ -15242,10 +15242,10 @@
         <v>670000</v>
       </c>
       <c r="BS55">
-        <v>567977.65</v>
+        <v>552252.2</v>
       </c>
       <c r="BT55">
-        <v>536250.61</v>
+        <v>396099.47</v>
       </c>
       <c r="BU55" t="s">
         <v>290</v>
@@ -15254,10 +15254,10 @@
         <v>570000</v>
       </c>
       <c r="BW55">
-        <v>482579.99</v>
+        <v>525534.65</v>
       </c>
       <c r="BX55">
-        <v>319655.1</v>
+        <v>395543.51</v>
       </c>
       <c r="BY55" t="s">
         <v>290</v>
@@ -15266,10 +15266,10 @@
         <v>570000</v>
       </c>
       <c r="CA55">
-        <v>528055.6</v>
+        <v>429367.66</v>
       </c>
       <c r="CB55">
-        <v>463792.3</v>
+        <v>304405.83</v>
       </c>
       <c r="CC55" t="s">
         <v>290</v>
@@ -15391,10 +15391,10 @@
         <v>350836</v>
       </c>
       <c r="AQ56">
-        <v>302110.94</v>
+        <v>275575.17</v>
       </c>
       <c r="AR56">
-        <v>264428.22</v>
+        <v>228676.97</v>
       </c>
       <c r="AS56" t="s">
         <v>290</v>
@@ -15403,10 +15403,10 @@
         <v>350836</v>
       </c>
       <c r="AU56">
-        <v>214330.59</v>
+        <v>286159.76</v>
       </c>
       <c r="AV56">
-        <v>158779.16</v>
+        <v>207580.07</v>
       </c>
       <c r="AW56" t="s">
         <v>290</v>
@@ -15415,10 +15415,10 @@
         <v>350836</v>
       </c>
       <c r="AY56">
-        <v>310252.17</v>
+        <v>236252.32</v>
       </c>
       <c r="AZ56">
-        <v>280219.73</v>
+        <v>215379.98</v>
       </c>
       <c r="BA56" t="s">
         <v>290</v>
@@ -15427,10 +15427,10 @@
         <v>350836</v>
       </c>
       <c r="BC56">
-        <v>229499.97</v>
+        <v>266113.67</v>
       </c>
       <c r="BD56">
-        <v>151325.22</v>
+        <v>225181.93</v>
       </c>
       <c r="BE56" t="s">
         <v>290</v>
@@ -15439,10 +15439,10 @@
         <v>350836</v>
       </c>
       <c r="BG56">
-        <v>313966.52</v>
+        <v>298713.07</v>
       </c>
       <c r="BH56">
-        <v>238805.73</v>
+        <v>253354.96</v>
       </c>
       <c r="BI56" t="s">
         <v>290</v>
@@ -15451,10 +15451,10 @@
         <v>350836</v>
       </c>
       <c r="BK56">
-        <v>258186.8</v>
+        <v>233741.15</v>
       </c>
       <c r="BL56">
-        <v>177845.89</v>
+        <v>200935.58</v>
       </c>
       <c r="BM56" t="s">
         <v>728</v>
@@ -15463,10 +15463,10 @@
         <v>457000</v>
       </c>
       <c r="BO56">
-        <v>329575.02</v>
+        <v>361049.09</v>
       </c>
       <c r="BP56">
-        <v>285805.04</v>
+        <v>298900.69</v>
       </c>
       <c r="BQ56" t="s">
         <v>753</v>
@@ -15475,10 +15475,10 @@
         <v>504900</v>
       </c>
       <c r="BS56">
-        <v>330451.07</v>
+        <v>404820.71</v>
       </c>
       <c r="BT56">
-        <v>279026.42</v>
+        <v>256996.22</v>
       </c>
       <c r="BU56" t="s">
         <v>290</v>
@@ -15487,10 +15487,10 @@
         <v>400000</v>
       </c>
       <c r="BW56">
-        <v>363213.06</v>
+        <v>312591.78</v>
       </c>
       <c r="BX56">
-        <v>247509.89</v>
+        <v>228345.02</v>
       </c>
       <c r="BY56" t="s">
         <v>290</v>
@@ -15499,10 +15499,10 @@
         <v>400000</v>
       </c>
       <c r="CA56">
-        <v>258623.21</v>
+        <v>270250.78</v>
       </c>
       <c r="CB56">
-        <v>226377.47</v>
+        <v>199299.73</v>
       </c>
       <c r="CC56" t="s">
         <v>290</v>
@@ -15770,10 +15770,10 @@
         <v>490918</v>
       </c>
       <c r="AQ58">
-        <v>382121.3</v>
+        <v>384402.32</v>
       </c>
       <c r="AR58">
-        <v>271335.1</v>
+        <v>307274.54</v>
       </c>
       <c r="AS58" t="s">
         <v>290</v>
@@ -15782,10 +15782,10 @@
         <v>490918</v>
       </c>
       <c r="AU58">
-        <v>338219.09</v>
+        <v>437413.09</v>
       </c>
       <c r="AV58">
-        <v>229017.08</v>
+        <v>384968</v>
       </c>
       <c r="AW58" t="s">
         <v>290</v>
@@ -15794,10 +15794,10 @@
         <v>490918</v>
       </c>
       <c r="AY58">
-        <v>349456.59</v>
+        <v>343077.73</v>
       </c>
       <c r="AZ58">
-        <v>265905.99</v>
+        <v>281777.21</v>
       </c>
       <c r="BA58" t="s">
         <v>290</v>
@@ -15806,10 +15806,10 @@
         <v>490918</v>
       </c>
       <c r="BC58">
-        <v>386302.9</v>
+        <v>396325.49</v>
       </c>
       <c r="BD58">
-        <v>316319.92</v>
+        <v>335447.18</v>
       </c>
       <c r="BE58" t="s">
         <v>290</v>
@@ -15818,10 +15818,10 @@
         <v>490918</v>
       </c>
       <c r="BG58">
-        <v>385692.12</v>
+        <v>370661.62</v>
       </c>
       <c r="BH58">
-        <v>254308.08</v>
+        <v>306826.89</v>
       </c>
       <c r="BI58" t="s">
         <v>290</v>
@@ -15830,10 +15830,10 @@
         <v>490918</v>
       </c>
       <c r="BK58">
-        <v>368193.01</v>
+        <v>407674.98</v>
       </c>
       <c r="BL58">
-        <v>331982.68</v>
+        <v>309014.99</v>
       </c>
       <c r="BM58" t="s">
         <v>729</v>
@@ -15842,10 +15842,10 @@
         <v>600000</v>
       </c>
       <c r="BO58">
-        <v>535815.04</v>
+        <v>470639.58</v>
       </c>
       <c r="BP58">
-        <v>493335.88</v>
+        <v>365176.33</v>
       </c>
       <c r="BQ58" t="s">
         <v>754</v>
@@ -15854,10 +15854,10 @@
         <v>350000</v>
       </c>
       <c r="BS58">
-        <v>277864.62</v>
+        <v>279792.08</v>
       </c>
       <c r="BT58">
-        <v>213217.72</v>
+        <v>198186.42</v>
       </c>
       <c r="BU58" t="s">
         <v>290</v>
@@ -15866,10 +15866,10 @@
         <v>10000</v>
       </c>
       <c r="BW58">
-        <v>6666.99</v>
+        <v>8844.5</v>
       </c>
       <c r="BX58">
-        <v>5215.08</v>
+        <v>6233.8</v>
       </c>
       <c r="BY58" t="s">
         <v>290</v>
@@ -15878,10 +15878,10 @@
         <v>10000</v>
       </c>
       <c r="CA58">
-        <v>7626</v>
+        <v>6327.14</v>
       </c>
       <c r="CB58">
-        <v>6200.28</v>
+        <v>4983.39</v>
       </c>
       <c r="CC58" t="s">
         <v>290</v>
@@ -16003,10 +16003,10 @@
         <v>40000</v>
       </c>
       <c r="AQ59">
-        <v>34862.32</v>
+        <v>33158.64</v>
       </c>
       <c r="AR59">
-        <v>25985.36</v>
+        <v>25300.76</v>
       </c>
       <c r="AS59" t="s">
         <v>290</v>
@@ -16015,10 +16015,10 @@
         <v>40000</v>
       </c>
       <c r="AU59">
-        <v>26412.39</v>
+        <v>38000</v>
       </c>
       <c r="AV59">
-        <v>22773.26</v>
+        <v>32021.34</v>
       </c>
       <c r="AW59" t="s">
         <v>290</v>
@@ -16027,10 +16027,10 @@
         <v>40000</v>
       </c>
       <c r="AY59">
-        <v>24488.45</v>
+        <v>33816.94</v>
       </c>
       <c r="AZ59">
-        <v>21462.12</v>
+        <v>26181.82</v>
       </c>
       <c r="BA59" t="s">
         <v>290</v>
@@ -16039,10 +16039,10 @@
         <v>40000</v>
       </c>
       <c r="BC59">
-        <v>29882.8</v>
+        <v>32375.11</v>
       </c>
       <c r="BD59">
-        <v>20715.87</v>
+        <v>27619.05</v>
       </c>
       <c r="BE59" t="s">
         <v>290</v>
@@ -16051,10 +16051,10 @@
         <v>40000</v>
       </c>
       <c r="BG59">
-        <v>34092.21</v>
+        <v>35282.02</v>
       </c>
       <c r="BH59">
-        <v>25490.13</v>
+        <v>23343.08</v>
       </c>
       <c r="BI59" t="s">
         <v>702</v>
@@ -16063,10 +16063,10 @@
         <v>300000</v>
       </c>
       <c r="BK59">
-        <v>281335.51</v>
+        <v>281690.98</v>
       </c>
       <c r="BL59">
-        <v>205946.25</v>
+        <v>264385.57</v>
       </c>
       <c r="BM59" t="s">
         <v>730</v>
@@ -16075,10 +16075,10 @@
         <v>300000</v>
       </c>
       <c r="BO59">
-        <v>245736.29</v>
+        <v>238411.05</v>
       </c>
       <c r="BP59">
-        <v>166365.61</v>
+        <v>197145.5</v>
       </c>
       <c r="BQ59" t="s">
         <v>290</v>
@@ -16087,10 +16087,10 @@
         <v>300000</v>
       </c>
       <c r="BS59">
-        <v>255793.25</v>
+        <v>221076.37</v>
       </c>
       <c r="BT59">
-        <v>174842.2</v>
+        <v>186161.21</v>
       </c>
       <c r="BU59" t="s">
         <v>290</v>
@@ -16099,10 +16099,10 @@
         <v>300000</v>
       </c>
       <c r="BW59">
-        <v>283377.4</v>
+        <v>239497.92</v>
       </c>
       <c r="BX59">
-        <v>201109.57</v>
+        <v>207397.79</v>
       </c>
       <c r="BY59" t="s">
         <v>290</v>
@@ -16111,10 +16111,10 @@
         <v>300000</v>
       </c>
       <c r="CA59">
-        <v>284071.8</v>
+        <v>235435.17</v>
       </c>
       <c r="CB59">
-        <v>206171.98</v>
+        <v>207117.23</v>
       </c>
       <c r="CC59" t="s">
         <v>290</v>
@@ -16236,10 +16236,10 @@
         <v>120857</v>
       </c>
       <c r="AQ60">
-        <v>112137.86</v>
+        <v>85991.88</v>
       </c>
       <c r="AR60">
-        <v>99645.73</v>
+        <v>68689.28</v>
       </c>
       <c r="AS60" t="s">
         <v>290</v>
@@ -16248,10 +16248,10 @@
         <v>120857</v>
       </c>
       <c r="AU60">
-        <v>105652.94</v>
+        <v>108641.11</v>
       </c>
       <c r="AV60">
-        <v>65107.18</v>
+        <v>84660</v>
       </c>
       <c r="AW60" t="s">
         <v>290</v>
@@ -16260,10 +16260,10 @@
         <v>120857</v>
       </c>
       <c r="AY60">
-        <v>77783.59</v>
+        <v>83670.5</v>
       </c>
       <c r="AZ60">
-        <v>58324.35</v>
+        <v>79262.22</v>
       </c>
       <c r="BA60" t="s">
         <v>290</v>
@@ -16272,10 +16272,10 @@
         <v>120857</v>
       </c>
       <c r="BC60">
-        <v>75356.42</v>
+        <v>78705.57000000001</v>
       </c>
       <c r="BD60">
-        <v>46527.13</v>
+        <v>61603.29</v>
       </c>
       <c r="BE60" t="s">
         <v>290</v>
@@ -16284,10 +16284,10 @@
         <v>120857</v>
       </c>
       <c r="BG60">
-        <v>79335.87</v>
+        <v>96758.28</v>
       </c>
       <c r="BH60">
-        <v>50249.29</v>
+        <v>90223.3</v>
       </c>
       <c r="BI60" t="s">
         <v>290</v>
@@ -16296,10 +16296,10 @@
         <v>120857</v>
       </c>
       <c r="BK60">
-        <v>81354.13</v>
+        <v>92283.97</v>
       </c>
       <c r="BL60">
-        <v>74852.46000000001</v>
+        <v>79015.82000000001</v>
       </c>
       <c r="BM60" t="s">
         <v>731</v>
@@ -16308,10 +16308,10 @@
         <v>20993</v>
       </c>
       <c r="BO60">
-        <v>18095.18</v>
+        <v>17792.6</v>
       </c>
       <c r="BP60">
-        <v>11540.13</v>
+        <v>13594.04</v>
       </c>
       <c r="BQ60" t="s">
         <v>755</v>
@@ -16320,10 +16320,10 @@
         <v>50000</v>
       </c>
       <c r="BS60">
-        <v>35447.61</v>
+        <v>37863.05</v>
       </c>
       <c r="BT60">
-        <v>26040.31</v>
+        <v>28231.3</v>
       </c>
       <c r="BU60" t="s">
         <v>290</v>
@@ -16332,10 +16332,10 @@
         <v>50000</v>
       </c>
       <c r="BW60">
-        <v>46877.9</v>
+        <v>43129.07</v>
       </c>
       <c r="BX60">
-        <v>35265.4</v>
+        <v>31039.73</v>
       </c>
       <c r="BY60" t="s">
         <v>290</v>
@@ -16344,10 +16344,10 @@
         <v>50000</v>
       </c>
       <c r="CA60">
-        <v>36099.25</v>
+        <v>35708.37</v>
       </c>
       <c r="CB60">
-        <v>24984.17</v>
+        <v>25461.47</v>
       </c>
       <c r="CC60" t="s">
         <v>290</v>
@@ -16469,10 +16469,10 @@
         <v>234000</v>
       </c>
       <c r="AQ61">
-        <v>201572.48</v>
+        <v>166488.15</v>
       </c>
       <c r="AR61">
-        <v>137963.35</v>
+        <v>129523.09</v>
       </c>
       <c r="AS61" t="s">
         <v>290</v>
@@ -16481,10 +16481,10 @@
         <v>234000</v>
       </c>
       <c r="AU61">
-        <v>185183.88</v>
+        <v>198748.8</v>
       </c>
       <c r="AV61">
-        <v>119869.69</v>
+        <v>150072.03</v>
       </c>
       <c r="AW61" t="s">
         <v>290</v>
@@ -16493,10 +16493,10 @@
         <v>234000</v>
       </c>
       <c r="AY61">
-        <v>221547.26</v>
+        <v>167791.09</v>
       </c>
       <c r="AZ61">
-        <v>204091.12</v>
+        <v>122524.38</v>
       </c>
       <c r="BA61" t="s">
         <v>290</v>
@@ -16505,10 +16505,10 @@
         <v>234000</v>
       </c>
       <c r="BC61">
-        <v>143743.17</v>
+        <v>179265.2</v>
       </c>
       <c r="BD61">
-        <v>131589.55</v>
+        <v>151345.52</v>
       </c>
       <c r="BE61" t="s">
         <v>290</v>
@@ -16517,10 +16517,10 @@
         <v>234000</v>
       </c>
       <c r="BG61">
-        <v>197413.44</v>
+        <v>186476.41</v>
       </c>
       <c r="BH61">
-        <v>151765.74</v>
+        <v>139416.15</v>
       </c>
       <c r="BI61" t="s">
         <v>703</v>
@@ -16529,10 +16529,10 @@
         <v>234000</v>
       </c>
       <c r="BK61">
-        <v>152229.39</v>
+        <v>186450.75</v>
       </c>
       <c r="BL61">
-        <v>107182.41</v>
+        <v>164374.86</v>
       </c>
       <c r="BM61" t="s">
         <v>290</v>
@@ -16541,10 +16541,10 @@
         <v>234000</v>
       </c>
       <c r="BO61">
-        <v>155241.5</v>
+        <v>153799.67</v>
       </c>
       <c r="BP61">
-        <v>138394.05</v>
+        <v>122204.14</v>
       </c>
       <c r="BQ61" t="s">
         <v>290</v>
@@ -16553,10 +16553,10 @@
         <v>234000</v>
       </c>
       <c r="BS61">
-        <v>155338.25</v>
+        <v>160227.75</v>
       </c>
       <c r="BT61">
-        <v>119224.83</v>
+        <v>136131.59</v>
       </c>
       <c r="BU61" t="s">
         <v>290</v>
@@ -16565,10 +16565,10 @@
         <v>234000</v>
       </c>
       <c r="BW61">
-        <v>208759.94</v>
+        <v>178682.18</v>
       </c>
       <c r="BX61">
-        <v>163979.79</v>
+        <v>169748.07</v>
       </c>
       <c r="BY61" t="s">
         <v>290</v>
@@ -16577,10 +16577,10 @@
         <v>234000</v>
       </c>
       <c r="CA61">
-        <v>150811.38</v>
+        <v>186116.78</v>
       </c>
       <c r="CB61">
-        <v>99363.7</v>
+        <v>151979.41</v>
       </c>
       <c r="CC61" t="s">
         <v>290</v>
@@ -16702,10 +16702,10 @@
         <v>420640</v>
       </c>
       <c r="AQ62">
-        <v>305791.27</v>
+        <v>266797.66</v>
       </c>
       <c r="AR62">
-        <v>274338.58</v>
+        <v>167774.08</v>
       </c>
       <c r="AS62" t="s">
         <v>290</v>
@@ -16714,10 +16714,10 @@
         <v>420640</v>
       </c>
       <c r="AU62">
-        <v>325930.36</v>
+        <v>300235.19</v>
       </c>
       <c r="AV62">
-        <v>235248.53</v>
+        <v>236134.81</v>
       </c>
       <c r="AW62" t="s">
         <v>290</v>
@@ -16726,10 +16726,10 @@
         <v>420640</v>
       </c>
       <c r="AY62">
-        <v>300971.39</v>
+        <v>295243.57</v>
       </c>
       <c r="AZ62">
-        <v>204166.41</v>
+        <v>258250.91</v>
       </c>
       <c r="BA62" t="s">
         <v>290</v>
@@ -16738,10 +16738,10 @@
         <v>420640</v>
       </c>
       <c r="BC62">
-        <v>271722.93</v>
+        <v>323274.42</v>
       </c>
       <c r="BD62">
-        <v>191100.89</v>
+        <v>274652.89</v>
       </c>
       <c r="BE62" t="s">
         <v>290</v>
@@ -16750,10 +16750,10 @@
         <v>420640</v>
       </c>
       <c r="BG62">
-        <v>253708.34</v>
+        <v>321550.57</v>
       </c>
       <c r="BH62">
-        <v>225440.27</v>
+        <v>277842.05</v>
       </c>
       <c r="BI62" t="s">
         <v>290</v>
@@ -16762,10 +16762,10 @@
         <v>420640</v>
       </c>
       <c r="BK62">
-        <v>282439.18</v>
+        <v>381387.52</v>
       </c>
       <c r="BL62">
-        <v>225397.86</v>
+        <v>306046.78</v>
       </c>
       <c r="BM62" t="s">
         <v>732</v>
@@ -16774,10 +16774,10 @@
         <v>313000</v>
       </c>
       <c r="BO62">
-        <v>287581.37</v>
+        <v>214523.63</v>
       </c>
       <c r="BP62">
-        <v>179264.13</v>
+        <v>177356.62</v>
       </c>
       <c r="BQ62" t="s">
         <v>756</v>
@@ -16786,10 +16786,10 @@
         <v>400000</v>
       </c>
       <c r="BS62">
-        <v>258461.32</v>
+        <v>319182.42</v>
       </c>
       <c r="BT62">
-        <v>183856.49</v>
+        <v>254832.95</v>
       </c>
       <c r="BU62" t="s">
         <v>290</v>
@@ -16798,10 +16798,10 @@
         <v>207562.3125</v>
       </c>
       <c r="BW62">
-        <v>139448.96</v>
+        <v>181303.16</v>
       </c>
       <c r="BX62">
-        <v>126619.33</v>
+        <v>114717.02</v>
       </c>
       <c r="BY62" t="s">
         <v>290</v>
@@ -16810,10 +16810,10 @@
         <v>207562.3125</v>
       </c>
       <c r="CA62">
-        <v>161897.39</v>
+        <v>171276.42</v>
       </c>
       <c r="CB62">
-        <v>148691.41</v>
+        <v>137158.82</v>
       </c>
       <c r="CC62" t="s">
         <v>290</v>
@@ -16935,10 +16935,10 @@
         <v>80000</v>
       </c>
       <c r="AQ63">
-        <v>48647.91</v>
+        <v>65816.2</v>
       </c>
       <c r="AR63">
-        <v>42494.63</v>
+        <v>51319.28</v>
       </c>
       <c r="AS63" t="s">
         <v>290</v>
@@ -16947,10 +16947,10 @@
         <v>80000</v>
       </c>
       <c r="AU63">
-        <v>53650.85</v>
+        <v>66590.85000000001</v>
       </c>
       <c r="AV63">
-        <v>49992.98</v>
+        <v>51154.64</v>
       </c>
       <c r="AW63" t="s">
         <v>290</v>
@@ -16959,10 +16959,10 @@
         <v>80000</v>
       </c>
       <c r="AY63">
-        <v>55047.39</v>
+        <v>59984.62</v>
       </c>
       <c r="AZ63">
-        <v>46221.92</v>
+        <v>48682.91</v>
       </c>
       <c r="BA63" t="s">
         <v>290</v>
@@ -16971,10 +16971,10 @@
         <v>80000</v>
       </c>
       <c r="BC63">
-        <v>75604.98</v>
+        <v>59759.88</v>
       </c>
       <c r="BD63">
-        <v>69905.59</v>
+        <v>54226.98</v>
       </c>
       <c r="BE63" t="s">
         <v>290</v>
@@ -16983,10 +16983,10 @@
         <v>80000</v>
       </c>
       <c r="BG63">
-        <v>65344.94</v>
+        <v>71500.94</v>
       </c>
       <c r="BH63">
-        <v>40084.66</v>
+        <v>60376.54</v>
       </c>
       <c r="BI63" t="s">
         <v>704</v>
@@ -16995,10 +16995,10 @@
         <v>80000</v>
       </c>
       <c r="BK63">
-        <v>59441.95</v>
+        <v>67763.37</v>
       </c>
       <c r="BL63">
-        <v>41639.57</v>
+        <v>56675.23</v>
       </c>
       <c r="BM63" t="s">
         <v>290</v>
@@ -17007,10 +17007,10 @@
         <v>80000</v>
       </c>
       <c r="BO63">
-        <v>56739.4</v>
+        <v>54428.81</v>
       </c>
       <c r="BP63">
-        <v>46538.34</v>
+        <v>46658.41</v>
       </c>
       <c r="BQ63" t="s">
         <v>290</v>
@@ -17019,10 +17019,10 @@
         <v>90000</v>
       </c>
       <c r="BS63">
-        <v>57564.61</v>
+        <v>78648.37</v>
       </c>
       <c r="BT63">
-        <v>35261.72</v>
+        <v>72542.7</v>
       </c>
       <c r="BU63" t="s">
         <v>290</v>
@@ -17031,10 +17031,10 @@
         <v>90000</v>
       </c>
       <c r="BW63">
-        <v>56266.94</v>
+        <v>85500</v>
       </c>
       <c r="BX63">
-        <v>47205.94</v>
+        <v>70874.7</v>
       </c>
       <c r="BY63" t="s">
         <v>290</v>
@@ -17043,10 +17043,10 @@
         <v>90000</v>
       </c>
       <c r="CA63">
-        <v>79511.83</v>
+        <v>70481.14999999999</v>
       </c>
       <c r="CB63">
-        <v>52785.7</v>
+        <v>59099.11</v>
       </c>
       <c r="CC63" t="s">
         <v>290</v>
@@ -17168,10 +17168,10 @@
         <v>30000</v>
       </c>
       <c r="AQ64">
-        <v>22243.59</v>
+        <v>21103.64</v>
       </c>
       <c r="AR64">
-        <v>19569.29</v>
+        <v>16115.38</v>
       </c>
       <c r="AS64" t="s">
         <v>290</v>
@@ -17180,10 +17180,10 @@
         <v>30000</v>
       </c>
       <c r="AU64">
-        <v>28045.83</v>
+        <v>23067.56</v>
       </c>
       <c r="AV64">
-        <v>22363.46</v>
+        <v>16251.05</v>
       </c>
       <c r="AW64" t="s">
         <v>290</v>
@@ -17192,10 +17192,10 @@
         <v>30000</v>
       </c>
       <c r="AY64">
-        <v>25620.87</v>
+        <v>24283.56</v>
       </c>
       <c r="AZ64">
-        <v>17313.88</v>
+        <v>17387.3</v>
       </c>
       <c r="BA64" t="s">
         <v>290</v>
@@ -17204,10 +17204,10 @@
         <v>30000</v>
       </c>
       <c r="BC64">
-        <v>18450.05</v>
+        <v>24662.58</v>
       </c>
       <c r="BD64">
-        <v>14629.82</v>
+        <v>19556.2</v>
       </c>
       <c r="BE64" t="s">
         <v>290</v>
@@ -17216,10 +17216,10 @@
         <v>30000</v>
       </c>
       <c r="BG64">
-        <v>21199.19</v>
+        <v>23982.18</v>
       </c>
       <c r="BH64">
-        <v>18079.56</v>
+        <v>18632.9</v>
       </c>
       <c r="BI64" t="s">
         <v>290</v>
@@ -17228,10 +17228,10 @@
         <v>30000</v>
       </c>
       <c r="BK64">
-        <v>26063.25</v>
+        <v>22755.44</v>
       </c>
       <c r="BL64">
-        <v>21696.11</v>
+        <v>15516.11</v>
       </c>
       <c r="BM64" t="s">
         <v>733</v>
@@ -17240,10 +17240,10 @@
         <v>30000</v>
       </c>
       <c r="BO64">
-        <v>27855.8</v>
+        <v>21106.87</v>
       </c>
       <c r="BP64">
-        <v>22277.78</v>
+        <v>17526.8</v>
       </c>
       <c r="BQ64" t="s">
         <v>290</v>
@@ -17252,10 +17252,10 @@
         <v>30000</v>
       </c>
       <c r="BS64">
-        <v>21729.7</v>
+        <v>24864.66</v>
       </c>
       <c r="BT64">
-        <v>17734.54</v>
+        <v>18497.11</v>
       </c>
       <c r="BU64" t="s">
         <v>290</v>
@@ -17264,10 +17264,10 @@
         <v>30000</v>
       </c>
       <c r="BW64">
-        <v>26722.96</v>
+        <v>26401.6</v>
       </c>
       <c r="BX64">
-        <v>23815.74</v>
+        <v>23074.27</v>
       </c>
       <c r="BY64" t="s">
         <v>290</v>
@@ -17276,10 +17276,10 @@
         <v>30000</v>
       </c>
       <c r="CA64">
-        <v>23897.75</v>
+        <v>25698.71</v>
       </c>
       <c r="CB64">
-        <v>21422.51</v>
+        <v>22801.07</v>
       </c>
       <c r="CC64" t="s">
         <v>290</v>
@@ -17401,10 +17401,10 @@
         <v>71430</v>
       </c>
       <c r="AQ65">
-        <v>56668.07</v>
+        <v>54989.15</v>
       </c>
       <c r="AR65">
-        <v>44449.43</v>
+        <v>38513.87</v>
       </c>
       <c r="AS65" t="s">
         <v>290</v>
@@ -17413,10 +17413,10 @@
         <v>71430</v>
       </c>
       <c r="AU65">
-        <v>47559.35</v>
+        <v>59598.44</v>
       </c>
       <c r="AV65">
-        <v>38244.52</v>
+        <v>47516.51</v>
       </c>
       <c r="AW65" t="s">
         <v>290</v>
@@ -17425,10 +17425,10 @@
         <v>71430</v>
       </c>
       <c r="AY65">
-        <v>48857.87</v>
+        <v>54424</v>
       </c>
       <c r="AZ65">
-        <v>34844.76</v>
+        <v>44789.15</v>
       </c>
       <c r="BA65" t="s">
         <v>290</v>
@@ -17437,10 +17437,10 @@
         <v>71430</v>
       </c>
       <c r="BC65">
-        <v>58695.78</v>
+        <v>55433.45</v>
       </c>
       <c r="BD65">
-        <v>36329.16</v>
+        <v>47942.96</v>
       </c>
       <c r="BE65" t="s">
         <v>290</v>
@@ -17449,10 +17449,10 @@
         <v>71430</v>
       </c>
       <c r="BG65">
-        <v>44333.77</v>
+        <v>57517.79</v>
       </c>
       <c r="BH65">
-        <v>38024.56</v>
+        <v>38970.31</v>
       </c>
       <c r="BI65" t="s">
         <v>705</v>
@@ -17461,10 +17461,10 @@
         <v>20000</v>
       </c>
       <c r="BK65">
-        <v>18968.58</v>
+        <v>18287.11</v>
       </c>
       <c r="BL65">
-        <v>13452.44</v>
+        <v>14248.01</v>
       </c>
       <c r="BM65" t="s">
         <v>290</v>
@@ -17473,10 +17473,10 @@
         <v>20000</v>
       </c>
       <c r="BO65">
-        <v>17746.95</v>
+        <v>17048.49</v>
       </c>
       <c r="BP65">
-        <v>16379.8</v>
+        <v>13461.64</v>
       </c>
       <c r="BQ65" t="s">
         <v>290</v>
@@ -17485,10 +17485,10 @@
         <v>20000</v>
       </c>
       <c r="BS65">
-        <v>13063.23</v>
+        <v>15420.04</v>
       </c>
       <c r="BT65">
-        <v>12380.15</v>
+        <v>11706.68</v>
       </c>
       <c r="BU65" t="s">
         <v>290</v>
@@ -17497,10 +17497,10 @@
         <v>20000</v>
       </c>
       <c r="BW65">
-        <v>16587.09</v>
+        <v>16490.95</v>
       </c>
       <c r="BX65">
-        <v>11409.41</v>
+        <v>13974.43</v>
       </c>
       <c r="BY65" t="s">
         <v>290</v>
@@ -17509,10 +17509,10 @@
         <v>20000</v>
       </c>
       <c r="CA65">
-        <v>15776.45</v>
+        <v>15942.06</v>
       </c>
       <c r="CB65">
-        <v>14498.58</v>
+        <v>15144.95</v>
       </c>
       <c r="CC65" t="s">
         <v>290</v>
@@ -17634,10 +17634,10 @@
         <v>91000</v>
       </c>
       <c r="AQ66">
-        <v>76945.67999999999</v>
+        <v>71309.63</v>
       </c>
       <c r="AR66">
-        <v>67882.77</v>
+        <v>55938.28</v>
       </c>
       <c r="AS66" t="s">
         <v>290</v>
@@ -17646,10 +17646,10 @@
         <v>91000</v>
       </c>
       <c r="AU66">
-        <v>84172.7</v>
+        <v>83322.25999999999</v>
       </c>
       <c r="AV66">
-        <v>61632.62</v>
+        <v>62630.68</v>
       </c>
       <c r="AW66" t="s">
         <v>290</v>
@@ -17658,10 +17658,10 @@
         <v>91000</v>
       </c>
       <c r="AY66">
-        <v>68396.72</v>
+        <v>71966.75</v>
       </c>
       <c r="AZ66">
-        <v>63001.23</v>
+        <v>61908.02</v>
       </c>
       <c r="BA66" t="s">
         <v>290</v>
@@ -17670,10 +17670,10 @@
         <v>91000</v>
       </c>
       <c r="BC66">
-        <v>77790.82000000001</v>
+        <v>77365.91</v>
       </c>
       <c r="BD66">
-        <v>73571.02</v>
+        <v>71431.55</v>
       </c>
       <c r="BE66" t="s">
         <v>290</v>
@@ -17682,10 +17682,10 @@
         <v>91000</v>
       </c>
       <c r="BG66">
-        <v>70680.91</v>
+        <v>66900.81</v>
       </c>
       <c r="BH66">
-        <v>61775.12</v>
+        <v>46674.4</v>
       </c>
       <c r="BI66" t="s">
         <v>706</v>
@@ -17694,10 +17694,10 @@
         <v>90000</v>
       </c>
       <c r="BK66">
-        <v>80626.35000000001</v>
+        <v>80113</v>
       </c>
       <c r="BL66">
-        <v>56912.34</v>
+        <v>75570.31</v>
       </c>
       <c r="BM66" t="s">
         <v>734</v>
@@ -17706,10 +17706,10 @@
         <v>90000</v>
       </c>
       <c r="BO66">
-        <v>70349.85000000001</v>
+        <v>60665.83</v>
       </c>
       <c r="BP66">
-        <v>60441.59</v>
+        <v>47490.33</v>
       </c>
       <c r="BQ66" t="s">
         <v>290</v>
@@ -17718,10 +17718,10 @@
         <v>90000</v>
       </c>
       <c r="BS66">
-        <v>62641.97</v>
+        <v>74287.59</v>
       </c>
       <c r="BT66">
-        <v>38082.76</v>
+        <v>60331.23</v>
       </c>
       <c r="BU66" t="s">
         <v>290</v>
@@ -17730,10 +17730,10 @@
         <v>90000</v>
       </c>
       <c r="BW66">
-        <v>70747.5</v>
+        <v>72260.08</v>
       </c>
       <c r="BX66">
-        <v>58036.84</v>
+        <v>57994.2</v>
       </c>
       <c r="BY66" t="s">
         <v>290</v>
@@ -17742,10 +17742,10 @@
         <v>90000</v>
       </c>
       <c r="CA66">
-        <v>82598.38</v>
+        <v>70819.24000000001</v>
       </c>
       <c r="CB66">
-        <v>59626.57</v>
+        <v>67278.27</v>
       </c>
       <c r="CC66" t="s">
         <v>290</v>
@@ -17873,10 +17873,10 @@
         <v>289215</v>
       </c>
       <c r="AQ67">
-        <v>243724.14</v>
+        <v>182816.96</v>
       </c>
       <c r="AR67">
-        <v>184681.97</v>
+        <v>134305.21</v>
       </c>
       <c r="AS67" t="s">
         <v>290</v>
@@ -17885,10 +17885,10 @@
         <v>289215</v>
       </c>
       <c r="AU67">
-        <v>187471.44</v>
+        <v>180489.74</v>
       </c>
       <c r="AV67">
-        <v>157999.35</v>
+        <v>145464.45</v>
       </c>
       <c r="AW67" t="s">
         <v>290</v>
@@ -17897,10 +17897,10 @@
         <v>289215</v>
       </c>
       <c r="AY67">
-        <v>176212.26</v>
+        <v>224588.62</v>
       </c>
       <c r="AZ67">
-        <v>145087.73</v>
+        <v>186648.87</v>
       </c>
       <c r="BA67" t="s">
         <v>290</v>
@@ -17909,10 +17909,10 @@
         <v>289215</v>
       </c>
       <c r="BC67">
-        <v>216993.05</v>
+        <v>256964.64</v>
       </c>
       <c r="BD67">
-        <v>164328</v>
+        <v>244116.41</v>
       </c>
       <c r="BE67" t="s">
         <v>290</v>
@@ -17921,10 +17921,10 @@
         <v>289215</v>
       </c>
       <c r="BG67">
-        <v>260100.57</v>
+        <v>225300.59</v>
       </c>
       <c r="BH67">
-        <v>225953.39</v>
+        <v>157758.05</v>
       </c>
       <c r="BI67" t="s">
         <v>290</v>
@@ -17933,10 +17933,10 @@
         <v>289215</v>
       </c>
       <c r="BK67">
-        <v>174443.81</v>
+        <v>250336.61</v>
       </c>
       <c r="BL67">
-        <v>113879.39</v>
+        <v>182237.38</v>
       </c>
       <c r="BM67" t="s">
         <v>735</v>
@@ -17945,10 +17945,10 @@
         <v>226232</v>
       </c>
       <c r="BO67">
-        <v>188189.85</v>
+        <v>169420.18</v>
       </c>
       <c r="BP67">
-        <v>157134.15</v>
+        <v>114920.18</v>
       </c>
       <c r="BQ67" t="s">
         <v>757</v>
@@ -17957,10 +17957,10 @@
         <v>83390</v>
       </c>
       <c r="BS67">
-        <v>50852.22</v>
+        <v>62386.49</v>
       </c>
       <c r="BT67">
-        <v>42375.11</v>
+        <v>47864.49</v>
       </c>
       <c r="BU67" t="s">
         <v>290</v>
@@ -17969,10 +17969,10 @@
         <v>83390</v>
       </c>
       <c r="BW67">
-        <v>76001.06</v>
+        <v>79220.5</v>
       </c>
       <c r="BX67">
-        <v>49847.86</v>
+        <v>60890.8</v>
       </c>
       <c r="BY67" t="s">
         <v>290</v>
@@ -17981,10 +17981,10 @@
         <v>83390</v>
       </c>
       <c r="CA67">
-        <v>75540.95</v>
+        <v>68161.00999999999</v>
       </c>
       <c r="CB67">
-        <v>60794.64</v>
+        <v>56948.42</v>
       </c>
       <c r="CC67" t="s">
         <v>290</v>
@@ -18112,10 +18112,10 @@
         <v>33208</v>
       </c>
       <c r="AQ68">
-        <v>23653.81</v>
+        <v>25824.58</v>
       </c>
       <c r="AR68">
-        <v>21193.11</v>
+        <v>17683.99</v>
       </c>
       <c r="AS68" t="s">
         <v>290</v>
@@ -18124,10 +18124,10 @@
         <v>33208</v>
       </c>
       <c r="AU68">
-        <v>27552.48</v>
+        <v>25143.6</v>
       </c>
       <c r="AV68">
-        <v>16544.88</v>
+        <v>19602.53</v>
       </c>
       <c r="AW68" t="s">
         <v>290</v>
@@ -18136,10 +18136,10 @@
         <v>33208</v>
       </c>
       <c r="AY68">
-        <v>29940.14</v>
+        <v>22811.72</v>
       </c>
       <c r="AZ68">
-        <v>25544.25</v>
+        <v>18413.52</v>
       </c>
       <c r="BA68" t="s">
         <v>290</v>
@@ -18148,10 +18148,10 @@
         <v>3074</v>
       </c>
       <c r="BC68">
-        <v>2553.79</v>
+        <v>2752.37</v>
       </c>
       <c r="BD68">
-        <v>2190.61</v>
+        <v>2418.59</v>
       </c>
       <c r="BE68" t="s">
         <v>290</v>
@@ -18160,10 +18160,10 @@
         <v>49444</v>
       </c>
       <c r="BG68">
-        <v>31017.52</v>
+        <v>40370.54</v>
       </c>
       <c r="BH68">
-        <v>23608.39</v>
+        <v>24047.97</v>
       </c>
       <c r="BI68" t="s">
         <v>290</v>
@@ -18172,10 +18172,10 @@
         <v>24311</v>
       </c>
       <c r="BK68">
-        <v>18913.1</v>
+        <v>20353.55</v>
       </c>
       <c r="BL68">
-        <v>16709.79</v>
+        <v>15539.73</v>
       </c>
       <c r="BM68" t="s">
         <v>736</v>
@@ -18184,10 +18184,10 @@
         <v>24311</v>
       </c>
       <c r="BO68">
-        <v>18986.24</v>
+        <v>20669.57</v>
       </c>
       <c r="BP68">
-        <v>15532.97</v>
+        <v>14753.23</v>
       </c>
       <c r="BQ68" t="s">
         <v>290</v>
@@ -18196,10 +18196,10 @@
         <v>24311</v>
       </c>
       <c r="BS68">
-        <v>20286.43</v>
+        <v>19650.18</v>
       </c>
       <c r="BT68">
-        <v>18581.27</v>
+        <v>16854.32</v>
       </c>
       <c r="BU68" t="s">
         <v>290</v>
@@ -18208,10 +18208,10 @@
         <v>24311</v>
       </c>
       <c r="BW68">
-        <v>18542.53</v>
+        <v>22275.15</v>
       </c>
       <c r="BX68">
-        <v>13287.53</v>
+        <v>18549.46</v>
       </c>
       <c r="BY68" t="s">
         <v>290</v>
@@ -18220,10 +18220,10 @@
         <v>24311</v>
       </c>
       <c r="CA68">
-        <v>18669.54</v>
+        <v>17907.98</v>
       </c>
       <c r="CB68">
-        <v>16261.04</v>
+        <v>12084.47</v>
       </c>
       <c r="CC68" t="s">
         <v>290</v>
@@ -18348,10 +18348,10 @@
         <v>44179</v>
       </c>
       <c r="AQ69">
-        <v>34560</v>
+        <v>34168.02</v>
       </c>
       <c r="AR69">
-        <v>30212.74</v>
+        <v>29537.28</v>
       </c>
       <c r="AS69" t="s">
         <v>290</v>
@@ -18360,10 +18360,10 @@
         <v>44179</v>
       </c>
       <c r="AU69">
-        <v>39706.4</v>
+        <v>37547.39</v>
       </c>
       <c r="AV69">
-        <v>33006.4</v>
+        <v>32329.53</v>
       </c>
       <c r="AW69" t="s">
         <v>290</v>
@@ -18372,10 +18372,10 @@
         <v>44179</v>
       </c>
       <c r="AY69">
-        <v>29858.81</v>
+        <v>36364.32</v>
       </c>
       <c r="AZ69">
-        <v>22897.57</v>
+        <v>24539.68</v>
       </c>
       <c r="BA69" t="s">
         <v>290</v>
@@ -18384,10 +18384,10 @@
         <v>44179</v>
       </c>
       <c r="BC69">
-        <v>38719.37</v>
+        <v>37095.72</v>
       </c>
       <c r="BD69">
-        <v>24282.97</v>
+        <v>34882.8</v>
       </c>
       <c r="BE69" t="s">
         <v>290</v>
@@ -18396,10 +18396,10 @@
         <v>200000</v>
       </c>
       <c r="BG69">
-        <v>142311.49</v>
+        <v>168644.31</v>
       </c>
       <c r="BH69">
-        <v>110714.4</v>
+        <v>160212.1</v>
       </c>
       <c r="BI69" t="s">
         <v>707</v>
@@ -18408,10 +18408,10 @@
         <v>200000</v>
       </c>
       <c r="BK69">
-        <v>124018.88</v>
+        <v>190000</v>
       </c>
       <c r="BL69">
-        <v>110526.26</v>
+        <v>161974.86</v>
       </c>
       <c r="BM69" t="s">
         <v>290</v>
@@ -18420,10 +18420,10 @@
         <v>200000</v>
       </c>
       <c r="BO69">
-        <v>158806.22</v>
+        <v>161508.75</v>
       </c>
       <c r="BP69">
-        <v>130730.88</v>
+        <v>129564.06</v>
       </c>
       <c r="BQ69" t="s">
         <v>290</v>
@@ -18432,10 +18432,10 @@
         <v>200000</v>
       </c>
       <c r="BS69">
-        <v>126358.89</v>
+        <v>178960.21</v>
       </c>
       <c r="BT69">
-        <v>92460.47</v>
+        <v>143914.66</v>
       </c>
       <c r="BU69" t="s">
         <v>290</v>
@@ -18444,10 +18444,10 @@
         <v>200000</v>
       </c>
       <c r="BW69">
-        <v>149939.87</v>
+        <v>155410.95</v>
       </c>
       <c r="BX69">
-        <v>99570.16</v>
+        <v>113101.77</v>
       </c>
       <c r="BY69" t="s">
         <v>290</v>
@@ -18456,10 +18456,10 @@
         <v>200000</v>
       </c>
       <c r="CA69">
-        <v>175273.17</v>
+        <v>172128.14</v>
       </c>
       <c r="CB69">
-        <v>146598.1</v>
+        <v>143193.01</v>
       </c>
       <c r="CC69" t="s">
         <v>290</v>
@@ -18581,10 +18581,10 @@
         <v>75000</v>
       </c>
       <c r="AQ70">
-        <v>71137.58</v>
+        <v>53494.26</v>
       </c>
       <c r="AR70">
-        <v>58714.16</v>
+        <v>39540.92</v>
       </c>
       <c r="AS70" t="s">
         <v>290</v>
@@ -18593,10 +18593,10 @@
         <v>75000</v>
       </c>
       <c r="AU70">
-        <v>50137.09</v>
+        <v>62848.79</v>
       </c>
       <c r="AV70">
-        <v>30139.09</v>
+        <v>47824.15</v>
       </c>
       <c r="AW70" t="s">
         <v>290</v>
@@ -18605,10 +18605,10 @@
         <v>75000</v>
       </c>
       <c r="AY70">
-        <v>68894.87</v>
+        <v>58396.4</v>
       </c>
       <c r="AZ70">
-        <v>44127.24</v>
+        <v>49126.21</v>
       </c>
       <c r="BA70" t="s">
         <v>290</v>
@@ -18617,10 +18617,10 @@
         <v>75000</v>
       </c>
       <c r="BC70">
-        <v>66018.08</v>
+        <v>60061.74</v>
       </c>
       <c r="BD70">
-        <v>59576.42</v>
+        <v>51024.53</v>
       </c>
       <c r="BE70" t="s">
         <v>290</v>
@@ -18629,10 +18629,10 @@
         <v>75000</v>
       </c>
       <c r="BG70">
-        <v>70352.3</v>
+        <v>58755.51</v>
       </c>
       <c r="BH70">
-        <v>45274.43</v>
+        <v>41454.01</v>
       </c>
       <c r="BI70" t="s">
         <v>290</v>
@@ -18641,10 +18641,10 @@
         <v>50000</v>
       </c>
       <c r="BK70">
-        <v>42531.3</v>
+        <v>44473.98</v>
       </c>
       <c r="BL70">
-        <v>26032.63</v>
+        <v>40974.55</v>
       </c>
       <c r="BM70" t="s">
         <v>737</v>
@@ -18653,10 +18653,10 @@
         <v>25000</v>
       </c>
       <c r="BO70">
-        <v>19420.48</v>
+        <v>20911.16</v>
       </c>
       <c r="BP70">
-        <v>13164.64</v>
+        <v>18764.8</v>
       </c>
       <c r="BQ70" t="s">
         <v>758</v>
@@ -18665,10 +18665,10 @@
         <v>25000</v>
       </c>
       <c r="BS70">
-        <v>22781.14</v>
+        <v>20684.97</v>
       </c>
       <c r="BT70">
-        <v>20028.88</v>
+        <v>16206.11</v>
       </c>
       <c r="BU70" t="s">
         <v>290</v>
@@ -18677,10 +18677,10 @@
         <v>25000</v>
       </c>
       <c r="BW70">
-        <v>16902.52</v>
+        <v>22191.53</v>
       </c>
       <c r="BX70">
-        <v>14695.85</v>
+        <v>18241.52</v>
       </c>
       <c r="BY70" t="s">
         <v>290</v>
@@ -18689,10 +18689,10 @@
         <v>25000</v>
       </c>
       <c r="CA70">
-        <v>22095.32</v>
+        <v>19859.2</v>
       </c>
       <c r="CB70">
-        <v>20614.9</v>
+        <v>16889.14</v>
       </c>
       <c r="CC70" t="s">
         <v>290</v>
@@ -18817,10 +18817,10 @@
         <v>160137</v>
       </c>
       <c r="AQ71">
-        <v>111682.93</v>
+        <v>123779.23</v>
       </c>
       <c r="AR71">
-        <v>100843.52</v>
+        <v>104935.53</v>
       </c>
       <c r="AS71" t="s">
         <v>290</v>
@@ -18829,10 +18829,10 @@
         <v>160137</v>
       </c>
       <c r="AU71">
-        <v>150577.63</v>
+        <v>141805.34</v>
       </c>
       <c r="AV71">
-        <v>130119.84</v>
+        <v>118693.95</v>
       </c>
       <c r="AW71" t="s">
         <v>290</v>
@@ -18841,10 +18841,10 @@
         <v>160137</v>
       </c>
       <c r="AY71">
-        <v>151430.18</v>
+        <v>137276.37</v>
       </c>
       <c r="AZ71">
-        <v>98470.24000000001</v>
+        <v>108834.38</v>
       </c>
       <c r="BA71" t="s">
         <v>290</v>
@@ -18853,10 +18853,10 @@
         <v>160137</v>
       </c>
       <c r="BC71">
-        <v>98617.09</v>
+        <v>106352.91</v>
       </c>
       <c r="BD71">
-        <v>60521.04</v>
+        <v>90114.39999999999</v>
       </c>
       <c r="BE71" t="s">
         <v>290</v>
@@ -18865,10 +18865,10 @@
         <v>160137</v>
       </c>
       <c r="BG71">
-        <v>144597.21</v>
+        <v>125643.05</v>
       </c>
       <c r="BH71">
-        <v>136904.44</v>
+        <v>108158.23</v>
       </c>
       <c r="BI71" t="s">
         <v>290</v>
@@ -18877,10 +18877,10 @@
         <v>160137</v>
       </c>
       <c r="BK71">
-        <v>102039.86</v>
+        <v>131855.22</v>
       </c>
       <c r="BL71">
-        <v>63924.96</v>
+        <v>102610.99</v>
       </c>
       <c r="BM71" t="s">
         <v>290</v>
@@ -18889,10 +18889,10 @@
         <v>370041</v>
       </c>
       <c r="BO71">
-        <v>311858.14</v>
+        <v>340696.69</v>
       </c>
       <c r="BP71">
-        <v>229032.08</v>
+        <v>323661.86</v>
       </c>
       <c r="BQ71" t="s">
         <v>290</v>
@@ -18901,10 +18901,10 @@
         <v>370041</v>
       </c>
       <c r="BS71">
-        <v>252259.69</v>
+        <v>280549.31</v>
       </c>
       <c r="BT71">
-        <v>229931.82</v>
+        <v>229250.05</v>
       </c>
       <c r="BU71" t="s">
         <v>290</v>
@@ -18913,10 +18913,10 @@
         <v>370041</v>
       </c>
       <c r="BW71">
-        <v>283981.2</v>
+        <v>274743.5</v>
       </c>
       <c r="BX71">
-        <v>221491.57</v>
+        <v>203279.46</v>
       </c>
       <c r="BY71" t="s">
         <v>290</v>
@@ -18925,10 +18925,10 @@
         <v>370041</v>
       </c>
       <c r="CA71">
-        <v>335101.95</v>
+        <v>308507.28</v>
       </c>
       <c r="CB71">
-        <v>209770.02</v>
+        <v>229128.57</v>
       </c>
       <c r="CC71" t="s">
         <v>290</v>
@@ -19050,10 +19050,10 @@
         <v>20000</v>
       </c>
       <c r="AQ72">
-        <v>13915.71</v>
+        <v>13720.38</v>
       </c>
       <c r="AR72">
-        <v>9617.709999999999</v>
+        <v>9148.379999999999</v>
       </c>
       <c r="AS72" t="s">
         <v>290</v>
@@ -19062,10 +19062,10 @@
         <v>20000</v>
       </c>
       <c r="AU72">
-        <v>14555.36</v>
+        <v>17793.35</v>
       </c>
       <c r="AV72">
-        <v>10938</v>
+        <v>13180.1</v>
       </c>
       <c r="AW72" t="s">
         <v>290</v>
@@ -19074,10 +19074,10 @@
         <v>20000</v>
       </c>
       <c r="AY72">
-        <v>12996.92</v>
+        <v>15750.3</v>
       </c>
       <c r="AZ72">
-        <v>11495.79</v>
+        <v>12905.05</v>
       </c>
       <c r="BA72" t="s">
         <v>290</v>
@@ -19086,10 +19086,10 @@
         <v>20000</v>
       </c>
       <c r="BC72">
-        <v>15856.23</v>
+        <v>16662.08</v>
       </c>
       <c r="BD72">
-        <v>12270.86</v>
+        <v>14577.77</v>
       </c>
       <c r="BE72" t="s">
         <v>290</v>
@@ -19098,10 +19098,10 @@
         <v>20000</v>
       </c>
       <c r="BG72">
-        <v>18930.15</v>
+        <v>14727.38</v>
       </c>
       <c r="BH72">
-        <v>16636.6</v>
+        <v>10798.36</v>
       </c>
       <c r="BI72" t="s">
         <v>290</v>
@@ -19110,10 +19110,10 @@
         <v>20000</v>
       </c>
       <c r="BK72">
-        <v>16752.95</v>
+        <v>17764.95</v>
       </c>
       <c r="BL72">
-        <v>13341.39</v>
+        <v>14638.43</v>
       </c>
       <c r="BM72" t="s">
         <v>738</v>
@@ -19122,10 +19122,10 @@
         <v>20000</v>
       </c>
       <c r="BO72">
-        <v>12894.19</v>
+        <v>16033.97</v>
       </c>
       <c r="BP72">
-        <v>11578.51</v>
+        <v>12297.71</v>
       </c>
       <c r="BQ72" t="s">
         <v>290</v>
@@ -19134,10 +19134,10 @@
         <v>20000</v>
       </c>
       <c r="BS72">
-        <v>16765.72</v>
+        <v>14537.75</v>
       </c>
       <c r="BT72">
-        <v>11610.44</v>
+        <v>12294.87</v>
       </c>
       <c r="BU72" t="s">
         <v>290</v>
@@ -19146,10 +19146,10 @@
         <v>20000</v>
       </c>
       <c r="BW72">
-        <v>18282.35</v>
+        <v>16899.5</v>
       </c>
       <c r="BX72">
-        <v>12505</v>
+        <v>14137.42</v>
       </c>
       <c r="BY72" t="s">
         <v>290</v>
@@ -19158,10 +19158,10 @@
         <v>20000</v>
       </c>
       <c r="CA72">
-        <v>17950.2</v>
+        <v>15857.35</v>
       </c>
       <c r="CB72">
-        <v>15680.12</v>
+        <v>12376.67</v>
       </c>
       <c r="CC72" t="s">
         <v>290</v>
@@ -19283,10 +19283,10 @@
         <v>7000000</v>
       </c>
       <c r="AQ73">
-        <v>4381145.7</v>
+        <v>5584886.25</v>
       </c>
       <c r="AR73">
-        <v>2749155.54</v>
+        <v>4466288.98</v>
       </c>
       <c r="AS73" t="s">
         <v>290</v>
@@ -19295,10 +19295,10 @@
         <v>7000000</v>
       </c>
       <c r="AU73">
-        <v>5520208.25</v>
+        <v>5404994.46</v>
       </c>
       <c r="AV73">
-        <v>4700566.44</v>
+        <v>4611517.85</v>
       </c>
       <c r="AW73" t="s">
         <v>290</v>
@@ -19307,10 +19307,10 @@
         <v>7000000</v>
       </c>
       <c r="AY73">
-        <v>6229448.97</v>
+        <v>5856133.29</v>
       </c>
       <c r="AZ73">
-        <v>3820343.7</v>
+        <v>4127918.06</v>
       </c>
       <c r="BA73" t="s">
         <v>290</v>
@@ -19319,10 +19319,10 @@
         <v>7000000</v>
       </c>
       <c r="BC73">
-        <v>6601236.91</v>
+        <v>6152907.66</v>
       </c>
       <c r="BD73">
-        <v>4640937.07</v>
+        <v>4892550.35</v>
       </c>
       <c r="BE73" t="s">
         <v>290</v>
@@ -19331,10 +19331,10 @@
         <v>7000000</v>
       </c>
       <c r="BG73">
-        <v>5340672.17</v>
+        <v>4931194.47</v>
       </c>
       <c r="BH73">
-        <v>3537128.34</v>
+        <v>4072339.88</v>
       </c>
       <c r="BI73" t="s">
         <v>290</v>
@@ -19343,10 +19343,10 @@
         <v>7000000</v>
       </c>
       <c r="BK73">
-        <v>5079202.82</v>
+        <v>6434469.84</v>
       </c>
       <c r="BL73">
-        <v>3204515.03</v>
+        <v>5271808.23</v>
       </c>
       <c r="BM73" t="s">
         <v>290</v>
@@ -19355,10 +19355,10 @@
         <v>3500000</v>
       </c>
       <c r="BO73">
-        <v>2322150.08</v>
+        <v>2816540.81</v>
       </c>
       <c r="BP73">
-        <v>1832752.63</v>
+        <v>2102645.95</v>
       </c>
       <c r="BQ73" t="s">
         <v>759</v>
@@ -19367,10 +19367,10 @@
         <v>5000000</v>
       </c>
       <c r="BS73">
-        <v>3078442.67</v>
+        <v>3803116.82</v>
       </c>
       <c r="BT73">
-        <v>2383038.24</v>
+        <v>2964903.96</v>
       </c>
       <c r="BU73" t="s">
         <v>290</v>
@@ -19379,10 +19379,10 @@
         <v>5000000</v>
       </c>
       <c r="BW73">
-        <v>3576225.22</v>
+        <v>4391717.88</v>
       </c>
       <c r="BX73">
-        <v>2532023.71</v>
+        <v>3536044.22</v>
       </c>
       <c r="BY73" t="s">
         <v>290</v>
@@ -19391,10 +19391,10 @@
         <v>5000000</v>
       </c>
       <c r="CA73">
-        <v>4621797.44</v>
+        <v>3185458.34</v>
       </c>
       <c r="CB73">
-        <v>3969426.73</v>
+        <v>2429845.33</v>
       </c>
       <c r="CC73" t="s">
         <v>290</v>
@@ -19516,10 +19516,10 @@
         <v>20000</v>
       </c>
       <c r="AQ74">
-        <v>18036.25</v>
+        <v>18615.7</v>
       </c>
       <c r="AR74">
-        <v>12278.27</v>
+        <v>16131.8</v>
       </c>
       <c r="AS74" t="s">
         <v>290</v>
@@ -19528,10 +19528,10 @@
         <v>20000</v>
       </c>
       <c r="AU74">
-        <v>13210.52</v>
+        <v>14226.8</v>
       </c>
       <c r="AV74">
-        <v>8831.299999999999</v>
+        <v>13052.42</v>
       </c>
       <c r="AW74" t="s">
         <v>290</v>
@@ -19540,10 +19540,10 @@
         <v>20000</v>
       </c>
       <c r="AY74">
-        <v>13178.14</v>
+        <v>15675.89</v>
       </c>
       <c r="AZ74">
-        <v>12281.82</v>
+        <v>11756.29</v>
       </c>
       <c r="BA74" t="s">
         <v>290</v>
@@ -19552,10 +19552,10 @@
         <v>20000</v>
       </c>
       <c r="BC74">
-        <v>16131.4</v>
+        <v>15881.44</v>
       </c>
       <c r="BD74">
-        <v>12539.51</v>
+        <v>12852.83</v>
       </c>
       <c r="BE74" t="s">
         <v>290</v>
@@ -19564,10 +19564,10 @@
         <v>20000</v>
       </c>
       <c r="BG74">
-        <v>16257.49</v>
+        <v>17115</v>
       </c>
       <c r="BH74">
-        <v>13227.59</v>
+        <v>11980.39</v>
       </c>
       <c r="BI74" t="s">
         <v>290</v>
@@ -19576,10 +19576,10 @@
         <v>20000</v>
       </c>
       <c r="BK74">
-        <v>14750.87</v>
+        <v>14985.89</v>
       </c>
       <c r="BL74">
-        <v>12372.45</v>
+        <v>14166.76</v>
       </c>
       <c r="BM74" t="s">
         <v>290</v>
@@ -19588,10 +19588,10 @@
         <v>20000</v>
       </c>
       <c r="BO74">
-        <v>17047.82</v>
+        <v>17778.5</v>
       </c>
       <c r="BP74">
-        <v>14093.36</v>
+        <v>14144.63</v>
       </c>
       <c r="BQ74" t="s">
         <v>760</v>
@@ -19600,10 +19600,10 @@
         <v>10000</v>
       </c>
       <c r="BS74">
-        <v>8495.77</v>
+        <v>6901.64</v>
       </c>
       <c r="BT74">
-        <v>5896.28</v>
+        <v>5680.78</v>
       </c>
       <c r="BU74" t="s">
         <v>290</v>
@@ -19612,10 +19612,10 @@
         <v>10000</v>
       </c>
       <c r="BW74">
-        <v>8307.33</v>
+        <v>6716.05</v>
       </c>
       <c r="BX74">
-        <v>6619.76</v>
+        <v>4806.66</v>
       </c>
       <c r="BY74" t="s">
         <v>290</v>
@@ -19624,10 +19624,10 @@
         <v>10000</v>
       </c>
       <c r="CA74">
-        <v>9072.49</v>
+        <v>7121.92</v>
       </c>
       <c r="CB74">
-        <v>5475.94</v>
+        <v>5966.53</v>
       </c>
       <c r="CC74" t="s">
         <v>290</v>
@@ -19749,10 +19749,10 @@
         <v>155000</v>
       </c>
       <c r="AQ75">
-        <v>98896.33</v>
+        <v>130190.09</v>
       </c>
       <c r="AR75">
-        <v>71542.17999999999</v>
+        <v>97738.94</v>
       </c>
       <c r="AS75" t="s">
         <v>290</v>
@@ -19761,10 +19761,10 @@
         <v>155000</v>
       </c>
       <c r="AU75">
-        <v>95618.63</v>
+        <v>123831.74</v>
       </c>
       <c r="AV75">
-        <v>90362.28</v>
+        <v>96469.60000000001</v>
       </c>
       <c r="AW75" t="s">
         <v>290</v>
@@ -19773,10 +19773,10 @@
         <v>155000</v>
       </c>
       <c r="AY75">
-        <v>108154.48</v>
+        <v>123068.64</v>
       </c>
       <c r="AZ75">
-        <v>65356.01</v>
+        <v>93417.11</v>
       </c>
       <c r="BA75" t="s">
         <v>290</v>
@@ -19785,10 +19785,10 @@
         <v>155000</v>
       </c>
       <c r="BC75">
-        <v>122063.53</v>
+        <v>114794.71</v>
       </c>
       <c r="BD75">
-        <v>101420.62</v>
+        <v>107520.07</v>
       </c>
       <c r="BE75" t="s">
         <v>290</v>
@@ -19797,10 +19797,10 @@
         <v>155000</v>
       </c>
       <c r="BG75">
-        <v>110166.57</v>
+        <v>115124.76</v>
       </c>
       <c r="BH75">
-        <v>89883.56</v>
+        <v>91860.75</v>
       </c>
       <c r="BI75" t="s">
         <v>290</v>
@@ -19809,10 +19809,10 @@
         <v>155000</v>
       </c>
       <c r="BK75">
-        <v>98067.59</v>
+        <v>147250</v>
       </c>
       <c r="BL75">
-        <v>88241.67999999999</v>
+        <v>126196.27</v>
       </c>
       <c r="BM75" t="s">
         <v>290</v>
@@ -19821,10 +19821,10 @@
         <v>155000</v>
       </c>
       <c r="BO75">
-        <v>101726.63</v>
+        <v>123141.47</v>
       </c>
       <c r="BP75">
-        <v>67948.13</v>
+        <v>103077.15</v>
       </c>
       <c r="BQ75" t="s">
         <v>761</v>
@@ -19833,10 +19833,10 @@
         <v>35000</v>
       </c>
       <c r="BS75">
-        <v>23067.02</v>
+        <v>25267.47</v>
       </c>
       <c r="BT75">
-        <v>14447.99</v>
+        <v>23132.65</v>
       </c>
       <c r="BU75" t="s">
         <v>290</v>
@@ -19845,10 +19845,10 @@
         <v>35000</v>
       </c>
       <c r="BW75">
-        <v>26776.42</v>
+        <v>26588.73</v>
       </c>
       <c r="BX75">
-        <v>22326.03</v>
+        <v>22453.9</v>
       </c>
       <c r="BY75" t="s">
         <v>290</v>
@@ -19857,10 +19857,10 @@
         <v>35000</v>
       </c>
       <c r="CA75">
-        <v>32978.12</v>
+        <v>27783.32</v>
       </c>
       <c r="CB75">
-        <v>21990.38</v>
+        <v>26295.04</v>
       </c>
       <c r="CC75" t="s">
         <v>290</v>
@@ -19982,10 +19982,10 @@
         <v>57585</v>
       </c>
       <c r="AQ76">
-        <v>48932.3</v>
+        <v>42007.82</v>
       </c>
       <c r="AR76">
-        <v>35176.01</v>
+        <v>32325.57</v>
       </c>
       <c r="AS76" t="s">
         <v>290</v>
@@ -19994,10 +19994,10 @@
         <v>57585</v>
       </c>
       <c r="AU76">
-        <v>52197.91</v>
+        <v>50499.1</v>
       </c>
       <c r="AV76">
-        <v>41420.88</v>
+        <v>39617.36</v>
       </c>
       <c r="AW76" t="s">
         <v>290</v>
@@ -20006,10 +20006,10 @@
         <v>57585</v>
       </c>
       <c r="AY76">
-        <v>39671.16</v>
+        <v>44987.03</v>
       </c>
       <c r="AZ76">
-        <v>34014.11</v>
+        <v>35031.16</v>
       </c>
       <c r="BA76" t="s">
         <v>290</v>
@@ -20018,10 +20018,10 @@
         <v>57585</v>
       </c>
       <c r="BC76">
-        <v>45386.09</v>
+        <v>46629.81</v>
       </c>
       <c r="BD76">
-        <v>27341.97</v>
+        <v>41740.39</v>
       </c>
       <c r="BE76" t="s">
         <v>290</v>
@@ -20030,10 +20030,10 @@
         <v>57585</v>
       </c>
       <c r="BG76">
-        <v>36899.98</v>
+        <v>42794.35</v>
       </c>
       <c r="BH76">
-        <v>30328.2</v>
+        <v>29722.84</v>
       </c>
       <c r="BI76" t="s">
         <v>708</v>
@@ -20042,10 +20042,10 @@
         <v>15000</v>
       </c>
       <c r="BK76">
-        <v>9330.27</v>
+        <v>12288.75</v>
       </c>
       <c r="BL76">
-        <v>7584.28</v>
+        <v>9797.360000000001</v>
       </c>
       <c r="BM76" t="s">
         <v>739</v>
@@ -20054,10 +20054,10 @@
         <v>15000</v>
       </c>
       <c r="BO76">
-        <v>9781.450000000001</v>
+        <v>11866.06</v>
       </c>
       <c r="BP76">
-        <v>6117.24</v>
+        <v>9268.309999999999</v>
       </c>
       <c r="BQ76" t="s">
         <v>762</v>
@@ -20066,10 +20066,10 @@
         <v>15000</v>
       </c>
       <c r="BS76">
-        <v>13420.63</v>
+        <v>11766.7</v>
       </c>
       <c r="BT76">
-        <v>8309.459999999999</v>
+        <v>10711.43</v>
       </c>
       <c r="BU76" t="s">
         <v>290</v>
@@ -20078,10 +20078,10 @@
         <v>15000</v>
       </c>
       <c r="BW76">
-        <v>11540.57</v>
+        <v>11604.06</v>
       </c>
       <c r="BX76">
-        <v>10220.16</v>
+        <v>10162.29</v>
       </c>
       <c r="BY76" t="s">
         <v>290</v>
@@ -20090,10 +20090,10 @@
         <v>15000</v>
       </c>
       <c r="CA76">
-        <v>13537.21</v>
+        <v>10969.91</v>
       </c>
       <c r="CB76">
-        <v>12526.84</v>
+        <v>10280.63</v>
       </c>
       <c r="CC76" t="s">
         <v>290</v>
@@ -20215,10 +20215,10 @@
         <v>271827</v>
       </c>
       <c r="AQ77">
-        <v>192520.94</v>
+        <v>214354.63</v>
       </c>
       <c r="AR77">
-        <v>148399.57</v>
+        <v>177077.58</v>
       </c>
       <c r="AS77" t="s">
         <v>290</v>
@@ -20227,10 +20227,10 @@
         <v>271827</v>
       </c>
       <c r="AU77">
-        <v>204032.2</v>
+        <v>228118.17</v>
       </c>
       <c r="AV77">
-        <v>139375.21</v>
+        <v>169967.42</v>
       </c>
       <c r="AW77" t="s">
         <v>290</v>
@@ -20239,10 +20239,10 @@
         <v>271827</v>
       </c>
       <c r="AY77">
-        <v>250287.07</v>
+        <v>178288.32</v>
       </c>
       <c r="AZ77">
-        <v>163764.03</v>
+        <v>161137.76</v>
       </c>
       <c r="BA77" t="s">
         <v>290</v>
@@ -20251,10 +20251,10 @@
         <v>271827</v>
       </c>
       <c r="BC77">
-        <v>243366.33</v>
+        <v>179598.9</v>
       </c>
       <c r="BD77">
-        <v>163153.77</v>
+        <v>150383.14</v>
       </c>
       <c r="BE77" t="s">
         <v>290</v>
@@ -20263,10 +20263,10 @@
         <v>271827</v>
       </c>
       <c r="BG77">
-        <v>248409.87</v>
+        <v>205930.3</v>
       </c>
       <c r="BH77">
-        <v>190088.91</v>
+        <v>180304.54</v>
       </c>
       <c r="BI77" t="s">
         <v>290</v>
@@ -20275,10 +20275,10 @@
         <v>271827</v>
       </c>
       <c r="BK77">
-        <v>181091.61</v>
+        <v>184996.74</v>
       </c>
       <c r="BL77">
-        <v>114463.28</v>
+        <v>146003.62</v>
       </c>
       <c r="BM77" t="s">
         <v>740</v>
@@ -20287,10 +20287,10 @@
         <v>271827</v>
       </c>
       <c r="BO77">
-        <v>190046.68</v>
+        <v>207975.01</v>
       </c>
       <c r="BP77">
-        <v>148891.77</v>
+        <v>164386.3</v>
       </c>
       <c r="BQ77" t="s">
         <v>290</v>
@@ -20299,10 +20299,10 @@
         <v>271827</v>
       </c>
       <c r="BS77">
-        <v>221074.54</v>
+        <v>215997.35</v>
       </c>
       <c r="BT77">
-        <v>191701.5</v>
+        <v>157845.96</v>
       </c>
       <c r="BU77" t="s">
         <v>290</v>
@@ -20311,10 +20311,10 @@
         <v>271827</v>
       </c>
       <c r="BW77">
-        <v>202126.51</v>
+        <v>236426.14</v>
       </c>
       <c r="BX77">
-        <v>184281.3</v>
+        <v>177641.54</v>
       </c>
       <c r="BY77" t="s">
         <v>290</v>
@@ -20323,10 +20323,10 @@
         <v>271827</v>
       </c>
       <c r="CA77">
-        <v>163307.74</v>
+        <v>182731.67</v>
       </c>
       <c r="CB77">
-        <v>150208.39</v>
+        <v>143747.32</v>
       </c>
       <c r="CC77" t="s">
         <v>290</v>
@@ -20448,10 +20448,10 @@
         <v>427737</v>
       </c>
       <c r="AQ78">
-        <v>259816.03</v>
+        <v>334559.44</v>
       </c>
       <c r="AR78">
-        <v>200545.68</v>
+        <v>281505.53</v>
       </c>
       <c r="AS78" t="s">
         <v>290</v>
@@ -20460,10 +20460,10 @@
         <v>427737</v>
       </c>
       <c r="AU78">
-        <v>345715.85</v>
+        <v>357259.46</v>
       </c>
       <c r="AV78">
-        <v>290981.64</v>
+        <v>292860.52</v>
       </c>
       <c r="AW78" t="s">
         <v>290</v>
@@ -20472,10 +20472,10 @@
         <v>427737</v>
       </c>
       <c r="AY78">
-        <v>290238.73</v>
+        <v>345323.06</v>
       </c>
       <c r="AZ78">
-        <v>218995.56</v>
+        <v>248506.94</v>
       </c>
       <c r="BA78" t="s">
         <v>290</v>
@@ -20484,10 +20484,10 @@
         <v>427737</v>
       </c>
       <c r="BC78">
-        <v>291247.88</v>
+        <v>339100.69</v>
       </c>
       <c r="BD78">
-        <v>240800.97</v>
+        <v>322145.66</v>
       </c>
       <c r="BE78" t="s">
         <v>690</v>
@@ -20496,10 +20496,10 @@
         <v>598561</v>
       </c>
       <c r="BG78">
-        <v>519309.75</v>
+        <v>508164.19</v>
       </c>
       <c r="BH78">
-        <v>427118.87</v>
+        <v>471609.18</v>
       </c>
       <c r="BI78" t="s">
         <v>709</v>
@@ -20508,10 +20508,10 @@
         <v>466512</v>
       </c>
       <c r="BK78">
-        <v>337866.67</v>
+        <v>443186.4</v>
       </c>
       <c r="BL78">
-        <v>281586.47</v>
+        <v>386738.82</v>
       </c>
       <c r="BM78" t="s">
         <v>290</v>
@@ -20520,10 +20520,10 @@
         <v>466512</v>
       </c>
       <c r="BO78">
-        <v>308146.48</v>
+        <v>376060.6</v>
       </c>
       <c r="BP78">
-        <v>289596.29</v>
+        <v>292425.17</v>
       </c>
       <c r="BQ78" t="s">
         <v>290</v>
@@ -20532,10 +20532,10 @@
         <v>466512</v>
       </c>
       <c r="BS78">
-        <v>407343.65</v>
+        <v>420030.63</v>
       </c>
       <c r="BT78">
-        <v>337604.37</v>
+        <v>288706.2</v>
       </c>
       <c r="BU78" t="s">
         <v>290</v>
@@ -20544,10 +20544,10 @@
         <v>466512</v>
       </c>
       <c r="BW78">
-        <v>299440.3</v>
+        <v>366889.05</v>
       </c>
       <c r="BX78">
-        <v>189510.32</v>
+        <v>276310.15</v>
       </c>
       <c r="BY78" t="s">
         <v>290</v>
@@ -20556,10 +20556,10 @@
         <v>466512</v>
       </c>
       <c r="CA78">
-        <v>415300.25</v>
+        <v>394251.31</v>
       </c>
       <c r="CB78">
-        <v>383257.52</v>
+        <v>338039.53</v>
       </c>
       <c r="CC78" t="s">
         <v>290</v>
@@ -20684,10 +20684,10 @@
         <v>50000</v>
       </c>
       <c r="AQ79">
-        <v>47325.33</v>
+        <v>38230.57</v>
       </c>
       <c r="AR79">
-        <v>41635.5</v>
+        <v>33465.62</v>
       </c>
       <c r="AS79" t="s">
         <v>290</v>
@@ -20696,10 +20696,10 @@
         <v>50000</v>
       </c>
       <c r="AU79">
-        <v>42060.7</v>
+        <v>35757.81</v>
       </c>
       <c r="AV79">
-        <v>25331.17</v>
+        <v>29133.71</v>
       </c>
       <c r="AW79" t="s">
         <v>290</v>
@@ -20708,10 +20708,10 @@
         <v>50000</v>
       </c>
       <c r="AY79">
-        <v>43095.29</v>
+        <v>45682.38</v>
       </c>
       <c r="AZ79">
-        <v>35792.53</v>
+        <v>35363.18</v>
       </c>
       <c r="BA79" t="s">
         <v>290</v>
@@ -20720,10 +20720,10 @@
         <v>50000</v>
       </c>
       <c r="BC79">
-        <v>38360.65</v>
+        <v>47500</v>
       </c>
       <c r="BD79">
-        <v>30729.49</v>
+        <v>32526.19</v>
       </c>
       <c r="BE79" t="s">
         <v>290</v>
@@ -20732,10 +20732,10 @@
         <v>50000</v>
       </c>
       <c r="BG79">
-        <v>30053.62</v>
+        <v>34522.03</v>
       </c>
       <c r="BH79">
-        <v>19315.45</v>
+        <v>28351.99</v>
       </c>
       <c r="BI79" t="s">
         <v>290</v>
@@ -20744,10 +20744,10 @@
         <v>50000</v>
       </c>
       <c r="BK79">
-        <v>32118.43</v>
+        <v>40709.03</v>
       </c>
       <c r="BL79">
-        <v>24618.59</v>
+        <v>31708.76</v>
       </c>
       <c r="BM79" t="s">
         <v>290</v>
@@ -20756,10 +20756,10 @@
         <v>50000</v>
       </c>
       <c r="BO79">
-        <v>42229.53</v>
+        <v>34012.76</v>
       </c>
       <c r="BP79">
-        <v>33961.08</v>
+        <v>26191.83</v>
       </c>
       <c r="BQ79" t="s">
         <v>290</v>
@@ -20768,10 +20768,10 @@
         <v>150000</v>
       </c>
       <c r="BS79">
-        <v>124271.79</v>
+        <v>114608.12</v>
       </c>
       <c r="BT79">
-        <v>95183.75999999999</v>
+        <v>90679.47</v>
       </c>
       <c r="BU79" t="s">
         <v>290</v>
@@ -20780,10 +20780,10 @@
         <v>53850.5</v>
       </c>
       <c r="BW79">
-        <v>44668.75</v>
+        <v>39689.61</v>
       </c>
       <c r="BX79">
-        <v>32893.94</v>
+        <v>33939.7</v>
       </c>
       <c r="BY79" t="s">
         <v>290</v>
@@ -20792,10 +20792,10 @@
         <v>53850.5</v>
       </c>
       <c r="CA79">
-        <v>35644.12</v>
+        <v>45032.83</v>
       </c>
       <c r="CB79">
-        <v>31085.39</v>
+        <v>40026.92</v>
       </c>
       <c r="CC79" t="s">
         <v>290</v>
